--- a/Luban/Config/Datas/Root/EventConfig.xlsx
+++ b/Luban/Config/Datas/Root/EventConfig.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Game\Roots\Luban\Config\Datas\Root\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Game\RootsPinkShark\Luban\Config\Datas\Root\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2202F4E2-28B2-407F-9FC3-C67A7D08C692}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAFD8955-F56A-4E08-AECA-83430BAA2BDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="384" windowWidth="17280" windowHeight="8964" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7410" yWindow="2190" windowWidth="21600" windowHeight="11325" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Event" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="55">
   <si>
     <t>##</t>
   </si>
@@ -235,10 +235,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>EventCondition</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>事件出现条件</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -247,11 +243,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>list,SpecificLimit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>list,AttrLimit</t>
+    <t>EventConditionName</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -594,9 +586,9 @@
       <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -634,7 +626,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -672,7 +664,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -720,18 +712,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CF7FC9E-1911-4063-8600-A529D48BB6E9}">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C1" t="s">
         <v>45</v>
@@ -740,7 +732,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -754,12 +746,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C3" t="s">
         <v>47</v>
@@ -779,12 +771,12 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -810,7 +802,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -821,13 +813,13 @@
         <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="E2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="F2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G2" t="s">
         <v>23</v>
@@ -836,7 +828,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -872,13 +864,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5E07438-828D-4559-A9CD-524CF68240CF}">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -892,7 +884,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -906,7 +898,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>0</v>
       </c>

--- a/Luban/Config/Datas/Root/EventConfig.xlsx
+++ b/Luban/Config/Datas/Root/EventConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Game\RootsPinkShark\Luban\Config\Datas\Root\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAFD8955-F56A-4E08-AECA-83430BAA2BDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6EC1F06-0A1C-4DE3-A478-8ED550C9019F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7410" yWindow="2190" windowWidth="21600" windowHeight="11325" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4230" yWindow="3630" windowWidth="21600" windowHeight="11325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Event" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="65">
   <si>
     <t>##</t>
   </si>
@@ -116,10 +116,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>list,EventOption</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>list, EventEffect</t>
   </si>
   <si>
@@ -244,6 +240,50 @@
   </si>
   <si>
     <t>EventConditionName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成长k</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你获得了成长</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Normal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Age</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Young</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Growth,(1,0,0)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结婚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你找到了配偶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Adult</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Marry</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(list#sep=;),EventOption</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -580,10 +620,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:L5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -617,7 +657,7 @@
         <v>19</v>
       </c>
       <c r="J1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K1" t="s">
         <v>20</v>
@@ -655,13 +695,13 @@
         <v>12</v>
       </c>
       <c r="J2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K2" t="s">
-        <v>22</v>
+        <v>64</v>
       </c>
       <c r="L2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
@@ -690,16 +730,80 @@
         <v>16</v>
       </c>
       <c r="I3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L3" t="s">
-        <v>40</v>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4" t="b">
+        <v>0</v>
+      </c>
+      <c r="H4" t="b">
+        <v>0</v>
+      </c>
+      <c r="I4" t="b">
+        <v>0</v>
+      </c>
+      <c r="J4" t="s">
+        <v>58</v>
+      </c>
+      <c r="L4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5" t="b">
+        <v>1</v>
+      </c>
+      <c r="H5" t="b">
+        <v>0</v>
+      </c>
+      <c r="I5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J5" t="s">
+        <v>62</v>
+      </c>
+      <c r="L5" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -710,10 +814,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CF7FC9E-1911-4063-8600-A529D48BB6E9}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -723,13 +827,13 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" t="s">
         <v>45</v>
-      </c>
-      <c r="D1" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -751,13 +855,24 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D3" t="s">
         <v>47</v>
       </c>
-      <c r="D3" t="s">
-        <v>48</v>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C4">
+        <v>10</v>
+      </c>
+      <c r="D4">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -771,7 +886,7 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -781,25 +896,25 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" t="s">
         <v>26</v>
       </c>
-      <c r="C1" t="s">
-        <v>27</v>
-      </c>
       <c r="D1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
@@ -813,19 +928,19 @@
         <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
@@ -833,25 +948,25 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" t="s">
         <v>28</v>
       </c>
-      <c r="C3" t="s">
-        <v>29</v>
-      </c>
       <c r="D3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H3" t="s">
         <v>38</v>
-      </c>
-      <c r="H3" t="s">
-        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -875,13 +990,13 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" t="s">
         <v>45</v>
-      </c>
-      <c r="D1" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -889,7 +1004,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C2" t="s">
         <v>3</v>
@@ -903,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D3" t="s">
         <v>47</v>
-      </c>
-      <c r="D3" t="s">
-        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/Luban/Config/Datas/Root/EventConfig.xlsx
+++ b/Luban/Config/Datas/Root/EventConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Game\RootsPinkShark\Luban\Config\Datas\Root\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6EC1F06-0A1C-4DE3-A478-8ED550C9019F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D73E736B-FC67-4FE9-92D2-C098B712A6AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4230" yWindow="3630" windowWidth="21600" windowHeight="11325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Event" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="66">
   <si>
     <t>##</t>
   </si>
@@ -119,10 +119,6 @@
     <t>list, EventEffect</t>
   </si>
   <si>
-    <t>list, EventEffect</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>是否是可交互事件</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -259,14 +255,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Young</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Growth,(1,0,0)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>结婚</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -275,15 +263,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Adult</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Marry</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>(list#sep=;),EventOption</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Adult,0,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(list#sep=;),EventCondition#sep=,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>young,0,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(list#sep=;), EventEffect#sep=,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MARRY,0,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GROWTH,1,0;GROWTH,1,1;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -623,7 +627,7 @@
   <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -657,7 +661,7 @@
         <v>19</v>
       </c>
       <c r="J1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K1" t="s">
         <v>20</v>
@@ -695,13 +699,13 @@
         <v>12</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="K2" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="L2" t="s">
-        <v>23</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
@@ -730,27 +734,27 @@
         <v>16</v>
       </c>
       <c r="I3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4" t="s">
         <v>54</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>55</v>
-      </c>
-      <c r="D4" t="s">
-        <v>56</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -768,21 +772,21 @@
         <v>0</v>
       </c>
       <c r="J4" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="L4" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C5" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -800,10 +804,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="L5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -827,13 +831,13 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1" t="s">
         <v>44</v>
-      </c>
-      <c r="D1" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -855,18 +859,18 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D3" t="s">
         <v>46</v>
-      </c>
-      <c r="D3" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C4">
         <v>10</v>
@@ -886,7 +890,7 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -896,25 +900,25 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" t="s">
         <v>25</v>
       </c>
-      <c r="C1" t="s">
-        <v>26</v>
-      </c>
       <c r="D1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
@@ -928,13 +932,13 @@
         <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G2" t="s">
         <v>22</v>
@@ -948,25 +952,25 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" t="s">
         <v>27</v>
       </c>
-      <c r="C3" t="s">
-        <v>28</v>
-      </c>
       <c r="D3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H3" t="s">
         <v>37</v>
-      </c>
-      <c r="H3" t="s">
-        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -990,13 +994,13 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1" t="s">
         <v>44</v>
-      </c>
-      <c r="D1" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -1004,7 +1008,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C2" t="s">
         <v>3</v>
@@ -1018,13 +1022,13 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D3" t="s">
         <v>46</v>
-      </c>
-      <c r="D3" t="s">
-        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/Luban/Config/Datas/Root/EventConfig.xlsx
+++ b/Luban/Config/Datas/Root/EventConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Game\RootsPinkShark\Luban\Config\Datas\Root\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D73E736B-FC67-4FE9-92D2-C098B712A6AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA3EBE59-AEBA-4C22-9575-1275DB692E26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6915" yWindow="2850" windowWidth="21600" windowHeight="11325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Event" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="87">
   <si>
     <t>##</t>
   </si>
@@ -251,10 +251,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Age</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>结婚</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -288,6 +284,92 @@
   </si>
   <si>
     <t>GROWTH,1,0;GROWTH,1,1;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>佳偶天成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>意外身故</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>痛失爱子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>明镜高悬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IsOnBase</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否在初始事件库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>偶得机缘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初窥门径</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登堂入室</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>富甲一方</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小有进财</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你找到了配偶</t>
+  </si>
+  <si>
+    <t>DIE,0,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADD_RESOURCE,0,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DIE_SON,0,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AGE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HAS_CHILDREN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADD_MONEY,100,0</t>
+  </si>
+  <si>
+    <t>ADD_MONEY,100,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADD_MONEY,10,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADD_CURR_EVENT,11,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADD_CURR_EVENT,14,1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -624,15 +706,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:M14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -669,8 +751,11 @@
       <c r="L1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -699,16 +784,19 @@
         <v>12</v>
       </c>
       <c r="J2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+        <v>62</v>
+      </c>
+      <c r="M2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -745,8 +833,11 @@
       <c r="L3" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>53</v>
       </c>
@@ -772,18 +863,21 @@
         <v>0</v>
       </c>
       <c r="J4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L4" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+        <v>64</v>
+      </c>
+      <c r="M4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C5" t="s">
         <v>57</v>
-      </c>
-      <c r="C5" t="s">
-        <v>58</v>
       </c>
       <c r="D5" t="s">
         <v>55</v>
@@ -804,10 +898,301 @@
         <v>0</v>
       </c>
       <c r="J5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L5" t="s">
-        <v>64</v>
+        <v>63</v>
+      </c>
+      <c r="M5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C6" t="s">
+        <v>76</v>
+      </c>
+      <c r="D6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6" t="b">
+        <v>1</v>
+      </c>
+      <c r="H6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I6" t="b">
+        <v>0</v>
+      </c>
+      <c r="L6" t="s">
+        <v>63</v>
+      </c>
+      <c r="M6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C7" t="s">
+        <v>76</v>
+      </c>
+      <c r="D7" t="s">
+        <v>55</v>
+      </c>
+      <c r="E7">
+        <v>4</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7" t="b">
+        <v>1</v>
+      </c>
+      <c r="H7" t="b">
+        <v>0</v>
+      </c>
+      <c r="I7" t="b">
+        <v>0</v>
+      </c>
+      <c r="L7" t="s">
+        <v>77</v>
+      </c>
+      <c r="M7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C8" t="s">
+        <v>76</v>
+      </c>
+      <c r="D8" t="s">
+        <v>55</v>
+      </c>
+      <c r="E8">
+        <v>5</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8" t="b">
+        <v>0</v>
+      </c>
+      <c r="H8" t="b">
+        <v>0</v>
+      </c>
+      <c r="I8" t="b">
+        <v>0</v>
+      </c>
+      <c r="L8" t="s">
+        <v>79</v>
+      </c>
+      <c r="M8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>68</v>
+      </c>
+      <c r="C9" t="s">
+        <v>76</v>
+      </c>
+      <c r="D9" t="s">
+        <v>55</v>
+      </c>
+      <c r="E9">
+        <v>6</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9" t="b">
+        <v>1</v>
+      </c>
+      <c r="H9" t="b">
+        <v>0</v>
+      </c>
+      <c r="I9" t="b">
+        <v>0</v>
+      </c>
+      <c r="L9" t="s">
+        <v>78</v>
+      </c>
+      <c r="M9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>71</v>
+      </c>
+      <c r="C10" t="s">
+        <v>76</v>
+      </c>
+      <c r="D10" t="s">
+        <v>55</v>
+      </c>
+      <c r="E10">
+        <v>7</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10" t="b">
+        <v>0</v>
+      </c>
+      <c r="H10" t="b">
+        <v>0</v>
+      </c>
+      <c r="I10" t="b">
+        <v>0</v>
+      </c>
+      <c r="L10" t="s">
+        <v>85</v>
+      </c>
+      <c r="M10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>72</v>
+      </c>
+      <c r="C11" t="s">
+        <v>76</v>
+      </c>
+      <c r="D11" t="s">
+        <v>55</v>
+      </c>
+      <c r="E11">
+        <v>8</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11" t="b">
+        <v>0</v>
+      </c>
+      <c r="H11" t="b">
+        <v>0</v>
+      </c>
+      <c r="I11" t="b">
+        <v>0</v>
+      </c>
+      <c r="L11" t="s">
+        <v>86</v>
+      </c>
+      <c r="M11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>73</v>
+      </c>
+      <c r="C12" t="s">
+        <v>76</v>
+      </c>
+      <c r="D12" t="s">
+        <v>55</v>
+      </c>
+      <c r="E12">
+        <v>9</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12" t="b">
+        <v>0</v>
+      </c>
+      <c r="H12" t="b">
+        <v>0</v>
+      </c>
+      <c r="I12" t="b">
+        <v>0</v>
+      </c>
+      <c r="L12" t="s">
+        <v>82</v>
+      </c>
+      <c r="M12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
+        <v>75</v>
+      </c>
+      <c r="C13" t="s">
+        <v>76</v>
+      </c>
+      <c r="D13" t="s">
+        <v>55</v>
+      </c>
+      <c r="E13">
+        <v>10</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13" t="b">
+        <v>0</v>
+      </c>
+      <c r="H13" t="b">
+        <v>0</v>
+      </c>
+      <c r="I13" t="b">
+        <v>0</v>
+      </c>
+      <c r="L13" t="s">
+        <v>84</v>
+      </c>
+      <c r="M13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
+        <v>74</v>
+      </c>
+      <c r="C14" t="s">
+        <v>76</v>
+      </c>
+      <c r="D14" t="s">
+        <v>55</v>
+      </c>
+      <c r="E14">
+        <v>11</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14" t="b">
+        <v>0</v>
+      </c>
+      <c r="H14" t="b">
+        <v>0</v>
+      </c>
+      <c r="I14" t="b">
+        <v>0</v>
+      </c>
+      <c r="L14" t="s">
+        <v>83</v>
+      </c>
+      <c r="M14" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -818,10 +1203,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CF7FC9E-1911-4063-8600-A529D48BB6E9}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -870,13 +1255,24 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>56</v>
+        <v>80</v>
       </c>
       <c r="C4">
         <v>10</v>
       </c>
       <c r="D4">
         <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -984,7 +1380,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/Luban/Config/Datas/Root/EventConfig.xlsx
+++ b/Luban/Config/Datas/Root/EventConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Game\RootsPinkShark\Luban\Config\Datas\Root\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA3EBE59-AEBA-4C22-9575-1275DB692E26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2B1179A-3F51-4185-A765-5982D35311D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6915" yWindow="2850" windowWidth="21600" windowHeight="11325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1275" yWindow="1230" windowWidth="21600" windowHeight="11325" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Event" sheetId="1" r:id="rId1"/>
@@ -708,8 +708,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1205,8 +1205,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CF7FC9E-1911-4063-8600-A529D48BB6E9}">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1286,7 +1286,7 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1380,7 +1380,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/Luban/Config/Datas/Root/EventConfig.xlsx
+++ b/Luban/Config/Datas/Root/EventConfig.xlsx
@@ -8,15 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Game\RootsPinkShark\Luban\Config\Datas\Root\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2B1179A-3F51-4185-A765-5982D35311D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89133969-F99F-43C7-9B11-E3C07A448868}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1275" yWindow="1230" windowWidth="21600" windowHeight="11325" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="540" yWindow="5160" windowWidth="21600" windowHeight="10155" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Event" sheetId="1" r:id="rId1"/>
     <sheet name="EventCondition" sheetId="4" r:id="rId2"/>
     <sheet name="EventOption" sheetId="2" r:id="rId3"/>
-    <sheet name="EventEffect" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="105">
   <si>
     <t>##</t>
   </si>
@@ -116,25 +115,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>list, EventEffect</t>
-  </si>
-  <si>
     <t>是否是可交互事件</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>EventOptionName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>EventOptionDesc</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>选项名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>选项描述</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -163,10 +151,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>OptionLoseEffect</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>OptionWinEffect</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -175,10 +159,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>失败效果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>事件结果（非交互事件才需要）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -187,18 +167,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>EventEffectType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EffectType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>效果类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Para1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -219,10 +187,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>list,EventCondition</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>出现条件</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -231,10 +195,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>list,ResourceType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>EventConditionName</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -259,22 +219,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>(list#sep=;),EventOption</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Adult,0,0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>(list#sep=;),EventCondition#sep=,</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>young,0,0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>(list#sep=;), EventEffect#sep=,</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -346,10 +294,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>AGE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>HAS_CHILDREN</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -370,6 +314,134 @@
   </si>
   <si>
     <t>ADD_CURR_EVENT,14,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>路障</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>路上遇到了一块巨石挡路</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仙人指路</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仙人告知了你天地仅存的一处洞天福地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>触发了仙缘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>THIS_HAVEDONE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ALL_HAVEDONE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ALL_HAVEDONE,11,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选项id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>利用灵力催发冲击，破坏石头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EventOptionid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1;2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浑身包裹鬼气穿过石头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ATTRIMINNEED</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OptionDES</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成功效果说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HAVETAG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AGEBETWEEN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HAVERES</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ATTRIMINNEED,1,5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ATTRIMINNEED,5,2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADD_RESOURCE,0,1;ADD_RESOURCE,1,1;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用灵力震碎了石头，意外获得了几块金币</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GROWTH,3,1;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>隐约瞧见了石头的内壁上写了文字，一股记忆传入脑海</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(list#sep=;), EventCondition#sep=,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(list#sep=;),int#ref=TbEventOption</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EffectCondition</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AGEBETWEEN,0,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AGEBETWEEN,10,20;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(list#sep=,),ResourceType</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -401,12 +473,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -421,10 +499,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -706,13 +795,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M14"/>
+  <dimension ref="A1:M16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="36.5" customWidth="1"/>
+    <col min="4" max="4" width="16.75" customWidth="1"/>
+    <col min="5" max="5" width="8.375" customWidth="1"/>
+    <col min="6" max="6" width="13.875" customWidth="1"/>
+    <col min="7" max="7" width="14.375" customWidth="1"/>
+    <col min="8" max="8" width="13.75" customWidth="1"/>
+    <col min="9" max="9" width="17.875" customWidth="1"/>
+    <col min="10" max="10" width="19.25" customWidth="1"/>
+    <col min="11" max="11" width="24.625" customWidth="1"/>
+    <col min="12" max="12" width="32.125" customWidth="1"/>
+    <col min="13" max="13" width="18.875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -743,7 +845,7 @@
         <v>19</v>
       </c>
       <c r="J1" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="K1" t="s">
         <v>20</v>
@@ -752,7 +854,7 @@
         <v>21</v>
       </c>
       <c r="M1" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
@@ -784,13 +886,13 @@
         <v>12</v>
       </c>
       <c r="J2" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="K2" t="s">
-        <v>58</v>
+        <v>100</v>
       </c>
       <c r="L2" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="M2" t="s">
         <v>12</v>
@@ -822,30 +924,30 @@
         <v>16</v>
       </c>
       <c r="I3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J3" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="K3" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="L3" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="M3" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="C4" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="D4" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -863,10 +965,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="s">
-        <v>61</v>
+        <v>102</v>
       </c>
       <c r="L4" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="M4" t="b">
         <v>1</v>
@@ -874,13 +976,13 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="C5" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="D5" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -898,10 +1000,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="s">
-        <v>59</v>
+        <v>102</v>
       </c>
       <c r="L5" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="M5" t="b">
         <v>1</v>
@@ -909,13 +1011,13 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="C6" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="D6" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -932,8 +1034,11 @@
       <c r="I6" t="b">
         <v>0</v>
       </c>
+      <c r="J6" t="s">
+        <v>103</v>
+      </c>
       <c r="L6" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="M6" t="b">
         <v>1</v>
@@ -941,13 +1046,13 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="C7" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="D7" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="E7">
         <v>4</v>
@@ -965,7 +1070,7 @@
         <v>0</v>
       </c>
       <c r="L7" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="M7" t="b">
         <v>1</v>
@@ -973,13 +1078,13 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="C8" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="D8" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="E8">
         <v>5</v>
@@ -997,7 +1102,7 @@
         <v>0</v>
       </c>
       <c r="L8" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="M8" t="b">
         <v>1</v>
@@ -1005,13 +1110,13 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="C9" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="D9" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="E9">
         <v>6</v>
@@ -1029,7 +1134,7 @@
         <v>0</v>
       </c>
       <c r="L9" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="M9" t="b">
         <v>1</v>
@@ -1037,13 +1142,13 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="C10" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="D10" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="E10">
         <v>7</v>
@@ -1061,21 +1166,21 @@
         <v>0</v>
       </c>
       <c r="L10" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="M10" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="C11" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D11" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="E11">
         <v>8</v>
@@ -1093,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="L11" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="M11" t="b">
         <v>0</v>
@@ -1101,13 +1206,13 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="C12" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="D12" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="E12">
         <v>9</v>
@@ -1125,7 +1230,7 @@
         <v>0</v>
       </c>
       <c r="L12" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="M12" t="b">
         <v>1</v>
@@ -1133,13 +1238,13 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="C13" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="D13" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="E13">
         <v>10</v>
@@ -1157,7 +1262,7 @@
         <v>0</v>
       </c>
       <c r="L13" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="M13" t="b">
         <v>1</v>
@@ -1165,13 +1270,13 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="C14" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="D14" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="E14">
         <v>11</v>
@@ -1189,9 +1294,77 @@
         <v>0</v>
       </c>
       <c r="L14" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="M14" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>73</v>
+      </c>
+      <c r="C15" t="s">
+        <v>74</v>
+      </c>
+      <c r="D15" t="s">
+        <v>45</v>
+      </c>
+      <c r="E15">
+        <v>12</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15" t="b">
+        <v>1</v>
+      </c>
+      <c r="H15" t="b">
+        <v>0</v>
+      </c>
+      <c r="I15" t="b">
+        <v>1</v>
+      </c>
+      <c r="K15" t="s">
+        <v>84</v>
+      </c>
+      <c r="L15" s="2"/>
+      <c r="M15" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
+        <v>75</v>
+      </c>
+      <c r="C16" t="s">
+        <v>76</v>
+      </c>
+      <c r="D16" t="s">
+        <v>45</v>
+      </c>
+      <c r="E16">
+        <v>13</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16" t="b">
+        <v>1</v>
+      </c>
+      <c r="H16" t="b">
+        <v>1</v>
+      </c>
+      <c r="I16" t="b">
+        <v>0</v>
+      </c>
+      <c r="J16" t="s">
+        <v>80</v>
+      </c>
+      <c r="L16" t="s">
+        <v>65</v>
+      </c>
+      <c r="M16" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1203,34 +1376,43 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CF7FC9E-1911-4063-8600-A529D48BB6E9}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="23.875" customWidth="1"/>
+    <col min="3" max="3" width="13.75" customWidth="1"/>
+    <col min="4" max="4" width="11.5" customWidth="1"/>
+    <col min="5" max="5" width="19.25" customWidth="1"/>
+    <col min="6" max="6" width="9.75" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="C1" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="D1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>2</v>
+        <v>101</v>
       </c>
       <c r="C2" t="s">
         <v>3</v>
@@ -1238,40 +1420,97 @@
       <c r="D2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="C3" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="D3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="C4">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>78</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>79</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>86</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>90</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B10" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
         <v>0</v>
       </c>
     </row>
@@ -1283,148 +1522,140 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10D8AFCC-95AF-4A6B-815E-C005352AB991}">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="17.625" customWidth="1"/>
+    <col min="3" max="3" width="14" customWidth="1"/>
+    <col min="4" max="4" width="17.75" customWidth="1"/>
+    <col min="5" max="5" width="26.125" customWidth="1"/>
+    <col min="6" max="6" width="19.5" customWidth="1"/>
+    <col min="7" max="7" width="26.375" customWidth="1"/>
+    <col min="8" max="8" width="18.5" customWidth="1"/>
+    <col min="9" max="9" width="21.5" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>24</v>
+      <c r="B1" s="4" t="s">
+        <v>83</v>
       </c>
       <c r="C1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" t="s">
         <v>25</v>
       </c>
-      <c r="D1" t="s">
-        <v>28</v>
-      </c>
       <c r="E1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G1" t="s">
-        <v>35</v>
-      </c>
-      <c r="H1" t="s">
-        <v>34</v>
+        <v>31</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>2</v>
+      <c r="B2" s="5" t="s">
+        <v>3</v>
       </c>
       <c r="C2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E2" t="s">
-        <v>48</v>
+      <c r="D2" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>99</v>
       </c>
       <c r="F2" t="s">
-        <v>51</v>
-      </c>
-      <c r="G2" t="s">
-        <v>22</v>
-      </c>
-      <c r="H2" t="s">
-        <v>22</v>
+        <v>104</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>0</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" t="s">
         <v>26</v>
       </c>
-      <c r="C3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D3" t="s">
-        <v>29</v>
-      </c>
       <c r="E3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5E07438-828D-4559-A9CD-524CF68240CF}">
-  <dimension ref="A1:D3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D3" t="s">
-        <v>46</v>
+        <v>89</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B4" s="6">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>82</v>
+      </c>
+      <c r="E4" t="s">
+        <v>93</v>
+      </c>
+      <c r="F4" t="s">
+        <v>87</v>
+      </c>
+      <c r="G4" t="s">
+        <v>95</v>
+      </c>
+      <c r="H4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B5" s="6">
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>85</v>
+      </c>
+      <c r="E5" t="s">
+        <v>94</v>
+      </c>
+      <c r="F5" t="s">
+        <v>87</v>
+      </c>
+      <c r="G5" t="s">
+        <v>97</v>
+      </c>
+      <c r="H5" t="s">
+        <v>98</v>
       </c>
     </row>
   </sheetData>

--- a/Luban/Config/Datas/Root/EventConfig.xlsx
+++ b/Luban/Config/Datas/Root/EventConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Game\RootsPinkShark\Luban\Config\Datas\Root\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89133969-F99F-43C7-9B11-E3C07A448868}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{358DA0D0-1D9D-4DE4-9916-465E999B4BAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="540" yWindow="5160" windowWidth="21600" windowHeight="10155" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3210" yWindow="3795" windowWidth="21600" windowHeight="10155" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Event" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="114">
   <si>
     <t>##</t>
   </si>
@@ -279,17 +279,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>你找到了配偶</t>
-  </si>
-  <si>
     <t>DIE,0,0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ADD_RESOURCE,0,0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>DIE_SON,0,0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -433,15 +426,59 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>AGEBETWEEN,0,0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>AGEBETWEEN,10,20;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>(list#sep=,),ResourceType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你获得了一个宝贝~</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADD_RESOURCE,1,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你找到了很棒的配偶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你死了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你儿子死了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你白了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你得到了机缘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你读书很厉害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你赚了点小钱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你赚了很多</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MARRY,0,0;TAGACTIVE,1,0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -795,10 +832,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M16"/>
+  <dimension ref="A1:M17"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -889,7 +926,7 @@
         <v>48</v>
       </c>
       <c r="K2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="L2" t="s">
         <v>49</v>
@@ -964,9 +1001,6 @@
       <c r="I4" t="b">
         <v>0</v>
       </c>
-      <c r="J4" t="s">
-        <v>102</v>
-      </c>
       <c r="L4" t="s">
         <v>51</v>
       </c>
@@ -999,11 +1033,8 @@
       <c r="I5" t="b">
         <v>0</v>
       </c>
-      <c r="J5" t="s">
-        <v>102</v>
-      </c>
       <c r="L5" t="s">
-        <v>50</v>
+        <v>113</v>
       </c>
       <c r="M5" t="b">
         <v>1</v>
@@ -1014,7 +1045,7 @@
         <v>52</v>
       </c>
       <c r="C6" t="s">
-        <v>63</v>
+        <v>105</v>
       </c>
       <c r="D6" t="s">
         <v>45</v>
@@ -1035,7 +1066,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="L6" t="s">
         <v>50</v>
@@ -1049,7 +1080,7 @@
         <v>53</v>
       </c>
       <c r="C7" t="s">
-        <v>63</v>
+        <v>106</v>
       </c>
       <c r="D7" t="s">
         <v>45</v>
@@ -1070,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="L7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M7" t="b">
         <v>1</v>
@@ -1081,7 +1112,7 @@
         <v>54</v>
       </c>
       <c r="C8" t="s">
-        <v>63</v>
+        <v>107</v>
       </c>
       <c r="D8" t="s">
         <v>45</v>
@@ -1093,7 +1124,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -1102,7 +1133,7 @@
         <v>0</v>
       </c>
       <c r="L8" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="M8" t="b">
         <v>1</v>
@@ -1113,7 +1144,7 @@
         <v>55</v>
       </c>
       <c r="C9" t="s">
-        <v>63</v>
+        <v>108</v>
       </c>
       <c r="D9" t="s">
         <v>45</v>
@@ -1134,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="L9" t="s">
-        <v>65</v>
+        <v>104</v>
       </c>
       <c r="M9" t="b">
         <v>1</v>
@@ -1145,7 +1176,7 @@
         <v>58</v>
       </c>
       <c r="C10" t="s">
-        <v>63</v>
+        <v>109</v>
       </c>
       <c r="D10" t="s">
         <v>45</v>
@@ -1166,7 +1197,7 @@
         <v>0</v>
       </c>
       <c r="L10" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="M10" t="b">
         <v>1</v>
@@ -1177,7 +1208,7 @@
         <v>59</v>
       </c>
       <c r="C11" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D11" t="s">
         <v>45</v>
@@ -1198,7 +1229,7 @@
         <v>0</v>
       </c>
       <c r="L11" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="M11" t="b">
         <v>0</v>
@@ -1209,7 +1240,7 @@
         <v>60</v>
       </c>
       <c r="C12" t="s">
-        <v>63</v>
+        <v>110</v>
       </c>
       <c r="D12" t="s">
         <v>45</v>
@@ -1230,7 +1261,7 @@
         <v>0</v>
       </c>
       <c r="L12" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="M12" t="b">
         <v>1</v>
@@ -1241,7 +1272,7 @@
         <v>62</v>
       </c>
       <c r="C13" t="s">
-        <v>63</v>
+        <v>111</v>
       </c>
       <c r="D13" t="s">
         <v>45</v>
@@ -1262,7 +1293,7 @@
         <v>0</v>
       </c>
       <c r="L13" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="M13" t="b">
         <v>1</v>
@@ -1273,7 +1304,7 @@
         <v>61</v>
       </c>
       <c r="C14" t="s">
-        <v>63</v>
+        <v>112</v>
       </c>
       <c r="D14" t="s">
         <v>45</v>
@@ -1294,7 +1325,7 @@
         <v>0</v>
       </c>
       <c r="L14" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="M14" t="b">
         <v>0</v>
@@ -1302,10 +1333,10 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C15" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D15" t="s">
         <v>45</v>
@@ -1326,7 +1357,7 @@
         <v>1</v>
       </c>
       <c r="K15" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="L15" s="2"/>
       <c r="M15" t="b">
@@ -1335,10 +1366,10 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C16" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D16" t="s">
         <v>45</v>
@@ -1359,13 +1390,45 @@
         <v>0</v>
       </c>
       <c r="J16" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="L16" t="s">
-        <v>65</v>
+        <v>104</v>
       </c>
       <c r="M16" t="b">
         <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
+        <v>102</v>
+      </c>
+      <c r="C17" t="s">
+        <v>103</v>
+      </c>
+      <c r="D17" t="s">
+        <v>45</v>
+      </c>
+      <c r="E17">
+        <v>14</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17" t="b">
+        <v>0</v>
+      </c>
+      <c r="H17" t="b">
+        <v>0</v>
+      </c>
+      <c r="I17" t="b">
+        <v>0</v>
+      </c>
+      <c r="L17" t="s">
+        <v>104</v>
+      </c>
+      <c r="M17" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1412,7 +1475,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C2" t="s">
         <v>3</v>
@@ -1439,7 +1502,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -1450,7 +1513,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -1461,7 +1524,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -1472,7 +1535,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -1483,7 +1546,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -1494,7 +1557,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -1505,7 +1568,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B10" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -1524,7 +1587,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10D8AFCC-95AF-4A6B-815E-C005352AB991}">
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
@@ -1545,7 +1608,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C1" t="s">
         <v>23</v>
@@ -1563,7 +1626,7 @@
         <v>31</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
@@ -1577,13 +1640,13 @@
         <v>2</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F2" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>49</v>
@@ -1597,7 +1660,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C3" t="s">
         <v>24</v>
@@ -1615,7 +1678,7 @@
         <v>32</v>
       </c>
       <c r="H3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -1623,19 +1686,19 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E4" t="s">
+        <v>91</v>
+      </c>
+      <c r="F4" t="s">
+        <v>85</v>
+      </c>
+      <c r="G4" t="s">
         <v>93</v>
       </c>
-      <c r="F4" t="s">
-        <v>87</v>
-      </c>
-      <c r="G4" t="s">
-        <v>95</v>
-      </c>
       <c r="H4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
@@ -1643,19 +1706,19 @@
         <v>2</v>
       </c>
       <c r="C5" t="s">
+        <v>83</v>
+      </c>
+      <c r="E5" t="s">
+        <v>92</v>
+      </c>
+      <c r="F5" t="s">
         <v>85</v>
       </c>
-      <c r="E5" t="s">
-        <v>94</v>
-      </c>
-      <c r="F5" t="s">
-        <v>87</v>
-      </c>
       <c r="G5" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H5" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>

--- a/Luban/Config/Datas/Root/EventConfig.xlsx
+++ b/Luban/Config/Datas/Root/EventConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Game\RootsPinkShark\Luban\Config\Datas\Root\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{358DA0D0-1D9D-4DE4-9916-465E999B4BAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0A38602-422F-482A-9094-7D1672CAF391}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3210" yWindow="3795" windowWidth="21600" windowHeight="10155" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2580" yWindow="2850" windowWidth="21600" windowHeight="10155" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Event" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="114">
   <si>
     <t>##</t>
   </si>
@@ -835,7 +835,7 @@
   <dimension ref="A1:M17"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1163,9 +1163,6 @@
       </c>
       <c r="I9" t="b">
         <v>0</v>
-      </c>
-      <c r="L9" t="s">
-        <v>104</v>
       </c>
       <c r="M9" t="b">
         <v>1</v>

--- a/Luban/Config/Datas/Root/EventConfig.xlsx
+++ b/Luban/Config/Datas/Root/EventConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Game\RootsPinkShark\Luban\Config\Datas\Root\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0A38602-422F-482A-9094-7D1672CAF391}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F59D481-9C93-44AD-9DDC-3E96A062FDE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2580" yWindow="2850" windowWidth="21600" windowHeight="10155" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2925" yWindow="3195" windowWidth="21600" windowHeight="10155" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Event" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="118">
   <si>
     <t>##</t>
   </si>
@@ -398,10 +398,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ADD_RESOURCE,0,1;ADD_RESOURCE,1,1;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>用灵力震碎了石头，意外获得了几块金币</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -479,6 +475,26 @@
   </si>
   <si>
     <t>MARRY,0,0;TAGACTIVE,1,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DrawPri</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>事件优先级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优先级最低</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>路障12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADD_RESOURCE,1,1;ADD_RESOURCE,1,1;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -832,10 +848,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M17"/>
+  <dimension ref="A1:N18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -853,7 +869,7 @@
     <col min="13" max="13" width="18.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -893,8 +909,11 @@
       <c r="M1" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -926,7 +945,7 @@
         <v>48</v>
       </c>
       <c r="K2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="L2" t="s">
         <v>49</v>
@@ -934,8 +953,11 @@
       <c r="M2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -975,8 +997,11 @@
       <c r="M3" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>43</v>
       </c>
@@ -1007,8 +1032,11 @@
       <c r="M4" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>46</v>
       </c>
@@ -1034,18 +1062,21 @@
         <v>0</v>
       </c>
       <c r="L5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="M5" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>52</v>
       </c>
       <c r="C6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D6" t="s">
         <v>45</v>
@@ -1066,7 +1097,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="L6" t="s">
         <v>50</v>
@@ -1074,13 +1105,16 @@
       <c r="M6" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>53</v>
       </c>
       <c r="C7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D7" t="s">
         <v>45</v>
@@ -1106,13 +1140,16 @@
       <c r="M7" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>54</v>
       </c>
       <c r="C8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D8" t="s">
         <v>45</v>
@@ -1138,13 +1175,16 @@
       <c r="M8" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>55</v>
       </c>
       <c r="C9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D9" t="s">
         <v>45</v>
@@ -1167,13 +1207,16 @@
       <c r="M9" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>58</v>
       </c>
       <c r="C10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D10" t="s">
         <v>45</v>
@@ -1199,8 +1242,11 @@
       <c r="M10" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>59</v>
       </c>
@@ -1231,13 +1277,16 @@
       <c r="M11" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>60</v>
       </c>
       <c r="C12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D12" t="s">
         <v>45</v>
@@ -1263,13 +1312,16 @@
       <c r="M12" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>62</v>
       </c>
       <c r="C13" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D13" t="s">
         <v>45</v>
@@ -1295,13 +1347,16 @@
       <c r="M13" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>61</v>
       </c>
       <c r="C14" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D14" t="s">
         <v>45</v>
@@ -1327,8 +1382,11 @@
       <c r="M14" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>71</v>
       </c>
@@ -1360,8 +1418,11 @@
       <c r="M15" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>73</v>
       </c>
@@ -1390,18 +1451,21 @@
         <v>78</v>
       </c>
       <c r="L16" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="M16" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
+        <v>101</v>
+      </c>
+      <c r="C17" t="s">
         <v>102</v>
-      </c>
-      <c r="C17" t="s">
-        <v>103</v>
       </c>
       <c r="D17" t="s">
         <v>45</v>
@@ -1422,10 +1486,49 @@
         <v>0</v>
       </c>
       <c r="L17" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="M17" t="b">
         <v>1</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
+        <v>116</v>
+      </c>
+      <c r="C18" t="s">
+        <v>115</v>
+      </c>
+      <c r="D18" t="s">
+        <v>45</v>
+      </c>
+      <c r="E18">
+        <v>15</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18" t="b">
+        <v>1</v>
+      </c>
+      <c r="H18" t="b">
+        <v>0</v>
+      </c>
+      <c r="I18" t="b">
+        <v>1</v>
+      </c>
+      <c r="K18" t="s">
+        <v>82</v>
+      </c>
+      <c r="L18" s="2"/>
+      <c r="M18" t="b">
+        <v>1</v>
+      </c>
+      <c r="N18">
+        <v>-1</v>
       </c>
     </row>
   </sheetData>
@@ -1472,7 +1575,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C2" t="s">
         <v>3</v>
@@ -1584,8 +1687,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10D8AFCC-95AF-4A6B-815E-C005352AB991}">
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1637,13 +1740,13 @@
         <v>2</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>49</v>
@@ -1692,10 +1795,10 @@
         <v>85</v>
       </c>
       <c r="G4" t="s">
+        <v>117</v>
+      </c>
+      <c r="H4" t="s">
         <v>93</v>
-      </c>
-      <c r="H4" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
@@ -1712,10 +1815,10 @@
         <v>85</v>
       </c>
       <c r="G5" t="s">
+        <v>94</v>
+      </c>
+      <c r="H5" t="s">
         <v>95</v>
-      </c>
-      <c r="H5" t="s">
-        <v>96</v>
       </c>
     </row>
   </sheetData>

--- a/Luban/Config/Datas/Root/EventConfig.xlsx
+++ b/Luban/Config/Datas/Root/EventConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Game\RootsPinkShark\Luban\Config\Datas\Root\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F59D481-9C93-44AD-9DDC-3E96A062FDE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3E58D8E-8D87-4F80-9DC8-B44F25D56D53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2925" yWindow="3195" windowWidth="21600" windowHeight="10155" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2925" yWindow="3195" windowWidth="21600" windowHeight="10155" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Event" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="121">
   <si>
     <t>##</t>
   </si>
@@ -495,6 +495,18 @@
   </si>
   <si>
     <t>ADD_RESOURCE,1,1;ADD_RESOURCE,1,1;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>喜得贵子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你生孩子了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GIVE_BIRTH,0,0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -848,10 +860,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N18"/>
+  <dimension ref="A1:N19"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="N19" sqref="N19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1123,7 +1135,7 @@
         <v>4</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G7" t="b">
         <v>1</v>
@@ -1158,7 +1170,7 @@
         <v>5</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G8" t="b">
         <v>1</v>
@@ -1529,6 +1541,41 @@
       </c>
       <c r="N18">
         <v>-1</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
+        <v>118</v>
+      </c>
+      <c r="C19" t="s">
+        <v>119</v>
+      </c>
+      <c r="D19" t="s">
+        <v>45</v>
+      </c>
+      <c r="E19">
+        <v>16</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19" t="b">
+        <v>0</v>
+      </c>
+      <c r="H19" t="b">
+        <v>0</v>
+      </c>
+      <c r="I19" t="b">
+        <v>0</v>
+      </c>
+      <c r="L19" t="s">
+        <v>120</v>
+      </c>
+      <c r="M19" t="b">
+        <v>1</v>
+      </c>
+      <c r="N19">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1687,8 +1734,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10D8AFCC-95AF-4A6B-815E-C005352AB991}">
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/Luban/Config/Datas/Root/EventConfig.xlsx
+++ b/Luban/Config/Datas/Root/EventConfig.xlsx
@@ -8,26 +8,38 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Game\RootsPinkShark\Luban\Config\Datas\Root\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3E58D8E-8D87-4F80-9DC8-B44F25D56D53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80E8266A-4702-4D54-B0C6-820C2D4EC72C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2925" yWindow="3195" windowWidth="21600" windowHeight="10155" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10305" yWindow="1980" windowWidth="21600" windowHeight="10155" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Event" sheetId="1" r:id="rId1"/>
     <sheet name="EventCondition" sheetId="4" r:id="rId2"/>
     <sheet name="EventOption" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Event!$A$1:$O$145</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="692" uniqueCount="417">
   <si>
     <t>##</t>
   </si>
@@ -143,14 +155,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>InputSpace</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>投入物品栏</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>OptionWinEffect</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -199,26 +203,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>成长k</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>你获得了成长</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Normal</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>结婚</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>你找到了配偶</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>(list#sep=;),EventCondition#sep=,</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -231,26 +215,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>GROWTH,1,0;GROWTH,1,1;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>佳偶天成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>意外身故</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>痛失爱子</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>明镜高悬</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>IsOnBase</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -259,77 +223,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>偶得机缘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>初窥门径</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>登堂入室</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>富甲一方</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小有进财</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>DIE,0,0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>DIE_SON,0,0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>HAS_CHILDREN</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ADD_MONEY,100,0</t>
-  </si>
-  <si>
-    <t>ADD_MONEY,100,0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ADD_MONEY,10,0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ADD_CURR_EVENT,11,1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ADD_CURR_EVENT,14,1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>路障</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>路上遇到了一块巨石挡路</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>仙人指路</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>仙人告知了你天地仅存的一处洞天福地</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>触发了仙缘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>THIS_HAVEDONE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -338,38 +239,18 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ALL_HAVEDONE,11,0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>选项id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>利用灵力催发冲击，破坏石头</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>EventOptionid</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1;2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>浑身包裹鬼气穿过石头</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ATTRIMINNEED</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0,0,0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>OptionDES</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -390,123 +271,1379 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>(list#sep=;), EventCondition#sep=,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EffectCondition</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>触发优先级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DrawPri</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>道心锤炼-幼年-妖</t>
+  </si>
+  <si>
+    <t>道心锤炼-幼年-仙</t>
+  </si>
+  <si>
+    <t>道心锤炼-幼年-佛</t>
+  </si>
+  <si>
+    <t>道心锤炼-青壮年-鬼1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>道心锤炼-青壮年-妖1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>道心锤炼-青壮年-仙1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>道心锤炼-青壮年-佛1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>道心锤炼-青壮年-鬼2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>道心锤炼-青壮年-妖2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>道心锤炼-青壮年-仙2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>道心锤炼-青壮年-佛2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>道心锤炼-老年-佛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>道心锤炼2选1-仙/妖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>道心锤炼2选1-仙/佛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>道心锤炼2选1-仙/鬼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>道心锤炼2选1-鬼/妖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>道心锤炼2选1-鬼/佛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>道心锤炼2选1-妖/佛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>找到配偶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生孩子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>福源提升事件1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>福源提升事件2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>幼年-修为灵力提升</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>幼年-神识强度提升</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>幼年-博闻灵智提升</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>属性2选1-修为/神识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>属性2选1-修为/博闻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>属性2选1-博闻/神识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>要不要属性转换-博闻神识相互转</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>要不要属性转换-博闻修为相互转</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>要不要属性转换-修为神识相互转</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全年龄财富获取事件1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全年龄财富获取事件2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>老年-修为灵力下降1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>老年-神识强度下降1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>老年-博闻灵智下降1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>老年-修为灵力下降2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>老年-神识强度下降2</t>
+  </si>
+  <si>
+    <t>老年-博闻灵智下降2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无事发生的幼年1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无事发生的幼年2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无事发生的幼年3</t>
+  </si>
+  <si>
+    <t>无事发生的幼年4</t>
+  </si>
+  <si>
+    <t>无事发生的幼年5</t>
+  </si>
+  <si>
+    <t>无事发生的幼年6</t>
+  </si>
+  <si>
+    <t>无事发生的幼年7</t>
+  </si>
+  <si>
+    <t>无事发生的幼年8</t>
+  </si>
+  <si>
+    <t>无事发生的幼年9</t>
+  </si>
+  <si>
+    <t>无事发生的幼年10</t>
+  </si>
+  <si>
+    <t>无事发生的青壮年1</t>
+  </si>
+  <si>
+    <t>无事发生的青壮年2</t>
+  </si>
+  <si>
+    <t>无事发生的青壮年3</t>
+  </si>
+  <si>
+    <t>无事发生的青壮年4</t>
+  </si>
+  <si>
+    <t>无事发生的青壮年5</t>
+  </si>
+  <si>
+    <t>无事发生的老年1</t>
+  </si>
+  <si>
+    <t>无事发生的老年2</t>
+  </si>
+  <si>
+    <t>无事发生的老年3</t>
+  </si>
+  <si>
+    <t>无事发生的老年4</t>
+  </si>
+  <si>
+    <t>无事发生的老年5</t>
+  </si>
+  <si>
+    <t>利用鬼气取得物品的事件-简单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>利用妖气取得物品的事件-简单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运用仙力取得物品的事件-简单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运用佛光取得物品的事件-简单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>利用鬼气取得物品的事件-较难</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>利用妖气取得物品的事件-较难</t>
+  </si>
+  <si>
+    <t>运用仙力取得物品的事件-较难</t>
+  </si>
+  <si>
+    <t>运用佛光取得物品的事件-较难</t>
+  </si>
+  <si>
+    <t>四道初始事件1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>四道初始事件2</t>
+  </si>
+  <si>
+    <t>四道初始事件3</t>
+  </si>
+  <si>
+    <t>四道初始事件4</t>
+  </si>
+  <si>
+    <t>售卖东西的奇遇（初级随机商店</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奇遇捡东西事件1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奇遇捡东西事件2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奇遇捡东西事件3</t>
+  </si>
+  <si>
+    <t>幼年-修为灵力下降</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>幼年-神识强度下降</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>幼年-博闻灵智下降</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>青壮年-修为灵力下降</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>青壮年-神识强度下降</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>青壮年-博闻灵智下降</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鬼道初级事件1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鬼道初级事件2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仙道初级事件1</t>
+  </si>
+  <si>
+    <t>仙道初级事件2</t>
+  </si>
+  <si>
+    <t>妖道初级事件1</t>
+  </si>
+  <si>
+    <t>妖道初级事件2</t>
+  </si>
+  <si>
+    <t>佛道初级事件1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>佛道初级事件2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鬼道中级事件1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鬼道中级事件2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仙道中级事件1</t>
+  </si>
+  <si>
+    <t>仙道中级事件2</t>
+  </si>
+  <si>
+    <t>妖道中级事件1</t>
+  </si>
+  <si>
+    <t>妖道中级事件2</t>
+  </si>
+  <si>
+    <t>佛道中级事件1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>佛道中级事件2</t>
+  </si>
+  <si>
+    <t>高级鬼道物品获得事件-阶段1，需要中级仙属性辅助</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高级鬼道物品获得事件-阶段2，需要中级妖属性辅助</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高级仙道物品获得事件-阶段1，需要中级妖属性辅助</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高级仙道物品获得事件-阶段2，需要中级佛属性辅助</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高级佛道物品获得事件-阶段1，需要中级鬼属性辅助</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高级佛道物品获得事件-阶段2，需要中级仙属性辅助</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高级妖道物品获得事件-阶段1，需要中级佛属性辅助</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高级妖道物品获得事件-阶段2，需要中级鬼属性辅助</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得道心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出生事件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雷劫-初级判定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雷劫-高级判定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雷劫-灭魔雷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生孩子-早期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生孩子-中期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生孩子-后期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WEIGHT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>权重</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AGEBETWEEN,80,85</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AGEBETWEEN,50,55</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AGEBETWEEN,30,35</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雷劫-属性雷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>道心锤炼-幼年-鬼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AGEBETWEEN,1,18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AGEBETWEEN,19,60</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AGEBETWEEN,19,80</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AGEBETWEEN,61,80</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雷劫-死雷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HAS_PARTENER,0,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HAS_PARTENER,1,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AGEBETWEEN,61,100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HAVERES,19,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HAVERES,20,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HAVERES,21,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HAVERES,22,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HAVERES,24,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HAVERES,25,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HAVERES,26,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HAVERES,27,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HAVERES,29,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HAVERES,34,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HAVERES,31,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HAVERES,36,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HAVERES,30,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HAVERES,35,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HAVERES,32,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HAVERES,37,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ATTRIMINNEED,5,3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ATTRIMINNEED,6,3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ATTRIMINNEED,7,3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ATTRIMINNEED,8,3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADD_RESOURCE,3,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GIVE_BIRTH,0,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HEARTGROWTH,6,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HEARTGROWTH,7,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HEARTGROWTH,5,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HEARTGROWTH,8,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GROWTH,4,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GROWTH,4,2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GROWTH,1,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GROWTH,2,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GROWTH,3,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADD_RESOURCE,4,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GROWTH,1,-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GROWTH,2,-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GROWTH,1,-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GROWTH,2,-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GROWTH,3,-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GROWTH,3,-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADD_RESOURCE,43,0;ADD_RESOURCE,44,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADD_RESOURCE,45,0;ADD_RESOURCE,46,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADD_RESOURCE,47,0;ADD_RESOURCE,48,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADD_RESOURCE,49,0;ADD_RESOURCE,45,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9,10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11,12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13,14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15,16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17,18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19,20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>23,24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>25,26</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>68,69,70</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>21,22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>误入墓地，与怨灵玩捉迷藏，加深了对鬼道的感悟。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>路边的野狗朝你狂叫，你也试着叫了回去，与野兽达成初步交流，加深了对妖道的感悟。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>丢失的匕首被水仙捡到，水仙问你丢的是金匕首，银匕首还是铜匕首，你如实回答，加深了对仙道的感悟。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被熊孩子欺负，安慰自己不跟他一般见识，巧合佛道理念，加深了对佛道的感悟。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被厉鬼附身，竟然对他生前的遭遇感同身受，加深了对鬼道的感悟。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在林间与虎妖搏斗，不分伯仲，惺惺相惜成了好友，加深了对妖道的感悟。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在山间发现一具腐朽的仙人骸骨，祭拜掩埋，加深了对仙道的感悟。</t>
+  </si>
+  <si>
+    <t>在破旧的寺庙过夜，与佛像共眠，梦中与佛陀交流，加深了对佛道的感悟。</t>
+  </si>
+  <si>
+    <t>表白被拒，悲痛之下自杀未遂，无限接近死亡，深谙鬼道，加深了对鬼道的感悟。</t>
+  </si>
+  <si>
+    <t>道心锤炼-老年-鬼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>道心锤炼-老年-妖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>道心锤炼-老年-仙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无意间救下猪妖，猪妖对你一见倾心，加深了对妖道的感悟。</t>
+  </si>
+  <si>
+    <t>偶入仙府遗址，受仙力刺激神游太虚，加深了对仙道的感悟。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>路遇饥寒交迫的小沙弥，将身上不多的干粮分享于他，加深了对佛道的感悟。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>为游荡世间的色鬼所诱惑，进行了一段时长半个时辰的人鬼恋，加深了对鬼道的感悟。</t>
+  </si>
+  <si>
+    <t>被困迷阵，食狼王血肉得以求生，加深了对妖道的感悟。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在山崖边解决内急，不慎跌入崖下仙泉，侥幸逃过一劫，加深了对仙道的感悟。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在闹饥荒的村庄里，见高僧割肉喂鹰，为之动容，加深了对佛道的感悟。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这是一座有着两扇大门的飞升者遗迹，看门的灵傀告诉你，你只能在两扇门中选择其一。左边是仙道，右边是妖道，你的选择是？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>激发自身灵力打散天劫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,3,71</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4,5,6,71</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>来啊！我就是要肉身硬抗雷劫！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一道天雷降下，你一时也想不出其他办法对付，于是大喊着我命由我不由….！于是化作了一摊黑灰。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你成功了，天雷在你的灵力前不堪一击，天地折服于你</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天雷似乎察觉到什么，转头返回了天上</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运用阵法知识对抗天劫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你提前布置好阵法，天劫一层层败下阵来，最终消失无影</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>灵魂融于世间，尝试感化天劫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7,8,71,72,73</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AGEBETWEEN,100,101</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>利用鬼气假死</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>利用妖气替身</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运用仙气掌控</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运用佛光感化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鬼气缠身的你没有一丝生气，竟然骗过了天雷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你替身藏于妖之中，一只大妖被你当作提升，死于天雷之下</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天雷在你身边缠绕，你似乎并不畏惧于它，甚至感到有些亲昵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天雷在佛光下变得柔和，近乎一条柔软的缎带，缠绕在你的身上，无比虔诚恭敬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进入仙道遗迹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进入妖门遗迹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你进入了仙道遗迹，加深了对仙道的感悟。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你进入了妖道遗迹，加深了对妖道的感悟。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HEARTGROWTH,7,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HEARTGROWTH,6,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你进入了一座古墓之中，墓中机关精密，两座棺材并排而立。经过仔细观察，你发现只要打开其中一副棺材，另一副就会马上被毁掉。你要打开哪座棺材呢？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HEARTGROWTH,8,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一股精纯的仙气被你吸入体内，加深了对仙道的感悟。</t>
+  </si>
+  <si>
+    <t>一股精纯的佛念被你吸入体内，加深了对佛道的感悟。</t>
+  </si>
+  <si>
+    <t>深山之中，你发现了两具对面而立的飞升者枯骨。两道不同的声音分别从两具枯骨中传来。原来这是仙鬼两位飞升者的战场，最终两人同归于尽，只留下神念苦苦支撑。你会选择帮助哪位飞升者呢？</t>
+  </si>
+  <si>
+    <t>刻着三昧真火标记的棺材</t>
+  </si>
+  <si>
+    <t>刻着万字标记的棺材</t>
+  </si>
+  <si>
+    <t>仙道</t>
+  </si>
+  <si>
+    <t>鬼道</t>
+  </si>
+  <si>
+    <t>HEARTGROWTH,5,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你杀死了苟延残喘的鬼道飞升者，为了报答你，仙道飞升者将仅剩的力量注入了你的体内，加深了你对仙道的感悟。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你杀死了苟延残喘的仙道飞升者，为了报答你，鬼道飞升者将仅剩的力量注入了你的体内，加深了你对鬼道的感悟。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鬼道</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>妖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>佛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>路上踩到狗屎，福源获得提升。</t>
+  </si>
+  <si>
+    <t>在祈福活动中拔得头筹，获得被赐福资格，福源获得提升。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>误食百年灵芝，修为灵力获得提升。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>遭遇绑架，经受绑匪折磨后逃出生天，神识强度获得提升。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参加比武招亲，虽技不如人身受重伤，没想到机缘巧合打通任督二脉，修为灵力获得提升。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>想要偷看暗恋之人洗澡，领悟精神观察功法，神识强度获得提升。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>破开猪笼棋局，得高人传功，修为灵力获得提升。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雨天漫步遭遇雷击，暗合锻神之法，神识强度获得提升。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被苹果砸到脑袋，顿悟万有引力，博闻灵智获得提升。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>与东方不败一夜春风后谈古论今，博闻灵智获得提升。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>徒步万里，远赴傣国游历，博闻灵智获得提升。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修为</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>神识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>博闻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>什么都不做</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>27,28,74</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30,31,74</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>33,34,74</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>博闻转神识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>神识转博闻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>博闻转修为</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修为转博闻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修为转神识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>神识转修为</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>购买“发财票”中奖，获得乾坤宝钱N。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>路遇劫匪抢劫，路见不平，获得重金酬谢N。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>道侣精力旺盛，导致你操劳过度，修为灵力下降。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按摩遇见天下第一圣手，精神遭重创，神识强度下降。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被郎中诊断出患有痴呆症，博闻灵智下降。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>为了修真宝物谎报年龄参加宫中选秀，被揭穿后遭到围攻，身受重伤，修为灵力下降。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>误入鸡脚邪教，被邪教主题曲“鸡你太美”洗脑，神识强度下降。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下五子棋输给三岁孩童，博闻灵智下降。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>与王小虎打架打输了。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>悄悄把邻居家晾晒的羊肠扎满了洞。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>把父亲偷看《铜瓶梅》的秘密告诉了母亲。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>遇见一位自称唐三的叔叔在找他的手环。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发现在茶里加上牛奶还挺好喝的。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>从隔壁小陈那学了一首歌谣，爱你孤身走暗巷，爱你不跪的模样…...</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有个乞丐说你骨骼惊奇，没等他说完你就给了他一个大比兜。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你的初恋还没开始就结束了。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关系要好的哥哥受伤了，你好心疼哥哥。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你在认真考虑长大以后到底是要跟小陈成婚还是小李。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被一个三百斤的胖子表白。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吃到了奇怪味道的九转大肠。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>得了痔疮，去看郎中时却不好意思脱裤子。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计划用脚在地上抠出一间房子以锻炼身法，后来发现用处不大就放弃了。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>喜欢上了白酒加薄荷和柠檬的味道。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不知从什么时候开始，街道上总是有一群与你同龄的女性在跳舞，你感慨世风日下。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小陈和小李因为你争风吃醋打了起来。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>城里开设了足底按摩的项目，你尝试过后立马狠狠爱住。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>城里有名的吴姓戏子被抓了，你非常好奇是为什么。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经常与你下象棋的王老头去世了，你伤心了好一阵子。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你在一座山巅发现了一块古老的墓碑，墓碑中残存的神念不断尝试向你索取着鬼道力量。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你在河边救下一名上半身是鱼，下半身是人的妖兽。妖兽声称只要你通过他的妖道考验，就能赠你一件重宝。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你根据在地摊淘来的藏宝图寻到藏宝之地。这是一处仙家洞府，只有拥有足够的仙道力量才能够破门而入。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你无意间在一处山洞中寻得一枚古朴的木匣子，匣子上镶嵌的宝珠黯淡无光。只有朝着宝珠全力输入佛道的力量，木匣才能打开。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鬼气缭绕的地下宫殿中，你缓缓前行。不远处的空地中央立着一个王座，你犹豫了一下便坐了上去。忽然一阵吸力传来，身下的王座竟然在向你索取鬼道的力量。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这座看似平平无奇的小楼只不过是障眼法而已。你已经感受到小楼背后隐藏着的重宝。只要能使用足够强大的妖道力量，就能破除幻境。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>透过清澈的湖水可以看到湖底散发着宝物的光芒。可这轻轻湖水并不普通，是难得一见的重水，寻常人物根本难以撼动分毫。只有强大的仙道力量，才能开辟出一条通往湖底的通道。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>面前的寺庙中散发着宝物的光芒，可庙中钟鸣不止，如果贸然靠近轻则七窍流血，重则爆体而亡。只有拥有强大的佛道力量，才能抵抗住钟鸣的攻击，进入寺庙。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADD_RESOURCE,22,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADD_RESOURCE,23,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADD_RESOURCE,26,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADD_RESOURCE,27,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADD_RESOURCE,28,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADD_RESOURCE,32,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADD_RESOURCE,31,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADD_RESOURCE,36,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADD_RESOURCE,37,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADD_RESOURCE,19,0;ADD_RESOURCE,51,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADD_RESOURCE,20,0;ADD_RESOURCE,52,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADD_RESOURCE,29,0;ADD_RESOURCE,53,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADD_RESOURCE,30,0;ADD_RESOURCE,54,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADD_RESOURCE,24,0;ADD_RESOURCE,55,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADD_RESOURCE,25,0;ADD_RESOURCE,56,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADD_RESOURCE,34,0;ADD_RESOURCE,57,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADD_RESOURCE,35,0;ADD_RESOURCE,58,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>青壮年-修为灵力提升-基础</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>青壮年-神识强度提升-基础</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>青壮年-博闻灵智提升-基础</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>青壮年-修为灵力提升-鬼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>青壮年-神识强度提升-鬼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>青壮年-博闻灵智提升-鬼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>青壮年-修为灵力提升-仙</t>
+  </si>
+  <si>
+    <t>青壮年-神识强度提升-仙</t>
+  </si>
+  <si>
+    <t>青壮年-博闻灵智提升-仙</t>
+  </si>
+  <si>
+    <t>青壮年-修为灵力提升-佛</t>
+  </si>
+  <si>
+    <t>青壮年-神识强度提升-佛</t>
+  </si>
+  <si>
+    <t>青壮年-博闻灵智提升-佛</t>
+  </si>
+  <si>
+    <t>青壮年-修为灵力提升-妖</t>
+  </si>
+  <si>
+    <t>青壮年-神识强度提升-妖</t>
+  </si>
+  <si>
+    <t>青壮年-博闻灵智提升-妖</t>
+  </si>
+  <si>
+    <t>ADD_RESOURCE,21,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADD_RESOURCE,38,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADD_RESOURCE,33,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HAVETAG,4,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HAVETAG,5,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HAVETAG,6,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HAVETAG,7,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TAGBRITH,0,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(list#sep=,),int#ref=TbEventOption</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ATTRIMINNEED,1,3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ATTRIMINNEED,2,3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ATTRIMINNEED,3,3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>ATTRIMINNEED,1,5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ATTRIMINNEED,5,2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用灵力震碎了石头，意外获得了几块金币</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GROWTH,3,1;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>隐约瞧见了石头的内壁上写了文字，一股记忆传入脑海</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(list#sep=;), EventCondition#sep=,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(list#sep=;),int#ref=TbEventOption</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EffectCondition</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AGEBETWEEN,10,20;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(list#sep=,),ResourceType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>获得</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>你获得了一个宝贝~</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ADD_RESOURCE,1,0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>你找到了很棒的配偶</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>你死了</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>你儿子死了</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>你白了</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>你得到了机缘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>你读书很厉害</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>你赚了点小钱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>你赚了很多</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MARRY,0,0;TAGACTIVE,1,0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DrawPri</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>事件优先级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>优先级最低</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>路障12</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ADD_RESOURCE,1,1;ADD_RESOURCE,1,1;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>喜得贵子</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>你生孩子了</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GIVE_BIRTH,0,0</t>
+    <t>ATTRIMINNEED,2,5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ATTRIMINNEED,3,5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GROWTH,2,-1;GROWTH,3,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GROWTH,3,-1;GROWTH,1,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GROWTH,1,-1;GROWTH,3,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GROWTH,1,-1;GROWTH,2,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GROWTH,2,-1;GROWTH,1,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GROWTH,3,-1;GROWTH,2,1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -564,20 +1701,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -860,28 +1994,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N19"/>
+  <dimension ref="A1:O145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="N19" sqref="N19"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="36.5" customWidth="1"/>
+    <col min="2" max="2" width="49.875" customWidth="1"/>
+    <col min="3" max="3" width="21.125" customWidth="1"/>
     <col min="4" max="4" width="16.75" customWidth="1"/>
     <col min="5" max="5" width="8.375" customWidth="1"/>
     <col min="6" max="6" width="13.875" customWidth="1"/>
     <col min="7" max="7" width="14.375" customWidth="1"/>
     <col min="8" max="8" width="13.75" customWidth="1"/>
     <col min="9" max="9" width="17.875" customWidth="1"/>
-    <col min="10" max="10" width="19.25" customWidth="1"/>
-    <col min="11" max="11" width="24.625" customWidth="1"/>
-    <col min="12" max="12" width="32.125" customWidth="1"/>
-    <col min="13" max="13" width="18.875" customWidth="1"/>
+    <col min="10" max="10" width="12.875" customWidth="1"/>
+    <col min="11" max="11" width="19.25" customWidth="1"/>
+    <col min="12" max="12" width="24.625" customWidth="1"/>
+    <col min="13" max="13" width="32.125" customWidth="1"/>
+    <col min="14" max="14" width="18.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -910,22 +2046,25 @@
         <v>19</v>
       </c>
       <c r="J1" t="s">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="K1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L1" t="s">
         <v>20</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>21</v>
       </c>
-      <c r="M1" t="s">
-        <v>56</v>
-      </c>
       <c r="N1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+        <v>44</v>
+      </c>
+      <c r="O1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -954,22 +2093,25 @@
         <v>12</v>
       </c>
       <c r="J2" t="s">
-        <v>48</v>
+        <v>3</v>
       </c>
       <c r="K2" t="s">
-        <v>97</v>
+        <v>41</v>
       </c>
       <c r="L2" t="s">
-        <v>49</v>
+        <v>404</v>
       </c>
       <c r="M2" t="s">
+        <v>42</v>
+      </c>
+      <c r="N2" t="s">
         <v>12</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -998,39 +2140,39 @@
         <v>22</v>
       </c>
       <c r="J3" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="K3" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="L3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M3" t="s">
-        <v>57</v>
+        <v>31</v>
       </c>
       <c r="N3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+        <v>45</v>
+      </c>
+      <c r="O3" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>43</v>
+        <v>168</v>
       </c>
       <c r="C4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D4" t="s">
-        <v>45</v>
+        <v>168</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -1038,31 +2180,28 @@
       <c r="I4" t="b">
         <v>0</v>
       </c>
-      <c r="L4" t="s">
-        <v>51</v>
-      </c>
-      <c r="M4" t="b">
-        <v>1</v>
-      </c>
-      <c r="N4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="J4">
+        <v>99</v>
+      </c>
+      <c r="M4" t="s">
+        <v>403</v>
+      </c>
+      <c r="N4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>46</v>
+        <v>167</v>
       </c>
       <c r="C5" t="s">
-        <v>47</v>
-      </c>
-      <c r="D5" t="s">
-        <v>45</v>
+        <v>167</v>
       </c>
       <c r="E5">
         <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G5" t="b">
         <v>1</v>
@@ -1073,34 +2212,31 @@
       <c r="I5" t="b">
         <v>0</v>
       </c>
-      <c r="L5" t="s">
-        <v>112</v>
-      </c>
-      <c r="M5" t="b">
-        <v>1</v>
-      </c>
-      <c r="N5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="J5">
+        <v>99</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="N5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>52</v>
+        <v>80</v>
       </c>
       <c r="C6" t="s">
-        <v>104</v>
-      </c>
-      <c r="D6" t="s">
-        <v>45</v>
+        <v>80</v>
       </c>
       <c r="E6">
         <v>3</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -1108,34 +2244,34 @@
       <c r="I6" t="b">
         <v>0</v>
       </c>
-      <c r="J6" t="s">
-        <v>99</v>
-      </c>
-      <c r="L6" t="s">
-        <v>50</v>
-      </c>
-      <c r="M6" t="b">
-        <v>1</v>
-      </c>
-      <c r="N6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="M6" t="s">
+        <v>43</v>
+      </c>
+      <c r="N6" t="b">
+        <v>1</v>
+      </c>
+      <c r="O6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>53</v>
+        <v>172</v>
       </c>
       <c r="C7" t="s">
-        <v>105</v>
-      </c>
-      <c r="D7" t="s">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="E7">
         <v>4</v>
       </c>
       <c r="F7">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="G7" t="b">
         <v>1</v>
@@ -1146,31 +2282,34 @@
       <c r="I7" t="b">
         <v>0</v>
       </c>
-      <c r="L7" t="s">
-        <v>63</v>
-      </c>
-      <c r="M7" t="b">
-        <v>1</v>
-      </c>
-      <c r="N7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="M7" t="s">
+        <v>211</v>
+      </c>
+      <c r="N7" t="b">
+        <v>1</v>
+      </c>
+      <c r="O7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>54</v>
+        <v>173</v>
       </c>
       <c r="C8" t="s">
-        <v>106</v>
-      </c>
-      <c r="D8" t="s">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="E8">
         <v>5</v>
       </c>
       <c r="F8">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="G8" t="b">
         <v>1</v>
@@ -1181,31 +2320,34 @@
       <c r="I8" t="b">
         <v>0</v>
       </c>
-      <c r="L8" t="s">
-        <v>64</v>
-      </c>
-      <c r="M8" t="b">
-        <v>1</v>
-      </c>
-      <c r="N8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="M8" t="s">
+        <v>211</v>
+      </c>
+      <c r="N8" t="b">
+        <v>1</v>
+      </c>
+      <c r="O8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
-        <v>55</v>
+        <v>173</v>
       </c>
       <c r="C9" t="s">
-        <v>107</v>
-      </c>
-      <c r="D9" t="s">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="E9">
         <v>6</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G9" t="b">
         <v>1</v>
@@ -1216,31 +2358,37 @@
       <c r="I9" t="b">
         <v>0</v>
       </c>
-      <c r="M9" t="b">
-        <v>1</v>
-      </c>
-      <c r="N9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="M9" t="s">
+        <v>211</v>
+      </c>
+      <c r="N9" t="b">
+        <v>1</v>
+      </c>
+      <c r="O9">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
-        <v>58</v>
+        <v>173</v>
       </c>
       <c r="C10" t="s">
-        <v>108</v>
-      </c>
-      <c r="D10" t="s">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="E10">
         <v>7</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H10" t="b">
         <v>0</v>
@@ -1248,34 +2396,37 @@
       <c r="I10" t="b">
         <v>0</v>
       </c>
-      <c r="L10" t="s">
-        <v>69</v>
-      </c>
-      <c r="M10" t="b">
-        <v>1</v>
-      </c>
-      <c r="N10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="M10" t="s">
+        <v>211</v>
+      </c>
+      <c r="N10" t="b">
+        <v>1</v>
+      </c>
+      <c r="O10">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
-        <v>59</v>
+        <v>174</v>
       </c>
       <c r="C11" t="s">
-        <v>75</v>
-      </c>
-      <c r="D11" t="s">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="E11">
         <v>8</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -1283,136 +2434,139 @@
       <c r="I11" t="b">
         <v>0</v>
       </c>
-      <c r="L11" t="s">
-        <v>70</v>
-      </c>
-      <c r="M11" t="b">
-        <v>0</v>
-      </c>
-      <c r="N11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="M11" t="s">
+        <v>211</v>
+      </c>
+      <c r="N11" t="b">
+        <v>1</v>
+      </c>
+      <c r="O11">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
-        <v>60</v>
+        <v>169</v>
       </c>
       <c r="C12" t="s">
-        <v>109</v>
-      </c>
-      <c r="D12" t="s">
-        <v>45</v>
+        <v>169</v>
       </c>
       <c r="E12">
         <v>9</v>
       </c>
       <c r="F12">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
       <c r="I12" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J12">
+        <v>99</v>
+      </c>
+      <c r="K12" t="s">
+        <v>179</v>
       </c>
       <c r="L12" t="s">
-        <v>66</v>
-      </c>
-      <c r="M12" t="b">
-        <v>1</v>
-      </c>
-      <c r="N12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+        <v>263</v>
+      </c>
+      <c r="N12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
-        <v>62</v>
+        <v>170</v>
       </c>
       <c r="C13" t="s">
-        <v>110</v>
-      </c>
-      <c r="D13" t="s">
-        <v>45</v>
+        <v>170</v>
       </c>
       <c r="E13">
         <v>10</v>
       </c>
       <c r="F13">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H13" t="b">
         <v>0</v>
       </c>
       <c r="I13" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J13">
+        <v>99</v>
+      </c>
+      <c r="K13" t="s">
+        <v>178</v>
       </c>
       <c r="L13" t="s">
-        <v>68</v>
-      </c>
-      <c r="M13" t="b">
-        <v>1</v>
-      </c>
-      <c r="N13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+        <v>264</v>
+      </c>
+      <c r="N13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
-        <v>61</v>
+        <v>180</v>
       </c>
       <c r="C14" t="s">
-        <v>111</v>
-      </c>
-      <c r="D14" t="s">
-        <v>45</v>
+        <v>171</v>
       </c>
       <c r="E14">
         <v>11</v>
       </c>
       <c r="F14">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
       </c>
       <c r="I14" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J14">
+        <v>99</v>
+      </c>
+      <c r="K14" t="s">
+        <v>177</v>
       </c>
       <c r="L14" t="s">
-        <v>67</v>
-      </c>
-      <c r="M14" t="b">
-        <v>0</v>
-      </c>
-      <c r="N14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+        <v>272</v>
+      </c>
+      <c r="N14" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
-        <v>71</v>
+        <v>186</v>
       </c>
       <c r="C15" t="s">
-        <v>72</v>
-      </c>
-      <c r="D15" t="s">
-        <v>45</v>
+        <v>186</v>
       </c>
       <c r="E15">
         <v>12</v>
       </c>
       <c r="F15">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G15" t="b">
         <v>1</v>
@@ -1421,75 +2575,74 @@
         <v>0</v>
       </c>
       <c r="I15" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>99</v>
       </c>
       <c r="K15" t="s">
-        <v>82</v>
-      </c>
-      <c r="L15" s="2"/>
-      <c r="M15" t="b">
-        <v>1</v>
-      </c>
-      <c r="N15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+        <v>273</v>
+      </c>
+      <c r="M15" t="s">
+        <v>46</v>
+      </c>
+      <c r="N15" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="C16" t="s">
-        <v>74</v>
-      </c>
-      <c r="D16" t="s">
-        <v>45</v>
+        <v>243</v>
       </c>
       <c r="E16">
         <v>13</v>
       </c>
       <c r="F16">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G16" t="b">
         <v>1</v>
       </c>
       <c r="H16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16" t="b">
         <v>0</v>
       </c>
-      <c r="J16" t="s">
-        <v>78</v>
-      </c>
-      <c r="L16" t="s">
-        <v>103</v>
-      </c>
-      <c r="M16" t="b">
-        <v>0</v>
-      </c>
-      <c r="N16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16" t="s">
+        <v>399</v>
+      </c>
+      <c r="M16" t="s">
+        <v>212</v>
+      </c>
+      <c r="N16" t="b">
+        <v>1</v>
+      </c>
+      <c r="O16">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
-        <v>101</v>
+        <v>63</v>
       </c>
       <c r="C17" t="s">
-        <v>102</v>
-      </c>
-      <c r="D17" t="s">
-        <v>45</v>
+        <v>244</v>
       </c>
       <c r="E17">
         <v>14</v>
       </c>
       <c r="F17">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -1497,31 +2650,34 @@
       <c r="I17" t="b">
         <v>0</v>
       </c>
-      <c r="L17" t="s">
-        <v>103</v>
-      </c>
-      <c r="M17" t="b">
-        <v>1</v>
-      </c>
-      <c r="N17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17" t="s">
+        <v>400</v>
+      </c>
+      <c r="M17" t="s">
+        <v>213</v>
+      </c>
+      <c r="N17" t="b">
+        <v>1</v>
+      </c>
+      <c r="O17">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
-        <v>116</v>
+        <v>181</v>
       </c>
       <c r="C18" t="s">
-        <v>115</v>
-      </c>
-      <c r="D18" t="s">
-        <v>45</v>
+        <v>242</v>
       </c>
       <c r="E18">
         <v>15</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G18" t="b">
         <v>1</v>
@@ -1530,37 +2686,39 @@
         <v>0</v>
       </c>
       <c r="I18" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
       </c>
       <c r="K18" t="s">
-        <v>82</v>
-      </c>
-      <c r="L18" s="2"/>
-      <c r="M18" t="b">
-        <v>1</v>
-      </c>
-      <c r="N18">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.2">
+        <v>401</v>
+      </c>
+      <c r="M18" t="s">
+        <v>214</v>
+      </c>
+      <c r="N18" t="b">
+        <v>1</v>
+      </c>
+      <c r="O18">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
-        <v>118</v>
+        <v>64</v>
       </c>
       <c r="C19" t="s">
-        <v>119</v>
-      </c>
-      <c r="D19" t="s">
-        <v>45</v>
+        <v>245</v>
       </c>
       <c r="E19">
         <v>16</v>
       </c>
       <c r="F19">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -1568,17 +2726,4338 @@
       <c r="I19" t="b">
         <v>0</v>
       </c>
-      <c r="L19" t="s">
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19" t="s">
+        <v>402</v>
+      </c>
+      <c r="M19" t="s">
+        <v>215</v>
+      </c>
+      <c r="N19" t="b">
+        <v>1</v>
+      </c>
+      <c r="O19">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B20" t="s">
+        <v>65</v>
+      </c>
+      <c r="C20" t="s">
+        <v>246</v>
+      </c>
+      <c r="E20">
+        <v>17</v>
+      </c>
+      <c r="F20">
+        <v>7</v>
+      </c>
+      <c r="G20" t="b">
+        <v>1</v>
+      </c>
+      <c r="H20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I20" t="b">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20" t="s">
+        <v>183</v>
+      </c>
+      <c r="M20" t="s">
+        <v>214</v>
+      </c>
+      <c r="N20" t="b">
+        <v>1</v>
+      </c>
+      <c r="O20">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B21" t="s">
+        <v>66</v>
+      </c>
+      <c r="C21" t="s">
+        <v>247</v>
+      </c>
+      <c r="E21">
+        <v>18</v>
+      </c>
+      <c r="F21">
+        <v>7</v>
+      </c>
+      <c r="G21" t="b">
+        <v>1</v>
+      </c>
+      <c r="H21" t="b">
+        <v>0</v>
+      </c>
+      <c r="I21" t="b">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21" t="s">
+        <v>183</v>
+      </c>
+      <c r="M21" t="s">
+        <v>212</v>
+      </c>
+      <c r="N21" t="b">
+        <v>1</v>
+      </c>
+      <c r="O21">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B22" t="s">
+        <v>67</v>
+      </c>
+      <c r="C22" t="s">
+        <v>248</v>
+      </c>
+      <c r="E22">
+        <v>19</v>
+      </c>
+      <c r="F22">
+        <v>7</v>
+      </c>
+      <c r="G22" t="b">
+        <v>1</v>
+      </c>
+      <c r="H22" t="b">
+        <v>0</v>
+      </c>
+      <c r="I22" t="b">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22" t="s">
+        <v>183</v>
+      </c>
+      <c r="M22" t="s">
+        <v>213</v>
+      </c>
+      <c r="N22" t="b">
+        <v>1</v>
+      </c>
+      <c r="O22">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B23" t="s">
+        <v>68</v>
+      </c>
+      <c r="C23" t="s">
+        <v>249</v>
+      </c>
+      <c r="E23">
+        <v>20</v>
+      </c>
+      <c r="F23">
+        <v>7</v>
+      </c>
+      <c r="G23" t="b">
+        <v>1</v>
+      </c>
+      <c r="H23" t="b">
+        <v>0</v>
+      </c>
+      <c r="I23" t="b">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23" t="s">
+        <v>183</v>
+      </c>
+      <c r="M23" t="s">
+        <v>215</v>
+      </c>
+      <c r="N23" t="b">
+        <v>1</v>
+      </c>
+      <c r="O23">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B24" t="s">
+        <v>69</v>
+      </c>
+      <c r="C24" t="s">
+        <v>250</v>
+      </c>
+      <c r="E24">
+        <v>21</v>
+      </c>
+      <c r="F24">
+        <v>7</v>
+      </c>
+      <c r="G24" t="b">
+        <v>1</v>
+      </c>
+      <c r="H24" t="b">
+        <v>0</v>
+      </c>
+      <c r="I24" t="b">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24" t="s">
+        <v>183</v>
+      </c>
+      <c r="M24" t="s">
+        <v>214</v>
+      </c>
+      <c r="N24" t="b">
+        <v>1</v>
+      </c>
+      <c r="O24">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B25" t="s">
+        <v>70</v>
+      </c>
+      <c r="C25" t="s">
+        <v>254</v>
+      </c>
+      <c r="E25">
+        <v>22</v>
+      </c>
+      <c r="F25">
+        <v>7</v>
+      </c>
+      <c r="G25" t="b">
+        <v>1</v>
+      </c>
+      <c r="H25" t="b">
+        <v>0</v>
+      </c>
+      <c r="I25" t="b">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25" t="s">
+        <v>183</v>
+      </c>
+      <c r="M25" t="s">
+        <v>212</v>
+      </c>
+      <c r="N25" t="b">
+        <v>1</v>
+      </c>
+      <c r="O25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B26" t="s">
+        <v>71</v>
+      </c>
+      <c r="C26" t="s">
+        <v>255</v>
+      </c>
+      <c r="E26">
+        <v>23</v>
+      </c>
+      <c r="F26">
+        <v>7</v>
+      </c>
+      <c r="G26" t="b">
+        <v>1</v>
+      </c>
+      <c r="H26" t="b">
+        <v>0</v>
+      </c>
+      <c r="I26" t="b">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26" t="s">
+        <v>183</v>
+      </c>
+      <c r="M26" t="s">
+        <v>213</v>
+      </c>
+      <c r="N26" t="b">
+        <v>1</v>
+      </c>
+      <c r="O26">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B27" t="s">
+        <v>72</v>
+      </c>
+      <c r="C27" t="s">
+        <v>256</v>
+      </c>
+      <c r="E27">
+        <v>24</v>
+      </c>
+      <c r="F27">
+        <v>7</v>
+      </c>
+      <c r="G27" t="b">
+        <v>1</v>
+      </c>
+      <c r="H27" t="b">
+        <v>0</v>
+      </c>
+      <c r="I27" t="b">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27" t="s">
+        <v>185</v>
+      </c>
+      <c r="M27" t="s">
+        <v>215</v>
+      </c>
+      <c r="N27" t="b">
+        <v>1</v>
+      </c>
+      <c r="O27">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="28" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B28" t="s">
+        <v>251</v>
+      </c>
+      <c r="C28" t="s">
+        <v>257</v>
+      </c>
+      <c r="E28">
+        <v>25</v>
+      </c>
+      <c r="F28">
+        <v>8</v>
+      </c>
+      <c r="G28" t="b">
+        <v>1</v>
+      </c>
+      <c r="H28" t="b">
+        <v>0</v>
+      </c>
+      <c r="I28" t="b">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28" t="s">
+        <v>185</v>
+      </c>
+      <c r="M28" t="s">
+        <v>214</v>
+      </c>
+      <c r="N28" t="b">
+        <v>1</v>
+      </c>
+      <c r="O28">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="29" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B29" t="s">
+        <v>252</v>
+      </c>
+      <c r="C29" t="s">
+        <v>258</v>
+      </c>
+      <c r="E29">
+        <v>26</v>
+      </c>
+      <c r="F29">
+        <v>8</v>
+      </c>
+      <c r="G29" t="b">
+        <v>1</v>
+      </c>
+      <c r="H29" t="b">
+        <v>0</v>
+      </c>
+      <c r="I29" t="b">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29" t="s">
+        <v>185</v>
+      </c>
+      <c r="M29" t="s">
+        <v>212</v>
+      </c>
+      <c r="N29" t="b">
+        <v>1</v>
+      </c>
+      <c r="O29">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="30" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B30" t="s">
+        <v>253</v>
+      </c>
+      <c r="C30" t="s">
+        <v>259</v>
+      </c>
+      <c r="E30">
+        <v>27</v>
+      </c>
+      <c r="F30">
+        <v>8</v>
+      </c>
+      <c r="G30" t="b">
+        <v>1</v>
+      </c>
+      <c r="H30" t="b">
+        <v>0</v>
+      </c>
+      <c r="I30" t="b">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30" t="s">
+        <v>185</v>
+      </c>
+      <c r="M30" t="s">
+        <v>213</v>
+      </c>
+      <c r="N30" t="b">
+        <v>1</v>
+      </c>
+      <c r="O30">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="31" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B31" t="s">
+        <v>73</v>
+      </c>
+      <c r="C31" t="s">
+        <v>260</v>
+      </c>
+      <c r="E31">
+        <v>28</v>
+      </c>
+      <c r="F31">
+        <v>8</v>
+      </c>
+      <c r="G31" t="b">
+        <v>1</v>
+      </c>
+      <c r="H31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I31" t="b">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31" t="s">
+        <v>185</v>
+      </c>
+      <c r="M31" t="s">
+        <v>215</v>
+      </c>
+      <c r="N31" t="b">
+        <v>1</v>
+      </c>
+      <c r="O31">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="32" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B32" t="s">
+        <v>74</v>
+      </c>
+      <c r="C32" t="s">
+        <v>261</v>
+      </c>
+      <c r="E32">
+        <v>29</v>
+      </c>
+      <c r="F32">
+        <v>9</v>
+      </c>
+      <c r="G32" t="b">
+        <v>1</v>
+      </c>
+      <c r="H32" t="b">
+        <v>0</v>
+      </c>
+      <c r="I32" t="b">
+        <v>1</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="K32" t="s">
+        <v>184</v>
+      </c>
+      <c r="L32" t="s">
+        <v>232</v>
+      </c>
+      <c r="N32" t="b">
+        <v>1</v>
+      </c>
+      <c r="O32">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B33" t="s">
+        <v>75</v>
+      </c>
+      <c r="C33" t="s">
+        <v>288</v>
+      </c>
+      <c r="E33">
+        <v>30</v>
+      </c>
+      <c r="F33">
+        <v>9</v>
+      </c>
+      <c r="G33" t="b">
+        <v>1</v>
+      </c>
+      <c r="H33" t="b">
+        <v>0</v>
+      </c>
+      <c r="I33" t="b">
+        <v>1</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="K33" t="s">
+        <v>184</v>
+      </c>
+      <c r="L33" t="s">
+        <v>233</v>
+      </c>
+      <c r="N33" t="b">
+        <v>1</v>
+      </c>
+      <c r="O33">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B34" t="s">
+        <v>76</v>
+      </c>
+      <c r="C34" t="s">
+        <v>292</v>
+      </c>
+      <c r="E34">
+        <v>31</v>
+      </c>
+      <c r="F34">
+        <v>9</v>
+      </c>
+      <c r="G34" t="b">
+        <v>1</v>
+      </c>
+      <c r="H34" t="b">
+        <v>0</v>
+      </c>
+      <c r="I34" t="b">
+        <v>1</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
+      <c r="K34" t="s">
+        <v>184</v>
+      </c>
+      <c r="L34" t="s">
+        <v>234</v>
+      </c>
+      <c r="N34" t="b">
+        <v>1</v>
+      </c>
+      <c r="O34">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B35" t="s">
+        <v>77</v>
+      </c>
+      <c r="C35" t="s">
+        <v>77</v>
+      </c>
+      <c r="E35">
+        <v>32</v>
+      </c>
+      <c r="F35">
+        <v>9</v>
+      </c>
+      <c r="G35" t="b">
+        <v>1</v>
+      </c>
+      <c r="H35" t="b">
+        <v>0</v>
+      </c>
+      <c r="I35" t="b">
+        <v>1</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+      <c r="K35" t="s">
+        <v>184</v>
+      </c>
+      <c r="L35" t="s">
+        <v>235</v>
+      </c>
+      <c r="N35" t="b">
+        <v>1</v>
+      </c>
+      <c r="O35">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="36" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B36" t="s">
+        <v>78</v>
+      </c>
+      <c r="C36" t="s">
+        <v>78</v>
+      </c>
+      <c r="E36">
+        <v>33</v>
+      </c>
+      <c r="F36">
+        <v>9</v>
+      </c>
+      <c r="G36" t="b">
+        <v>1</v>
+      </c>
+      <c r="H36" t="b">
+        <v>0</v>
+      </c>
+      <c r="I36" t="b">
+        <v>1</v>
+      </c>
+      <c r="J36">
+        <v>0</v>
+      </c>
+      <c r="K36" t="s">
+        <v>184</v>
+      </c>
+      <c r="L36" t="s">
+        <v>236</v>
+      </c>
+      <c r="N36" t="b">
+        <v>1</v>
+      </c>
+      <c r="O36">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B37" t="s">
+        <v>79</v>
+      </c>
+      <c r="C37" t="s">
+        <v>79</v>
+      </c>
+      <c r="E37">
+        <v>34</v>
+      </c>
+      <c r="F37">
+        <v>9</v>
+      </c>
+      <c r="G37" t="b">
+        <v>1</v>
+      </c>
+      <c r="H37" t="b">
+        <v>0</v>
+      </c>
+      <c r="I37" t="b">
+        <v>1</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37" t="s">
+        <v>184</v>
+      </c>
+      <c r="L37" t="s">
+        <v>237</v>
+      </c>
+      <c r="N37" t="b">
+        <v>1</v>
+      </c>
+      <c r="O37">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B38" t="s">
+        <v>82</v>
+      </c>
+      <c r="C38" t="s">
+        <v>303</v>
+      </c>
+      <c r="E38">
+        <v>35</v>
+      </c>
+      <c r="F38">
+        <v>10</v>
+      </c>
+      <c r="G38" t="b">
+        <v>1</v>
+      </c>
+      <c r="H38" t="b">
+        <v>0</v>
+      </c>
+      <c r="I38" t="b">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>0</v>
+      </c>
+      <c r="K38" t="s">
+        <v>184</v>
+      </c>
+      <c r="M38" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="N38" t="b">
+        <v>1</v>
+      </c>
+      <c r="O38">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B39" t="s">
+        <v>83</v>
+      </c>
+      <c r="C39" t="s">
+        <v>304</v>
+      </c>
+      <c r="E39">
+        <v>36</v>
+      </c>
+      <c r="F39">
+        <v>10</v>
+      </c>
+      <c r="G39" t="b">
+        <v>1</v>
+      </c>
+      <c r="H39" t="b">
+        <v>0</v>
+      </c>
+      <c r="I39" t="b">
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <v>0</v>
+      </c>
+      <c r="K39" t="s">
+        <v>184</v>
+      </c>
+      <c r="M39" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="N39" t="b">
+        <v>1</v>
+      </c>
+      <c r="O39">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B40" t="s">
+        <v>84</v>
+      </c>
+      <c r="C40" t="s">
+        <v>305</v>
+      </c>
+      <c r="E40">
+        <v>37</v>
+      </c>
+      <c r="F40">
+        <v>11</v>
+      </c>
+      <c r="G40" t="b">
+        <v>0</v>
+      </c>
+      <c r="H40" t="b">
+        <v>0</v>
+      </c>
+      <c r="I40" t="b">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>0</v>
+      </c>
+      <c r="K40" t="s">
+        <v>182</v>
+      </c>
+      <c r="M40" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="N40" t="b">
+        <v>1</v>
+      </c>
+      <c r="O40">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B41" t="s">
+        <v>85</v>
+      </c>
+      <c r="C41" t="s">
+        <v>306</v>
+      </c>
+      <c r="E41">
+        <v>38</v>
+      </c>
+      <c r="F41">
+        <v>11</v>
+      </c>
+      <c r="G41" t="b">
+        <v>0</v>
+      </c>
+      <c r="H41" t="b">
+        <v>0</v>
+      </c>
+      <c r="I41" t="b">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>0</v>
+      </c>
+      <c r="K41" t="s">
+        <v>182</v>
+      </c>
+      <c r="M41" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="N41" t="b">
+        <v>1</v>
+      </c>
+      <c r="O41">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B42" t="s">
+        <v>86</v>
+      </c>
+      <c r="C42" t="s">
+        <v>311</v>
+      </c>
+      <c r="E42">
+        <v>39</v>
+      </c>
+      <c r="F42">
+        <v>11</v>
+      </c>
+      <c r="G42" t="b">
+        <v>0</v>
+      </c>
+      <c r="H42" t="b">
+        <v>0</v>
+      </c>
+      <c r="I42" t="b">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42" t="s">
+        <v>182</v>
+      </c>
+      <c r="M42" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="N42" t="b">
+        <v>1</v>
+      </c>
+      <c r="O42">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B43" t="s">
+        <v>381</v>
+      </c>
+      <c r="C43" t="s">
+        <v>307</v>
+      </c>
+      <c r="E43">
+        <v>40</v>
+      </c>
+      <c r="F43">
+        <v>12</v>
+      </c>
+      <c r="G43" t="b">
+        <v>0</v>
+      </c>
+      <c r="H43" t="b">
+        <v>0</v>
+      </c>
+      <c r="I43" t="b">
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <v>0</v>
+      </c>
+      <c r="K43" t="s">
+        <v>183</v>
+      </c>
+      <c r="M43" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="N43" t="b">
+        <v>1</v>
+      </c>
+      <c r="O43">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B44" t="s">
+        <v>382</v>
+      </c>
+      <c r="C44" t="s">
+        <v>308</v>
+      </c>
+      <c r="E44">
+        <v>41</v>
+      </c>
+      <c r="F44">
+        <v>12</v>
+      </c>
+      <c r="G44" t="b">
+        <v>0</v>
+      </c>
+      <c r="H44" t="b">
+        <v>0</v>
+      </c>
+      <c r="I44" t="b">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>0</v>
+      </c>
+      <c r="K44" t="s">
+        <v>183</v>
+      </c>
+      <c r="M44" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="N44" t="b">
+        <v>1</v>
+      </c>
+      <c r="O44">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B45" t="s">
+        <v>383</v>
+      </c>
+      <c r="C45" t="s">
+        <v>312</v>
+      </c>
+      <c r="E45">
+        <v>42</v>
+      </c>
+      <c r="F45">
+        <v>12</v>
+      </c>
+      <c r="G45" t="b">
+        <v>0</v>
+      </c>
+      <c r="H45" t="b">
+        <v>0</v>
+      </c>
+      <c r="I45" t="b">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45" t="s">
+        <v>183</v>
+      </c>
+      <c r="M45" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="N45" t="b">
+        <v>1</v>
+      </c>
+      <c r="O45">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B46" t="s">
+        <v>384</v>
+      </c>
+      <c r="C46" t="s">
+        <v>309</v>
+      </c>
+      <c r="E46">
+        <v>43</v>
+      </c>
+      <c r="F46">
+        <v>12</v>
+      </c>
+      <c r="G46" t="b">
+        <v>0</v>
+      </c>
+      <c r="H46" t="b">
+        <v>0</v>
+      </c>
+      <c r="I46" t="b">
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <v>0</v>
+      </c>
+      <c r="K46" t="s">
+        <v>206</v>
+      </c>
+      <c r="M46" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="N46" t="b">
+        <v>1</v>
+      </c>
+      <c r="O46">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B47" t="s">
+        <v>385</v>
+      </c>
+      <c r="C47" t="s">
+        <v>310</v>
+      </c>
+      <c r="E47">
+        <v>44</v>
+      </c>
+      <c r="F47">
+        <v>12</v>
+      </c>
+      <c r="G47" t="b">
+        <v>0</v>
+      </c>
+      <c r="H47" t="b">
+        <v>0</v>
+      </c>
+      <c r="I47" t="b">
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <v>0</v>
+      </c>
+      <c r="K47" t="s">
+        <v>206</v>
+      </c>
+      <c r="M47" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="N47" t="b">
+        <v>1</v>
+      </c>
+      <c r="O47">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B48" t="s">
+        <v>386</v>
+      </c>
+      <c r="C48" t="s">
+        <v>313</v>
+      </c>
+      <c r="E48">
+        <v>45</v>
+      </c>
+      <c r="F48">
+        <v>12</v>
+      </c>
+      <c r="G48" t="b">
+        <v>0</v>
+      </c>
+      <c r="H48" t="b">
+        <v>0</v>
+      </c>
+      <c r="I48" t="b">
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <v>0</v>
+      </c>
+      <c r="K48" t="s">
+        <v>206</v>
+      </c>
+      <c r="M48" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="N48" t="b">
+        <v>1</v>
+      </c>
+      <c r="O48">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="49" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B49" t="s">
+        <v>387</v>
+      </c>
+      <c r="C49" t="s">
+        <v>387</v>
+      </c>
+      <c r="E49">
+        <v>46</v>
+      </c>
+      <c r="F49">
+        <v>12</v>
+      </c>
+      <c r="G49" t="b">
+        <v>0</v>
+      </c>
+      <c r="H49" t="b">
+        <v>0</v>
+      </c>
+      <c r="I49" t="b">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+      <c r="K49" t="s">
+        <v>207</v>
+      </c>
+      <c r="M49" s="1"/>
+      <c r="O49">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="50" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B50" t="s">
+        <v>388</v>
+      </c>
+      <c r="C50" t="s">
+        <v>388</v>
+      </c>
+      <c r="E50">
+        <v>47</v>
+      </c>
+      <c r="F50">
+        <v>12</v>
+      </c>
+      <c r="G50" t="b">
+        <v>0</v>
+      </c>
+      <c r="H50" t="b">
+        <v>0</v>
+      </c>
+      <c r="I50" t="b">
+        <v>0</v>
+      </c>
+      <c r="J50">
+        <v>0</v>
+      </c>
+      <c r="K50" t="s">
+        <v>207</v>
+      </c>
+      <c r="M50" s="1"/>
+      <c r="O50">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="51" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B51" t="s">
+        <v>389</v>
+      </c>
+      <c r="C51" t="s">
+        <v>389</v>
+      </c>
+      <c r="E51">
+        <v>48</v>
+      </c>
+      <c r="F51">
+        <v>12</v>
+      </c>
+      <c r="G51" t="b">
+        <v>0</v>
+      </c>
+      <c r="H51" t="b">
+        <v>0</v>
+      </c>
+      <c r="I51" t="b">
+        <v>0</v>
+      </c>
+      <c r="J51">
+        <v>0</v>
+      </c>
+      <c r="K51" t="s">
+        <v>207</v>
+      </c>
+      <c r="M51" s="1"/>
+      <c r="O51">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="52" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B52" t="s">
+        <v>390</v>
+      </c>
+      <c r="C52" t="s">
+        <v>390</v>
+      </c>
+      <c r="E52">
+        <v>49</v>
+      </c>
+      <c r="F52">
+        <v>12</v>
+      </c>
+      <c r="G52" t="b">
+        <v>0</v>
+      </c>
+      <c r="H52" t="b">
+        <v>0</v>
+      </c>
+      <c r="I52" t="b">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52" t="s">
+        <v>208</v>
+      </c>
+      <c r="M52" s="1"/>
+      <c r="O52">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="53" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B53" t="s">
+        <v>391</v>
+      </c>
+      <c r="C53" t="s">
+        <v>391</v>
+      </c>
+      <c r="E53">
+        <v>50</v>
+      </c>
+      <c r="F53">
+        <v>12</v>
+      </c>
+      <c r="G53" t="b">
+        <v>0</v>
+      </c>
+      <c r="H53" t="b">
+        <v>0</v>
+      </c>
+      <c r="I53" t="b">
+        <v>0</v>
+      </c>
+      <c r="J53">
+        <v>0</v>
+      </c>
+      <c r="K53" t="s">
+        <v>208</v>
+      </c>
+      <c r="M53" s="1"/>
+      <c r="O53">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="54" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B54" t="s">
+        <v>392</v>
+      </c>
+      <c r="C54" t="s">
+        <v>392</v>
+      </c>
+      <c r="E54">
+        <v>51</v>
+      </c>
+      <c r="F54">
+        <v>12</v>
+      </c>
+      <c r="G54" t="b">
+        <v>0</v>
+      </c>
+      <c r="H54" t="b">
+        <v>0</v>
+      </c>
+      <c r="I54" t="b">
+        <v>0</v>
+      </c>
+      <c r="J54">
+        <v>0</v>
+      </c>
+      <c r="K54" t="s">
+        <v>208</v>
+      </c>
+      <c r="M54" s="1"/>
+      <c r="O54">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="55" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B55" t="s">
+        <v>393</v>
+      </c>
+      <c r="C55" t="s">
+        <v>393</v>
+      </c>
+      <c r="E55">
+        <v>52</v>
+      </c>
+      <c r="F55">
+        <v>12</v>
+      </c>
+      <c r="G55" t="b">
+        <v>0</v>
+      </c>
+      <c r="H55" t="b">
+        <v>0</v>
+      </c>
+      <c r="I55" t="b">
+        <v>0</v>
+      </c>
+      <c r="J55">
+        <v>0</v>
+      </c>
+      <c r="K55" t="s">
+        <v>209</v>
+      </c>
+      <c r="M55" s="1"/>
+      <c r="O55">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="56" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B56" t="s">
+        <v>394</v>
+      </c>
+      <c r="C56" t="s">
+        <v>394</v>
+      </c>
+      <c r="E56">
+        <v>53</v>
+      </c>
+      <c r="F56">
+        <v>12</v>
+      </c>
+      <c r="G56" t="b">
+        <v>0</v>
+      </c>
+      <c r="H56" t="b">
+        <v>0</v>
+      </c>
+      <c r="I56" t="b">
+        <v>0</v>
+      </c>
+      <c r="J56">
+        <v>0</v>
+      </c>
+      <c r="K56" t="s">
+        <v>209</v>
+      </c>
+      <c r="M56" s="1"/>
+      <c r="O56">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="57" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B57" t="s">
+        <v>395</v>
+      </c>
+      <c r="C57" t="s">
+        <v>395</v>
+      </c>
+      <c r="E57">
+        <v>54</v>
+      </c>
+      <c r="F57">
+        <v>12</v>
+      </c>
+      <c r="G57" t="b">
+        <v>0</v>
+      </c>
+      <c r="H57" t="b">
+        <v>0</v>
+      </c>
+      <c r="I57" t="b">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57" t="s">
+        <v>209</v>
+      </c>
+      <c r="M57" s="1"/>
+      <c r="O57">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="58" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B58" t="s">
+        <v>87</v>
+      </c>
+      <c r="C58" t="s">
+        <v>87</v>
+      </c>
+      <c r="E58">
+        <v>55</v>
+      </c>
+      <c r="F58">
+        <v>13</v>
+      </c>
+      <c r="G58" t="b">
+        <v>0</v>
+      </c>
+      <c r="H58" t="b">
+        <v>0</v>
+      </c>
+      <c r="I58" t="b">
+        <v>1</v>
+      </c>
+      <c r="J58">
+        <v>0</v>
+      </c>
+      <c r="K58" t="s">
+        <v>184</v>
+      </c>
+      <c r="L58" t="s">
+        <v>241</v>
+      </c>
+      <c r="N58" t="b">
+        <v>1</v>
+      </c>
+      <c r="O58">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="59" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B59" t="s">
+        <v>88</v>
+      </c>
+      <c r="C59" t="s">
+        <v>88</v>
+      </c>
+      <c r="E59">
+        <v>56</v>
+      </c>
+      <c r="F59">
+        <v>13</v>
+      </c>
+      <c r="G59" t="b">
+        <v>0</v>
+      </c>
+      <c r="H59" t="b">
+        <v>0</v>
+      </c>
+      <c r="I59" t="b">
+        <v>1</v>
+      </c>
+      <c r="J59">
+        <v>0</v>
+      </c>
+      <c r="K59" t="s">
+        <v>184</v>
+      </c>
+      <c r="L59" t="s">
+        <v>238</v>
+      </c>
+      <c r="N59" t="b">
+        <v>1</v>
+      </c>
+      <c r="O59">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="60" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B60" t="s">
+        <v>89</v>
+      </c>
+      <c r="C60" t="s">
+        <v>89</v>
+      </c>
+      <c r="E60">
+        <v>57</v>
+      </c>
+      <c r="F60">
+        <v>13</v>
+      </c>
+      <c r="G60" t="b">
+        <v>0</v>
+      </c>
+      <c r="H60" t="b">
+        <v>0</v>
+      </c>
+      <c r="I60" t="b">
+        <v>1</v>
+      </c>
+      <c r="J60">
+        <v>0</v>
+      </c>
+      <c r="K60" t="s">
+        <v>184</v>
+      </c>
+      <c r="L60" t="s">
+        <v>239</v>
+      </c>
+      <c r="N60" t="b">
+        <v>1</v>
+      </c>
+      <c r="O60">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="61" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B61" t="s">
+        <v>90</v>
+      </c>
+      <c r="C61" t="s">
+        <v>90</v>
+      </c>
+      <c r="E61">
+        <v>58</v>
+      </c>
+      <c r="F61">
+        <v>15</v>
+      </c>
+      <c r="G61" t="b">
+        <v>1</v>
+      </c>
+      <c r="H61" t="b">
+        <v>0</v>
+      </c>
+      <c r="I61" t="b">
+        <v>1</v>
+      </c>
+      <c r="J61">
+        <v>0</v>
+      </c>
+      <c r="K61" t="s">
+        <v>184</v>
+      </c>
+      <c r="L61" t="s">
+        <v>318</v>
+      </c>
+      <c r="N61" t="b">
+        <v>1</v>
+      </c>
+      <c r="O61">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="62" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B62" t="s">
+        <v>91</v>
+      </c>
+      <c r="C62" t="s">
+        <v>91</v>
+      </c>
+      <c r="E62">
+        <v>59</v>
+      </c>
+      <c r="F62">
+        <v>15</v>
+      </c>
+      <c r="G62" t="b">
+        <v>1</v>
+      </c>
+      <c r="H62" t="b">
+        <v>0</v>
+      </c>
+      <c r="I62" t="b">
+        <v>1</v>
+      </c>
+      <c r="J62">
+        <v>0</v>
+      </c>
+      <c r="K62" t="s">
+        <v>184</v>
+      </c>
+      <c r="L62" t="s">
+        <v>319</v>
+      </c>
+      <c r="N62" t="b">
+        <v>1</v>
+      </c>
+      <c r="O62">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="63" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B63" t="s">
+        <v>92</v>
+      </c>
+      <c r="C63" t="s">
+        <v>92</v>
+      </c>
+      <c r="E63">
+        <v>60</v>
+      </c>
+      <c r="F63">
+        <v>15</v>
+      </c>
+      <c r="G63" t="b">
+        <v>1</v>
+      </c>
+      <c r="H63" t="b">
+        <v>0</v>
+      </c>
+      <c r="I63" t="b">
+        <v>1</v>
+      </c>
+      <c r="J63">
+        <v>0</v>
+      </c>
+      <c r="K63" t="s">
+        <v>184</v>
+      </c>
+      <c r="L63" t="s">
+        <v>320</v>
+      </c>
+      <c r="N63" t="b">
+        <v>1</v>
+      </c>
+      <c r="O63">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="64" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B64" t="s">
+        <v>93</v>
+      </c>
+      <c r="C64" t="s">
+        <v>328</v>
+      </c>
+      <c r="E64">
+        <v>61</v>
+      </c>
+      <c r="F64">
+        <v>16</v>
+      </c>
+      <c r="G64" t="b">
+        <v>0</v>
+      </c>
+      <c r="H64" t="b">
+        <v>0</v>
+      </c>
+      <c r="I64" t="b">
+        <v>0</v>
+      </c>
+      <c r="J64">
+        <v>0</v>
+      </c>
+      <c r="K64" t="s">
+        <v>184</v>
+      </c>
+      <c r="M64" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="N64" t="b">
+        <v>1</v>
+      </c>
+      <c r="O64">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B65" t="s">
+        <v>94</v>
+      </c>
+      <c r="C65" t="s">
+        <v>329</v>
+      </c>
+      <c r="E65">
+        <v>62</v>
+      </c>
+      <c r="F65">
+        <v>16</v>
+      </c>
+      <c r="G65" t="b">
+        <v>0</v>
+      </c>
+      <c r="H65" t="b">
+        <v>0</v>
+      </c>
+      <c r="I65" t="b">
+        <v>0</v>
+      </c>
+      <c r="J65">
+        <v>0</v>
+      </c>
+      <c r="K65" t="s">
+        <v>184</v>
+      </c>
+      <c r="M65" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="N65" t="b">
+        <v>1</v>
+      </c>
+      <c r="O65">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B66" t="s">
+        <v>95</v>
+      </c>
+      <c r="C66" t="s">
+        <v>330</v>
+      </c>
+      <c r="E66">
+        <v>63</v>
+      </c>
+      <c r="F66">
+        <v>18</v>
+      </c>
+      <c r="G66" t="b">
+        <v>0</v>
+      </c>
+      <c r="H66" t="b">
+        <v>0</v>
+      </c>
+      <c r="I66" t="b">
+        <v>0</v>
+      </c>
+      <c r="J66">
+        <v>0</v>
+      </c>
+      <c r="K66" t="s">
+        <v>185</v>
+      </c>
+      <c r="M66" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="N66" t="b">
+        <v>1</v>
+      </c>
+      <c r="O66">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B67" t="s">
+        <v>96</v>
+      </c>
+      <c r="C67" t="s">
+        <v>331</v>
+      </c>
+      <c r="E67">
+        <v>64</v>
+      </c>
+      <c r="F67">
+        <v>18</v>
+      </c>
+      <c r="G67" t="b">
+        <v>0</v>
+      </c>
+      <c r="H67" t="b">
+        <v>0</v>
+      </c>
+      <c r="I67" t="b">
+        <v>0</v>
+      </c>
+      <c r="J67">
+        <v>0</v>
+      </c>
+      <c r="K67" t="s">
+        <v>185</v>
+      </c>
+      <c r="M67" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="N67" t="b">
+        <v>1</v>
+      </c>
+      <c r="O67">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B68" t="s">
+        <v>97</v>
+      </c>
+      <c r="C68" t="s">
+        <v>332</v>
+      </c>
+      <c r="E68">
+        <v>65</v>
+      </c>
+      <c r="F68">
+        <v>18</v>
+      </c>
+      <c r="G68" t="b">
+        <v>0</v>
+      </c>
+      <c r="H68" t="b">
+        <v>0</v>
+      </c>
+      <c r="I68" t="b">
+        <v>0</v>
+      </c>
+      <c r="J68">
+        <v>0</v>
+      </c>
+      <c r="K68" t="s">
+        <v>185</v>
+      </c>
+      <c r="M68" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="N68" t="b">
+        <v>1</v>
+      </c>
+      <c r="O68">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B69" t="s">
+        <v>98</v>
+      </c>
+      <c r="C69" t="s">
+        <v>333</v>
+      </c>
+      <c r="E69">
+        <v>66</v>
+      </c>
+      <c r="F69">
+        <v>18</v>
+      </c>
+      <c r="G69" t="b">
+        <v>0</v>
+      </c>
+      <c r="H69" t="b">
+        <v>0</v>
+      </c>
+      <c r="I69" t="b">
+        <v>0</v>
+      </c>
+      <c r="J69">
+        <v>0</v>
+      </c>
+      <c r="K69" t="s">
+        <v>185</v>
+      </c>
+      <c r="M69" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="N69" t="b">
+        <v>1</v>
+      </c>
+      <c r="O69">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B70" t="s">
+        <v>99</v>
+      </c>
+      <c r="C70" t="s">
+        <v>334</v>
+      </c>
+      <c r="E70">
+        <v>67</v>
+      </c>
+      <c r="F70">
+        <v>18</v>
+      </c>
+      <c r="G70" t="b">
+        <v>0</v>
+      </c>
+      <c r="H70" t="b">
+        <v>0</v>
+      </c>
+      <c r="I70" t="b">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+      <c r="K70" t="s">
+        <v>185</v>
+      </c>
+      <c r="M70" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="N70" t="b">
+        <v>1</v>
+      </c>
+      <c r="O70">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B71" t="s">
+        <v>100</v>
+      </c>
+      <c r="C71" t="s">
+        <v>335</v>
+      </c>
+      <c r="E71">
+        <v>68</v>
+      </c>
+      <c r="F71">
+        <v>18</v>
+      </c>
+      <c r="G71" t="b">
+        <v>0</v>
+      </c>
+      <c r="H71" t="b">
+        <v>0</v>
+      </c>
+      <c r="I71" t="b">
+        <v>0</v>
+      </c>
+      <c r="J71">
+        <v>0</v>
+      </c>
+      <c r="K71" t="s">
+        <v>185</v>
+      </c>
+      <c r="M71" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="N71" t="b">
+        <v>1</v>
+      </c>
+      <c r="O71">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B72" t="s">
+        <v>101</v>
+      </c>
+      <c r="C72" t="s">
+        <v>336</v>
+      </c>
+      <c r="E72">
+        <v>69</v>
+      </c>
+      <c r="F72">
+        <v>19</v>
+      </c>
+      <c r="G72" t="b">
+        <v>0</v>
+      </c>
+      <c r="H72" t="b">
+        <v>0</v>
+      </c>
+      <c r="I72" t="b">
+        <v>0</v>
+      </c>
+      <c r="J72">
+        <v>0</v>
+      </c>
+      <c r="K72" t="s">
+        <v>182</v>
+      </c>
+      <c r="N72" t="b">
+        <v>1</v>
+      </c>
+      <c r="O72">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B73" t="s">
+        <v>102</v>
+      </c>
+      <c r="C73" t="s">
+        <v>337</v>
+      </c>
+      <c r="E73">
+        <v>70</v>
+      </c>
+      <c r="F73">
+        <v>19</v>
+      </c>
+      <c r="G73" t="b">
+        <v>0</v>
+      </c>
+      <c r="H73" t="b">
+        <v>0</v>
+      </c>
+      <c r="I73" t="b">
+        <v>0</v>
+      </c>
+      <c r="J73">
+        <v>0</v>
+      </c>
+      <c r="K73" t="s">
+        <v>182</v>
+      </c>
+      <c r="N73" t="b">
+        <v>1</v>
+      </c>
+      <c r="O73">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B74" t="s">
+        <v>103</v>
+      </c>
+      <c r="C74" t="s">
+        <v>338</v>
+      </c>
+      <c r="E74">
+        <v>71</v>
+      </c>
+      <c r="F74">
+        <v>19</v>
+      </c>
+      <c r="G74" t="b">
+        <v>0</v>
+      </c>
+      <c r="H74" t="b">
+        <v>0</v>
+      </c>
+      <c r="I74" t="b">
+        <v>0</v>
+      </c>
+      <c r="J74">
+        <v>0</v>
+      </c>
+      <c r="K74" t="s">
+        <v>182</v>
+      </c>
+      <c r="N74" t="b">
+        <v>1</v>
+      </c>
+      <c r="O74">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B75" t="s">
+        <v>104</v>
+      </c>
+      <c r="C75" t="s">
+        <v>339</v>
+      </c>
+      <c r="E75">
+        <v>72</v>
+      </c>
+      <c r="F75">
+        <v>19</v>
+      </c>
+      <c r="G75" t="b">
+        <v>0</v>
+      </c>
+      <c r="H75" t="b">
+        <v>0</v>
+      </c>
+      <c r="I75" t="b">
+        <v>0</v>
+      </c>
+      <c r="J75">
+        <v>0</v>
+      </c>
+      <c r="K75" t="s">
+        <v>182</v>
+      </c>
+      <c r="N75" t="b">
+        <v>1</v>
+      </c>
+      <c r="O75">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B76" t="s">
+        <v>105</v>
+      </c>
+      <c r="C76" t="s">
+        <v>340</v>
+      </c>
+      <c r="E76">
+        <v>73</v>
+      </c>
+      <c r="F76">
+        <v>19</v>
+      </c>
+      <c r="G76" t="b">
+        <v>0</v>
+      </c>
+      <c r="H76" t="b">
+        <v>0</v>
+      </c>
+      <c r="I76" t="b">
+        <v>0</v>
+      </c>
+      <c r="J76">
+        <v>0</v>
+      </c>
+      <c r="K76" t="s">
+        <v>182</v>
+      </c>
+      <c r="N76" t="b">
+        <v>1</v>
+      </c>
+      <c r="O76">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B77" t="s">
+        <v>106</v>
+      </c>
+      <c r="C77" t="s">
+        <v>341</v>
+      </c>
+      <c r="E77">
+        <v>74</v>
+      </c>
+      <c r="F77">
+        <v>19</v>
+      </c>
+      <c r="G77" t="b">
+        <v>0</v>
+      </c>
+      <c r="H77" t="b">
+        <v>0</v>
+      </c>
+      <c r="I77" t="b">
+        <v>0</v>
+      </c>
+      <c r="J77">
+        <v>0</v>
+      </c>
+      <c r="K77" t="s">
+        <v>182</v>
+      </c>
+      <c r="N77" t="b">
+        <v>1</v>
+      </c>
+      <c r="O77">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="78" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B78" t="s">
+        <v>107</v>
+      </c>
+      <c r="C78" t="s">
+        <v>342</v>
+      </c>
+      <c r="E78">
+        <v>75</v>
+      </c>
+      <c r="F78">
+        <v>19</v>
+      </c>
+      <c r="G78" t="b">
+        <v>0</v>
+      </c>
+      <c r="H78" t="b">
+        <v>0</v>
+      </c>
+      <c r="I78" t="b">
+        <v>0</v>
+      </c>
+      <c r="J78">
+        <v>0</v>
+      </c>
+      <c r="K78" t="s">
+        <v>182</v>
+      </c>
+      <c r="N78" t="b">
+        <v>1</v>
+      </c>
+      <c r="O78">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B79" t="s">
+        <v>108</v>
+      </c>
+      <c r="C79" t="s">
+        <v>343</v>
+      </c>
+      <c r="E79">
+        <v>76</v>
+      </c>
+      <c r="F79">
+        <v>19</v>
+      </c>
+      <c r="G79" t="b">
+        <v>0</v>
+      </c>
+      <c r="H79" t="b">
+        <v>0</v>
+      </c>
+      <c r="I79" t="b">
+        <v>0</v>
+      </c>
+      <c r="J79">
+        <v>0</v>
+      </c>
+      <c r="K79" t="s">
+        <v>182</v>
+      </c>
+      <c r="N79" t="b">
+        <v>1</v>
+      </c>
+      <c r="O79">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B80" t="s">
+        <v>109</v>
+      </c>
+      <c r="C80" t="s">
+        <v>344</v>
+      </c>
+      <c r="E80">
+        <v>77</v>
+      </c>
+      <c r="F80">
+        <v>19</v>
+      </c>
+      <c r="G80" t="b">
+        <v>0</v>
+      </c>
+      <c r="H80" t="b">
+        <v>0</v>
+      </c>
+      <c r="I80" t="b">
+        <v>0</v>
+      </c>
+      <c r="J80">
+        <v>0</v>
+      </c>
+      <c r="K80" t="s">
+        <v>182</v>
+      </c>
+      <c r="N80" t="b">
+        <v>1</v>
+      </c>
+      <c r="O80">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="81" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B81" t="s">
+        <v>110</v>
+      </c>
+      <c r="C81" t="s">
+        <v>345</v>
+      </c>
+      <c r="E81">
+        <v>78</v>
+      </c>
+      <c r="F81">
+        <v>19</v>
+      </c>
+      <c r="G81" t="b">
+        <v>0</v>
+      </c>
+      <c r="H81" t="b">
+        <v>0</v>
+      </c>
+      <c r="I81" t="b">
+        <v>0</v>
+      </c>
+      <c r="J81">
+        <v>0</v>
+      </c>
+      <c r="K81" t="s">
+        <v>182</v>
+      </c>
+      <c r="N81" t="b">
+        <v>1</v>
+      </c>
+      <c r="O81">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="82" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B82" t="s">
+        <v>111</v>
+      </c>
+      <c r="C82" t="s">
+        <v>346</v>
+      </c>
+      <c r="E82">
+        <v>79</v>
+      </c>
+      <c r="F82">
+        <v>20</v>
+      </c>
+      <c r="G82" t="b">
+        <v>0</v>
+      </c>
+      <c r="H82" t="b">
+        <v>0</v>
+      </c>
+      <c r="I82" t="b">
+        <v>0</v>
+      </c>
+      <c r="J82">
+        <v>0</v>
+      </c>
+      <c r="K82" t="s">
+        <v>183</v>
+      </c>
+      <c r="N82" t="b">
+        <v>1</v>
+      </c>
+      <c r="O82">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="83" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B83" t="s">
+        <v>112</v>
+      </c>
+      <c r="C83" t="s">
+        <v>347</v>
+      </c>
+      <c r="E83">
+        <v>80</v>
+      </c>
+      <c r="F83">
+        <v>20</v>
+      </c>
+      <c r="G83" t="b">
+        <v>0</v>
+      </c>
+      <c r="H83" t="b">
+        <v>0</v>
+      </c>
+      <c r="I83" t="b">
+        <v>0</v>
+      </c>
+      <c r="J83">
+        <v>0</v>
+      </c>
+      <c r="K83" t="s">
+        <v>183</v>
+      </c>
+      <c r="N83" t="b">
+        <v>1</v>
+      </c>
+      <c r="O83">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="84" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B84" t="s">
+        <v>113</v>
+      </c>
+      <c r="C84" t="s">
+        <v>348</v>
+      </c>
+      <c r="E84">
+        <v>81</v>
+      </c>
+      <c r="F84">
+        <v>20</v>
+      </c>
+      <c r="G84" t="b">
+        <v>0</v>
+      </c>
+      <c r="H84" t="b">
+        <v>0</v>
+      </c>
+      <c r="I84" t="b">
+        <v>0</v>
+      </c>
+      <c r="J84">
+        <v>0</v>
+      </c>
+      <c r="K84" t="s">
+        <v>183</v>
+      </c>
+      <c r="N84" t="b">
+        <v>1</v>
+      </c>
+      <c r="O84">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="85" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B85" t="s">
+        <v>114</v>
+      </c>
+      <c r="C85" t="s">
+        <v>349</v>
+      </c>
+      <c r="E85">
+        <v>82</v>
+      </c>
+      <c r="F85">
+        <v>20</v>
+      </c>
+      <c r="G85" t="b">
+        <v>0</v>
+      </c>
+      <c r="H85" t="b">
+        <v>0</v>
+      </c>
+      <c r="I85" t="b">
+        <v>0</v>
+      </c>
+      <c r="J85">
+        <v>0</v>
+      </c>
+      <c r="K85" t="s">
+        <v>183</v>
+      </c>
+      <c r="N85" t="b">
+        <v>1</v>
+      </c>
+      <c r="O85">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="86" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B86" t="s">
+        <v>115</v>
+      </c>
+      <c r="C86" t="s">
+        <v>350</v>
+      </c>
+      <c r="E86">
+        <v>83</v>
+      </c>
+      <c r="F86">
+        <v>20</v>
+      </c>
+      <c r="G86" t="b">
+        <v>0</v>
+      </c>
+      <c r="H86" t="b">
+        <v>0</v>
+      </c>
+      <c r="I86" t="b">
+        <v>0</v>
+      </c>
+      <c r="J86">
+        <v>0</v>
+      </c>
+      <c r="K86" t="s">
+        <v>183</v>
+      </c>
+      <c r="N86" t="b">
+        <v>1</v>
+      </c>
+      <c r="O86">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="87" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B87" t="s">
+        <v>116</v>
+      </c>
+      <c r="C87" t="s">
+        <v>351</v>
+      </c>
+      <c r="E87">
+        <v>84</v>
+      </c>
+      <c r="F87">
+        <v>21</v>
+      </c>
+      <c r="G87" t="b">
+        <v>0</v>
+      </c>
+      <c r="H87" t="b">
+        <v>0</v>
+      </c>
+      <c r="I87" t="b">
+        <v>0</v>
+      </c>
+      <c r="J87">
+        <v>0</v>
+      </c>
+      <c r="K87" t="s">
+        <v>189</v>
+      </c>
+      <c r="N87" t="b">
+        <v>1</v>
+      </c>
+      <c r="O87">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="88" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B88" t="s">
+        <v>117</v>
+      </c>
+      <c r="C88" t="s">
+        <v>352</v>
+      </c>
+      <c r="E88">
+        <v>85</v>
+      </c>
+      <c r="F88">
+        <v>21</v>
+      </c>
+      <c r="G88" t="b">
+        <v>0</v>
+      </c>
+      <c r="H88" t="b">
+        <v>0</v>
+      </c>
+      <c r="I88" t="b">
+        <v>0</v>
+      </c>
+      <c r="J88">
+        <v>0</v>
+      </c>
+      <c r="K88" t="s">
+        <v>189</v>
+      </c>
+      <c r="N88" t="b">
+        <v>1</v>
+      </c>
+      <c r="O88">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="89" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B89" t="s">
+        <v>118</v>
+      </c>
+      <c r="C89" t="s">
+        <v>353</v>
+      </c>
+      <c r="E89">
+        <v>86</v>
+      </c>
+      <c r="F89">
+        <v>21</v>
+      </c>
+      <c r="G89" t="b">
+        <v>0</v>
+      </c>
+      <c r="H89" t="b">
+        <v>0</v>
+      </c>
+      <c r="I89" t="b">
+        <v>0</v>
+      </c>
+      <c r="J89">
+        <v>0</v>
+      </c>
+      <c r="K89" t="s">
+        <v>189</v>
+      </c>
+      <c r="N89" t="b">
+        <v>1</v>
+      </c>
+      <c r="O89">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="90" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B90" t="s">
+        <v>119</v>
+      </c>
+      <c r="C90" t="s">
+        <v>354</v>
+      </c>
+      <c r="E90">
+        <v>87</v>
+      </c>
+      <c r="F90">
+        <v>21</v>
+      </c>
+      <c r="G90" t="b">
+        <v>0</v>
+      </c>
+      <c r="H90" t="b">
+        <v>0</v>
+      </c>
+      <c r="I90" t="b">
+        <v>0</v>
+      </c>
+      <c r="J90">
+        <v>0</v>
+      </c>
+      <c r="K90" t="s">
+        <v>189</v>
+      </c>
+      <c r="N90" t="b">
+        <v>1</v>
+      </c>
+      <c r="O90">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="91" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B91" t="s">
         <v>120</v>
       </c>
-      <c r="M19" t="b">
-        <v>1</v>
-      </c>
-      <c r="N19">
-        <v>1</v>
+      <c r="C91" t="s">
+        <v>355</v>
+      </c>
+      <c r="E91">
+        <v>88</v>
+      </c>
+      <c r="F91">
+        <v>21</v>
+      </c>
+      <c r="G91" t="b">
+        <v>0</v>
+      </c>
+      <c r="H91" t="b">
+        <v>0</v>
+      </c>
+      <c r="I91" t="b">
+        <v>0</v>
+      </c>
+      <c r="J91">
+        <v>0</v>
+      </c>
+      <c r="K91" t="s">
+        <v>189</v>
+      </c>
+      <c r="N91" t="b">
+        <v>1</v>
+      </c>
+      <c r="O91">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="92" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B92" t="s">
+        <v>121</v>
+      </c>
+      <c r="C92" t="s">
+        <v>356</v>
+      </c>
+      <c r="E92">
+        <v>89</v>
+      </c>
+      <c r="F92">
+        <v>22</v>
+      </c>
+      <c r="G92" t="b">
+        <v>1</v>
+      </c>
+      <c r="H92" t="b">
+        <v>0</v>
+      </c>
+      <c r="I92" t="b">
+        <v>1</v>
+      </c>
+      <c r="J92">
+        <v>0</v>
+      </c>
+      <c r="K92" t="s">
+        <v>190</v>
+      </c>
+      <c r="N92" t="b">
+        <v>1</v>
+      </c>
+      <c r="O92">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="93" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B93" t="s">
+        <v>122</v>
+      </c>
+      <c r="C93" t="s">
+        <v>357</v>
+      </c>
+      <c r="E93">
+        <v>90</v>
+      </c>
+      <c r="F93">
+        <v>22</v>
+      </c>
+      <c r="G93" t="b">
+        <v>1</v>
+      </c>
+      <c r="H93" t="b">
+        <v>0</v>
+      </c>
+      <c r="I93" t="b">
+        <v>1</v>
+      </c>
+      <c r="J93">
+        <v>0</v>
+      </c>
+      <c r="K93" t="s">
+        <v>194</v>
+      </c>
+      <c r="N93" t="b">
+        <v>1</v>
+      </c>
+      <c r="O93">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="94" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B94" t="s">
+        <v>123</v>
+      </c>
+      <c r="C94" t="s">
+        <v>358</v>
+      </c>
+      <c r="E94">
+        <v>91</v>
+      </c>
+      <c r="F94">
+        <v>22</v>
+      </c>
+      <c r="G94" t="b">
+        <v>1</v>
+      </c>
+      <c r="H94" t="b">
+        <v>0</v>
+      </c>
+      <c r="I94" t="b">
+        <v>1</v>
+      </c>
+      <c r="J94">
+        <v>0</v>
+      </c>
+      <c r="K94" t="s">
+        <v>198</v>
+      </c>
+      <c r="N94" t="b">
+        <v>1</v>
+      </c>
+      <c r="O94">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="95" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B95" t="s">
+        <v>124</v>
+      </c>
+      <c r="C95" t="s">
+        <v>359</v>
+      </c>
+      <c r="E95">
+        <v>92</v>
+      </c>
+      <c r="F95">
+        <v>22</v>
+      </c>
+      <c r="G95" t="b">
+        <v>1</v>
+      </c>
+      <c r="H95" t="b">
+        <v>0</v>
+      </c>
+      <c r="I95" t="b">
+        <v>1</v>
+      </c>
+      <c r="J95">
+        <v>0</v>
+      </c>
+      <c r="K95" t="s">
+        <v>199</v>
+      </c>
+      <c r="N95" t="b">
+        <v>1</v>
+      </c>
+      <c r="O95">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="96" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B96" t="s">
+        <v>125</v>
+      </c>
+      <c r="C96" t="s">
+        <v>360</v>
+      </c>
+      <c r="E96">
+        <v>93</v>
+      </c>
+      <c r="F96">
+        <v>22</v>
+      </c>
+      <c r="G96" t="b">
+        <v>1</v>
+      </c>
+      <c r="H96" t="b">
+        <v>0</v>
+      </c>
+      <c r="I96" t="b">
+        <v>1</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+      <c r="K96" t="s">
+        <v>192</v>
+      </c>
+      <c r="N96" t="b">
+        <v>1</v>
+      </c>
+      <c r="O96">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="97" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B97" t="s">
+        <v>126</v>
+      </c>
+      <c r="C97" t="s">
+        <v>361</v>
+      </c>
+      <c r="E97">
+        <v>94</v>
+      </c>
+      <c r="F97">
+        <v>22</v>
+      </c>
+      <c r="G97" t="b">
+        <v>1</v>
+      </c>
+      <c r="H97" t="b">
+        <v>0</v>
+      </c>
+      <c r="I97" t="b">
+        <v>1</v>
+      </c>
+      <c r="J97">
+        <v>0</v>
+      </c>
+      <c r="K97" t="s">
+        <v>196</v>
+      </c>
+      <c r="N97" t="b">
+        <v>1</v>
+      </c>
+      <c r="O97">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="98" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B98" t="s">
+        <v>127</v>
+      </c>
+      <c r="C98" t="s">
+        <v>362</v>
+      </c>
+      <c r="E98">
+        <v>95</v>
+      </c>
+      <c r="F98">
+        <v>22</v>
+      </c>
+      <c r="G98" t="b">
+        <v>1</v>
+      </c>
+      <c r="H98" t="b">
+        <v>0</v>
+      </c>
+      <c r="I98" t="b">
+        <v>1</v>
+      </c>
+      <c r="J98">
+        <v>0</v>
+      </c>
+      <c r="K98" t="s">
+        <v>200</v>
+      </c>
+      <c r="N98" t="b">
+        <v>1</v>
+      </c>
+      <c r="O98">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="99" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B99" t="s">
+        <v>128</v>
+      </c>
+      <c r="C99" t="s">
+        <v>363</v>
+      </c>
+      <c r="E99">
+        <v>96</v>
+      </c>
+      <c r="F99">
+        <v>22</v>
+      </c>
+      <c r="G99" t="b">
+        <v>1</v>
+      </c>
+      <c r="H99" t="b">
+        <v>0</v>
+      </c>
+      <c r="I99" t="b">
+        <v>1</v>
+      </c>
+      <c r="J99">
+        <v>0</v>
+      </c>
+      <c r="K99" t="s">
+        <v>201</v>
+      </c>
+      <c r="N99" t="b">
+        <v>1</v>
+      </c>
+      <c r="O99">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="100" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B100" t="s">
+        <v>121</v>
+      </c>
+      <c r="C100" t="s">
+        <v>356</v>
+      </c>
+      <c r="E100">
+        <v>97</v>
+      </c>
+      <c r="F100">
+        <v>22</v>
+      </c>
+      <c r="G100" t="b">
+        <v>1</v>
+      </c>
+      <c r="H100" t="b">
+        <v>0</v>
+      </c>
+      <c r="I100" t="b">
+        <v>1</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+      <c r="K100" t="s">
+        <v>191</v>
+      </c>
+      <c r="N100" t="b">
+        <v>1</v>
+      </c>
+      <c r="O100">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="101" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B101" t="s">
+        <v>122</v>
+      </c>
+      <c r="C101" t="s">
+        <v>357</v>
+      </c>
+      <c r="E101">
+        <v>98</v>
+      </c>
+      <c r="F101">
+        <v>22</v>
+      </c>
+      <c r="G101" t="b">
+        <v>1</v>
+      </c>
+      <c r="H101" t="b">
+        <v>0</v>
+      </c>
+      <c r="I101" t="b">
+        <v>1</v>
+      </c>
+      <c r="J101">
+        <v>0</v>
+      </c>
+      <c r="K101" t="s">
+        <v>195</v>
+      </c>
+      <c r="N101" t="b">
+        <v>1</v>
+      </c>
+      <c r="O101">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="102" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B102" t="s">
+        <v>123</v>
+      </c>
+      <c r="C102" t="s">
+        <v>358</v>
+      </c>
+      <c r="E102">
+        <v>99</v>
+      </c>
+      <c r="F102">
+        <v>22</v>
+      </c>
+      <c r="G102" t="b">
+        <v>1</v>
+      </c>
+      <c r="H102" t="b">
+        <v>0</v>
+      </c>
+      <c r="I102" t="b">
+        <v>1</v>
+      </c>
+      <c r="J102">
+        <v>0</v>
+      </c>
+      <c r="K102" t="s">
+        <v>202</v>
+      </c>
+      <c r="N102" t="b">
+        <v>1</v>
+      </c>
+      <c r="O102">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="103" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B103" t="s">
+        <v>124</v>
+      </c>
+      <c r="C103" t="s">
+        <v>359</v>
+      </c>
+      <c r="E103">
+        <v>100</v>
+      </c>
+      <c r="F103">
+        <v>22</v>
+      </c>
+      <c r="G103" t="b">
+        <v>1</v>
+      </c>
+      <c r="H103" t="b">
+        <v>0</v>
+      </c>
+      <c r="I103" t="b">
+        <v>1</v>
+      </c>
+      <c r="J103">
+        <v>0</v>
+      </c>
+      <c r="K103" t="s">
+        <v>203</v>
+      </c>
+      <c r="N103" t="b">
+        <v>1</v>
+      </c>
+      <c r="O103">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="104" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B104" t="s">
+        <v>125</v>
+      </c>
+      <c r="C104" t="s">
+        <v>360</v>
+      </c>
+      <c r="E104">
+        <v>101</v>
+      </c>
+      <c r="F104">
+        <v>22</v>
+      </c>
+      <c r="G104" t="b">
+        <v>1</v>
+      </c>
+      <c r="H104" t="b">
+        <v>0</v>
+      </c>
+      <c r="I104" t="b">
+        <v>1</v>
+      </c>
+      <c r="J104">
+        <v>0</v>
+      </c>
+      <c r="K104" t="s">
+        <v>193</v>
+      </c>
+      <c r="N104" t="b">
+        <v>1</v>
+      </c>
+      <c r="O104">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="105" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B105" t="s">
+        <v>126</v>
+      </c>
+      <c r="C105" t="s">
+        <v>361</v>
+      </c>
+      <c r="E105">
+        <v>102</v>
+      </c>
+      <c r="F105">
+        <v>22</v>
+      </c>
+      <c r="G105" t="b">
+        <v>1</v>
+      </c>
+      <c r="H105" t="b">
+        <v>0</v>
+      </c>
+      <c r="I105" t="b">
+        <v>1</v>
+      </c>
+      <c r="J105">
+        <v>0</v>
+      </c>
+      <c r="K105" t="s">
+        <v>197</v>
+      </c>
+      <c r="N105" t="b">
+        <v>1</v>
+      </c>
+      <c r="O105">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="106" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B106" t="s">
+        <v>127</v>
+      </c>
+      <c r="C106" t="s">
+        <v>362</v>
+      </c>
+      <c r="E106">
+        <v>103</v>
+      </c>
+      <c r="F106">
+        <v>22</v>
+      </c>
+      <c r="G106" t="b">
+        <v>1</v>
+      </c>
+      <c r="H106" t="b">
+        <v>0</v>
+      </c>
+      <c r="I106" t="b">
+        <v>1</v>
+      </c>
+      <c r="J106">
+        <v>0</v>
+      </c>
+      <c r="K106" t="s">
+        <v>204</v>
+      </c>
+      <c r="N106" t="b">
+        <v>1</v>
+      </c>
+      <c r="O106">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="107" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B107" t="s">
+        <v>128</v>
+      </c>
+      <c r="C107" t="s">
+        <v>363</v>
+      </c>
+      <c r="E107">
+        <v>104</v>
+      </c>
+      <c r="F107">
+        <v>22</v>
+      </c>
+      <c r="G107" t="b">
+        <v>1</v>
+      </c>
+      <c r="H107" t="b">
+        <v>0</v>
+      </c>
+      <c r="I107" t="b">
+        <v>1</v>
+      </c>
+      <c r="J107">
+        <v>0</v>
+      </c>
+      <c r="K107" t="s">
+        <v>205</v>
+      </c>
+      <c r="N107" t="b">
+        <v>1</v>
+      </c>
+      <c r="O107">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="108" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B108" t="s">
+        <v>133</v>
+      </c>
+      <c r="C108" t="s">
+        <v>133</v>
+      </c>
+      <c r="E108">
+        <v>105</v>
+      </c>
+      <c r="F108">
+        <v>24</v>
+      </c>
+      <c r="G108" t="b">
+        <v>0</v>
+      </c>
+      <c r="H108" t="b">
+        <v>0</v>
+      </c>
+      <c r="I108" t="b">
+        <v>1</v>
+      </c>
+      <c r="J108">
+        <v>0</v>
+      </c>
+      <c r="K108" t="s">
+        <v>183</v>
+      </c>
+      <c r="L108" t="s">
+        <v>240</v>
+      </c>
+      <c r="N108" t="b">
+        <v>1</v>
+      </c>
+      <c r="O108">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="109" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B109" t="s">
+        <v>134</v>
+      </c>
+      <c r="C109" t="s">
+        <v>134</v>
+      </c>
+      <c r="E109">
+        <v>106</v>
+      </c>
+      <c r="F109">
+        <v>25</v>
+      </c>
+      <c r="G109" t="b">
+        <v>0</v>
+      </c>
+      <c r="H109" t="b">
+        <v>0</v>
+      </c>
+      <c r="I109" t="b">
+        <v>0</v>
+      </c>
+      <c r="J109">
+        <v>0</v>
+      </c>
+      <c r="K109" t="s">
+        <v>184</v>
+      </c>
+      <c r="N109" t="b">
+        <v>1</v>
+      </c>
+      <c r="O109">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="110" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B110" t="s">
+        <v>135</v>
+      </c>
+      <c r="C110" t="s">
+        <v>135</v>
+      </c>
+      <c r="E110">
+        <v>107</v>
+      </c>
+      <c r="F110">
+        <v>25</v>
+      </c>
+      <c r="G110" t="b">
+        <v>0</v>
+      </c>
+      <c r="H110" t="b">
+        <v>0</v>
+      </c>
+      <c r="I110" t="b">
+        <v>0</v>
+      </c>
+      <c r="J110">
+        <v>0</v>
+      </c>
+      <c r="K110" t="s">
+        <v>184</v>
+      </c>
+      <c r="N110" t="b">
+        <v>1</v>
+      </c>
+      <c r="O110">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="111" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B111" t="s">
+        <v>136</v>
+      </c>
+      <c r="C111" t="s">
+        <v>136</v>
+      </c>
+      <c r="E111">
+        <v>108</v>
+      </c>
+      <c r="F111">
+        <v>25</v>
+      </c>
+      <c r="G111" t="b">
+        <v>0</v>
+      </c>
+      <c r="H111" t="b">
+        <v>0</v>
+      </c>
+      <c r="I111" t="b">
+        <v>0</v>
+      </c>
+      <c r="J111">
+        <v>0</v>
+      </c>
+      <c r="K111" t="s">
+        <v>184</v>
+      </c>
+      <c r="N111" t="b">
+        <v>1</v>
+      </c>
+      <c r="O111">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="112" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B112" t="s">
+        <v>137</v>
+      </c>
+      <c r="C112" t="s">
+        <v>137</v>
+      </c>
+      <c r="E112">
+        <v>109</v>
+      </c>
+      <c r="F112">
+        <v>26</v>
+      </c>
+      <c r="G112" t="b">
+        <v>1</v>
+      </c>
+      <c r="H112" t="b">
+        <v>0</v>
+      </c>
+      <c r="I112" t="b">
+        <v>0</v>
+      </c>
+      <c r="J112">
+        <v>0</v>
+      </c>
+      <c r="K112" t="s">
+        <v>182</v>
+      </c>
+      <c r="M112" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="N112" t="b">
+        <v>1</v>
+      </c>
+      <c r="O112">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="113" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B113" t="s">
+        <v>138</v>
+      </c>
+      <c r="C113" t="s">
+        <v>138</v>
+      </c>
+      <c r="E113">
+        <v>110</v>
+      </c>
+      <c r="F113">
+        <v>26</v>
+      </c>
+      <c r="G113" t="b">
+        <v>1</v>
+      </c>
+      <c r="H113" t="b">
+        <v>0</v>
+      </c>
+      <c r="I113" t="b">
+        <v>0</v>
+      </c>
+      <c r="J113">
+        <v>0</v>
+      </c>
+      <c r="K113" t="s">
+        <v>182</v>
+      </c>
+      <c r="M113" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="N113" t="b">
+        <v>1</v>
+      </c>
+      <c r="O113">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="114" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B114" t="s">
+        <v>139</v>
+      </c>
+      <c r="C114" t="s">
+        <v>139</v>
+      </c>
+      <c r="E114">
+        <v>111</v>
+      </c>
+      <c r="F114">
+        <v>26</v>
+      </c>
+      <c r="G114" t="b">
+        <v>1</v>
+      </c>
+      <c r="H114" t="b">
+        <v>0</v>
+      </c>
+      <c r="I114" t="b">
+        <v>0</v>
+      </c>
+      <c r="J114">
+        <v>0</v>
+      </c>
+      <c r="K114" t="s">
+        <v>182</v>
+      </c>
+      <c r="M114" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="N114" t="b">
+        <v>1</v>
+      </c>
+      <c r="O114">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="115" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B115" t="s">
+        <v>140</v>
+      </c>
+      <c r="C115" t="s">
+        <v>140</v>
+      </c>
+      <c r="E115">
+        <v>112</v>
+      </c>
+      <c r="F115">
+        <v>27</v>
+      </c>
+      <c r="G115" t="b">
+        <v>1</v>
+      </c>
+      <c r="H115" t="b">
+        <v>0</v>
+      </c>
+      <c r="I115" t="b">
+        <v>0</v>
+      </c>
+      <c r="J115">
+        <v>0</v>
+      </c>
+      <c r="K115" t="s">
+        <v>183</v>
+      </c>
+      <c r="M115" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="N115" t="b">
+        <v>1</v>
+      </c>
+      <c r="O115">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="116" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B116" t="s">
+        <v>141</v>
+      </c>
+      <c r="C116" t="s">
+        <v>141</v>
+      </c>
+      <c r="E116">
+        <v>113</v>
+      </c>
+      <c r="F116">
+        <v>27</v>
+      </c>
+      <c r="G116" t="b">
+        <v>1</v>
+      </c>
+      <c r="H116" t="b">
+        <v>0</v>
+      </c>
+      <c r="I116" t="b">
+        <v>0</v>
+      </c>
+      <c r="J116">
+        <v>0</v>
+      </c>
+      <c r="K116" t="s">
+        <v>183</v>
+      </c>
+      <c r="M116" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="N116" t="b">
+        <v>1</v>
+      </c>
+      <c r="O116">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="117" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B117" t="s">
+        <v>142</v>
+      </c>
+      <c r="C117" t="s">
+        <v>142</v>
+      </c>
+      <c r="E117">
+        <v>114</v>
+      </c>
+      <c r="F117">
+        <v>27</v>
+      </c>
+      <c r="G117" t="b">
+        <v>1</v>
+      </c>
+      <c r="H117" t="b">
+        <v>0</v>
+      </c>
+      <c r="I117" t="b">
+        <v>0</v>
+      </c>
+      <c r="J117">
+        <v>0</v>
+      </c>
+      <c r="K117" t="s">
+        <v>183</v>
+      </c>
+      <c r="M117" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="N117" t="b">
+        <v>1</v>
+      </c>
+      <c r="O117">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="118" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B118" t="s">
+        <v>129</v>
+      </c>
+      <c r="C118" t="s">
+        <v>129</v>
+      </c>
+      <c r="E118">
+        <v>115</v>
+      </c>
+      <c r="F118">
+        <v>28</v>
+      </c>
+      <c r="H118" t="b">
+        <v>1</v>
+      </c>
+      <c r="I118" t="b">
+        <v>0</v>
+      </c>
+      <c r="J118">
+        <v>99</v>
+      </c>
+      <c r="K118" t="s">
+        <v>206</v>
+      </c>
+      <c r="M118" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="N118" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B119" t="s">
+        <v>130</v>
+      </c>
+      <c r="C119" t="s">
+        <v>130</v>
+      </c>
+      <c r="E119">
+        <v>116</v>
+      </c>
+      <c r="F119">
+        <v>28</v>
+      </c>
+      <c r="H119" t="b">
+        <v>1</v>
+      </c>
+      <c r="I119" t="b">
+        <v>0</v>
+      </c>
+      <c r="J119">
+        <v>99</v>
+      </c>
+      <c r="K119" t="s">
+        <v>207</v>
+      </c>
+      <c r="M119" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="N119" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B120" t="s">
+        <v>131</v>
+      </c>
+      <c r="C120" t="s">
+        <v>131</v>
+      </c>
+      <c r="E120">
+        <v>117</v>
+      </c>
+      <c r="F120">
+        <v>28</v>
+      </c>
+      <c r="H120" t="b">
+        <v>1</v>
+      </c>
+      <c r="I120" t="b">
+        <v>0</v>
+      </c>
+      <c r="J120">
+        <v>99</v>
+      </c>
+      <c r="K120" t="s">
+        <v>208</v>
+      </c>
+      <c r="M120" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="N120" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B121" t="s">
+        <v>132</v>
+      </c>
+      <c r="C121" t="s">
+        <v>132</v>
+      </c>
+      <c r="E121">
+        <v>118</v>
+      </c>
+      <c r="F121">
+        <v>28</v>
+      </c>
+      <c r="H121" t="b">
+        <v>1</v>
+      </c>
+      <c r="I121" t="b">
+        <v>0</v>
+      </c>
+      <c r="J121">
+        <v>99</v>
+      </c>
+      <c r="K121" t="s">
+        <v>209</v>
+      </c>
+      <c r="M121" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="N121" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B122" t="s">
+        <v>143</v>
+      </c>
+      <c r="C122" t="s">
+        <v>143</v>
+      </c>
+      <c r="E122">
+        <v>119</v>
+      </c>
+      <c r="F122">
+        <v>29</v>
+      </c>
+      <c r="H122" t="b">
+        <v>1</v>
+      </c>
+      <c r="I122" t="b">
+        <v>0</v>
+      </c>
+      <c r="J122">
+        <v>0</v>
+      </c>
+      <c r="M122" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="123" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B123" t="s">
+        <v>144</v>
+      </c>
+      <c r="C123" t="s">
+        <v>144</v>
+      </c>
+      <c r="E123">
+        <v>120</v>
+      </c>
+      <c r="F123">
+        <v>29</v>
+      </c>
+      <c r="H123" t="b">
+        <v>1</v>
+      </c>
+      <c r="I123" t="b">
+        <v>0</v>
+      </c>
+      <c r="J123">
+        <v>0</v>
+      </c>
+      <c r="M123" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="124" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B124" t="s">
+        <v>145</v>
+      </c>
+      <c r="C124" t="s">
+        <v>145</v>
+      </c>
+      <c r="E124">
+        <v>121</v>
+      </c>
+      <c r="F124">
+        <v>29</v>
+      </c>
+      <c r="H124" t="b">
+        <v>1</v>
+      </c>
+      <c r="I124" t="b">
+        <v>0</v>
+      </c>
+      <c r="J124">
+        <v>0</v>
+      </c>
+      <c r="M124" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="125" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B125" t="s">
+        <v>146</v>
+      </c>
+      <c r="C125" t="s">
+        <v>146</v>
+      </c>
+      <c r="E125">
+        <v>122</v>
+      </c>
+      <c r="F125">
+        <v>29</v>
+      </c>
+      <c r="H125" t="b">
+        <v>1</v>
+      </c>
+      <c r="I125" t="b">
+        <v>0</v>
+      </c>
+      <c r="J125">
+        <v>0</v>
+      </c>
+      <c r="M125" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="126" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B126" t="s">
+        <v>147</v>
+      </c>
+      <c r="C126" t="s">
+        <v>147</v>
+      </c>
+      <c r="E126">
+        <v>123</v>
+      </c>
+      <c r="F126">
+        <v>29</v>
+      </c>
+      <c r="H126" t="b">
+        <v>1</v>
+      </c>
+      <c r="I126" t="b">
+        <v>0</v>
+      </c>
+      <c r="J126">
+        <v>0</v>
+      </c>
+      <c r="M126" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="127" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B127" t="s">
+        <v>148</v>
+      </c>
+      <c r="C127" t="s">
+        <v>148</v>
+      </c>
+      <c r="E127">
+        <v>124</v>
+      </c>
+      <c r="F127">
+        <v>29</v>
+      </c>
+      <c r="H127" t="b">
+        <v>1</v>
+      </c>
+      <c r="I127" t="b">
+        <v>0</v>
+      </c>
+      <c r="J127">
+        <v>0</v>
+      </c>
+      <c r="M127" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="128" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B128" t="s">
+        <v>149</v>
+      </c>
+      <c r="C128" t="s">
+        <v>149</v>
+      </c>
+      <c r="E128">
+        <v>125</v>
+      </c>
+      <c r="F128">
+        <v>29</v>
+      </c>
+      <c r="H128" t="b">
+        <v>1</v>
+      </c>
+      <c r="I128" t="b">
+        <v>0</v>
+      </c>
+      <c r="J128">
+        <v>0</v>
+      </c>
+      <c r="M128" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="129" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B129" t="s">
+        <v>150</v>
+      </c>
+      <c r="C129" t="s">
+        <v>150</v>
+      </c>
+      <c r="E129">
+        <v>126</v>
+      </c>
+      <c r="F129">
+        <v>29</v>
+      </c>
+      <c r="H129" t="b">
+        <v>1</v>
+      </c>
+      <c r="I129" t="b">
+        <v>0</v>
+      </c>
+      <c r="J129">
+        <v>0</v>
+      </c>
+      <c r="M129" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="130" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B130" t="s">
+        <v>151</v>
+      </c>
+      <c r="C130" t="s">
+        <v>151</v>
+      </c>
+      <c r="E130">
+        <v>127</v>
+      </c>
+      <c r="F130">
+        <v>29</v>
+      </c>
+      <c r="H130" t="b">
+        <v>1</v>
+      </c>
+      <c r="I130" t="b">
+        <v>0</v>
+      </c>
+      <c r="J130">
+        <v>0</v>
+      </c>
+      <c r="M130" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="131" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B131" t="s">
+        <v>152</v>
+      </c>
+      <c r="C131" t="s">
+        <v>152</v>
+      </c>
+      <c r="E131">
+        <v>128</v>
+      </c>
+      <c r="F131">
+        <v>29</v>
+      </c>
+      <c r="H131" t="b">
+        <v>1</v>
+      </c>
+      <c r="I131" t="b">
+        <v>0</v>
+      </c>
+      <c r="J131">
+        <v>0</v>
+      </c>
+      <c r="M131" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="132" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B132" t="s">
+        <v>153</v>
+      </c>
+      <c r="C132" t="s">
+        <v>153</v>
+      </c>
+      <c r="E132">
+        <v>129</v>
+      </c>
+      <c r="F132">
+        <v>29</v>
+      </c>
+      <c r="H132" t="b">
+        <v>1</v>
+      </c>
+      <c r="I132" t="b">
+        <v>0</v>
+      </c>
+      <c r="J132">
+        <v>0</v>
+      </c>
+      <c r="M132" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="133" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B133" t="s">
+        <v>154</v>
+      </c>
+      <c r="C133" t="s">
+        <v>154</v>
+      </c>
+      <c r="E133">
+        <v>130</v>
+      </c>
+      <c r="F133">
+        <v>29</v>
+      </c>
+      <c r="H133" t="b">
+        <v>1</v>
+      </c>
+      <c r="I133" t="b">
+        <v>0</v>
+      </c>
+      <c r="J133">
+        <v>0</v>
+      </c>
+      <c r="M133" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="134" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B134" t="s">
+        <v>155</v>
+      </c>
+      <c r="C134" t="s">
+        <v>155</v>
+      </c>
+      <c r="E134">
+        <v>131</v>
+      </c>
+      <c r="F134">
+        <v>29</v>
+      </c>
+      <c r="H134" t="b">
+        <v>1</v>
+      </c>
+      <c r="I134" t="b">
+        <v>0</v>
+      </c>
+      <c r="J134">
+        <v>0</v>
+      </c>
+      <c r="M134" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="135" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B135" t="s">
+        <v>156</v>
+      </c>
+      <c r="C135" t="s">
+        <v>156</v>
+      </c>
+      <c r="E135">
+        <v>132</v>
+      </c>
+      <c r="F135">
+        <v>29</v>
+      </c>
+      <c r="H135" t="b">
+        <v>1</v>
+      </c>
+      <c r="I135" t="b">
+        <v>0</v>
+      </c>
+      <c r="J135">
+        <v>0</v>
+      </c>
+      <c r="M135" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="136" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B136" t="s">
+        <v>157</v>
+      </c>
+      <c r="C136" t="s">
+        <v>157</v>
+      </c>
+      <c r="E136">
+        <v>133</v>
+      </c>
+      <c r="F136">
+        <v>29</v>
+      </c>
+      <c r="H136" t="b">
+        <v>1</v>
+      </c>
+      <c r="I136" t="b">
+        <v>0</v>
+      </c>
+      <c r="J136">
+        <v>0</v>
+      </c>
+      <c r="M136" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="137" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B137" t="s">
+        <v>158</v>
+      </c>
+      <c r="C137" t="s">
+        <v>158</v>
+      </c>
+      <c r="E137">
+        <v>134</v>
+      </c>
+      <c r="F137">
+        <v>29</v>
+      </c>
+      <c r="H137" t="b">
+        <v>1</v>
+      </c>
+      <c r="I137" t="b">
+        <v>0</v>
+      </c>
+      <c r="J137">
+        <v>0</v>
+      </c>
+      <c r="M137" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="138" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B138" t="s">
+        <v>159</v>
+      </c>
+      <c r="C138" t="s">
+        <v>159</v>
+      </c>
+      <c r="E138">
+        <v>135</v>
+      </c>
+      <c r="F138">
+        <v>30</v>
+      </c>
+      <c r="H138" t="b">
+        <v>1</v>
+      </c>
+      <c r="I138" t="b">
+        <v>0</v>
+      </c>
+      <c r="J138">
+        <v>0</v>
+      </c>
+      <c r="M138" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="139" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B139" t="s">
+        <v>160</v>
+      </c>
+      <c r="C139" t="s">
+        <v>160</v>
+      </c>
+      <c r="E139">
+        <v>136</v>
+      </c>
+      <c r="F139">
+        <v>30</v>
+      </c>
+      <c r="H139" t="b">
+        <v>1</v>
+      </c>
+      <c r="I139" t="b">
+        <v>0</v>
+      </c>
+      <c r="J139">
+        <v>0</v>
+      </c>
+      <c r="M139" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="140" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B140" t="s">
+        <v>161</v>
+      </c>
+      <c r="C140" t="s">
+        <v>161</v>
+      </c>
+      <c r="E140">
+        <v>137</v>
+      </c>
+      <c r="F140">
+        <v>30</v>
+      </c>
+      <c r="H140" t="b">
+        <v>1</v>
+      </c>
+      <c r="I140" t="b">
+        <v>0</v>
+      </c>
+      <c r="J140">
+        <v>0</v>
+      </c>
+      <c r="M140" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="141" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B141" t="s">
+        <v>162</v>
+      </c>
+      <c r="C141" t="s">
+        <v>162</v>
+      </c>
+      <c r="E141">
+        <v>138</v>
+      </c>
+      <c r="F141">
+        <v>30</v>
+      </c>
+      <c r="H141" t="b">
+        <v>1</v>
+      </c>
+      <c r="I141" t="b">
+        <v>0</v>
+      </c>
+      <c r="J141">
+        <v>0</v>
+      </c>
+      <c r="M141" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="142" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B142" t="s">
+        <v>165</v>
+      </c>
+      <c r="C142" t="s">
+        <v>165</v>
+      </c>
+      <c r="E142">
+        <v>139</v>
+      </c>
+      <c r="F142">
+        <v>30</v>
+      </c>
+      <c r="H142" t="b">
+        <v>1</v>
+      </c>
+      <c r="I142" t="b">
+        <v>0</v>
+      </c>
+      <c r="J142">
+        <v>0</v>
+      </c>
+      <c r="M142" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="143" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B143" t="s">
+        <v>166</v>
+      </c>
+      <c r="C143" t="s">
+        <v>166</v>
+      </c>
+      <c r="E143">
+        <v>140</v>
+      </c>
+      <c r="F143">
+        <v>30</v>
+      </c>
+      <c r="H143" t="b">
+        <v>1</v>
+      </c>
+      <c r="I143" t="b">
+        <v>0</v>
+      </c>
+      <c r="J143">
+        <v>0</v>
+      </c>
+      <c r="M143" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="144" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B144" t="s">
+        <v>163</v>
+      </c>
+      <c r="C144" t="s">
+        <v>163</v>
+      </c>
+      <c r="E144">
+        <v>141</v>
+      </c>
+      <c r="F144">
+        <v>30</v>
+      </c>
+      <c r="H144" t="b">
+        <v>1</v>
+      </c>
+      <c r="I144" t="b">
+        <v>0</v>
+      </c>
+      <c r="J144">
+        <v>0</v>
+      </c>
+      <c r="M144" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="145" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B145" t="s">
+        <v>164</v>
+      </c>
+      <c r="C145" t="s">
+        <v>164</v>
+      </c>
+      <c r="E145">
+        <v>142</v>
+      </c>
+      <c r="F145">
+        <v>30</v>
+      </c>
+      <c r="H145" t="b">
+        <v>1</v>
+      </c>
+      <c r="I145" t="b">
+        <v>0</v>
+      </c>
+      <c r="J145">
+        <v>0</v>
+      </c>
+      <c r="M145" t="s">
+        <v>397</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:O145" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1589,7 +7068,7 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1606,23 +7085,23 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
+        <v>34</v>
+      </c>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>98</v>
+        <v>59</v>
       </c>
       <c r="C2" t="s">
         <v>3</v>
@@ -1630,26 +7109,26 @@
       <c r="D2" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>89</v>
+        <v>56</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -1660,7 +7139,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -1671,7 +7150,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>76</v>
+        <v>48</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -1682,7 +7161,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>77</v>
+        <v>49</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -1693,7 +7172,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>84</v>
+        <v>52</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -1704,7 +7183,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
-        <v>88</v>
+        <v>55</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -1714,8 +7193,8 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B10" s="3" t="s">
-        <v>90</v>
+      <c r="B10" s="2" t="s">
+        <v>57</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -1732,10 +7211,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10D8AFCC-95AF-4A6B-815E-C005352AB991}">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:G42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="E40" sqref="E40:E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1744,18 +7223,17 @@
     <col min="3" max="3" width="14" customWidth="1"/>
     <col min="4" max="4" width="17.75" customWidth="1"/>
     <col min="5" max="5" width="26.125" customWidth="1"/>
-    <col min="6" max="6" width="19.5" customWidth="1"/>
-    <col min="7" max="7" width="26.375" customWidth="1"/>
-    <col min="8" max="8" width="18.5" customWidth="1"/>
-    <col min="9" max="9" width="21.5" customWidth="1"/>
+    <col min="6" max="6" width="26.375" customWidth="1"/>
+    <col min="7" max="7" width="18.5" customWidth="1"/>
+    <col min="8" max="8" width="21.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>81</v>
+      <c r="B1" s="3" t="s">
+        <v>51</v>
       </c>
       <c r="C1" t="s">
         <v>23</v>
@@ -1769,45 +7247,39 @@
       <c r="F1" t="s">
         <v>29</v>
       </c>
-      <c r="G1" t="s">
-        <v>31</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G1" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="F2" t="s">
-        <v>100</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="H2" s="4" t="s">
+      <c r="D2" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>79</v>
+      <c r="B3" s="3" t="s">
+        <v>50</v>
       </c>
       <c r="C3" t="s">
         <v>24</v>
@@ -1822,50 +7294,541 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B4" s="5">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>262</v>
+      </c>
+      <c r="E4" t="s">
+        <v>405</v>
+      </c>
+      <c r="G4" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B5" s="5">
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>271</v>
+      </c>
+      <c r="E5" t="s">
+        <v>406</v>
+      </c>
+      <c r="G5" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B6" s="5">
+        <v>3</v>
+      </c>
+      <c r="C6" t="s">
+        <v>269</v>
+      </c>
+      <c r="E6" t="s">
+        <v>407</v>
+      </c>
+      <c r="G6" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B7" s="5">
+        <v>4</v>
+      </c>
+      <c r="C7" t="s">
+        <v>262</v>
+      </c>
+      <c r="E7" t="s">
+        <v>408</v>
+      </c>
+      <c r="G7" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B8" s="5">
+        <v>5</v>
+      </c>
+      <c r="C8" t="s">
+        <v>271</v>
+      </c>
+      <c r="E8" t="s">
+        <v>409</v>
+      </c>
+      <c r="G8" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B9" s="5">
+        <v>6</v>
+      </c>
+      <c r="C9" t="s">
+        <v>269</v>
+      </c>
+      <c r="E9" t="s">
+        <v>410</v>
+      </c>
+      <c r="G9" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B10" s="5">
+        <v>7</v>
+      </c>
+      <c r="C10" t="s">
+        <v>274</v>
+      </c>
+      <c r="E10" t="s">
+        <v>206</v>
+      </c>
+      <c r="G10" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B11" s="5">
+        <v>8</v>
+      </c>
+      <c r="C11" t="s">
+        <v>275</v>
+      </c>
+      <c r="E11" t="s">
+        <v>207</v>
+      </c>
+      <c r="G11" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B12" s="5">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>282</v>
+      </c>
+      <c r="F12" t="s">
+        <v>286</v>
+      </c>
+      <c r="G12" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B13" s="5">
+        <v>10</v>
+      </c>
+      <c r="C13" t="s">
+        <v>283</v>
+      </c>
+      <c r="F13" t="s">
+        <v>287</v>
+      </c>
+      <c r="G13" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B14" s="5">
+        <v>11</v>
+      </c>
+      <c r="C14" t="s">
+        <v>293</v>
+      </c>
+      <c r="F14" t="s">
+        <v>286</v>
+      </c>
+      <c r="G14" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B15" s="5">
+        <v>12</v>
+      </c>
+      <c r="C15" t="s">
+        <v>294</v>
+      </c>
+      <c r="F15" t="s">
+        <v>289</v>
+      </c>
+      <c r="G15" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B16" s="5">
+        <v>13</v>
+      </c>
+      <c r="C16" t="s">
+        <v>295</v>
+      </c>
+      <c r="F16" t="s">
+        <v>286</v>
+      </c>
+      <c r="G16" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B17" s="5">
+        <v>14</v>
+      </c>
+      <c r="C17" t="s">
+        <v>296</v>
+      </c>
+      <c r="F17" t="s">
+        <v>297</v>
+      </c>
+      <c r="G17" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B18" s="5">
+        <v>15</v>
+      </c>
+      <c r="C18" t="s">
+        <v>300</v>
+      </c>
+      <c r="F18" t="s">
+        <v>297</v>
+      </c>
+      <c r="G18" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B19" s="5">
+        <v>16</v>
+      </c>
+      <c r="C19" t="s">
+        <v>301</v>
+      </c>
+      <c r="F19" t="s">
+        <v>287</v>
+      </c>
+      <c r="G19" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B20" s="5">
+        <v>17</v>
+      </c>
+      <c r="C20" t="s">
+        <v>300</v>
+      </c>
+      <c r="F20" t="s">
+        <v>297</v>
+      </c>
+      <c r="G20" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B21" s="5">
+        <v>18</v>
+      </c>
+      <c r="C21" t="s">
+        <v>302</v>
+      </c>
+      <c r="F21" t="s">
+        <v>289</v>
+      </c>
+      <c r="G21" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B22" s="5">
+        <v>19</v>
+      </c>
+      <c r="C22" t="s">
+        <v>301</v>
+      </c>
+      <c r="F22" t="s">
+        <v>287</v>
+      </c>
+      <c r="G22" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B23" s="5">
+        <v>20</v>
+      </c>
+      <c r="C23" t="s">
+        <v>302</v>
+      </c>
+      <c r="F23" t="s">
+        <v>289</v>
+      </c>
+      <c r="G23" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B24" s="5">
+        <v>21</v>
+      </c>
+      <c r="C24" t="s">
+        <v>314</v>
+      </c>
+      <c r="F24" t="s">
+        <v>218</v>
+      </c>
+      <c r="G24" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B25" s="5">
+        <v>22</v>
+      </c>
+      <c r="C25" t="s">
+        <v>315</v>
+      </c>
+      <c r="F25" t="s">
+        <v>219</v>
+      </c>
+      <c r="G25" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B26" s="5">
+        <v>23</v>
+      </c>
+      <c r="C26" t="s">
+        <v>314</v>
+      </c>
+      <c r="F26" t="s">
+        <v>218</v>
+      </c>
+      <c r="G26" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B27" s="5">
+        <v>24</v>
+      </c>
+      <c r="C27" t="s">
+        <v>316</v>
+      </c>
+      <c r="F27" t="s">
+        <v>220</v>
+      </c>
+      <c r="G27" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B28" s="5">
+        <v>25</v>
+      </c>
+      <c r="C28" t="s">
+        <v>316</v>
+      </c>
+      <c r="F28" t="s">
+        <v>220</v>
+      </c>
+      <c r="G28" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B29" s="5">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>315</v>
+      </c>
+      <c r="F29" t="s">
+        <v>219</v>
+      </c>
+      <c r="G29" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B30" s="5">
+        <v>27</v>
+      </c>
+      <c r="C30" t="s">
+        <v>322</v>
+      </c>
+      <c r="F30" t="s">
+        <v>416</v>
+      </c>
+      <c r="G30" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B31" s="5">
+        <v>28</v>
+      </c>
+      <c r="C31" t="s">
+        <v>323</v>
+      </c>
+      <c r="F31" t="s">
+        <v>411</v>
+      </c>
+      <c r="G31" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B32" s="5">
+        <v>29</v>
+      </c>
+      <c r="C32" t="s">
+        <v>321</v>
+      </c>
+      <c r="G32" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B33" s="5">
+        <v>30</v>
+      </c>
+      <c r="C33" t="s">
+        <v>324</v>
+      </c>
+      <c r="F33" t="s">
+        <v>412</v>
+      </c>
+      <c r="G33" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B34" s="5">
+        <v>31</v>
+      </c>
+      <c r="C34" t="s">
+        <v>325</v>
+      </c>
+      <c r="F34" t="s">
+        <v>413</v>
+      </c>
+      <c r="G34" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B35" s="5">
         <v>32</v>
       </c>
-      <c r="H3" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B4" s="6">
-        <v>1</v>
-      </c>
-      <c r="C4" t="s">
-        <v>80</v>
-      </c>
-      <c r="E4" t="s">
-        <v>91</v>
-      </c>
-      <c r="F4" t="s">
-        <v>85</v>
-      </c>
-      <c r="G4" t="s">
-        <v>117</v>
-      </c>
-      <c r="H4" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B5" s="6">
-        <v>2</v>
-      </c>
-      <c r="C5" t="s">
-        <v>83</v>
-      </c>
-      <c r="E5" t="s">
-        <v>92</v>
-      </c>
-      <c r="F5" t="s">
-        <v>85</v>
-      </c>
-      <c r="G5" t="s">
-        <v>94</v>
-      </c>
-      <c r="H5" t="s">
-        <v>95</v>
+      <c r="C35" t="s">
+        <v>321</v>
+      </c>
+      <c r="G35" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B36" s="5">
+        <v>33</v>
+      </c>
+      <c r="C36" t="s">
+        <v>326</v>
+      </c>
+      <c r="F36" t="s">
+        <v>414</v>
+      </c>
+      <c r="G36" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B37" s="5">
+        <v>34</v>
+      </c>
+      <c r="C37" t="s">
+        <v>327</v>
+      </c>
+      <c r="F37" t="s">
+        <v>415</v>
+      </c>
+      <c r="G37" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B38" s="5">
+        <v>35</v>
+      </c>
+      <c r="C38" t="s">
+        <v>321</v>
+      </c>
+      <c r="G38" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B39" s="5">
+        <v>71</v>
+      </c>
+      <c r="C39" t="s">
+        <v>265</v>
+      </c>
+      <c r="F39" t="s">
+        <v>46</v>
+      </c>
+      <c r="G39" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="40" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B40" s="5">
+        <v>72</v>
+      </c>
+      <c r="C40" t="s">
+        <v>276</v>
+      </c>
+      <c r="E40" t="s">
+        <v>208</v>
+      </c>
+      <c r="G40" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="41" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B41" s="5">
+        <v>73</v>
+      </c>
+      <c r="C41" t="s">
+        <v>277</v>
+      </c>
+      <c r="E41" t="s">
+        <v>209</v>
+      </c>
+      <c r="G41" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="42" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B42" s="5">
+        <v>74</v>
+      </c>
+      <c r="C42" t="s">
+        <v>317</v>
+      </c>
+      <c r="G42" t="s">
+        <v>317</v>
       </c>
     </row>
   </sheetData>

--- a/Luban/Config/Datas/Root/EventConfig.xlsx
+++ b/Luban/Config/Datas/Root/EventConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Game\RootsPinkShark\Luban\Config\Datas\Root\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80E8266A-4702-4D54-B0C6-820C2D4EC72C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5F833FD-83E4-40E5-9F39-883282B7E759}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10305" yWindow="1980" windowWidth="21600" windowHeight="10155" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Event" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="692" uniqueCount="417">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="691" uniqueCount="416">
   <si>
     <t>##</t>
   </si>
@@ -958,10 +958,6 @@
   </si>
   <si>
     <t>25,26</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>68,69,70</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1996,8 +1992,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O145"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" topLeftCell="D103" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="L108" sqref="L108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2099,7 +2095,7 @@
         <v>41</v>
       </c>
       <c r="L2" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="M2" t="s">
         <v>42</v>
@@ -2184,7 +2180,7 @@
         <v>99</v>
       </c>
       <c r="M4" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="N4" t="b">
         <v>1</v>
@@ -2245,7 +2241,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K6" s="2" t="s">
         <v>187</v>
@@ -2479,7 +2475,7 @@
         <v>179</v>
       </c>
       <c r="L12" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="N12" t="b">
         <v>1</v>
@@ -2514,7 +2510,7 @@
         <v>178</v>
       </c>
       <c r="L13" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="N13" t="b">
         <v>1</v>
@@ -2549,7 +2545,7 @@
         <v>177</v>
       </c>
       <c r="L14" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="N14" t="b">
         <v>1</v>
@@ -2581,7 +2577,7 @@
         <v>99</v>
       </c>
       <c r="K15" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="M15" t="s">
         <v>46</v>
@@ -2595,7 +2591,7 @@
         <v>62</v>
       </c>
       <c r="C16" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E16">
         <v>13</v>
@@ -2616,7 +2612,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="M16" t="s">
         <v>212</v>
@@ -2633,7 +2629,7 @@
         <v>63</v>
       </c>
       <c r="C17" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E17">
         <v>14</v>
@@ -2654,7 +2650,7 @@
         <v>0</v>
       </c>
       <c r="K17" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="M17" t="s">
         <v>213</v>
@@ -2671,7 +2667,7 @@
         <v>181</v>
       </c>
       <c r="C18" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E18">
         <v>15</v>
@@ -2692,7 +2688,7 @@
         <v>0</v>
       </c>
       <c r="K18" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="M18" t="s">
         <v>214</v>
@@ -2709,7 +2705,7 @@
         <v>64</v>
       </c>
       <c r="C19" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E19">
         <v>16</v>
@@ -2730,7 +2726,7 @@
         <v>0</v>
       </c>
       <c r="K19" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="M19" t="s">
         <v>215</v>
@@ -2747,7 +2743,7 @@
         <v>65</v>
       </c>
       <c r="C20" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E20">
         <v>17</v>
@@ -2785,7 +2781,7 @@
         <v>66</v>
       </c>
       <c r="C21" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E21">
         <v>18</v>
@@ -2823,7 +2819,7 @@
         <v>67</v>
       </c>
       <c r="C22" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E22">
         <v>19</v>
@@ -2861,7 +2857,7 @@
         <v>68</v>
       </c>
       <c r="C23" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E23">
         <v>20</v>
@@ -2899,7 +2895,7 @@
         <v>69</v>
       </c>
       <c r="C24" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E24">
         <v>21</v>
@@ -2937,7 +2933,7 @@
         <v>70</v>
       </c>
       <c r="C25" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E25">
         <v>22</v>
@@ -2975,7 +2971,7 @@
         <v>71</v>
       </c>
       <c r="C26" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E26">
         <v>23</v>
@@ -3013,7 +3009,7 @@
         <v>72</v>
       </c>
       <c r="C27" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E27">
         <v>24</v>
@@ -3048,10 +3044,10 @@
     </row>
     <row r="28" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C28" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E28">
         <v>25</v>
@@ -3086,10 +3082,10 @@
     </row>
     <row r="29" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C29" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E29">
         <v>26</v>
@@ -3124,10 +3120,10 @@
     </row>
     <row r="30" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C30" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E30">
         <v>27</v>
@@ -3165,7 +3161,7 @@
         <v>73</v>
       </c>
       <c r="C31" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E31">
         <v>28</v>
@@ -3203,7 +3199,7 @@
         <v>74</v>
       </c>
       <c r="C32" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E32">
         <v>29</v>
@@ -3241,7 +3237,7 @@
         <v>75</v>
       </c>
       <c r="C33" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E33">
         <v>30</v>
@@ -3279,7 +3275,7 @@
         <v>76</v>
       </c>
       <c r="C34" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E34">
         <v>31</v>
@@ -3431,7 +3427,7 @@
         <v>82</v>
       </c>
       <c r="C38" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E38">
         <v>35</v>
@@ -3469,7 +3465,7 @@
         <v>83</v>
       </c>
       <c r="C39" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E39">
         <v>36</v>
@@ -3507,7 +3503,7 @@
         <v>84</v>
       </c>
       <c r="C40" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E40">
         <v>37</v>
@@ -3545,7 +3541,7 @@
         <v>85</v>
       </c>
       <c r="C41" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E41">
         <v>38</v>
@@ -3583,7 +3579,7 @@
         <v>86</v>
       </c>
       <c r="C42" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E42">
         <v>39</v>
@@ -3618,10 +3614,10 @@
     </row>
     <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B43" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C43" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E43">
         <v>40</v>
@@ -3656,10 +3652,10 @@
     </row>
     <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B44" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C44" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E44">
         <v>41</v>
@@ -3694,10 +3690,10 @@
     </row>
     <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B45" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C45" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E45">
         <v>42</v>
@@ -3732,10 +3728,10 @@
     </row>
     <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B46" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C46" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E46">
         <v>43</v>
@@ -3770,10 +3766,10 @@
     </row>
     <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B47" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C47" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E47">
         <v>44</v>
@@ -3808,10 +3804,10 @@
     </row>
     <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B48" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C48" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E48">
         <v>45</v>
@@ -3846,10 +3842,10 @@
     </row>
     <row r="49" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B49" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C49" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E49">
         <v>46</v>
@@ -3873,16 +3869,19 @@
         <v>207</v>
       </c>
       <c r="M49" s="1"/>
+      <c r="N49" t="b">
+        <v>0</v>
+      </c>
       <c r="O49">
         <v>150</v>
       </c>
     </row>
     <row r="50" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B50" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C50" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E50">
         <v>47</v>
@@ -3906,16 +3905,19 @@
         <v>207</v>
       </c>
       <c r="M50" s="1"/>
+      <c r="N50" t="b">
+        <v>0</v>
+      </c>
       <c r="O50">
         <v>150</v>
       </c>
     </row>
     <row r="51" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B51" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C51" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="E51">
         <v>48</v>
@@ -3939,16 +3941,19 @@
         <v>207</v>
       </c>
       <c r="M51" s="1"/>
+      <c r="N51" t="b">
+        <v>0</v>
+      </c>
       <c r="O51">
         <v>150</v>
       </c>
     </row>
     <row r="52" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B52" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C52" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E52">
         <v>49</v>
@@ -3972,16 +3977,19 @@
         <v>208</v>
       </c>
       <c r="M52" s="1"/>
+      <c r="N52" t="b">
+        <v>0</v>
+      </c>
       <c r="O52">
         <v>150</v>
       </c>
     </row>
     <row r="53" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B53" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C53" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E53">
         <v>50</v>
@@ -4005,16 +4013,19 @@
         <v>208</v>
       </c>
       <c r="M53" s="1"/>
+      <c r="N53" t="b">
+        <v>0</v>
+      </c>
       <c r="O53">
         <v>150</v>
       </c>
     </row>
     <row r="54" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B54" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C54" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="E54">
         <v>51</v>
@@ -4038,16 +4049,19 @@
         <v>208</v>
       </c>
       <c r="M54" s="1"/>
+      <c r="N54" t="b">
+        <v>0</v>
+      </c>
       <c r="O54">
         <v>150</v>
       </c>
     </row>
     <row r="55" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B55" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C55" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E55">
         <v>52</v>
@@ -4071,16 +4085,19 @@
         <v>209</v>
       </c>
       <c r="M55" s="1"/>
+      <c r="N55" t="b">
+        <v>0</v>
+      </c>
       <c r="O55">
         <v>150</v>
       </c>
     </row>
     <row r="56" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B56" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C56" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E56">
         <v>53</v>
@@ -4104,16 +4121,19 @@
         <v>209</v>
       </c>
       <c r="M56" s="1"/>
+      <c r="N56" t="b">
+        <v>0</v>
+      </c>
       <c r="O56">
         <v>150</v>
       </c>
     </row>
     <row r="57" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B57" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C57" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E57">
         <v>54</v>
@@ -4137,6 +4157,9 @@
         <v>209</v>
       </c>
       <c r="M57" s="1"/>
+      <c r="N57" t="b">
+        <v>0</v>
+      </c>
       <c r="O57">
         <v>150</v>
       </c>
@@ -4170,7 +4193,7 @@
         <v>184</v>
       </c>
       <c r="L58" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="N58" t="b">
         <v>1</v>
@@ -4284,7 +4307,7 @@
         <v>184</v>
       </c>
       <c r="L61" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="N61" t="b">
         <v>1</v>
@@ -4322,7 +4345,7 @@
         <v>184</v>
       </c>
       <c r="L62" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="N62" t="b">
         <v>1</v>
@@ -4360,7 +4383,7 @@
         <v>184</v>
       </c>
       <c r="L63" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="N63" t="b">
         <v>1</v>
@@ -4374,7 +4397,7 @@
         <v>93</v>
       </c>
       <c r="C64" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E64">
         <v>61</v>
@@ -4412,7 +4435,7 @@
         <v>94</v>
       </c>
       <c r="C65" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E65">
         <v>62</v>
@@ -4450,7 +4473,7 @@
         <v>95</v>
       </c>
       <c r="C66" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E66">
         <v>63</v>
@@ -4488,7 +4511,7 @@
         <v>96</v>
       </c>
       <c r="C67" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E67">
         <v>64</v>
@@ -4526,7 +4549,7 @@
         <v>97</v>
       </c>
       <c r="C68" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E68">
         <v>65</v>
@@ -4564,7 +4587,7 @@
         <v>98</v>
       </c>
       <c r="C69" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E69">
         <v>66</v>
@@ -4602,7 +4625,7 @@
         <v>99</v>
       </c>
       <c r="C70" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E70">
         <v>67</v>
@@ -4640,7 +4663,7 @@
         <v>100</v>
       </c>
       <c r="C71" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E71">
         <v>68</v>
@@ -4678,7 +4701,7 @@
         <v>101</v>
       </c>
       <c r="C72" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E72">
         <v>69</v>
@@ -4713,7 +4736,7 @@
         <v>102</v>
       </c>
       <c r="C73" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E73">
         <v>70</v>
@@ -4748,7 +4771,7 @@
         <v>103</v>
       </c>
       <c r="C74" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E74">
         <v>71</v>
@@ -4783,7 +4806,7 @@
         <v>104</v>
       </c>
       <c r="C75" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E75">
         <v>72</v>
@@ -4818,7 +4841,7 @@
         <v>105</v>
       </c>
       <c r="C76" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E76">
         <v>73</v>
@@ -4853,7 +4876,7 @@
         <v>106</v>
       </c>
       <c r="C77" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E77">
         <v>74</v>
@@ -4888,7 +4911,7 @@
         <v>107</v>
       </c>
       <c r="C78" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E78">
         <v>75</v>
@@ -4923,7 +4946,7 @@
         <v>108</v>
       </c>
       <c r="C79" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E79">
         <v>76</v>
@@ -4958,7 +4981,7 @@
         <v>109</v>
       </c>
       <c r="C80" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E80">
         <v>77</v>
@@ -4993,7 +5016,7 @@
         <v>110</v>
       </c>
       <c r="C81" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E81">
         <v>78</v>
@@ -5028,7 +5051,7 @@
         <v>111</v>
       </c>
       <c r="C82" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E82">
         <v>79</v>
@@ -5063,7 +5086,7 @@
         <v>112</v>
       </c>
       <c r="C83" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E83">
         <v>80</v>
@@ -5098,7 +5121,7 @@
         <v>113</v>
       </c>
       <c r="C84" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E84">
         <v>81</v>
@@ -5133,7 +5156,7 @@
         <v>114</v>
       </c>
       <c r="C85" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E85">
         <v>82</v>
@@ -5168,7 +5191,7 @@
         <v>115</v>
       </c>
       <c r="C86" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E86">
         <v>83</v>
@@ -5203,7 +5226,7 @@
         <v>116</v>
       </c>
       <c r="C87" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E87">
         <v>84</v>
@@ -5238,7 +5261,7 @@
         <v>117</v>
       </c>
       <c r="C88" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E88">
         <v>85</v>
@@ -5273,7 +5296,7 @@
         <v>118</v>
       </c>
       <c r="C89" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E89">
         <v>86</v>
@@ -5308,7 +5331,7 @@
         <v>119</v>
       </c>
       <c r="C90" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E90">
         <v>87</v>
@@ -5343,7 +5366,7 @@
         <v>120</v>
       </c>
       <c r="C91" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E91">
         <v>88</v>
@@ -5378,7 +5401,7 @@
         <v>121</v>
       </c>
       <c r="C92" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E92">
         <v>89</v>
@@ -5413,7 +5436,7 @@
         <v>122</v>
       </c>
       <c r="C93" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E93">
         <v>90</v>
@@ -5448,7 +5471,7 @@
         <v>123</v>
       </c>
       <c r="C94" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E94">
         <v>91</v>
@@ -5483,7 +5506,7 @@
         <v>124</v>
       </c>
       <c r="C95" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E95">
         <v>92</v>
@@ -5518,7 +5541,7 @@
         <v>125</v>
       </c>
       <c r="C96" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E96">
         <v>93</v>
@@ -5553,7 +5576,7 @@
         <v>126</v>
       </c>
       <c r="C97" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E97">
         <v>94</v>
@@ -5588,7 +5611,7 @@
         <v>127</v>
       </c>
       <c r="C98" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E98">
         <v>95</v>
@@ -5623,7 +5646,7 @@
         <v>128</v>
       </c>
       <c r="C99" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E99">
         <v>96</v>
@@ -5658,7 +5681,7 @@
         <v>121</v>
       </c>
       <c r="C100" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E100">
         <v>97</v>
@@ -5693,7 +5716,7 @@
         <v>122</v>
       </c>
       <c r="C101" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E101">
         <v>98</v>
@@ -5728,7 +5751,7 @@
         <v>123</v>
       </c>
       <c r="C102" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E102">
         <v>99</v>
@@ -5763,7 +5786,7 @@
         <v>124</v>
       </c>
       <c r="C103" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E103">
         <v>100</v>
@@ -5798,7 +5821,7 @@
         <v>125</v>
       </c>
       <c r="C104" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E104">
         <v>101</v>
@@ -5833,7 +5856,7 @@
         <v>126</v>
       </c>
       <c r="C105" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E105">
         <v>102</v>
@@ -5868,7 +5891,7 @@
         <v>127</v>
       </c>
       <c r="C106" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E106">
         <v>103</v>
@@ -5903,7 +5926,7 @@
         <v>128</v>
       </c>
       <c r="C107" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E107">
         <v>104</v>
@@ -5961,9 +5984,6 @@
       <c r="K108" t="s">
         <v>183</v>
       </c>
-      <c r="L108" t="s">
-        <v>240</v>
-      </c>
       <c r="N108" t="b">
         <v>1</v>
       </c>
@@ -6317,6 +6337,9 @@
       <c r="F118">
         <v>28</v>
       </c>
+      <c r="G118" t="b">
+        <v>1</v>
+      </c>
       <c r="H118" t="b">
         <v>1</v>
       </c>
@@ -6349,6 +6372,9 @@
       <c r="F119">
         <v>28</v>
       </c>
+      <c r="G119" t="b">
+        <v>1</v>
+      </c>
       <c r="H119" t="b">
         <v>1</v>
       </c>
@@ -6381,6 +6407,9 @@
       <c r="F120">
         <v>28</v>
       </c>
+      <c r="G120" t="b">
+        <v>1</v>
+      </c>
       <c r="H120" t="b">
         <v>1</v>
       </c>
@@ -6413,6 +6442,9 @@
       <c r="F121">
         <v>28</v>
       </c>
+      <c r="G121" t="b">
+        <v>1</v>
+      </c>
       <c r="H121" t="b">
         <v>1</v>
       </c>
@@ -6445,6 +6477,9 @@
       <c r="F122">
         <v>29</v>
       </c>
+      <c r="G122" t="b">
+        <v>1</v>
+      </c>
       <c r="H122" t="b">
         <v>1</v>
       </c>
@@ -6455,7 +6490,10 @@
         <v>0</v>
       </c>
       <c r="M122" t="s">
-        <v>373</v>
+        <v>372</v>
+      </c>
+      <c r="N122" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="2:15" x14ac:dyDescent="0.2">
@@ -6471,6 +6509,9 @@
       <c r="F123">
         <v>29</v>
       </c>
+      <c r="G123" t="b">
+        <v>1</v>
+      </c>
       <c r="H123" t="b">
         <v>1</v>
       </c>
@@ -6481,7 +6522,10 @@
         <v>0</v>
       </c>
       <c r="M123" t="s">
-        <v>374</v>
+        <v>373</v>
+      </c>
+      <c r="N123" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="2:15" x14ac:dyDescent="0.2">
@@ -6497,6 +6541,9 @@
       <c r="F124">
         <v>29</v>
       </c>
+      <c r="G124" t="b">
+        <v>1</v>
+      </c>
       <c r="H124" t="b">
         <v>1</v>
       </c>
@@ -6507,7 +6554,10 @@
         <v>0</v>
       </c>
       <c r="M124" t="s">
-        <v>375</v>
+        <v>374</v>
+      </c>
+      <c r="N124" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="2:15" x14ac:dyDescent="0.2">
@@ -6523,6 +6573,9 @@
       <c r="F125">
         <v>29</v>
       </c>
+      <c r="G125" t="b">
+        <v>1</v>
+      </c>
       <c r="H125" t="b">
         <v>1</v>
       </c>
@@ -6533,7 +6586,10 @@
         <v>0</v>
       </c>
       <c r="M125" t="s">
-        <v>376</v>
+        <v>375</v>
+      </c>
+      <c r="N125" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="2:15" x14ac:dyDescent="0.2">
@@ -6549,6 +6605,9 @@
       <c r="F126">
         <v>29</v>
       </c>
+      <c r="G126" t="b">
+        <v>1</v>
+      </c>
       <c r="H126" t="b">
         <v>1</v>
       </c>
@@ -6559,7 +6618,10 @@
         <v>0</v>
       </c>
       <c r="M126" t="s">
-        <v>377</v>
+        <v>376</v>
+      </c>
+      <c r="N126" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="2:15" x14ac:dyDescent="0.2">
@@ -6575,6 +6637,9 @@
       <c r="F127">
         <v>29</v>
       </c>
+      <c r="G127" t="b">
+        <v>1</v>
+      </c>
       <c r="H127" t="b">
         <v>1</v>
       </c>
@@ -6585,7 +6650,10 @@
         <v>0</v>
       </c>
       <c r="M127" t="s">
-        <v>378</v>
+        <v>377</v>
+      </c>
+      <c r="N127" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="2:15" x14ac:dyDescent="0.2">
@@ -6601,6 +6669,9 @@
       <c r="F128">
         <v>29</v>
       </c>
+      <c r="G128" t="b">
+        <v>1</v>
+      </c>
       <c r="H128" t="b">
         <v>1</v>
       </c>
@@ -6611,10 +6682,13 @@
         <v>0</v>
       </c>
       <c r="M128" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="129" spans="2:13" x14ac:dyDescent="0.2">
+        <v>378</v>
+      </c>
+      <c r="N128" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B129" t="s">
         <v>150</v>
       </c>
@@ -6627,6 +6701,9 @@
       <c r="F129">
         <v>29</v>
       </c>
+      <c r="G129" t="b">
+        <v>1</v>
+      </c>
       <c r="H129" t="b">
         <v>1</v>
       </c>
@@ -6637,10 +6714,13 @@
         <v>0</v>
       </c>
       <c r="M129" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="130" spans="2:13" x14ac:dyDescent="0.2">
+        <v>379</v>
+      </c>
+      <c r="N129" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B130" t="s">
         <v>151</v>
       </c>
@@ -6653,6 +6733,9 @@
       <c r="F130">
         <v>29</v>
       </c>
+      <c r="G130" t="b">
+        <v>1</v>
+      </c>
       <c r="H130" t="b">
         <v>1</v>
       </c>
@@ -6663,10 +6746,13 @@
         <v>0</v>
       </c>
       <c r="M130" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="131" spans="2:13" x14ac:dyDescent="0.2">
+        <v>395</v>
+      </c>
+      <c r="N130" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B131" t="s">
         <v>152</v>
       </c>
@@ -6679,6 +6765,9 @@
       <c r="F131">
         <v>29</v>
       </c>
+      <c r="G131" t="b">
+        <v>1</v>
+      </c>
       <c r="H131" t="b">
         <v>1</v>
       </c>
@@ -6689,10 +6778,13 @@
         <v>0</v>
       </c>
       <c r="M131" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="132" spans="2:13" x14ac:dyDescent="0.2">
+        <v>363</v>
+      </c>
+      <c r="N131" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B132" t="s">
         <v>153</v>
       </c>
@@ -6705,6 +6797,9 @@
       <c r="F132">
         <v>29</v>
       </c>
+      <c r="G132" t="b">
+        <v>1</v>
+      </c>
       <c r="H132" t="b">
         <v>1</v>
       </c>
@@ -6715,10 +6810,13 @@
         <v>0</v>
       </c>
       <c r="M132" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="133" spans="2:13" x14ac:dyDescent="0.2">
+        <v>369</v>
+      </c>
+      <c r="N132" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B133" t="s">
         <v>154</v>
       </c>
@@ -6731,6 +6829,9 @@
       <c r="F133">
         <v>29</v>
       </c>
+      <c r="G133" t="b">
+        <v>1</v>
+      </c>
       <c r="H133" t="b">
         <v>1</v>
       </c>
@@ -6741,10 +6842,13 @@
         <v>0</v>
       </c>
       <c r="M133" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="134" spans="2:13" x14ac:dyDescent="0.2">
+        <v>368</v>
+      </c>
+      <c r="N133" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B134" t="s">
         <v>155</v>
       </c>
@@ -6757,6 +6861,9 @@
       <c r="F134">
         <v>29</v>
       </c>
+      <c r="G134" t="b">
+        <v>1</v>
+      </c>
       <c r="H134" t="b">
         <v>1</v>
       </c>
@@ -6767,10 +6874,13 @@
         <v>0</v>
       </c>
       <c r="M134" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="135" spans="2:13" x14ac:dyDescent="0.2">
+        <v>365</v>
+      </c>
+      <c r="N134" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B135" t="s">
         <v>156</v>
       </c>
@@ -6783,6 +6893,9 @@
       <c r="F135">
         <v>29</v>
       </c>
+      <c r="G135" t="b">
+        <v>1</v>
+      </c>
       <c r="H135" t="b">
         <v>1</v>
       </c>
@@ -6793,10 +6906,13 @@
         <v>0</v>
       </c>
       <c r="M135" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="136" spans="2:13" x14ac:dyDescent="0.2">
+        <v>366</v>
+      </c>
+      <c r="N135" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B136" t="s">
         <v>157</v>
       </c>
@@ -6809,6 +6925,9 @@
       <c r="F136">
         <v>29</v>
       </c>
+      <c r="G136" t="b">
+        <v>1</v>
+      </c>
       <c r="H136" t="b">
         <v>1</v>
       </c>
@@ -6819,10 +6938,13 @@
         <v>0</v>
       </c>
       <c r="M136" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="137" spans="2:13" x14ac:dyDescent="0.2">
+        <v>370</v>
+      </c>
+      <c r="N136" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B137" t="s">
         <v>158</v>
       </c>
@@ -6835,6 +6957,9 @@
       <c r="F137">
         <v>29</v>
       </c>
+      <c r="G137" t="b">
+        <v>1</v>
+      </c>
       <c r="H137" t="b">
         <v>1</v>
       </c>
@@ -6845,10 +6970,13 @@
         <v>0</v>
       </c>
       <c r="M137" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="138" spans="2:13" x14ac:dyDescent="0.2">
+        <v>371</v>
+      </c>
+      <c r="N137" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B138" t="s">
         <v>159</v>
       </c>
@@ -6861,6 +6989,9 @@
       <c r="F138">
         <v>30</v>
       </c>
+      <c r="G138" t="b">
+        <v>1</v>
+      </c>
       <c r="H138" t="b">
         <v>1</v>
       </c>
@@ -6871,10 +7002,13 @@
         <v>0</v>
       </c>
       <c r="M138" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="139" spans="2:13" x14ac:dyDescent="0.2">
+        <v>364</v>
+      </c>
+      <c r="N138" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B139" t="s">
         <v>160</v>
       </c>
@@ -6887,6 +7021,9 @@
       <c r="F139">
         <v>30</v>
       </c>
+      <c r="G139" t="b">
+        <v>1</v>
+      </c>
       <c r="H139" t="b">
         <v>1</v>
       </c>
@@ -6897,10 +7034,13 @@
         <v>0</v>
       </c>
       <c r="M139" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="140" spans="2:13" x14ac:dyDescent="0.2">
+        <v>364</v>
+      </c>
+      <c r="N139" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B140" t="s">
         <v>161</v>
       </c>
@@ -6913,6 +7053,9 @@
       <c r="F140">
         <v>30</v>
       </c>
+      <c r="G140" t="b">
+        <v>1</v>
+      </c>
       <c r="H140" t="b">
         <v>1</v>
       </c>
@@ -6923,10 +7066,13 @@
         <v>0</v>
       </c>
       <c r="M140" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="141" spans="2:13" x14ac:dyDescent="0.2">
+        <v>367</v>
+      </c>
+      <c r="N140" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B141" t="s">
         <v>162</v>
       </c>
@@ -6939,6 +7085,9 @@
       <c r="F141">
         <v>30</v>
       </c>
+      <c r="G141" t="b">
+        <v>1</v>
+      </c>
       <c r="H141" t="b">
         <v>1</v>
       </c>
@@ -6949,10 +7098,13 @@
         <v>0</v>
       </c>
       <c r="M141" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="142" spans="2:13" x14ac:dyDescent="0.2">
+        <v>367</v>
+      </c>
+      <c r="N141" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B142" t="s">
         <v>165</v>
       </c>
@@ -6965,6 +7117,9 @@
       <c r="F142">
         <v>30</v>
       </c>
+      <c r="G142" t="b">
+        <v>1</v>
+      </c>
       <c r="H142" t="b">
         <v>1</v>
       </c>
@@ -6975,10 +7130,13 @@
         <v>0</v>
       </c>
       <c r="M142" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="143" spans="2:13" x14ac:dyDescent="0.2">
+        <v>397</v>
+      </c>
+      <c r="N142" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B143" t="s">
         <v>166</v>
       </c>
@@ -6991,6 +7149,9 @@
       <c r="F143">
         <v>30</v>
       </c>
+      <c r="G143" t="b">
+        <v>1</v>
+      </c>
       <c r="H143" t="b">
         <v>1</v>
       </c>
@@ -7001,10 +7162,13 @@
         <v>0</v>
       </c>
       <c r="M143" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="144" spans="2:13" x14ac:dyDescent="0.2">
+        <v>397</v>
+      </c>
+      <c r="N143" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B144" t="s">
         <v>163</v>
       </c>
@@ -7017,6 +7181,9 @@
       <c r="F144">
         <v>30</v>
       </c>
+      <c r="G144" t="b">
+        <v>1</v>
+      </c>
       <c r="H144" t="b">
         <v>1</v>
       </c>
@@ -7027,10 +7194,13 @@
         <v>0</v>
       </c>
       <c r="M144" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="145" spans="2:13" x14ac:dyDescent="0.2">
+        <v>396</v>
+      </c>
+      <c r="N144" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B145" t="s">
         <v>164</v>
       </c>
@@ -7043,6 +7213,9 @@
       <c r="F145">
         <v>30</v>
       </c>
+      <c r="G145" t="b">
+        <v>1</v>
+      </c>
       <c r="H145" t="b">
         <v>1</v>
       </c>
@@ -7053,7 +7226,10 @@
         <v>0</v>
       </c>
       <c r="M145" t="s">
-        <v>397</v>
+        <v>396</v>
+      </c>
+      <c r="N145" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -7213,7 +7389,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10D8AFCC-95AF-4A6B-815E-C005352AB991}">
   <dimension ref="A1:G42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="E40" sqref="E40:E41"/>
     </sheetView>
   </sheetViews>
@@ -7302,13 +7478,13 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E4" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="G4" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -7316,13 +7492,13 @@
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E5" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="G5" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -7330,13 +7506,13 @@
         <v>3</v>
       </c>
       <c r="C6" t="s">
+        <v>268</v>
+      </c>
+      <c r="E6" t="s">
+        <v>406</v>
+      </c>
+      <c r="G6" t="s">
         <v>269</v>
-      </c>
-      <c r="E6" t="s">
-        <v>407</v>
-      </c>
-      <c r="G6" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -7344,13 +7520,13 @@
         <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E7" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="G7" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -7358,13 +7534,13 @@
         <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E8" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="G8" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -7372,13 +7548,13 @@
         <v>6</v>
       </c>
       <c r="C9" t="s">
+        <v>268</v>
+      </c>
+      <c r="E9" t="s">
+        <v>409</v>
+      </c>
+      <c r="G9" t="s">
         <v>269</v>
-      </c>
-      <c r="E9" t="s">
-        <v>410</v>
-      </c>
-      <c r="G9" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
@@ -7386,13 +7562,13 @@
         <v>7</v>
       </c>
       <c r="C10" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E10" t="s">
         <v>206</v>
       </c>
       <c r="G10" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
@@ -7400,13 +7576,13 @@
         <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E11" t="s">
         <v>207</v>
       </c>
       <c r="G11" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
@@ -7414,13 +7590,13 @@
         <v>9</v>
       </c>
       <c r="C12" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="F12" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="G12" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
@@ -7428,13 +7604,13 @@
         <v>10</v>
       </c>
       <c r="C13" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F13" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="G13" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
@@ -7442,13 +7618,13 @@
         <v>11</v>
       </c>
       <c r="C14" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F14" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="G14" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
@@ -7456,13 +7632,13 @@
         <v>12</v>
       </c>
       <c r="C15" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F15" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="G15" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
@@ -7470,13 +7646,13 @@
         <v>13</v>
       </c>
       <c r="C16" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F16" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="G16" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.2">
@@ -7484,13 +7660,13 @@
         <v>14</v>
       </c>
       <c r="C17" t="s">
+        <v>295</v>
+      </c>
+      <c r="F17" t="s">
         <v>296</v>
       </c>
-      <c r="F17" t="s">
-        <v>297</v>
-      </c>
       <c r="G17" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.2">
@@ -7498,13 +7674,13 @@
         <v>15</v>
       </c>
       <c r="C18" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F18" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G18" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.2">
@@ -7512,13 +7688,13 @@
         <v>16</v>
       </c>
       <c r="C19" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F19" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="G19" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.2">
@@ -7526,13 +7702,13 @@
         <v>17</v>
       </c>
       <c r="C20" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F20" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G20" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.2">
@@ -7540,13 +7716,13 @@
         <v>18</v>
       </c>
       <c r="C21" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F21" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="G21" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.2">
@@ -7554,13 +7730,13 @@
         <v>19</v>
       </c>
       <c r="C22" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F22" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="G22" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.2">
@@ -7568,13 +7744,13 @@
         <v>20</v>
       </c>
       <c r="C23" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F23" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="G23" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.2">
@@ -7582,13 +7758,13 @@
         <v>21</v>
       </c>
       <c r="C24" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="F24" t="s">
         <v>218</v>
       </c>
       <c r="G24" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.2">
@@ -7596,13 +7772,13 @@
         <v>22</v>
       </c>
       <c r="C25" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="F25" t="s">
         <v>219</v>
       </c>
       <c r="G25" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.2">
@@ -7610,13 +7786,13 @@
         <v>23</v>
       </c>
       <c r="C26" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="F26" t="s">
         <v>218</v>
       </c>
       <c r="G26" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.2">
@@ -7624,13 +7800,13 @@
         <v>24</v>
       </c>
       <c r="C27" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="F27" t="s">
         <v>220</v>
       </c>
       <c r="G27" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.2">
@@ -7638,13 +7814,13 @@
         <v>25</v>
       </c>
       <c r="C28" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="F28" t="s">
         <v>220</v>
       </c>
       <c r="G28" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.2">
@@ -7652,13 +7828,13 @@
         <v>26</v>
       </c>
       <c r="C29" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="F29" t="s">
         <v>219</v>
       </c>
       <c r="G29" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.2">
@@ -7666,13 +7842,13 @@
         <v>27</v>
       </c>
       <c r="C30" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="F30" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="G30" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.2">
@@ -7680,13 +7856,13 @@
         <v>28</v>
       </c>
       <c r="C31" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F31" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="G31" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.2">
@@ -7694,10 +7870,10 @@
         <v>29</v>
       </c>
       <c r="C32" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="G32" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.2">
@@ -7705,13 +7881,13 @@
         <v>30</v>
       </c>
       <c r="C33" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="F33" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="G33" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.2">
@@ -7719,13 +7895,13 @@
         <v>31</v>
       </c>
       <c r="C34" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F34" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="G34" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.2">
@@ -7733,10 +7909,10 @@
         <v>32</v>
       </c>
       <c r="C35" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="G35" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.2">
@@ -7744,13 +7920,13 @@
         <v>33</v>
       </c>
       <c r="C36" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F36" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="G36" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.2">
@@ -7758,13 +7934,13 @@
         <v>34</v>
       </c>
       <c r="C37" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F37" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="G37" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.2">
@@ -7772,10 +7948,10 @@
         <v>35</v>
       </c>
       <c r="C38" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="G38" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.2">
@@ -7783,13 +7959,13 @@
         <v>71</v>
       </c>
       <c r="C39" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F39" t="s">
         <v>46</v>
       </c>
       <c r="G39" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.2">
@@ -7797,13 +7973,13 @@
         <v>72</v>
       </c>
       <c r="C40" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E40" t="s">
         <v>208</v>
       </c>
       <c r="G40" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.2">
@@ -7811,13 +7987,13 @@
         <v>73</v>
       </c>
       <c r="C41" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E41" t="s">
         <v>209</v>
       </c>
       <c r="G41" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.2">
@@ -7825,10 +8001,10 @@
         <v>74</v>
       </c>
       <c r="C42" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="G42" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
   </sheetData>

--- a/Luban/Config/Datas/Root/EventConfig.xlsx
+++ b/Luban/Config/Datas/Root/EventConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Game\RootsPinkShark\Luban\Config\Datas\Root\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5F833FD-83E4-40E5-9F39-883282B7E759}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14ECAE0A-9495-4B94-AC48-2BA9F9D00E17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1136,22 +1136,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>HEARTGROWTH,7,1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HEARTGROWTH,6,1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>你进入了一座古墓之中，墓中机关精密，两座棺材并排而立。经过仔细观察，你发现只要打开其中一副棺材，另一副就会马上被毁掉。你要打开哪座棺材呢？</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>HEARTGROWTH,8,1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>一股精纯的仙气被你吸入体内，加深了对仙道的感悟。</t>
   </si>
   <si>
@@ -1173,10 +1161,6 @@
     <t>鬼道</t>
   </si>
   <si>
-    <t>HEARTGROWTH,5,1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>你杀死了苟延残喘的鬼道飞升者，为了报答你，仙道飞升者将仅剩的力量注入了你的体内，加深了你对仙道的感悟。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1641,6 +1625,18 @@
   <si>
     <t>GROWTH,3,-1;GROWTH,2,1</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GROWTH,7,1</t>
+  </si>
+  <si>
+    <t>GROWTH,6,1</t>
+  </si>
+  <si>
+    <t>GROWTH,8,1</t>
+  </si>
+  <si>
+    <t>GROWTH,5,1</t>
   </si>
 </sst>
 </file>
@@ -1992,8 +1988,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D103" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="L108" sqref="L108"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2095,7 +2091,7 @@
         <v>41</v>
       </c>
       <c r="L2" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="M2" t="s">
         <v>42</v>
@@ -2180,7 +2176,7 @@
         <v>99</v>
       </c>
       <c r="M4" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="N4" t="b">
         <v>1</v>
@@ -2612,7 +2608,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="M16" t="s">
         <v>212</v>
@@ -2650,7 +2646,7 @@
         <v>0</v>
       </c>
       <c r="K17" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="M17" t="s">
         <v>213</v>
@@ -2688,7 +2684,7 @@
         <v>0</v>
       </c>
       <c r="K18" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="M18" t="s">
         <v>214</v>
@@ -2726,7 +2722,7 @@
         <v>0</v>
       </c>
       <c r="K19" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="M19" t="s">
         <v>215</v>
@@ -3237,7 +3233,7 @@
         <v>75</v>
       </c>
       <c r="C33" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="E33">
         <v>30</v>
@@ -3275,7 +3271,7 @@
         <v>76</v>
       </c>
       <c r="C34" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="E34">
         <v>31</v>
@@ -3427,7 +3423,7 @@
         <v>82</v>
       </c>
       <c r="C38" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="E38">
         <v>35</v>
@@ -3465,7 +3461,7 @@
         <v>83</v>
       </c>
       <c r="C39" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="E39">
         <v>36</v>
@@ -3503,7 +3499,7 @@
         <v>84</v>
       </c>
       <c r="C40" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="E40">
         <v>37</v>
@@ -3541,7 +3537,7 @@
         <v>85</v>
       </c>
       <c r="C41" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="E41">
         <v>38</v>
@@ -3579,7 +3575,7 @@
         <v>86</v>
       </c>
       <c r="C42" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="E42">
         <v>39</v>
@@ -3614,10 +3610,10 @@
     </row>
     <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B43" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="C43" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="E43">
         <v>40</v>
@@ -3652,10 +3648,10 @@
     </row>
     <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B44" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="C44" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="E44">
         <v>41</v>
@@ -3690,10 +3686,10 @@
     </row>
     <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B45" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="C45" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="E45">
         <v>42</v>
@@ -3728,10 +3724,10 @@
     </row>
     <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B46" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="C46" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="E46">
         <v>43</v>
@@ -3766,10 +3762,10 @@
     </row>
     <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B47" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="C47" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="E47">
         <v>44</v>
@@ -3804,10 +3800,10 @@
     </row>
     <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B48" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="C48" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="E48">
         <v>45</v>
@@ -3842,10 +3838,10 @@
     </row>
     <row r="49" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B49" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="C49" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="E49">
         <v>46</v>
@@ -3878,10 +3874,10 @@
     </row>
     <row r="50" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B50" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="C50" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="E50">
         <v>47</v>
@@ -3914,10 +3910,10 @@
     </row>
     <row r="51" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B51" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="C51" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="E51">
         <v>48</v>
@@ -3950,10 +3946,10 @@
     </row>
     <row r="52" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B52" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="C52" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="E52">
         <v>49</v>
@@ -3986,10 +3982,10 @@
     </row>
     <row r="53" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B53" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="C53" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="E53">
         <v>50</v>
@@ -4022,10 +4018,10 @@
     </row>
     <row r="54" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B54" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="C54" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="E54">
         <v>51</v>
@@ -4058,10 +4054,10 @@
     </row>
     <row r="55" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B55" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="C55" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="E55">
         <v>52</v>
@@ -4094,10 +4090,10 @@
     </row>
     <row r="56" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B56" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="C56" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="E56">
         <v>53</v>
@@ -4130,10 +4126,10 @@
     </row>
     <row r="57" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B57" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="C57" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="E57">
         <v>54</v>
@@ -4307,7 +4303,7 @@
         <v>184</v>
       </c>
       <c r="L61" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="N61" t="b">
         <v>1</v>
@@ -4345,7 +4341,7 @@
         <v>184</v>
       </c>
       <c r="L62" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="N62" t="b">
         <v>1</v>
@@ -4383,7 +4379,7 @@
         <v>184</v>
       </c>
       <c r="L63" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="N63" t="b">
         <v>1</v>
@@ -4397,7 +4393,7 @@
         <v>93</v>
       </c>
       <c r="C64" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="E64">
         <v>61</v>
@@ -4435,7 +4431,7 @@
         <v>94</v>
       </c>
       <c r="C65" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="E65">
         <v>62</v>
@@ -4473,7 +4469,7 @@
         <v>95</v>
       </c>
       <c r="C66" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="E66">
         <v>63</v>
@@ -4511,7 +4507,7 @@
         <v>96</v>
       </c>
       <c r="C67" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="E67">
         <v>64</v>
@@ -4549,7 +4545,7 @@
         <v>97</v>
       </c>
       <c r="C68" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="E68">
         <v>65</v>
@@ -4587,7 +4583,7 @@
         <v>98</v>
       </c>
       <c r="C69" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="E69">
         <v>66</v>
@@ -4625,7 +4621,7 @@
         <v>99</v>
       </c>
       <c r="C70" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="E70">
         <v>67</v>
@@ -4663,7 +4659,7 @@
         <v>100</v>
       </c>
       <c r="C71" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="E71">
         <v>68</v>
@@ -4701,7 +4697,7 @@
         <v>101</v>
       </c>
       <c r="C72" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="E72">
         <v>69</v>
@@ -4736,7 +4732,7 @@
         <v>102</v>
       </c>
       <c r="C73" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="E73">
         <v>70</v>
@@ -4771,7 +4767,7 @@
         <v>103</v>
       </c>
       <c r="C74" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="E74">
         <v>71</v>
@@ -4806,7 +4802,7 @@
         <v>104</v>
       </c>
       <c r="C75" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="E75">
         <v>72</v>
@@ -4841,7 +4837,7 @@
         <v>105</v>
       </c>
       <c r="C76" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="E76">
         <v>73</v>
@@ -4876,7 +4872,7 @@
         <v>106</v>
       </c>
       <c r="C77" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="E77">
         <v>74</v>
@@ -4911,7 +4907,7 @@
         <v>107</v>
       </c>
       <c r="C78" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="E78">
         <v>75</v>
@@ -4946,7 +4942,7 @@
         <v>108</v>
       </c>
       <c r="C79" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="E79">
         <v>76</v>
@@ -4981,7 +4977,7 @@
         <v>109</v>
       </c>
       <c r="C80" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="E80">
         <v>77</v>
@@ -5016,7 +5012,7 @@
         <v>110</v>
       </c>
       <c r="C81" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="E81">
         <v>78</v>
@@ -5051,7 +5047,7 @@
         <v>111</v>
       </c>
       <c r="C82" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="E82">
         <v>79</v>
@@ -5086,7 +5082,7 @@
         <v>112</v>
       </c>
       <c r="C83" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="E83">
         <v>80</v>
@@ -5121,7 +5117,7 @@
         <v>113</v>
       </c>
       <c r="C84" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="E84">
         <v>81</v>
@@ -5156,7 +5152,7 @@
         <v>114</v>
       </c>
       <c r="C85" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="E85">
         <v>82</v>
@@ -5191,7 +5187,7 @@
         <v>115</v>
       </c>
       <c r="C86" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="E86">
         <v>83</v>
@@ -5226,7 +5222,7 @@
         <v>116</v>
       </c>
       <c r="C87" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="E87">
         <v>84</v>
@@ -5261,7 +5257,7 @@
         <v>117</v>
       </c>
       <c r="C88" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="E88">
         <v>85</v>
@@ -5296,7 +5292,7 @@
         <v>118</v>
       </c>
       <c r="C89" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="E89">
         <v>86</v>
@@ -5331,7 +5327,7 @@
         <v>119</v>
       </c>
       <c r="C90" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="E90">
         <v>87</v>
@@ -5366,7 +5362,7 @@
         <v>120</v>
       </c>
       <c r="C91" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="E91">
         <v>88</v>
@@ -5401,7 +5397,7 @@
         <v>121</v>
       </c>
       <c r="C92" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="E92">
         <v>89</v>
@@ -5436,7 +5432,7 @@
         <v>122</v>
       </c>
       <c r="C93" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="E93">
         <v>90</v>
@@ -5471,7 +5467,7 @@
         <v>123</v>
       </c>
       <c r="C94" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="E94">
         <v>91</v>
@@ -5506,7 +5502,7 @@
         <v>124</v>
       </c>
       <c r="C95" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="E95">
         <v>92</v>
@@ -5541,7 +5537,7 @@
         <v>125</v>
       </c>
       <c r="C96" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="E96">
         <v>93</v>
@@ -5576,7 +5572,7 @@
         <v>126</v>
       </c>
       <c r="C97" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="E97">
         <v>94</v>
@@ -5611,7 +5607,7 @@
         <v>127</v>
       </c>
       <c r="C98" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="E98">
         <v>95</v>
@@ -5646,7 +5642,7 @@
         <v>128</v>
       </c>
       <c r="C99" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="E99">
         <v>96</v>
@@ -5681,7 +5677,7 @@
         <v>121</v>
       </c>
       <c r="C100" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="E100">
         <v>97</v>
@@ -5716,7 +5712,7 @@
         <v>122</v>
       </c>
       <c r="C101" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="E101">
         <v>98</v>
@@ -5751,7 +5747,7 @@
         <v>123</v>
       </c>
       <c r="C102" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="E102">
         <v>99</v>
@@ -5786,7 +5782,7 @@
         <v>124</v>
       </c>
       <c r="C103" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="E103">
         <v>100</v>
@@ -5821,7 +5817,7 @@
         <v>125</v>
       </c>
       <c r="C104" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="E104">
         <v>101</v>
@@ -5856,7 +5852,7 @@
         <v>126</v>
       </c>
       <c r="C105" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="E105">
         <v>102</v>
@@ -5891,7 +5887,7 @@
         <v>127</v>
       </c>
       <c r="C106" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="E106">
         <v>103</v>
@@ -5926,7 +5922,7 @@
         <v>128</v>
       </c>
       <c r="C107" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="E107">
         <v>104</v>
@@ -6490,7 +6486,7 @@
         <v>0</v>
       </c>
       <c r="M122" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="N122" t="b">
         <v>0</v>
@@ -6522,7 +6518,7 @@
         <v>0</v>
       </c>
       <c r="M123" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="N123" t="b">
         <v>0</v>
@@ -6554,7 +6550,7 @@
         <v>0</v>
       </c>
       <c r="M124" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="N124" t="b">
         <v>0</v>
@@ -6586,7 +6582,7 @@
         <v>0</v>
       </c>
       <c r="M125" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="N125" t="b">
         <v>0</v>
@@ -6618,7 +6614,7 @@
         <v>0</v>
       </c>
       <c r="M126" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="N126" t="b">
         <v>0</v>
@@ -6650,7 +6646,7 @@
         <v>0</v>
       </c>
       <c r="M127" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="N127" t="b">
         <v>0</v>
@@ -6682,7 +6678,7 @@
         <v>0</v>
       </c>
       <c r="M128" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="N128" t="b">
         <v>0</v>
@@ -6714,7 +6710,7 @@
         <v>0</v>
       </c>
       <c r="M129" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="N129" t="b">
         <v>0</v>
@@ -6746,7 +6742,7 @@
         <v>0</v>
       </c>
       <c r="M130" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="N130" t="b">
         <v>0</v>
@@ -6778,7 +6774,7 @@
         <v>0</v>
       </c>
       <c r="M131" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="N131" t="b">
         <v>0</v>
@@ -6810,7 +6806,7 @@
         <v>0</v>
       </c>
       <c r="M132" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="N132" t="b">
         <v>0</v>
@@ -6842,7 +6838,7 @@
         <v>0</v>
       </c>
       <c r="M133" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="N133" t="b">
         <v>0</v>
@@ -6874,7 +6870,7 @@
         <v>0</v>
       </c>
       <c r="M134" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="N134" t="b">
         <v>0</v>
@@ -6906,7 +6902,7 @@
         <v>0</v>
       </c>
       <c r="M135" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="N135" t="b">
         <v>0</v>
@@ -6938,7 +6934,7 @@
         <v>0</v>
       </c>
       <c r="M136" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="N136" t="b">
         <v>0</v>
@@ -6970,7 +6966,7 @@
         <v>0</v>
       </c>
       <c r="M137" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="N137" t="b">
         <v>0</v>
@@ -7002,7 +6998,7 @@
         <v>0</v>
       </c>
       <c r="M138" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="N138" t="b">
         <v>0</v>
@@ -7034,7 +7030,7 @@
         <v>0</v>
       </c>
       <c r="M139" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="N139" t="b">
         <v>0</v>
@@ -7066,7 +7062,7 @@
         <v>0</v>
       </c>
       <c r="M140" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="N140" t="b">
         <v>0</v>
@@ -7098,7 +7094,7 @@
         <v>0</v>
       </c>
       <c r="M141" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="N141" t="b">
         <v>0</v>
@@ -7130,7 +7126,7 @@
         <v>0</v>
       </c>
       <c r="M142" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="N142" t="b">
         <v>0</v>
@@ -7162,7 +7158,7 @@
         <v>0</v>
       </c>
       <c r="M143" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="N143" t="b">
         <v>0</v>
@@ -7194,7 +7190,7 @@
         <v>0</v>
       </c>
       <c r="M144" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="N144" t="b">
         <v>0</v>
@@ -7226,7 +7222,7 @@
         <v>0</v>
       </c>
       <c r="M145" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="N145" t="b">
         <v>0</v>
@@ -7389,8 +7385,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10D8AFCC-95AF-4A6B-815E-C005352AB991}">
   <dimension ref="A1:G42"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E40" sqref="E40:E41"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7481,7 +7477,7 @@
         <v>261</v>
       </c>
       <c r="E4" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="G4" t="s">
         <v>266</v>
@@ -7495,7 +7491,7 @@
         <v>270</v>
       </c>
       <c r="E5" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="G5" t="s">
         <v>267</v>
@@ -7509,7 +7505,7 @@
         <v>268</v>
       </c>
       <c r="E6" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="G6" t="s">
         <v>269</v>
@@ -7523,7 +7519,7 @@
         <v>261</v>
       </c>
       <c r="E7" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="G7" t="s">
         <v>266</v>
@@ -7537,7 +7533,7 @@
         <v>270</v>
       </c>
       <c r="E8" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="G8" t="s">
         <v>267</v>
@@ -7551,7 +7547,7 @@
         <v>268</v>
       </c>
       <c r="E9" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="G9" t="s">
         <v>269</v>
@@ -7593,7 +7589,7 @@
         <v>281</v>
       </c>
       <c r="F12" t="s">
-        <v>285</v>
+        <v>412</v>
       </c>
       <c r="G12" t="s">
         <v>283</v>
@@ -7607,7 +7603,7 @@
         <v>282</v>
       </c>
       <c r="F13" t="s">
-        <v>286</v>
+        <v>413</v>
       </c>
       <c r="G13" t="s">
         <v>284</v>
@@ -7618,13 +7614,13 @@
         <v>11</v>
       </c>
       <c r="C14" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F14" t="s">
-        <v>285</v>
+        <v>412</v>
       </c>
       <c r="G14" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
@@ -7632,13 +7628,13 @@
         <v>12</v>
       </c>
       <c r="C15" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="F15" t="s">
-        <v>288</v>
+        <v>414</v>
       </c>
       <c r="G15" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
@@ -7646,13 +7642,13 @@
         <v>13</v>
       </c>
       <c r="C16" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="F16" t="s">
-        <v>285</v>
+        <v>412</v>
       </c>
       <c r="G16" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.2">
@@ -7660,13 +7656,13 @@
         <v>14</v>
       </c>
       <c r="C17" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="F17" t="s">
-        <v>296</v>
+        <v>415</v>
       </c>
       <c r="G17" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.2">
@@ -7674,13 +7670,13 @@
         <v>15</v>
       </c>
       <c r="C18" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="F18" t="s">
-        <v>296</v>
+        <v>415</v>
       </c>
       <c r="G18" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.2">
@@ -7688,13 +7684,13 @@
         <v>16</v>
       </c>
       <c r="C19" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="F19" t="s">
-        <v>286</v>
+        <v>413</v>
       </c>
       <c r="G19" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.2">
@@ -7702,13 +7698,13 @@
         <v>17</v>
       </c>
       <c r="C20" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="F20" t="s">
-        <v>296</v>
+        <v>415</v>
       </c>
       <c r="G20" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.2">
@@ -7716,13 +7712,13 @@
         <v>18</v>
       </c>
       <c r="C21" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="F21" t="s">
-        <v>288</v>
+        <v>414</v>
       </c>
       <c r="G21" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.2">
@@ -7730,13 +7726,13 @@
         <v>19</v>
       </c>
       <c r="C22" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="F22" t="s">
-        <v>286</v>
+        <v>413</v>
       </c>
       <c r="G22" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.2">
@@ -7744,13 +7740,13 @@
         <v>20</v>
       </c>
       <c r="C23" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="F23" t="s">
-        <v>288</v>
+        <v>414</v>
       </c>
       <c r="G23" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.2">
@@ -7758,13 +7754,13 @@
         <v>21</v>
       </c>
       <c r="C24" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="F24" t="s">
         <v>218</v>
       </c>
       <c r="G24" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.2">
@@ -7772,13 +7768,13 @@
         <v>22</v>
       </c>
       <c r="C25" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="F25" t="s">
         <v>219</v>
       </c>
       <c r="G25" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.2">
@@ -7786,13 +7782,13 @@
         <v>23</v>
       </c>
       <c r="C26" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="F26" t="s">
         <v>218</v>
       </c>
       <c r="G26" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.2">
@@ -7800,13 +7796,13 @@
         <v>24</v>
       </c>
       <c r="C27" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="F27" t="s">
         <v>220</v>
       </c>
       <c r="G27" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.2">
@@ -7814,13 +7810,13 @@
         <v>25</v>
       </c>
       <c r="C28" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="F28" t="s">
         <v>220</v>
       </c>
       <c r="G28" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.2">
@@ -7828,13 +7824,13 @@
         <v>26</v>
       </c>
       <c r="C29" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="F29" t="s">
         <v>219</v>
       </c>
       <c r="G29" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.2">
@@ -7842,13 +7838,13 @@
         <v>27</v>
       </c>
       <c r="C30" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="F30" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="G30" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.2">
@@ -7856,13 +7852,13 @@
         <v>28</v>
       </c>
       <c r="C31" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="F31" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="G31" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.2">
@@ -7870,10 +7866,10 @@
         <v>29</v>
       </c>
       <c r="C32" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="G32" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.2">
@@ -7881,13 +7877,13 @@
         <v>30</v>
       </c>
       <c r="C33" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="F33" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="G33" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.2">
@@ -7895,13 +7891,13 @@
         <v>31</v>
       </c>
       <c r="C34" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="F34" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="G34" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.2">
@@ -7909,10 +7905,10 @@
         <v>32</v>
       </c>
       <c r="C35" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="G35" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.2">
@@ -7920,13 +7916,13 @@
         <v>33</v>
       </c>
       <c r="C36" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="F36" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="G36" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.2">
@@ -7934,13 +7930,13 @@
         <v>34</v>
       </c>
       <c r="C37" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="F37" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="G37" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.2">
@@ -7948,10 +7944,10 @@
         <v>35</v>
       </c>
       <c r="C38" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="G38" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.2">
@@ -8001,10 +7997,10 @@
         <v>74</v>
       </c>
       <c r="C42" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="G42" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
     </row>
   </sheetData>

--- a/Luban/Config/Datas/Root/EventConfig.xlsx
+++ b/Luban/Config/Datas/Root/EventConfig.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Game\RootsPinkShark\Luban\Config\Datas\Root\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14ECAE0A-9495-4B94-AC48-2BA9F9D00E17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5141F1FF-E028-4CC9-8E64-A37088D559E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,1647 +20,1489 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Event!$A$1:$O$145</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="691" uniqueCount="416">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="691" uniqueCount="467">
   <si>
     <t>##</t>
   </si>
   <si>
+    <t>EventName</t>
+  </si>
+  <si>
+    <t>Desc</t>
+  </si>
+  <si>
+    <t>EventType</t>
+  </si>
+  <si>
+    <t>EventId</t>
+  </si>
+  <si>
+    <t>GroupId</t>
+  </si>
+  <si>
+    <t>IsGenUnique</t>
+  </si>
+  <si>
+    <t>IsAllUnique</t>
+  </si>
+  <si>
+    <t>IsInteractive</t>
+  </si>
+  <si>
+    <t>DrawPri</t>
+  </si>
+  <si>
+    <t>AppearCondition</t>
+  </si>
+  <si>
+    <t>Options</t>
+  </si>
+  <si>
+    <t>Effects</t>
+  </si>
+  <si>
+    <t>IsOnBase</t>
+  </si>
+  <si>
+    <t>WEIGHT</t>
+  </si>
+  <si>
     <t>##type</t>
   </si>
   <si>
     <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EventName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bool</t>
+  </si>
+  <si>
+    <t>(list#sep=;),EventCondition#sep=,</t>
+  </si>
+  <si>
+    <t>(list#sep=,),int#ref=TbEventOption</t>
+  </si>
+  <si>
+    <t>(list#sep=;), EventEffect#sep=,</t>
   </si>
   <si>
     <t>事件名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EventType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>事件描述</t>
   </si>
   <si>
     <t>事件类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EventId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>事件ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GroupId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>所属事件组ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bool</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IsGenUnique</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>是否此代唯一</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IsAllUnique</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>是否历史唯一</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Desc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>事件描述</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IsInteractive</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Options</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Effects</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>是否是可交互事件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>触发优先级</t>
+  </si>
+  <si>
+    <t>出现条件</t>
+  </si>
+  <si>
+    <t>事件选项</t>
+  </si>
+  <si>
+    <t>事件结果（非交互事件才需要）</t>
+  </si>
+  <si>
+    <t>是否在初始事件库</t>
+  </si>
+  <si>
+    <t>权重</t>
+  </si>
+  <si>
+    <t>出生事件</t>
+  </si>
+  <si>
+    <t>TAGBRITH,0,0</t>
+  </si>
+  <si>
+    <t>获得道心</t>
+  </si>
+  <si>
+    <t>ADD_RESOURCE,3,0</t>
+  </si>
+  <si>
+    <t>找到配偶</t>
+  </si>
+  <si>
+    <t>HAS_PARTENER,0,0</t>
+  </si>
+  <si>
+    <t>MARRY,0,0</t>
+  </si>
+  <si>
+    <t>生孩子-早期</t>
+  </si>
+  <si>
+    <t>HAS_PARTENER,1,0</t>
+  </si>
+  <si>
+    <t>GIVE_BIRTH,0,0</t>
+  </si>
+  <si>
+    <t>生孩子-中期</t>
+  </si>
+  <si>
+    <t>生孩子-后期</t>
+  </si>
+  <si>
+    <t>雷劫-初级判定</t>
+  </si>
+  <si>
+    <t>AGEBETWEEN,30,35</t>
+  </si>
+  <si>
+    <t>1,2,3,71</t>
+  </si>
+  <si>
+    <t>雷劫-高级判定</t>
+  </si>
+  <si>
+    <t>AGEBETWEEN,50,55</t>
+  </si>
+  <si>
+    <t>4,5,6,71</t>
+  </si>
+  <si>
+    <t>雷劫-属性雷</t>
+  </si>
+  <si>
+    <t>雷劫-灭魔雷</t>
+  </si>
+  <si>
+    <t>AGEBETWEEN,80,85</t>
+  </si>
+  <si>
+    <t>7,8,71,72,73</t>
+  </si>
+  <si>
+    <t>雷劫-死雷</t>
+  </si>
+  <si>
+    <t>AGEBETWEEN,100,101</t>
+  </si>
+  <si>
+    <t>DIE,0,0</t>
+  </si>
+  <si>
+    <t>道心锤炼-幼年-妖</t>
+  </si>
+  <si>
+    <t>路边的野狗朝你狂叫，你也试着叫了回去，与野兽达成初步交流，加深了对妖道的感悟。</t>
+  </si>
+  <si>
+    <t>HAVETAG,4,0</t>
+  </si>
+  <si>
+    <t>HEARTGROWTH,6,0</t>
+  </si>
+  <si>
+    <t>道心锤炼-幼年-仙</t>
+  </si>
+  <si>
+    <t>丢失的匕首被水仙捡到，水仙问你丢的是金匕首，银匕首还是铜匕首，你如实回答，加深了对仙道的感悟。</t>
+  </si>
+  <si>
+    <t>HAVETAG,5,0</t>
+  </si>
+  <si>
+    <t>HEARTGROWTH,7,0</t>
+  </si>
+  <si>
+    <t>道心锤炼-幼年-鬼</t>
+  </si>
+  <si>
+    <t>误入墓地，与怨灵玩捉迷藏，加深了对鬼道的感悟。</t>
+  </si>
+  <si>
+    <t>HAVETAG,6,0</t>
+  </si>
+  <si>
+    <t>HEARTGROWTH,5,0</t>
+  </si>
+  <si>
+    <t>道心锤炼-幼年-佛</t>
+  </si>
+  <si>
+    <t>被熊孩子欺负，安慰自己不跟他一般见识，巧合佛道理念，加深了对佛道的感悟。</t>
+  </si>
+  <si>
+    <t>HAVETAG,7,0</t>
+  </si>
+  <si>
+    <t>HEARTGROWTH,8,0</t>
+  </si>
+  <si>
+    <t>道心锤炼-青壮年-鬼1</t>
+  </si>
+  <si>
+    <t>被厉鬼附身，竟然对他生前的遭遇感同身受，加深了对鬼道的感悟。</t>
+  </si>
+  <si>
+    <t>AGEBETWEEN,19,60</t>
+  </si>
+  <si>
+    <t>道心锤炼-青壮年-妖1</t>
+  </si>
+  <si>
+    <t>在林间与虎妖搏斗，不分伯仲，惺惺相惜成了好友，加深了对妖道的感悟。</t>
+  </si>
+  <si>
+    <t>道心锤炼-青壮年-仙1</t>
+  </si>
+  <si>
+    <t>在山间发现一具腐朽的仙人骸骨，祭拜掩埋，加深了对仙道的感悟。</t>
+  </si>
+  <si>
+    <t>道心锤炼-青壮年-佛1</t>
+  </si>
+  <si>
+    <t>在破旧的寺庙过夜，与佛像共眠，梦中与佛陀交流，加深了对佛道的感悟。</t>
+  </si>
+  <si>
+    <t>道心锤炼-青壮年-鬼2</t>
+  </si>
+  <si>
+    <t>表白被拒，悲痛之下自杀未遂，无限接近死亡，深谙鬼道，加深了对鬼道的感悟。</t>
+  </si>
+  <si>
+    <t>道心锤炼-青壮年-妖2</t>
+  </si>
+  <si>
+    <t>无意间救下猪妖，猪妖对你一见倾心，加深了对妖道的感悟。</t>
+  </si>
+  <si>
+    <t>道心锤炼-青壮年-仙2</t>
+  </si>
+  <si>
+    <t>偶入仙府遗址，受仙力刺激神游太虚，加深了对仙道的感悟。</t>
+  </si>
+  <si>
+    <t>道心锤炼-青壮年-佛2</t>
+  </si>
+  <si>
+    <t>路遇饥寒交迫的小沙弥，将身上不多的干粮分享于他，加深了对佛道的感悟。</t>
+  </si>
+  <si>
+    <t>AGEBETWEEN,61,80</t>
+  </si>
+  <si>
+    <t>道心锤炼-老年-鬼</t>
+  </si>
+  <si>
+    <t>为游荡世间的色鬼所诱惑，进行了一段时长半个时辰的人鬼恋，加深了对鬼道的感悟。</t>
+  </si>
+  <si>
+    <t>道心锤炼-老年-妖</t>
+  </si>
+  <si>
+    <t>被困迷阵，食狼王血肉得以求生，加深了对妖道的感悟。</t>
+  </si>
+  <si>
+    <t>道心锤炼-老年-仙</t>
+  </si>
+  <si>
+    <t>在山崖边解决内急，不慎跌入崖下仙泉，侥幸逃过一劫，加深了对仙道的感悟。</t>
+  </si>
+  <si>
+    <t>道心锤炼-老年-佛</t>
+  </si>
+  <si>
+    <t>在闹饥荒的村庄里，见高僧割肉喂鹰，为之动容，加深了对佛道的感悟。</t>
+  </si>
+  <si>
+    <t>道心锤炼2选1-仙/妖</t>
+  </si>
+  <si>
+    <t>这是一座有着两扇大门的飞升者遗迹，看门的灵傀告诉你，你只能在两扇门中选择其一。左边是仙道，右边是妖道，你的选择是？
+A.仙道：你进入了仙道遗迹，加深了对仙道的感悟。
+B.妖道：你进入了妖道遗迹，加深了对妖道的感悟。</t>
+  </si>
+  <si>
+    <t>AGEBETWEEN,19,80</t>
+  </si>
+  <si>
+    <t>9,10</t>
+  </si>
+  <si>
+    <t>道心锤炼2选1-仙/佛</t>
+  </si>
+  <si>
+    <t>你进入了一座古墓之中，墓中机关精密，两座棺材并排而立。经过仔细观察，你发现只要打开其中一副棺材，另一副就会马上被毁掉。你要打开哪座棺材呢？
+A.刻着三昧真火标记的棺材：一股精纯的仙气被你吸入体内，加深了对仙道的感悟。
+B.刻着万字标记的棺材：一股精纯的佛念被你吸入体内，加深了对佛道的感悟。</t>
+  </si>
+  <si>
+    <t>11,12</t>
+  </si>
+  <si>
+    <t>道心锤炼2选1-仙/鬼</t>
+  </si>
+  <si>
+    <t>深山之中，你发现了两具对面而立的飞升者枯骨。两道不同的声音分别从两具枯骨中传来。原来这是仙鬼两位飞升者的战场，最终两人同归于尽，只留下神念苦苦支撑。你会选择帮助哪位飞升者呢？
+A.仙道：你杀死了苟延残喘的鬼道飞升者，为了报答你，仙道飞升者将仅剩的力量注入了你的体内，加深了你对仙道的感悟。
+B.鬼道：你杀死了苟延残喘的仙道飞升者，为了报答你，鬼道飞升者将仅剩的力量注入了你的体内，加深了你对鬼道的感悟。</t>
+  </si>
+  <si>
+    <t>13,14</t>
+  </si>
+  <si>
+    <t>道心锤炼2选1-鬼/妖</t>
+  </si>
+  <si>
+    <t>捡到一本罕见的鬼妖双修秘法，可惜秘法残缺，你只能稍加修炼，在鬼妖之中选择一条道路。
+A.修炼鬼道：你修炼的鬼道秘法，加深了你对鬼道的感悟。
+B.修炼妖道：你修炼了妖道秘法，加深了你对妖道的感悟。</t>
+  </si>
+  <si>
+    <t>15,16</t>
+  </si>
+  <si>
+    <t>道心锤炼2选1-鬼/佛</t>
+  </si>
+  <si>
+    <t>路过城外小树林，听见林中传来巨响。你好奇的进入树林，发现一位受伤的鬼道修者正被困于一道佛阵内。佛阵在鬼道修者的进攻下隐隐有些不支。
+A.攻击佛阵，帮助鬼道修者脱困：你获得鬼道修者指点，加深了对鬼道的感悟。
+B.为佛阵注入力量，彻底镇压鬼道修者：与佛阵协战，获益匪浅，加深了你对佛道的感悟。</t>
+  </si>
+  <si>
+    <t>17,18</t>
+  </si>
+  <si>
+    <t>道心锤炼2选1-妖/佛</t>
+  </si>
+  <si>
+    <t>路遇高僧与青色妖蛇论道，高僧谈人性本善，妖蛇却认为人性本恶。辩论需求不得结果，于是两人将目光转向了你。
+A.支持高僧：获得高僧指点，加深了你对佛道的感悟。
+B.支持妖蛇：获得妖蛇指点，加深了你对妖道的感悟。</t>
+  </si>
+  <si>
+    <t>19,20</t>
+  </si>
+  <si>
+    <t>福源提升事件1</t>
+  </si>
+  <si>
+    <t>路上踩到狗屎，福源获得提升。</t>
+  </si>
+  <si>
+    <t>GROWTH,4,1</t>
+  </si>
+  <si>
+    <t>福源提升事件2</t>
+  </si>
+  <si>
+    <t>在祈福活动中拔得头筹，获得被赐福资格，福源获得提升。</t>
+  </si>
+  <si>
+    <t>GROWTH,4,2</t>
+  </si>
+  <si>
+    <t>幼年-修为灵力提升</t>
+  </si>
+  <si>
+    <t>误食百年灵芝，修为灵力获得提升。</t>
+  </si>
+  <si>
+    <t>AGEBETWEEN,1,18</t>
+  </si>
+  <si>
+    <t>GROWTH,1,1</t>
+  </si>
+  <si>
+    <t>幼年-神识强度提升</t>
+  </si>
+  <si>
+    <t>遭遇绑架，经受绑匪折磨后逃出生天，神识强度获得提升。</t>
+  </si>
+  <si>
+    <t>GROWTH,2,1</t>
+  </si>
+  <si>
+    <t>幼年-博闻灵智提升</t>
+  </si>
+  <si>
+    <t>被苹果砸到脑袋，顿悟万有引力，博闻灵智获得提升。</t>
+  </si>
+  <si>
+    <t>GROWTH,3,1</t>
+  </si>
+  <si>
+    <t>青壮年-修为灵力提升-基础</t>
+  </si>
+  <si>
+    <t>参加比武招亲，虽技不如人身受重伤，没想到机缘巧合打通任督二脉，修为灵力获得提升。</t>
+  </si>
+  <si>
+    <t>青壮年-神识强度提升-基础</t>
+  </si>
+  <si>
+    <t>想要偷看暗恋之人洗澡，领悟精神观察功法，神识强度获得提升。</t>
+  </si>
+  <si>
+    <t>青壮年-博闻灵智提升-基础</t>
+  </si>
+  <si>
+    <t>与东方不败一夜春风后谈古论今，博闻灵智获得提升。</t>
+  </si>
+  <si>
+    <t>青壮年-修为灵力提升-鬼</t>
+  </si>
+  <si>
+    <t>破开猪笼棋局，得高人传功，修为灵力获得提升。</t>
+  </si>
+  <si>
+    <t>ATTRIMINNEED,5,3</t>
+  </si>
+  <si>
+    <t>青壮年-神识强度提升-鬼</t>
+  </si>
+  <si>
+    <t>雨天漫步遭遇雷击，暗合锻神之法，神识强度获得提升。</t>
+  </si>
+  <si>
+    <t>青壮年-博闻灵智提升-鬼</t>
+  </si>
+  <si>
+    <t>徒步万里，远赴傣国游历，博闻灵智获得提升。</t>
+  </si>
+  <si>
+    <t>青壮年-修为灵力提升-仙</t>
+  </si>
+  <si>
+    <t>找到一处千年灵泉，在此处修炼，修为灵力获得提升。</t>
+  </si>
+  <si>
+    <t>ATTRIMINNEED,6,3</t>
+  </si>
+  <si>
+    <t>青壮年-神识强度提升-仙</t>
+  </si>
+  <si>
+    <t>偶遇一位白发苍苍的仙人，给你指点迷津，神识强度获得提升。</t>
+  </si>
+  <si>
+    <t>青壮年-博闻灵智提升-仙</t>
+  </si>
+  <si>
+    <t>与一位贺姓仙人聊天，博闻灵智获得提升。</t>
+  </si>
+  <si>
+    <t>青壮年-修为灵力提升-佛</t>
+  </si>
+  <si>
+    <t>ATTRIMINNEED,7,3</t>
+  </si>
+  <si>
+    <t>青壮年-神识强度提升-佛</t>
+  </si>
+  <si>
+    <t>青壮年-博闻灵智提升-佛</t>
+  </si>
+  <si>
+    <t>青壮年-修为灵力提升-妖</t>
+  </si>
+  <si>
+    <t>ATTRIMINNEED,8,3</t>
+  </si>
+  <si>
+    <t>青壮年-神识强度提升-妖</t>
+  </si>
+  <si>
+    <t>青壮年-博闻灵智提升-妖</t>
+  </si>
+  <si>
+    <t>属性2选1-修为/神识</t>
+  </si>
+  <si>
+    <t>夏日炎炎，你在一颗参天灵书下午睡。一泡液体从树上落下，正好进入你的最终。起初你以为是猴子在树上撒尿，没想到液体进入体内，罕见的无属性的灵气充满四肢百骸。这种灵气即可提升修为，亦可提升神识。
+A.将灵气转为修为：你的修为增加了。
+B.将灵气转为神识：你的神识增强了。</t>
+  </si>
+  <si>
+    <t>21,22</t>
+  </si>
+  <si>
+    <t>属性2选1-修为/博闻</t>
+  </si>
+  <si>
+    <t>参加修者擂台赛获得冠军，冠军的奖品是幸福二选一。其一是可以增加修为的修炼灵石，其二是一条关于当今圣上的大秘密，可增强博闻。
+A.选择灵石：你的修为增加了。
+B.选择大秘密：奇怪的知识增加了，博闻也增强了。</t>
+  </si>
+  <si>
+    <t>23,24</t>
+  </si>
+  <si>
+    <t>属性2选1-博闻/神识</t>
+  </si>
+  <si>
+    <t>官道旁救下差点跌下悬崖的旅人，在拒绝了对方以身相许的酬谢后。对方拿出两颗丹药，让你选一颗作为谢礼。这两枚丹药一颗可增加博闻，一颗可增强神识。
+A.选择博闻丹：服下丹药后你的博闻增加了。
+B.选择神识丹：服下丹药后你的神识增强了。</t>
+  </si>
+  <si>
+    <t>25,26</t>
+  </si>
+  <si>
+    <t>要不要属性转换-博闻神识相互转</t>
+  </si>
+  <si>
+    <t>与一位有趣的修者成为了朋友，他掌握了将博闻神识互相转换的功法，他愿意祝你进行属性转换。
+A.将博闻转为神识：你的部分博闻转换为了神识。
+B.将神识转为博闻：你的部分神识转化为了博闻。
+C.让这位朋友滚蛋：这位修者幽怨的看了你一眼，然后就离开了。</t>
+  </si>
+  <si>
+    <t>27,28,74</t>
+  </si>
+  <si>
+    <t>要不要属性转换-博闻修为相互转</t>
+  </si>
+  <si>
+    <t>在一座古墓中发现了寒玉床，坐其上修炼可将博闻与修为任意转换。
+A.将博闻转为修为：你的部分博闻转换为了修为。
+B.将修为转为博闻：你的部分修为转换为了博闻。
+C.寒玉床太冷不想用：离开古墓时你打了一个喷嚏。</t>
+  </si>
+  <si>
+    <t>30,31,74</t>
+  </si>
+  <si>
+    <t>要不要属性转换-修为神识相互转</t>
+  </si>
+  <si>
+    <t>集市上一位寒酸的老者，想要用一枚灵丹换你手中的豆沙包，你觉得是比划算卖买，于是同意了交换。服下丹药后你发现这枚丹药竟然能让修者在短时间内将神识与修为互相转换。
+A.将神识转为修为：你的部分甚至转换为了修为。
+B.将修为转为神识：你的部分修为转换为了神识。
+C.这丹药的味道像答辩：你转身吐了出来，白白浪费了换灵药的豆沙包。</t>
+  </si>
+  <si>
+    <t>33,34,74</t>
+  </si>
+  <si>
+    <t>全年龄财富获取事件1</t>
+  </si>
+  <si>
+    <t>购买“发财票”中奖，获得乾坤宝钱N。</t>
+  </si>
+  <si>
+    <t>ADD_RESOURCE,4,0</t>
+  </si>
+  <si>
+    <t>全年龄财富获取事件2</t>
+  </si>
+  <si>
+    <t>路遇劫匪抢劫，路见不平，获得重金酬谢N。</t>
+  </si>
+  <si>
+    <t>老年-修为灵力下降1</t>
+  </si>
+  <si>
+    <t>道侣精力旺盛，导致你操劳过度，修为灵力下降。</t>
+  </si>
+  <si>
+    <t>GROWTH,1,-2</t>
+  </si>
+  <si>
+    <t>老年-神识强度下降1</t>
+  </si>
+  <si>
+    <t>按摩遇见天下第一圣手，精神遭重创，神识强度下降。</t>
+  </si>
+  <si>
+    <t>GROWTH,2,-2</t>
+  </si>
+  <si>
+    <t>老年-博闻灵智下降1</t>
+  </si>
+  <si>
+    <t>被郎中诊断出患有痴呆症，博闻灵智下降。</t>
+  </si>
+  <si>
+    <t>GROWTH,3,-2</t>
+  </si>
+  <si>
+    <t>老年-修为灵力下降2</t>
+  </si>
+  <si>
+    <t>为了修真宝物谎报年龄参加宫中选秀，被揭穿后遭到围攻，身受重伤，修为灵力下降。</t>
+  </si>
+  <si>
+    <t>GROWTH,1,-1</t>
+  </si>
+  <si>
+    <t>老年-神识强度下降2</t>
+  </si>
+  <si>
+    <t>误入鸡脚邪教，被邪教主题曲“鸡你太美”洗脑，神识强度下降。</t>
+  </si>
+  <si>
+    <t>GROWTH,2,-1</t>
+  </si>
+  <si>
+    <t>老年-博闻灵智下降2</t>
+  </si>
+  <si>
+    <t>下五子棋输给三岁孩童，博闻灵智下降。</t>
+  </si>
+  <si>
+    <t>GROWTH,3,-1</t>
+  </si>
+  <si>
+    <t>无事发生的幼年1</t>
+  </si>
+  <si>
+    <t>与王小虎打架打输了。</t>
+  </si>
+  <si>
+    <t>无事发生的幼年2</t>
+  </si>
+  <si>
+    <t>悄悄把邻居家晾晒的羊肠扎满了洞。</t>
+  </si>
+  <si>
+    <t>无事发生的幼年3</t>
+  </si>
+  <si>
+    <t>把父亲偷看《铜瓶梅》的秘密告诉了母亲。</t>
+  </si>
+  <si>
+    <t>无事发生的幼年4</t>
+  </si>
+  <si>
+    <t>遇见一位自称唐三的叔叔在找他的手环。</t>
+  </si>
+  <si>
+    <t>无事发生的幼年5</t>
+  </si>
+  <si>
+    <t>发现在茶里加上牛奶还挺好喝的。</t>
+  </si>
+  <si>
+    <t>无事发生的幼年6</t>
+  </si>
+  <si>
+    <t>从隔壁小陈那学了一首歌谣，爱你孤身走暗巷，爱你不跪的模样…...</t>
+  </si>
+  <si>
+    <t>无事发生的幼年7</t>
+  </si>
+  <si>
+    <t>有个乞丐说你骨骼惊奇，没等他说完你就给了他一个大比兜。</t>
+  </si>
+  <si>
+    <t>无事发生的幼年8</t>
+  </si>
+  <si>
+    <t>你的初恋还没开始就结束了。</t>
+  </si>
+  <si>
+    <t>无事发生的幼年9</t>
+  </si>
+  <si>
+    <t>关系要好的哥哥受伤了，你好心疼哥哥。</t>
+  </si>
+  <si>
+    <t>无事发生的幼年10</t>
+  </si>
+  <si>
+    <t>你在认真考虑长大以后到底是要跟小陈成婚还是小李。</t>
+  </si>
+  <si>
+    <t>无事发生的青壮年1</t>
+  </si>
+  <si>
+    <t>被一个三百斤的胖子表白。</t>
+  </si>
+  <si>
+    <t>无事发生的青壮年2</t>
+  </si>
+  <si>
+    <t>吃到了奇怪味道的九转大肠。</t>
+  </si>
+  <si>
+    <t>无事发生的青壮年3</t>
+  </si>
+  <si>
+    <t>得了痔疮，去看郎中时却不好意思脱裤子。</t>
+  </si>
+  <si>
+    <t>无事发生的青壮年4</t>
+  </si>
+  <si>
+    <t>计划用脚在地上抠出一间房子以锻炼身法，后来发现用处不大就放弃了。</t>
+  </si>
+  <si>
+    <t>无事发生的青壮年5</t>
+  </si>
+  <si>
+    <t>喜欢上了白酒加薄荷和柠檬的味道。</t>
+  </si>
+  <si>
+    <t>无事发生的老年1</t>
+  </si>
+  <si>
+    <t>不知从什么时候开始，街道上总是有一群与你同龄的女性在跳舞，你感慨世风日下。</t>
+  </si>
+  <si>
+    <t>AGEBETWEEN,61,100</t>
+  </si>
+  <si>
+    <t>无事发生的老年2</t>
+  </si>
+  <si>
+    <t>小陈和小李因为你争风吃醋打了起来。</t>
+  </si>
+  <si>
+    <t>无事发生的老年3</t>
+  </si>
+  <si>
+    <t>城里开设了足底按摩的项目，你尝试过后立马狠狠爱住。</t>
+  </si>
+  <si>
+    <t>无事发生的老年4</t>
+  </si>
+  <si>
+    <t>城里有名的吴姓戏子被抓了，你非常好奇是为什么。</t>
+  </si>
+  <si>
+    <t>无事发生的老年5</t>
+  </si>
+  <si>
+    <t>经常与你下象棋的王老头去世了，你伤心了好一阵子。</t>
+  </si>
+  <si>
+    <t>利用鬼气取得物品的事件-简单</t>
+  </si>
+  <si>
+    <t>你在一座山巅发现了一块古老的墓碑，墓碑中残存的神念不断尝试向你索取着鬼道力量。</t>
+  </si>
+  <si>
+    <t>HAVERES,19,0</t>
+  </si>
+  <si>
+    <t>利用妖气取得物品的事件-简单</t>
+  </si>
+  <si>
+    <t>你在河边救下一名上半身是鱼，下半身是人的妖兽。妖兽声称只要你通过他的妖道考验，就能赠你一件重宝。</t>
+  </si>
+  <si>
+    <t>HAVERES,24,0</t>
+  </si>
+  <si>
+    <t>运用仙力取得物品的事件-简单</t>
+  </si>
+  <si>
+    <t>你根据在地摊淘来的藏宝图寻到藏宝之地。这是一处仙家洞府，只有拥有足够的仙道力量才能够破门而入。</t>
+  </si>
+  <si>
+    <t>HAVERES,29,0</t>
+  </si>
+  <si>
+    <t>运用佛光取得物品的事件-简单</t>
+  </si>
+  <si>
+    <t>你无意间在一处山洞中寻得一枚古朴的木匣子，匣子上镶嵌的宝珠黯淡无光。只有朝着宝珠全力输入佛道的力量，木匣才能打开。</t>
+  </si>
+  <si>
+    <t>HAVERES,34,0</t>
+  </si>
+  <si>
+    <t>利用鬼气取得物品的事件-较难</t>
+  </si>
+  <si>
+    <t>鬼气缭绕的地下宫殿中，你缓缓前行。不远处的空地中央立着一个王座，你犹豫了一下便坐了上去。忽然一阵吸力传来，身下的王座竟然在向你索取鬼道的力量。</t>
+  </si>
+  <si>
+    <t>HAVERES,21,0</t>
+  </si>
+  <si>
+    <t>利用妖气取得物品的事件-较难</t>
+  </si>
+  <si>
+    <t>这座看似平平无奇的小楼只不过是障眼法而已。你已经感受到小楼背后隐藏着的重宝。只要能使用足够强大的妖道力量，就能破除幻境。</t>
+  </si>
+  <si>
+    <t>HAVERES,26,0</t>
+  </si>
+  <si>
+    <t>运用仙力取得物品的事件-较难</t>
+  </si>
+  <si>
+    <t>透过清澈的湖水可以看到湖底散发着宝物的光芒。可这轻轻湖水并不普通，是难得一见的重水，寻常人物根本难以撼动分毫。只有强大的仙道力量，才能开辟出一条通往湖底的通道。</t>
+  </si>
+  <si>
+    <t>HAVERES,31,0</t>
+  </si>
+  <si>
+    <t>运用佛光取得物品的事件-较难</t>
+  </si>
+  <si>
+    <t>面前的寺庙中散发着宝物的光芒，可庙中钟鸣不止，如果贸然靠近轻则七窍流血，重则爆体而亡。只有拥有强大的佛道力量，才能抵抗住钟鸣的攻击，进入寺庙。</t>
+  </si>
+  <si>
+    <t>HAVERES,36,0</t>
+  </si>
+  <si>
+    <t>HAVERES,20,0</t>
+  </si>
+  <si>
+    <t>HAVERES,25,0</t>
+  </si>
+  <si>
+    <t>HAVERES,30,0</t>
+  </si>
+  <si>
+    <t>HAVERES,35,0</t>
+  </si>
+  <si>
+    <t>HAVERES,22,0</t>
+  </si>
+  <si>
+    <t>HAVERES,27,0</t>
+  </si>
+  <si>
+    <t>HAVERES,32,0</t>
+  </si>
+  <si>
+    <t>HAVERES,37,0</t>
+  </si>
+  <si>
+    <t>售卖东西的奇遇（初级随机商店</t>
+  </si>
+  <si>
+    <t>奇遇捡东西事件1</t>
+  </si>
+  <si>
+    <t>如厕时捡到上一位蹲坑者遗留的包裹，获得神秘灵宝一件。</t>
+  </si>
+  <si>
+    <t>奇遇捡东西事件2</t>
+  </si>
+  <si>
+    <t>在江边钓鱼，钓上一个奇怪的箱子，获得神秘灵宝一件。</t>
+  </si>
+  <si>
+    <t>奇遇捡东西事件3</t>
+  </si>
+  <si>
+    <t>看到路边的黄狗刨坑刨出了宝贝，你上前抢夺过来，获得神秘灵宝一件。</t>
+  </si>
+  <si>
+    <t>幼年-修为灵力下降</t>
+  </si>
+  <si>
+    <t>感染瘟疫大病一场，伤及根本，修为灵力下降。</t>
+  </si>
+  <si>
+    <t>幼年-神识强度下降</t>
+  </si>
+  <si>
+    <t>误食致幻毒菇，精神受到损伤，神识强度下降。</t>
+  </si>
+  <si>
+    <t>幼年-博闻灵智下降</t>
+  </si>
+  <si>
+    <t>于小伙伴沉迷手持公鸡互相进攻的游戏，荒废学业，博闻灵智下降。</t>
+  </si>
+  <si>
+    <t>青壮年-修为灵力下降</t>
+  </si>
+  <si>
+    <t>遇人不淑，与修炼吸人精气功法者坠入爱河，修为灵力下降。</t>
+  </si>
+  <si>
+    <t>青壮年-神识强度下降</t>
+  </si>
+  <si>
+    <t>饮酒过度，断片头部遭到撞击，神识强度下降。</t>
+  </si>
+  <si>
+    <t>青壮年-博闻灵智下降</t>
+  </si>
+  <si>
+    <t>沉迷小黄书，终日陷入幻想，博闻灵智下降。</t>
+  </si>
+  <si>
+    <t>四道初始事件1</t>
+  </si>
+  <si>
+    <t>你悟得仙道九转道心。
+你悟得佛道无相道心。
+你悟得妖道玲珑道心。
+你悟得鬼道玄阴道心。</t>
+  </si>
+  <si>
+    <t>ADD_RESOURCE,43,0;ADD_RESOURCE,44,0</t>
+  </si>
+  <si>
+    <t>四道初始事件2</t>
+  </si>
+  <si>
+    <t>你的道心渐入佳境，感悟修真机缘，获得神秘灵宝一件。</t>
+  </si>
+  <si>
+    <t>ADD_RESOURCE,45,0;ADD_RESOURCE,46,0</t>
+  </si>
+  <si>
+    <t>四道初始事件3</t>
+  </si>
+  <si>
+    <t>你的道心登堂入室，感悟修真机缘，获得神秘灵宝一件。</t>
+  </si>
+  <si>
+    <t>ADD_RESOURCE,47,0;ADD_RESOURCE,48,0</t>
+  </si>
+  <si>
+    <t>四道初始事件4</t>
+  </si>
+  <si>
+    <t>你的道心浑然天成，感悟修真机缘，获得神秘灵宝一件。</t>
+  </si>
+  <si>
+    <t>ADD_RESOURCE,49,0;ADD_RESOURCE,45,0</t>
+  </si>
+  <si>
+    <t>鬼道初级事件1</t>
+  </si>
+  <si>
+    <t>通往玄阴秘境的传送门被打开，你出现在一座阴风阵阵的孤岛上，一块玄阴石高悬岛的中央，不断吸收着周围的至阴之力。为了拿到空中的玄阴石，你砍光了岛上所有的树木，制成了一个四脚梯。在手握玄阴石的同时，你还在感慨知识改变命运。</t>
+  </si>
+  <si>
+    <t>ADD_RESOURCE,19,0;ADD_RESOURCE,51,0</t>
+  </si>
+  <si>
+    <t>鬼道初级事件2</t>
+  </si>
+  <si>
+    <t>通往炼魂秘境的传送门被打开，你出现在了一座破败的道观中。道观的墙上，处处都贴着你看不懂的鬼画符。你原以为这道观里会有什么宝贝，可现在看来除了墙上的符纸，这里什么都没有。抱着试试看的心态，你将墙上的符纸都撕了下来。骤然紫光亮起，所有的符纸都飞到了一起，化为了一张凝魂符咒。</t>
+  </si>
+  <si>
+    <t>ADD_RESOURCE,20,0;ADD_RESOURCE,52,0</t>
+  </si>
+  <si>
+    <t>仙道初级事件1</t>
+  </si>
+  <si>
+    <t>通往冰火秘境的传送门被打开，进出现在一处福地洞天中。此处四周为泉水，泉水的泉眼来自于福地中央的一座泉心岛。此时你正置身泉心岛上。岛上的泉眼有些与众不同，离得近了你可以感受到泉水的温度正在不断的变换。时而高温如烈火，时而低温如寒冰。这正是传说中的冰火泉水，是仙家炼丹的好宝贝。</t>
+  </si>
+  <si>
+    <t>ADD_RESOURCE,29,0;ADD_RESOURCE,53,0</t>
+  </si>
+  <si>
+    <t>仙道初级事件2</t>
+  </si>
+  <si>
+    <t>通往深海秘境的传送门被打开，这是一座建在海底的秘境，海水被神奇的隔离在秘境之外。你在不大的秘境中四处踱步观察，脚下忽然涌入不少海水，幻化成士兵的模样向你杀来。十名海水士兵，以组合之势步步紧逼。嘴里还不断喊着”杀！杀！杀！“的口号。你费了不少力气，终于破解了这士兵杀阵。一枚黑色的手环，从阵中出现，漂浮在你面前。</t>
+  </si>
+  <si>
+    <t>ADD_RESOURCE,30,0;ADD_RESOURCE,54,0</t>
+  </si>
+  <si>
+    <t>妖道初级事件1</t>
+  </si>
+  <si>
+    <t>通往森之秘境的传送门被打开，你出现在一座郁郁葱葱的森林中。森林中央的巨木，应该就是此行的目的。你没有犹豫，展开身法向着巨木跑去。既然这是秘境，显然不会让你这般轻松。无数妖兽和林间的藤蔓向你袭来。剑光所过之处，敌人纷纷被击碎。可随着杀敌越来越多，你也感觉到身体越来越重。察觉到秘境的规则后，你索性收起了武器，在林间开始磨炼自己的身法。从最开始的不断被击退，到现在的片叶不沾身，你花了不少时间。终于你抵达了巨木脚下，一团精纯的玄木灵气从巨木树梢汇入你的掌间。</t>
+  </si>
+  <si>
+    <t>ADD_RESOURCE,24,0;ADD_RESOURCE,55,0</t>
+  </si>
+  <si>
+    <t>妖道初级事件2</t>
+  </si>
+  <si>
+    <t>通往幻神秘境的传送门被打开，你出现在一个擂台之上。周围的看台上座无虚席，观众们狂热的嘶吼着。站在你对面的身影与你一般无二，同样的衣服，同样的武器，同样冷酷的眼神。战胜自己，这就是对你的考验吗？你把剑而上，与另一个自己战做一团。不知道打了多久，两道身影骤然分开，你终究是突破了自我。秘境中的一切骤然粉碎成蓝光，最后化为一只幻蝶，轻轻停在你的手中。</t>
+  </si>
+  <si>
+    <t>ADD_RESOURCE,25,0;ADD_RESOURCE,56,0</t>
+  </si>
+  <si>
+    <t>佛道初级事件1</t>
+  </si>
+  <si>
+    <t>通往净尘秘境的传送门被打开，你化身一位小沙弥出现在一间质朴的佛堂内。刚进入房间老和尚就催促着一头雾水的你去打扫佛堂。这种杂役才会做的工作你一做就是几天。你也试过反抗，但以这小沙弥的身体，实在无法战胜佛法高深的老和尚。日子久了，你也慢慢习惯了这样的生活。不急不躁，每日坚持不懈的打扫着这佛堂。终有一日，老和尚没有再把扫帚塞入你的手中，取而代之的是一本《圆觉经》。你恍然发现自己竟然退去小沙弥的形象恢复了真身。老和尚没有出声，随意挥手将你赶出了秘境。</t>
+  </si>
+  <si>
+    <t>ADD_RESOURCE,34,0;ADD_RESOURCE,57,0</t>
+  </si>
+  <si>
+    <t>佛道初级事件2</t>
+  </si>
+  <si>
+    <t>通往观想秘境的传送门被打开，你出现在一片沙漠之中。远处隐约可见一片绿洲吸引了你的脚步。一天，两天，时间慢慢流逝着。无论你走了多久，走得多块，远处那片绿洲依然遥不可及。你若有所悟，开始转身朝后方走去。黄沙散去，一间静谧的佛室映入眼帘。房间正中央散发着佛光的蒲团，就是这次悟道的奖励。</t>
+  </si>
+  <si>
+    <t>ADD_RESOURCE,35,0;ADD_RESOURCE,58,0</t>
+  </si>
+  <si>
+    <t>鬼道中级事件1</t>
+  </si>
+  <si>
+    <t>通往尸海秘境的传送门被打开，你出现在一片尸山血海之中。脚下的僵尸缓缓朝你挥动着手臂，好像要把你拉入血水中。你不断的挣脱僵尸的抓咬，朝着尸山的顶峰攀去。尸山的尽头是一口雅致的棺木，里面躺着一具小女孩的尸体。白皙的肌肤上布满血纹，想必这就是传中的血尸吧。</t>
+  </si>
+  <si>
+    <t>ADD_RESOURCE,21,0</t>
+  </si>
+  <si>
+    <t>鬼道中级事件2</t>
+  </si>
+  <si>
+    <t>通往皇陵秘境的传送门被打开，你出现在一片地下墓葬群中。放眼望去是看不到尽头的陶土人军队，这些士兵被雕刻的栩栩如生。军队的中央摆放着一架华丽的龙辇，龙辇上站着的皇帝是这陵墓中唯一彩色的身影。你意识到这皇帝不是陶土雕像，是真正的帝尸。忽然周围的陶土军队仿佛活了过来，不断朝你进攻。战斗持续了几天几夜，等你满身伤痕的站在帝尸前时，身后是一望无际的陶土碎片。只听一声不甘的叹息，帝尸化为粉末，一道金色的光芒化为晶体飞到你的手中，那是是一块极其少见的帝王魂晶。</t>
+  </si>
+  <si>
+    <t>ADD_RESOURCE,22,0</t>
+  </si>
+  <si>
+    <t>仙道中级事件1</t>
+  </si>
+  <si>
+    <t>通往诛邪秘境的传送门被打开，你出现在一座剑冢之中，目之所及处全是宝剑。你往前踏出一步，剑吟四起。无数插在地上的宝剑剧烈的颤动起来，最终飞入空中行程了一个巨大的剑阵将你围了起来。奇怪的是这些宝剑仅仅围而不攻，好像是不想让你继续前行的样子。这是一柄残破的宝剑从减震中飞出，当着你的面舞了起来。这好像是一种剑法，你认真的看着，努力将一招一式记在心里。破剑一遍遍舞着，你在心中默默拟练。几遍过后，破剑突然停了下来，剑尖直指于你，意思是轮到你的了。于是你将刚才铭记心中的剑法施展了出来。就这样一来一回不知过了多久，你终于将剑法练成。当你舞完最后一招，面前的破剑突然爆发出耀眼的青光。诛邪剑露出了本来的模样，现在你获得了它的认可，有资格成为它的主人。</t>
+  </si>
+  <si>
+    <t>ADD_RESOURCE,31,0</t>
+  </si>
+  <si>
+    <t>仙道中级事件2</t>
+  </si>
+  <si>
+    <t>通往万雷秘境的传送门被打开，你出现在一片雷海之中。雷鸣声不绝于耳，脚下的黑云并不能给你带来多少安全感。你沿着黑云往前走了一小段，一篇由雷电书写而成的炼体功法浮现在眼前。从文字中得知，只要将这功法练至小成，就可在秘境中取出至宝凌霄雷种。你花了整整半年时间，每天接受雷电洗礼，才勉强将这至宝占为己有。</t>
+  </si>
+  <si>
+    <t>ADD_RESOURCE,32,0</t>
+  </si>
+  <si>
+    <t>妖道中级事件1</t>
+  </si>
+  <si>
+    <t>通往狱之秘境的传送门被打开，你出现在一间牢房之中。你环顾四周，发现周围的牢房中，关押的都是各色妖兽。不待你做出过多的思考，你与隔壁牢房之间的铁栏忽然消失。一只异兽朝你袭来。不过是一只年幼的剑虎而已，你一剑收下。剑虎伏诛，更深处的铁栏再次消失，随着被杀的妖兽越来越多，出现的妖兽也越来越强。随着时间的推移，你逐渐禁不起车轮战的消耗。好在战斗也接近了尾声，最后出战的是一只千年份的蛟。在付出惨烈的代价之后，你从它身上获得了一枚千年兽心。</t>
+  </si>
+  <si>
+    <t>ADD_RESOURCE,26,0</t>
+  </si>
+  <si>
+    <t>妖道中级事件2</t>
+  </si>
+  <si>
+    <t>通往埋骨秘境的传送门被打开，你好像来到了千年前善恶大战的战场。遍地都是白骨和断裂的残兵，越往深处走越是惨烈，怨气也越发的浓烈。你听到战场深处传来阵阵嘶吼，于是加速朝前。逐渐靠近核心处，嘶吼声更加清晰。“何为恶，何为善！凭什么说修妖就是为恶！你们这群道貌岸然的家伙，老子吃了你！哈哈哈哈哈！”这癫狂的声音来自于一头奇兽，好像古有记载叫做獬豸。此时獬豸正朝着空气挥舞着利爪，好似与人在交战。当年之战已过千年，这头獬豸能撑到现在实属不易。你看他身上深可见骨的伤口和腐烂的皮肉，深知它已经撑不了多久了。给它一个痛快把，你这样想着。剑光斩过，獬豸缓缓倒在地上没了声音。</t>
+  </si>
+  <si>
+    <t>ADD_RESOURCE,27,0</t>
+  </si>
+  <si>
+    <t>佛道中级事件1</t>
+  </si>
+  <si>
+    <t>通往除念秘境的传送门被打开，你出现于一处喧闹的集市中，化身一名市井小贩。小贩出身卑微，却一生顺畅。逢赌必赢，靠着生意也挣了不少钱，再加上娶了美娇娘日子过得好不自在。可随着时间的流失，小贩对钱财的欲望越来越大，稍有不顺就对人指责谩骂，沉迷赌博不能自拔，为人傲慢丝毫不知尊重为何物，贪嗔痴慢疑，佛门五毒在其身上一样不少。待得你从小贩身上抽离而出，幡然醒悟。你朝着西方施以佛礼，一串念珠飘然而至。</t>
+  </si>
+  <si>
+    <t>ADD_RESOURCE,36,0</t>
+  </si>
+  <si>
+    <t>佛道中级事件2</t>
+  </si>
+  <si>
+    <t>通往藏识秘境的传送门被打开，你出现在一片废土之上。此地战事连连，民不聊生。无数平民百姓食不果腹，流离失所。佛说渡人渡己，一直以来你都认为连渡己都做不到，如何去渡人。可在看着这幅人间炼狱般的景象时，你的内心深受触动。此时一道神圣的声音从你的佛门道心中响起。“如果你的死可以换来这世间的太平，你愿意吗？”面对这直指本心的问题你沉默了，不知如何回答。声音没有继续追问，好像在默默注视着你行走在这炼狱之中。过了不久的时间，你内心做出了抉择。随着你缓慢的步伐，白色的业火在你身上燃烧了起来。随着你的消失，这方天地也化为虚无。一颗佛舍利静静的浮在你的面前。</t>
+  </si>
+  <si>
+    <t>ADD_RESOURCE,37,0</t>
+  </si>
+  <si>
+    <t>高级鬼道物品获得事件-阶段1，需要中级仙属性辅助</t>
+  </si>
+  <si>
+    <t>通往阴阳秘境的传送门被打开，你出现在一个由黑色和白色组成的世界。除了颜色的区别，这里好像与外界无异。喧闹的集市，来往的人群，你甚至看到了儿时的玩伴小蔡，他嘴里唱着当时教你唱的童谣。你叫着小蔡的名字，可他仿佛没有听见一般，依然自顾自的唱着。你知道这不是真实的世界，可一时间却不知该如何破解。你在这黑白世界足足困了几个月，在这里好像你才是那个游荡世间的鬼魂，无人可以看见你。何为生，何为死，你若有所悟，于是提剑朝着自己的脖子抹去。一抹鲜红，打破了黑白的画卷，一切归于黑暗。等你醒来，已经出现在了外界，手中握着去往下一个秘境的秘境珠。</t>
+  </si>
+  <si>
+    <t>ADD_RESOURCE,23,0</t>
+  </si>
+  <si>
+    <t>高级鬼道物品获得事件-阶段2，需要中级妖属性辅助</t>
+  </si>
+  <si>
+    <t>通往黄泉秘境的传送门被打开，你出现在一条黑水河边。河中无数身影起起伏伏，露出痛苦的表情。不远处有一座浮桥可供渡河，这浮桥看起来并不稳当，稍有不慎就会跌入河中。你踉踉跄跄的来到彼岸，这里开满了血红色的彼岸花。随着剧烈的震动，两道巨大的身影缓缓出现在你面前。这两尊长着牛头马面的巨物，挥舞着巨斧朝你攻来。三千回合后，牛头马面终于倒下，而你也单膝跪地剧烈的穿着粗气。不过一切都是值得的，牛马背后守护的那片区域，一朵黑白相间的彼岸花轻轻摇曳着。</t>
+  </si>
+  <si>
+    <t>高级仙道物品获得事件-阶段1，需要中级妖属性辅助</t>
+  </si>
+  <si>
+    <t>通往三清秘境的传送门被打开，你来到了一处仙家道场。眼前放着三把太师椅，椅子上分别漂浮着一个气团。你缓缓上前，你的身后同样出现了一把空着的太师椅。最中间的气团传出人声，示意你坐下与他论道。人声再次响起，问你何谓道。这样的问题再修真之人看来老生常谈，但你却有着自己的理解。一生二，二生三，三生万物，所谓道就是这世间万物的秩序。你花了整整一天的时间与这三个气团论道，深入浅出的表达了自己的观点。最后你的想法获得了它们的认可，一颗新的秘境石缓缓飘入了你的手中。</t>
+  </si>
+  <si>
+    <t>ADD_RESOURCE,28,0</t>
+  </si>
+  <si>
+    <t>高级仙道物品获得事件-阶段2，需要中级佛属性辅助</t>
+  </si>
+  <si>
+    <t>通往周天秘境的传送门被打开，你仿佛置身宇宙，周天星辰围绕你左右，不断变换着方位，你从未感到自己这样的渺小。尽管你大受震撼，但除了这宇宙奇观外，你并没有发现破解此处秘境的线索。你试着朝着最近的星辰靠近，紧接着你感到一阵头晕，神魂离体朝着那颗星辰飞去。这是一颗巨大的星球，你的神魂在此化身凡人，走完了他的一生。其实只是一晃神的功夫，对你来说却好像过了几十年。你不知在这周天秘境度过了多少个这样的”几十年“，但当你最终得以离开之时，已然悟得仙家真谛至理。与此同时，一颗混元金丹悄然出现在了你的包裹里。</t>
+  </si>
+  <si>
+    <t>高级妖道物品获得事件-阶段1，需要中级佛属性辅助</t>
+  </si>
+  <si>
+    <t>通往涅槃秘境的传送门被打开，你来到了一片火焰的世界。这里原本好像是一片原始森林，不知怎么燃起了这样的熊熊大火。你突然听到一阵破空声，远传一道火线以极快的速度朝你袭来。周围的树木早就被燃烧殆尽，甚至是连石头都烧化了不少。这样的地形你无处可躲，只要运气法力勉强抵挡。火线过后，你全身焦黑的倒在了地上。过了许久，你艰难的坐起身来，还不等你积攒多少力气。远处的破空声再次传来。这样的破坏力再来一次你必死无疑，情急之下你运起仅剩的力量，在地上砸出一个大坑，蜷缩着躲了进去，总算是保住了小命。之后你如法炮制，躲避着不断袭来的火线。终于你抵达了秘境的最深处，一直凤凰的尸体安静的躺在那里。不愧是妖兽之首，即使是尸体上所燃烧的火焰也不是你所能靠近的。不过离你不远处一颗秘境石安静的躺在那里</t>
+  </si>
+  <si>
+    <t>ADD_RESOURCE,33,0</t>
+  </si>
+  <si>
+    <t>高级妖道物品获得事件-阶段2，需要中级鬼属性辅助</t>
+  </si>
+  <si>
+    <t>通往梧桐秘境的传送门被打开，你来到了一片梧桐森林，这里的每棵梧桐树冠都燃烧着白色的火焰，显然温度极高。只听一声凤鸣，一只凤凰幼鸟从远处飞来。小凤凰见到你就像见到仇人一般，身上的火焰烧到了极致，顷刻间向你袭来。”是你杀了我母亲，我在你身上感受到了凤凰死去的气息！“尽管这只凤凰还是幼年，但它的力量依然不是你所能抗衡的。一时间你手忙脚乱，竟没工夫开口解释。周围的温度也在急速升高，很快就要到达你坚持不了的程度。你拼着受重伤吃了小凤凰一记斩击，终于是将它逼退。趁着它还没再次进攻，你赶忙解释了起来。其实这小凤凰也是感受到了母亲的死亡失去了理智，不然稍微动动脑子就知道以你的实力是不可能斩杀它的母亲的。对于伤了你的事小凤凰颇为内疚，将珍藏的凤凰精血赠予了你。</t>
+  </si>
+  <si>
+    <t>高级佛道物品获得事件-阶段1，需要中级鬼属性辅助</t>
+  </si>
+  <si>
+    <t>通往般若秘境的传送门被打开，你置身一处十八铜人阵中。十八位金光闪闪的罗汉傀儡手持伏魔棍，将你团团围住。你竭力反抗，可奈何傀儡武技修为奇高，配合精妙。很快你就身受重伤。罗汉们虽然出手颇重，但至伤不致死，甚至被他们击打过的地方还在以较快的速度恢复愈合。你发现这个情况之后开始仔细观察罗汉阵的规律。观察的过程一直持续了三天三夜，你也被罗汉阵捶打了三天三夜。到了后来你身体恢复的速度越来越快，甚至已经超过了他们对你造成伤害的速度。当你身上最后一处伤口愈合时，十八罗汉瞬间停手归位。直到此时，你也没有寻得破阵之法。对于罗汉的突然收手，你竟然有些感到不真实。此时你的身体强度已不是前几日刚入秘境时可以比较的。为首的十八罗汉，随手将一颗秘境石扔到你的脚边，就变回了傀儡的样子。</t>
+  </si>
+  <si>
+    <t>ADD_RESOURCE,38,0</t>
+  </si>
+  <si>
+    <t>高级佛道物品获得事件-阶段2，需要中级仙属性辅助</t>
+  </si>
+  <si>
+    <t>通往藏经秘境的传送门被打开，你出现在传说中佛门的藏经阁之外，一位扫地的老僧拄着扫帚坐在台阶上打着瞌睡。你没有管这老僧，径直向藏经阁走去。闭着眼的老僧突然出招，一扫帚将你击飞门外。”娑婆世界所来之人，竟妄想进入佛门圣地。”老僧用略带讽刺的口吻这样说着。你并没有因为老僧狂妄的态度所生气，你认为这是对你的考验。可接下来老僧百般刁难，就是不让你如藏经阁。这老僧如此做派实在让人奇怪，按理说能安身于此等佛门圣地，即使不是高僧也不该如此无赖。你忍不住运转佛门道心，看破虚妄。这一看可不得了，这哪是什么佛门圣地，根本就是十恶汇聚的妖邪之地，这老僧也是鬼道邪祟伪装而成。既然依然得知真相，你便冲上前与老僧战做一团。经历几番激绽，恶首终被你所诛杀。随后你在老僧身上找到一本《无量寿经》。传说佛门至宝被妖邪所盗取，看来所言非虚。之前十八铜人的指引，便是想让我来了解这段业障。</t>
+  </si>
+  <si>
+    <t>EventConditionName</t>
+  </si>
+  <si>
+    <t>Para1</t>
+  </si>
+  <si>
+    <t>Para2</t>
+  </si>
+  <si>
+    <t>EffectCondition</t>
+  </si>
+  <si>
+    <t>事件出现条件</t>
+  </si>
+  <si>
+    <t>参数1</t>
+  </si>
+  <si>
+    <t>参数2</t>
+  </si>
+  <si>
+    <t>AGEBETWEEN</t>
+  </si>
+  <si>
+    <t>HAS_CHILDREN</t>
+  </si>
+  <si>
+    <t>THIS_HAVEDONE</t>
+  </si>
+  <si>
+    <t>ALL_HAVEDONE</t>
+  </si>
+  <si>
+    <t>ATTRIMINNEED</t>
+  </si>
+  <si>
+    <t>HAVETAG</t>
+  </si>
+  <si>
+    <t>HAVERES</t>
+  </si>
+  <si>
+    <t>EventOptionid</t>
   </si>
   <si>
     <t>EventOptionDesc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Limit</t>
+  </si>
+  <si>
+    <t>AttrLimit</t>
+  </si>
+  <si>
+    <t>OptionWinEffect</t>
+  </si>
+  <si>
+    <t>OptionDES</t>
+  </si>
+  <si>
+    <t>(list#sep=;), EventCondition#sep=,</t>
+  </si>
+  <si>
+    <t>选项id</t>
   </si>
   <si>
     <t>选项描述</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Limit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>特定条件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AttrLimit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>属性要求</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>OptionWinEffect</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>成功效果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>事件结果（非交互事件才需要）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>事件选项</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Para1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Para2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>参数1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>参数2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AppearCondition</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>出现条件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>事件出现条件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EventConditionName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(list#sep=;),EventCondition#sep=,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(list#sep=;), EventEffect#sep=,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MARRY,0,0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IsOnBase</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否在初始事件库</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DIE,0,0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HAS_CHILDREN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>THIS_HAVEDONE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ALL_HAVEDONE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>选项id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EventOptionid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ATTRIMINNEED</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>OptionDES</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>成功效果说明</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HAVETAG</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AGEBETWEEN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HAVERES</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(list#sep=;), EventCondition#sep=,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EffectCondition</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>触发优先级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DrawPri</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>道心锤炼-幼年-妖</t>
-  </si>
-  <si>
-    <t>道心锤炼-幼年-仙</t>
-  </si>
-  <si>
-    <t>道心锤炼-幼年-佛</t>
-  </si>
-  <si>
-    <t>道心锤炼-青壮年-鬼1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>道心锤炼-青壮年-妖1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>道心锤炼-青壮年-仙1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>道心锤炼-青壮年-佛1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>道心锤炼-青壮年-鬼2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>道心锤炼-青壮年-妖2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>道心锤炼-青壮年-仙2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>道心锤炼-青壮年-佛2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>道心锤炼-老年-佛</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>道心锤炼2选1-仙/妖</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>道心锤炼2选1-仙/佛</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>道心锤炼2选1-仙/鬼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>道心锤炼2选1-鬼/妖</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>道心锤炼2选1-鬼/佛</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>道心锤炼2选1-妖/佛</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>找到配偶</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>生孩子</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>福源提升事件1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>福源提升事件2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>幼年-修为灵力提升</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>幼年-神识强度提升</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>幼年-博闻灵智提升</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>属性2选1-修为/神识</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>属性2选1-修为/博闻</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>属性2选1-博闻/神识</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>要不要属性转换-博闻神识相互转</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>要不要属性转换-博闻修为相互转</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>要不要属性转换-修为神识相互转</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>全年龄财富获取事件1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>全年龄财富获取事件2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>老年-修为灵力下降1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>老年-神识强度下降1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>老年-博闻灵智下降1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>老年-修为灵力下降2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>老年-神识强度下降2</t>
-  </si>
-  <si>
-    <t>老年-博闻灵智下降2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>无事发生的幼年1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>无事发生的幼年2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>无事发生的幼年3</t>
-  </si>
-  <si>
-    <t>无事发生的幼年4</t>
-  </si>
-  <si>
-    <t>无事发生的幼年5</t>
-  </si>
-  <si>
-    <t>无事发生的幼年6</t>
-  </si>
-  <si>
-    <t>无事发生的幼年7</t>
-  </si>
-  <si>
-    <t>无事发生的幼年8</t>
-  </si>
-  <si>
-    <t>无事发生的幼年9</t>
-  </si>
-  <si>
-    <t>无事发生的幼年10</t>
-  </si>
-  <si>
-    <t>无事发生的青壮年1</t>
-  </si>
-  <si>
-    <t>无事发生的青壮年2</t>
-  </si>
-  <si>
-    <t>无事发生的青壮年3</t>
-  </si>
-  <si>
-    <t>无事发生的青壮年4</t>
-  </si>
-  <si>
-    <t>无事发生的青壮年5</t>
-  </si>
-  <si>
-    <t>无事发生的老年1</t>
-  </si>
-  <si>
-    <t>无事发生的老年2</t>
-  </si>
-  <si>
-    <t>无事发生的老年3</t>
-  </si>
-  <si>
-    <t>无事发生的老年4</t>
-  </si>
-  <si>
-    <t>无事发生的老年5</t>
-  </si>
-  <si>
-    <t>利用鬼气取得物品的事件-简单</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>利用妖气取得物品的事件-简单</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>运用仙力取得物品的事件-简单</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>运用佛光取得物品的事件-简单</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>利用鬼气取得物品的事件-较难</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>利用妖气取得物品的事件-较难</t>
-  </si>
-  <si>
-    <t>运用仙力取得物品的事件-较难</t>
-  </si>
-  <si>
-    <t>运用佛光取得物品的事件-较难</t>
-  </si>
-  <si>
-    <t>四道初始事件1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>四道初始事件2</t>
-  </si>
-  <si>
-    <t>四道初始事件3</t>
-  </si>
-  <si>
-    <t>四道初始事件4</t>
-  </si>
-  <si>
-    <t>售卖东西的奇遇（初级随机商店</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>奇遇捡东西事件1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>奇遇捡东西事件2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>奇遇捡东西事件3</t>
-  </si>
-  <si>
-    <t>幼年-修为灵力下降</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>幼年-神识强度下降</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>幼年-博闻灵智下降</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>青壮年-修为灵力下降</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>青壮年-神识强度下降</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>青壮年-博闻灵智下降</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>鬼道初级事件1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>鬼道初级事件2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>仙道初级事件1</t>
-  </si>
-  <si>
-    <t>仙道初级事件2</t>
-  </si>
-  <si>
-    <t>妖道初级事件1</t>
-  </si>
-  <si>
-    <t>妖道初级事件2</t>
-  </si>
-  <si>
-    <t>佛道初级事件1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>佛道初级事件2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>鬼道中级事件1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>鬼道中级事件2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>仙道中级事件1</t>
-  </si>
-  <si>
-    <t>仙道中级事件2</t>
-  </si>
-  <si>
-    <t>妖道中级事件1</t>
-  </si>
-  <si>
-    <t>妖道中级事件2</t>
-  </si>
-  <si>
-    <t>佛道中级事件1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>佛道中级事件2</t>
-  </si>
-  <si>
-    <t>高级鬼道物品获得事件-阶段1，需要中级仙属性辅助</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>高级鬼道物品获得事件-阶段2，需要中级妖属性辅助</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>高级仙道物品获得事件-阶段1，需要中级妖属性辅助</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>高级仙道物品获得事件-阶段2，需要中级佛属性辅助</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>高级佛道物品获得事件-阶段1，需要中级鬼属性辅助</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>高级佛道物品获得事件-阶段2，需要中级仙属性辅助</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>高级妖道物品获得事件-阶段1，需要中级佛属性辅助</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>高级妖道物品获得事件-阶段2，需要中级鬼属性辅助</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>获得道心</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>出生事件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>雷劫-初级判定</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>雷劫-高级判定</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>雷劫-灭魔雷</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>生孩子-早期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>生孩子-中期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>生孩子-后期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>WEIGHT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>权重</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AGEBETWEEN,80,85</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AGEBETWEEN,50,55</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AGEBETWEEN,30,35</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>雷劫-属性雷</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>道心锤炼-幼年-鬼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AGEBETWEEN,1,18</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AGEBETWEEN,19,60</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AGEBETWEEN,19,80</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AGEBETWEEN,61,80</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>雷劫-死雷</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HAS_PARTENER,0,0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HAS_PARTENER,1,0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AGEBETWEEN,61,100</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HAVERES,19,0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HAVERES,20,0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HAVERES,21,0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HAVERES,22,0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HAVERES,24,0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HAVERES,25,0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HAVERES,26,0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HAVERES,27,0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HAVERES,29,0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HAVERES,34,0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HAVERES,31,0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HAVERES,36,0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HAVERES,30,0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HAVERES,35,0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HAVERES,32,0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HAVERES,37,0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ATTRIMINNEED,5,3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ATTRIMINNEED,6,3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ATTRIMINNEED,7,3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ATTRIMINNEED,8,3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ADD_RESOURCE,3,0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GIVE_BIRTH,0,0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HEARTGROWTH,6,0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HEARTGROWTH,7,0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HEARTGROWTH,5,0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HEARTGROWTH,8,0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GROWTH,4,1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GROWTH,4,2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GROWTH,1,1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GROWTH,2,1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GROWTH,3,1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ADD_RESOURCE,4,0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GROWTH,1,-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GROWTH,2,-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GROWTH,1,-2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GROWTH,2,-2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GROWTH,3,-2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GROWTH,3,-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ADD_RESOURCE,43,0;ADD_RESOURCE,44,0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ADD_RESOURCE,45,0;ADD_RESOURCE,46,0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ADD_RESOURCE,47,0;ADD_RESOURCE,48,0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ADD_RESOURCE,49,0;ADD_RESOURCE,45,0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>9,10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>11,12</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>13,14</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>15,16</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>17,18</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>19,20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>23,24</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>25,26</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>21,22</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>误入墓地，与怨灵玩捉迷藏，加深了对鬼道的感悟。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>路边的野狗朝你狂叫，你也试着叫了回去，与野兽达成初步交流，加深了对妖道的感悟。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>丢失的匕首被水仙捡到，水仙问你丢的是金匕首，银匕首还是铜匕首，你如实回答，加深了对仙道的感悟。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>被熊孩子欺负，安慰自己不跟他一般见识，巧合佛道理念，加深了对佛道的感悟。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>被厉鬼附身，竟然对他生前的遭遇感同身受，加深了对鬼道的感悟。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在林间与虎妖搏斗，不分伯仲，惺惺相惜成了好友，加深了对妖道的感悟。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在山间发现一具腐朽的仙人骸骨，祭拜掩埋，加深了对仙道的感悟。</t>
-  </si>
-  <si>
-    <t>在破旧的寺庙过夜，与佛像共眠，梦中与佛陀交流，加深了对佛道的感悟。</t>
-  </si>
-  <si>
-    <t>表白被拒，悲痛之下自杀未遂，无限接近死亡，深谙鬼道，加深了对鬼道的感悟。</t>
-  </si>
-  <si>
-    <t>道心锤炼-老年-鬼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>道心锤炼-老年-妖</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>道心锤炼-老年-仙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>无意间救下猪妖，猪妖对你一见倾心，加深了对妖道的感悟。</t>
-  </si>
-  <si>
-    <t>偶入仙府遗址，受仙力刺激神游太虚，加深了对仙道的感悟。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>路遇饥寒交迫的小沙弥，将身上不多的干粮分享于他，加深了对佛道的感悟。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>为游荡世间的色鬼所诱惑，进行了一段时长半个时辰的人鬼恋，加深了对鬼道的感悟。</t>
-  </si>
-  <si>
-    <t>被困迷阵，食狼王血肉得以求生，加深了对妖道的感悟。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在山崖边解决内急，不慎跌入崖下仙泉，侥幸逃过一劫，加深了对仙道的感悟。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在闹饥荒的村庄里，见高僧割肉喂鹰，为之动容，加深了对佛道的感悟。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>这是一座有着两扇大门的飞升者遗迹，看门的灵傀告诉你，你只能在两扇门中选择其一。左边是仙道，右边是妖道，你的选择是？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>激发自身灵力打散天劫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,2,3,71</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4,5,6,71</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ATTRIMINNEED,1,3</t>
+  </si>
+  <si>
+    <t>你成功了，天雷在你的灵力前不堪一击，天地折服于你</t>
+  </si>
+  <si>
+    <t>灵魂融于世间，尝试感化天劫</t>
+  </si>
+  <si>
+    <t>ATTRIMINNEED,2,3</t>
+  </si>
+  <si>
+    <t>天雷似乎察觉到什么，转头返回了天上</t>
+  </si>
+  <si>
+    <t>运用阵法知识对抗天劫</t>
+  </si>
+  <si>
+    <t>ATTRIMINNEED,3,3</t>
+  </si>
+  <si>
+    <t>你提前布置好阵法，天劫一层层败下阵来，最终消失无影</t>
+  </si>
+  <si>
+    <t>ATTRIMINNEED,1,5</t>
+  </si>
+  <si>
+    <t>ATTRIMINNEED,2,5</t>
+  </si>
+  <si>
+    <t>ATTRIMINNEED,3,5</t>
+  </si>
+  <si>
+    <t>利用鬼气假死</t>
+  </si>
+  <si>
+    <t>鬼气缠身的你没有一丝生气，竟然骗过了天雷</t>
+  </si>
+  <si>
+    <t>利用妖气替身</t>
+  </si>
+  <si>
+    <t>你替身藏于妖之中，一只大妖被你当作提升，死于天雷之下</t>
+  </si>
+  <si>
+    <t>进入仙道遗迹</t>
+  </si>
+  <si>
+    <t>GROWTH,7,1</t>
+  </si>
+  <si>
+    <t>你进入了仙道遗迹，加深了对仙道的感悟。</t>
+  </si>
+  <si>
+    <t>进入妖门遗迹</t>
+  </si>
+  <si>
+    <t>GROWTH,6,1</t>
+  </si>
+  <si>
+    <t>你进入了妖道遗迹，加深了对妖道的感悟。</t>
+  </si>
+  <si>
+    <t>刻着三昧真火标记的棺材</t>
+  </si>
+  <si>
+    <t>一股精纯的仙气被你吸入体内，加深了对仙道的感悟。</t>
+  </si>
+  <si>
+    <t>刻着万字标记的棺材</t>
+  </si>
+  <si>
+    <t>GROWTH,8,1</t>
+  </si>
+  <si>
+    <t>一股精纯的佛念被你吸入体内，加深了对佛道的感悟。</t>
+  </si>
+  <si>
+    <t>仙道</t>
+  </si>
+  <si>
+    <t>你杀死了苟延残喘的鬼道飞升者，为了报答你，仙道飞升者将仅剩的力量注入了你的体内，加深了你对仙道的感悟。</t>
+  </si>
+  <si>
+    <t>鬼道</t>
+  </si>
+  <si>
+    <t>GROWTH,5,1</t>
+  </si>
+  <si>
+    <t>你杀死了苟延残喘的仙道飞升者，为了报答你，鬼道飞升者将仅剩的力量注入了你的体内，加深了你对鬼道的感悟。</t>
+  </si>
+  <si>
+    <t>妖</t>
+  </si>
+  <si>
+    <t>佛</t>
+  </si>
+  <si>
+    <t>修为</t>
+  </si>
+  <si>
+    <t>神识</t>
+  </si>
+  <si>
+    <t>博闻</t>
+  </si>
+  <si>
+    <t>博闻转神识</t>
+  </si>
+  <si>
+    <t>GROWTH,3,-1;GROWTH,2,1</t>
+  </si>
+  <si>
+    <t>神识转博闻</t>
+  </si>
+  <si>
+    <t>GROWTH,2,-1;GROWTH,3,1</t>
+  </si>
+  <si>
+    <t>空</t>
+  </si>
+  <si>
+    <t>博闻转修为</t>
+  </si>
+  <si>
+    <t>GROWTH,3,-1;GROWTH,1,1</t>
+  </si>
+  <si>
+    <t>修为转博闻</t>
+  </si>
+  <si>
+    <t>GROWTH,1,-1;GROWTH,3,1</t>
+  </si>
+  <si>
+    <t>修为转神识</t>
+  </si>
+  <si>
+    <t>GROWTH,1,-1;GROWTH,2,1</t>
+  </si>
+  <si>
+    <t>神识转修为</t>
+  </si>
+  <si>
+    <t>GROWTH,2,-1;GROWTH,1,1</t>
   </si>
   <si>
     <t>来啊！我就是要肉身硬抗雷劫！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>一道天雷降下，你一时也想不出其他办法对付，于是大喊着我命由我不由….！于是化作了一摊黑灰。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>你成功了，天雷在你的灵力前不堪一击，天地折服于你</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>天雷似乎察觉到什么，转头返回了天上</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>运用阵法知识对抗天劫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>你提前布置好阵法，天劫一层层败下阵来，最终消失无影</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>灵魂融于世间，尝试感化天劫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7,8,71,72,73</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AGEBETWEEN,100,101</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>利用鬼气假死</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>利用妖气替身</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>运用仙气掌控</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天雷在你身边缠绕，你似乎并不畏惧于它，甚至感到有些亲昵</t>
   </si>
   <si>
     <t>运用佛光感化</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>鬼气缠身的你没有一丝生气，竟然骗过了天雷</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>你替身藏于妖之中，一只大妖被你当作提升，死于天雷之下</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>天雷在你身边缠绕，你似乎并不畏惧于它，甚至感到有些亲昵</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>天雷在佛光下变得柔和，近乎一条柔软的缎带，缠绕在你的身上，无比虔诚恭敬</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>进入仙道遗迹</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>进入妖门遗迹</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>你进入了仙道遗迹，加深了对仙道的感悟。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>你进入了妖道遗迹，加深了对妖道的感悟。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>你进入了一座古墓之中，墓中机关精密，两座棺材并排而立。经过仔细观察，你发现只要打开其中一副棺材，另一副就会马上被毁掉。你要打开哪座棺材呢？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一股精纯的仙气被你吸入体内，加深了对仙道的感悟。</t>
-  </si>
-  <si>
-    <t>一股精纯的佛念被你吸入体内，加深了对佛道的感悟。</t>
-  </si>
-  <si>
-    <t>深山之中，你发现了两具对面而立的飞升者枯骨。两道不同的声音分别从两具枯骨中传来。原来这是仙鬼两位飞升者的战场，最终两人同归于尽，只留下神念苦苦支撑。你会选择帮助哪位飞升者呢？</t>
-  </si>
-  <si>
-    <t>刻着三昧真火标记的棺材</t>
-  </si>
-  <si>
-    <t>刻着万字标记的棺材</t>
-  </si>
-  <si>
-    <t>仙道</t>
-  </si>
-  <si>
-    <t>鬼道</t>
-  </si>
-  <si>
-    <t>你杀死了苟延残喘的鬼道飞升者，为了报答你，仙道飞升者将仅剩的力量注入了你的体内，加深了你对仙道的感悟。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>你杀死了苟延残喘的仙道飞升者，为了报答你，鬼道飞升者将仅剩的力量注入了你的体内，加深了你对鬼道的感悟。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>鬼道</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>妖</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>佛</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>路上踩到狗屎，福源获得提升。</t>
-  </si>
-  <si>
-    <t>在祈福活动中拔得头筹，获得被赐福资格，福源获得提升。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>误食百年灵芝，修为灵力获得提升。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>遭遇绑架，经受绑匪折磨后逃出生天，神识强度获得提升。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>参加比武招亲，虽技不如人身受重伤，没想到机缘巧合打通任督二脉，修为灵力获得提升。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>想要偷看暗恋之人洗澡，领悟精神观察功法，神识强度获得提升。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>破开猪笼棋局，得高人传功，修为灵力获得提升。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>雨天漫步遭遇雷击，暗合锻神之法，神识强度获得提升。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>被苹果砸到脑袋，顿悟万有引力，博闻灵智获得提升。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>与东方不败一夜春风后谈古论今，博闻灵智获得提升。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>徒步万里，远赴傣国游历，博闻灵智获得提升。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>修为</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>神识</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>博闻</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>什么都不做</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>27,28,74</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>30,31,74</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>33,34,74</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>空</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>博闻转神识</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>神识转博闻</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>博闻转修为</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>修为转博闻</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>修为转神识</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>神识转修为</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>购买“发财票”中奖，获得乾坤宝钱N。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>路遇劫匪抢劫，路见不平，获得重金酬谢N。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>道侣精力旺盛，导致你操劳过度，修为灵力下降。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>按摩遇见天下第一圣手，精神遭重创，神识强度下降。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>被郎中诊断出患有痴呆症，博闻灵智下降。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>为了修真宝物谎报年龄参加宫中选秀，被揭穿后遭到围攻，身受重伤，修为灵力下降。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>误入鸡脚邪教，被邪教主题曲“鸡你太美”洗脑，神识强度下降。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>下五子棋输给三岁孩童，博闻灵智下降。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>与王小虎打架打输了。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>悄悄把邻居家晾晒的羊肠扎满了洞。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>把父亲偷看《铜瓶梅》的秘密告诉了母亲。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>遇见一位自称唐三的叔叔在找他的手环。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>发现在茶里加上牛奶还挺好喝的。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>从隔壁小陈那学了一首歌谣，爱你孤身走暗巷，爱你不跪的模样…...</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>有个乞丐说你骨骼惊奇，没等他说完你就给了他一个大比兜。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>你的初恋还没开始就结束了。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>关系要好的哥哥受伤了，你好心疼哥哥。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>你在认真考虑长大以后到底是要跟小陈成婚还是小李。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>被一个三百斤的胖子表白。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>吃到了奇怪味道的九转大肠。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>得了痔疮，去看郎中时却不好意思脱裤子。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>计划用脚在地上抠出一间房子以锻炼身法，后来发现用处不大就放弃了。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>喜欢上了白酒加薄荷和柠檬的味道。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>不知从什么时候开始，街道上总是有一群与你同龄的女性在跳舞，你感慨世风日下。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小陈和小李因为你争风吃醋打了起来。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>城里开设了足底按摩的项目，你尝试过后立马狠狠爱住。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>城里有名的吴姓戏子被抓了，你非常好奇是为什么。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>经常与你下象棋的王老头去世了，你伤心了好一阵子。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>你在一座山巅发现了一块古老的墓碑，墓碑中残存的神念不断尝试向你索取着鬼道力量。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>你在河边救下一名上半身是鱼，下半身是人的妖兽。妖兽声称只要你通过他的妖道考验，就能赠你一件重宝。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>你根据在地摊淘来的藏宝图寻到藏宝之地。这是一处仙家洞府，只有拥有足够的仙道力量才能够破门而入。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>你无意间在一处山洞中寻得一枚古朴的木匣子，匣子上镶嵌的宝珠黯淡无光。只有朝着宝珠全力输入佛道的力量，木匣才能打开。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>鬼气缭绕的地下宫殿中，你缓缓前行。不远处的空地中央立着一个王座，你犹豫了一下便坐了上去。忽然一阵吸力传来，身下的王座竟然在向你索取鬼道的力量。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>这座看似平平无奇的小楼只不过是障眼法而已。你已经感受到小楼背后隐藏着的重宝。只要能使用足够强大的妖道力量，就能破除幻境。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>透过清澈的湖水可以看到湖底散发着宝物的光芒。可这轻轻湖水并不普通，是难得一见的重水，寻常人物根本难以撼动分毫。只有强大的仙道力量，才能开辟出一条通往湖底的通道。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>面前的寺庙中散发着宝物的光芒，可庙中钟鸣不止，如果贸然靠近轻则七窍流血，重则爆体而亡。只有拥有强大的佛道力量，才能抵抗住钟鸣的攻击，进入寺庙。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ADD_RESOURCE,22,0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ADD_RESOURCE,23,0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ADD_RESOURCE,26,0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ADD_RESOURCE,27,0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ADD_RESOURCE,28,0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ADD_RESOURCE,32,0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ADD_RESOURCE,31,0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ADD_RESOURCE,36,0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ADD_RESOURCE,37,0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ADD_RESOURCE,19,0;ADD_RESOURCE,51,0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ADD_RESOURCE,20,0;ADD_RESOURCE,52,0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ADD_RESOURCE,29,0;ADD_RESOURCE,53,0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ADD_RESOURCE,30,0;ADD_RESOURCE,54,0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ADD_RESOURCE,24,0;ADD_RESOURCE,55,0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ADD_RESOURCE,25,0;ADD_RESOURCE,56,0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ADD_RESOURCE,34,0;ADD_RESOURCE,57,0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ADD_RESOURCE,35,0;ADD_RESOURCE,58,0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>青壮年-修为灵力提升-基础</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>青壮年-神识强度提升-基础</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>青壮年-博闻灵智提升-基础</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>青壮年-修为灵力提升-鬼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>青壮年-神识强度提升-鬼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>青壮年-博闻灵智提升-鬼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>青壮年-修为灵力提升-仙</t>
-  </si>
-  <si>
-    <t>青壮年-神识强度提升-仙</t>
-  </si>
-  <si>
-    <t>青壮年-博闻灵智提升-仙</t>
-  </si>
-  <si>
-    <t>青壮年-修为灵力提升-佛</t>
-  </si>
-  <si>
-    <t>青壮年-神识强度提升-佛</t>
-  </si>
-  <si>
-    <t>青壮年-博闻灵智提升-佛</t>
-  </si>
-  <si>
-    <t>青壮年-修为灵力提升-妖</t>
-  </si>
-  <si>
-    <t>青壮年-神识强度提升-妖</t>
-  </si>
-  <si>
-    <t>青壮年-博闻灵智提升-妖</t>
-  </si>
-  <si>
-    <t>ADD_RESOURCE,21,0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ADD_RESOURCE,38,0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ADD_RESOURCE,33,0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HAVETAG,4,0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HAVETAG,5,0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HAVETAG,6,0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HAVETAG,7,0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TAGBRITH,0,0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(list#sep=,),int#ref=TbEventOption</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ATTRIMINNEED,1,3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ATTRIMINNEED,2,3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ATTRIMINNEED,3,3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ATTRIMINNEED,1,5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ATTRIMINNEED,2,5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ATTRIMINNEED,3,5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GROWTH,2,-1;GROWTH,3,1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GROWTH,3,-1;GROWTH,1,1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GROWTH,1,-1;GROWTH,3,1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GROWTH,1,-1;GROWTH,2,1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GROWTH,2,-1;GROWTH,1,1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GROWTH,3,-1;GROWTH,2,1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GROWTH,7,1</t>
-  </si>
-  <si>
-    <t>GROWTH,6,1</t>
-  </si>
-  <si>
-    <t>GROWTH,8,1</t>
-  </si>
-  <si>
-    <t>GROWTH,5,1</t>
+  </si>
+  <si>
+    <t>出生了</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>理解了什么是道德，什么是自己的本心</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>佳偶天成，在一次偶然的事件中，你与他结为伴侣</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>孩子出生了</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="9"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="9"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -1681,7 +1523,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -1689,23 +1531,80 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1766,7 +1665,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -1801,7 +1700,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -1976,11 +1875,6 @@
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
@@ -1989,13 +1883,13 @@
   <dimension ref="A1:O145"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:C18"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="49.875" customWidth="1"/>
-    <col min="3" max="3" width="21.125" customWidth="1"/>
+    <col min="2" max="2" width="28.875" customWidth="1"/>
+    <col min="3" max="3" width="131.875" customWidth="1"/>
     <col min="4" max="4" width="16.75" customWidth="1"/>
     <col min="5" max="5" width="8.375" customWidth="1"/>
     <col min="6" max="6" width="13.875" customWidth="1"/>
@@ -2014,93 +1908,93 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="E1" t="s">
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="F1" t="s">
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="G1" t="s">
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
         <v>13</v>
       </c>
-      <c r="H1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J1" t="s">
-        <v>61</v>
-      </c>
-      <c r="K1" t="s">
-        <v>37</v>
-      </c>
-      <c r="L1" t="s">
-        <v>20</v>
-      </c>
-      <c r="M1" t="s">
-        <v>21</v>
-      </c>
-      <c r="N1" t="s">
-        <v>44</v>
-      </c>
       <c r="O1" t="s">
-        <v>175</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>2</v>
+        <v>15</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E2" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="F2" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="G2" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="H2" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I2" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="J2" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="K2" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="L2" t="s">
-        <v>399</v>
+        <v>20</v>
       </c>
       <c r="M2" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="N2" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="O2" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
@@ -2108,54 +2002,54 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="E3" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="F3" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="G3" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="H3" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="I3" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="J3" t="s">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="K3" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="L3" t="s">
         <v>32</v>
       </c>
       <c r="M3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="N3" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="O3" t="s">
-        <v>176</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>168</v>
-      </c>
-      <c r="C4" t="s">
-        <v>168</v>
+        <v>36</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>463</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -2176,7 +2070,7 @@
         <v>99</v>
       </c>
       <c r="M4" t="s">
-        <v>398</v>
+        <v>37</v>
       </c>
       <c r="N4" t="b">
         <v>1</v>
@@ -2184,10 +2078,10 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>167</v>
-      </c>
-      <c r="C5" t="s">
-        <v>167</v>
+        <v>38</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>464</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -2207,8 +2101,8 @@
       <c r="J5">
         <v>99</v>
       </c>
-      <c r="M5" s="1" t="s">
-        <v>210</v>
+      <c r="M5" s="4" t="s">
+        <v>39</v>
       </c>
       <c r="N5" t="b">
         <v>1</v>
@@ -2216,10 +2110,10 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>80</v>
-      </c>
-      <c r="C6" t="s">
-        <v>80</v>
+        <v>40</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>465</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -2239,11 +2133,11 @@
       <c r="J6">
         <v>1</v>
       </c>
-      <c r="K6" s="2" t="s">
-        <v>187</v>
+      <c r="K6" s="5" t="s">
+        <v>41</v>
       </c>
       <c r="M6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="N6" t="b">
         <v>1</v>
@@ -2254,10 +2148,10 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>172</v>
-      </c>
-      <c r="C7" t="s">
-        <v>81</v>
+        <v>43</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>466</v>
       </c>
       <c r="E7">
         <v>4</v>
@@ -2277,11 +2171,11 @@
       <c r="J7">
         <v>0</v>
       </c>
-      <c r="K7" s="2" t="s">
-        <v>188</v>
+      <c r="K7" s="5" t="s">
+        <v>44</v>
       </c>
       <c r="M7" t="s">
-        <v>211</v>
+        <v>45</v>
       </c>
       <c r="N7" t="b">
         <v>1</v>
@@ -2292,10 +2186,10 @@
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>173</v>
-      </c>
-      <c r="C8" t="s">
-        <v>81</v>
+        <v>46</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>466</v>
       </c>
       <c r="E8">
         <v>5</v>
@@ -2315,11 +2209,11 @@
       <c r="J8">
         <v>0</v>
       </c>
-      <c r="K8" s="2" t="s">
-        <v>188</v>
+      <c r="K8" s="5" t="s">
+        <v>44</v>
       </c>
       <c r="M8" t="s">
-        <v>211</v>
+        <v>45</v>
       </c>
       <c r="N8" t="b">
         <v>1</v>
@@ -2330,10 +2224,10 @@
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
-        <v>173</v>
-      </c>
-      <c r="C9" t="s">
-        <v>81</v>
+        <v>46</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>466</v>
       </c>
       <c r="E9">
         <v>6</v>
@@ -2353,11 +2247,11 @@
       <c r="J9">
         <v>0</v>
       </c>
-      <c r="K9" s="2" t="s">
-        <v>188</v>
+      <c r="K9" s="5" t="s">
+        <v>44</v>
       </c>
       <c r="M9" t="s">
-        <v>211</v>
+        <v>45</v>
       </c>
       <c r="N9" t="b">
         <v>1</v>
@@ -2368,10 +2262,10 @@
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
-        <v>173</v>
-      </c>
-      <c r="C10" t="s">
-        <v>81</v>
+        <v>46</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>466</v>
       </c>
       <c r="E10">
         <v>7</v>
@@ -2391,11 +2285,11 @@
       <c r="J10">
         <v>0</v>
       </c>
-      <c r="K10" s="2" t="s">
-        <v>188</v>
+      <c r="K10" s="5" t="s">
+        <v>44</v>
       </c>
       <c r="M10" t="s">
-        <v>211</v>
+        <v>45</v>
       </c>
       <c r="N10" t="b">
         <v>1</v>
@@ -2406,10 +2300,10 @@
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
-        <v>174</v>
-      </c>
-      <c r="C11" t="s">
-        <v>81</v>
+        <v>47</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>466</v>
       </c>
       <c r="E11">
         <v>8</v>
@@ -2429,11 +2323,11 @@
       <c r="J11">
         <v>0</v>
       </c>
-      <c r="K11" s="2" t="s">
-        <v>188</v>
+      <c r="K11" s="5" t="s">
+        <v>44</v>
       </c>
       <c r="M11" t="s">
-        <v>211</v>
+        <v>45</v>
       </c>
       <c r="N11" t="b">
         <v>1</v>
@@ -2444,10 +2338,10 @@
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
-        <v>169</v>
+        <v>48</v>
       </c>
       <c r="C12" t="s">
-        <v>169</v>
+        <v>48</v>
       </c>
       <c r="E12">
         <v>9</v>
@@ -2468,10 +2362,10 @@
         <v>99</v>
       </c>
       <c r="K12" t="s">
-        <v>179</v>
+        <v>49</v>
       </c>
       <c r="L12" t="s">
-        <v>262</v>
+        <v>50</v>
       </c>
       <c r="N12" t="b">
         <v>1</v>
@@ -2479,10 +2373,10 @@
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
-        <v>170</v>
+        <v>51</v>
       </c>
       <c r="C13" t="s">
-        <v>170</v>
+        <v>51</v>
       </c>
       <c r="E13">
         <v>10</v>
@@ -2503,10 +2397,10 @@
         <v>99</v>
       </c>
       <c r="K13" t="s">
-        <v>178</v>
+        <v>52</v>
       </c>
       <c r="L13" t="s">
-        <v>263</v>
+        <v>53</v>
       </c>
       <c r="N13" t="b">
         <v>1</v>
@@ -2514,10 +2408,10 @@
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
-        <v>180</v>
+        <v>54</v>
       </c>
       <c r="C14" t="s">
-        <v>171</v>
+        <v>55</v>
       </c>
       <c r="E14">
         <v>11</v>
@@ -2538,10 +2432,10 @@
         <v>99</v>
       </c>
       <c r="K14" t="s">
-        <v>177</v>
+        <v>56</v>
       </c>
       <c r="L14" t="s">
-        <v>271</v>
+        <v>57</v>
       </c>
       <c r="N14" t="b">
         <v>1</v>
@@ -2549,10 +2443,10 @@
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
-        <v>186</v>
+        <v>58</v>
       </c>
       <c r="C15" t="s">
-        <v>186</v>
+        <v>58</v>
       </c>
       <c r="E15">
         <v>12</v>
@@ -2573,10 +2467,10 @@
         <v>99</v>
       </c>
       <c r="K15" t="s">
-        <v>272</v>
+        <v>59</v>
       </c>
       <c r="M15" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="N15" t="b">
         <v>1</v>
@@ -2584,10 +2478,10 @@
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
+        <v>61</v>
+      </c>
+      <c r="C16" t="s">
         <v>62</v>
-      </c>
-      <c r="C16" t="s">
-        <v>242</v>
       </c>
       <c r="E16">
         <v>13</v>
@@ -2608,10 +2502,10 @@
         <v>0</v>
       </c>
       <c r="K16" t="s">
-        <v>394</v>
+        <v>63</v>
       </c>
       <c r="M16" t="s">
-        <v>212</v>
+        <v>64</v>
       </c>
       <c r="N16" t="b">
         <v>1</v>
@@ -2622,10 +2516,10 @@
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C17" t="s">
-        <v>243</v>
+        <v>66</v>
       </c>
       <c r="E17">
         <v>14</v>
@@ -2646,10 +2540,10 @@
         <v>0</v>
       </c>
       <c r="K17" t="s">
-        <v>395</v>
+        <v>67</v>
       </c>
       <c r="M17" t="s">
-        <v>213</v>
+        <v>68</v>
       </c>
       <c r="N17" t="b">
         <v>1</v>
@@ -2660,10 +2554,10 @@
     </row>
     <row r="18" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
-        <v>181</v>
+        <v>69</v>
       </c>
       <c r="C18" t="s">
-        <v>241</v>
+        <v>70</v>
       </c>
       <c r="E18">
         <v>15</v>
@@ -2684,10 +2578,10 @@
         <v>0</v>
       </c>
       <c r="K18" t="s">
-        <v>396</v>
+        <v>71</v>
       </c>
       <c r="M18" t="s">
-        <v>214</v>
+        <v>72</v>
       </c>
       <c r="N18" t="b">
         <v>1</v>
@@ -2698,10 +2592,10 @@
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="C19" t="s">
-        <v>244</v>
+        <v>74</v>
       </c>
       <c r="E19">
         <v>16</v>
@@ -2722,10 +2616,10 @@
         <v>0</v>
       </c>
       <c r="K19" t="s">
-        <v>397</v>
+        <v>75</v>
       </c>
       <c r="M19" t="s">
-        <v>215</v>
+        <v>76</v>
       </c>
       <c r="N19" t="b">
         <v>1</v>
@@ -2736,10 +2630,10 @@
     </row>
     <row r="20" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="C20" t="s">
-        <v>245</v>
+        <v>78</v>
       </c>
       <c r="E20">
         <v>17</v>
@@ -2760,10 +2654,10 @@
         <v>0</v>
       </c>
       <c r="K20" t="s">
-        <v>183</v>
+        <v>79</v>
       </c>
       <c r="M20" t="s">
-        <v>214</v>
+        <v>72</v>
       </c>
       <c r="N20" t="b">
         <v>1</v>
@@ -2774,10 +2668,10 @@
     </row>
     <row r="21" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="C21" t="s">
-        <v>246</v>
+        <v>81</v>
       </c>
       <c r="E21">
         <v>18</v>
@@ -2798,10 +2692,10 @@
         <v>0</v>
       </c>
       <c r="K21" t="s">
-        <v>183</v>
+        <v>79</v>
       </c>
       <c r="M21" t="s">
-        <v>212</v>
+        <v>64</v>
       </c>
       <c r="N21" t="b">
         <v>1</v>
@@ -2812,10 +2706,10 @@
     </row>
     <row r="22" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="C22" t="s">
-        <v>247</v>
+        <v>83</v>
       </c>
       <c r="E22">
         <v>19</v>
@@ -2836,10 +2730,10 @@
         <v>0</v>
       </c>
       <c r="K22" t="s">
-        <v>183</v>
+        <v>79</v>
       </c>
       <c r="M22" t="s">
-        <v>213</v>
+        <v>68</v>
       </c>
       <c r="N22" t="b">
         <v>1</v>
@@ -2850,10 +2744,10 @@
     </row>
     <row r="23" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="C23" t="s">
-        <v>248</v>
+        <v>85</v>
       </c>
       <c r="E23">
         <v>20</v>
@@ -2874,10 +2768,10 @@
         <v>0</v>
       </c>
       <c r="K23" t="s">
-        <v>183</v>
+        <v>79</v>
       </c>
       <c r="M23" t="s">
-        <v>215</v>
+        <v>76</v>
       </c>
       <c r="N23" t="b">
         <v>1</v>
@@ -2888,10 +2782,10 @@
     </row>
     <row r="24" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
-        <v>69</v>
+        <v>86</v>
       </c>
       <c r="C24" t="s">
-        <v>249</v>
+        <v>87</v>
       </c>
       <c r="E24">
         <v>21</v>
@@ -2912,10 +2806,10 @@
         <v>0</v>
       </c>
       <c r="K24" t="s">
-        <v>183</v>
+        <v>79</v>
       </c>
       <c r="M24" t="s">
-        <v>214</v>
+        <v>72</v>
       </c>
       <c r="N24" t="b">
         <v>1</v>
@@ -2926,10 +2820,10 @@
     </row>
     <row r="25" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
-        <v>70</v>
+        <v>88</v>
       </c>
       <c r="C25" t="s">
-        <v>253</v>
+        <v>89</v>
       </c>
       <c r="E25">
         <v>22</v>
@@ -2950,10 +2844,10 @@
         <v>0</v>
       </c>
       <c r="K25" t="s">
-        <v>183</v>
+        <v>79</v>
       </c>
       <c r="M25" t="s">
-        <v>212</v>
+        <v>64</v>
       </c>
       <c r="N25" t="b">
         <v>1</v>
@@ -2964,10 +2858,10 @@
     </row>
     <row r="26" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="C26" t="s">
-        <v>254</v>
+        <v>91</v>
       </c>
       <c r="E26">
         <v>23</v>
@@ -2988,10 +2882,10 @@
         <v>0</v>
       </c>
       <c r="K26" t="s">
-        <v>183</v>
+        <v>79</v>
       </c>
       <c r="M26" t="s">
-        <v>213</v>
+        <v>68</v>
       </c>
       <c r="N26" t="b">
         <v>1</v>
@@ -3002,10 +2896,10 @@
     </row>
     <row r="27" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="C27" t="s">
-        <v>255</v>
+        <v>93</v>
       </c>
       <c r="E27">
         <v>24</v>
@@ -3026,10 +2920,10 @@
         <v>0</v>
       </c>
       <c r="K27" t="s">
-        <v>185</v>
+        <v>94</v>
       </c>
       <c r="M27" t="s">
-        <v>215</v>
+        <v>76</v>
       </c>
       <c r="N27" t="b">
         <v>1</v>
@@ -3040,10 +2934,10 @@
     </row>
     <row r="28" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
-        <v>250</v>
+        <v>95</v>
       </c>
       <c r="C28" t="s">
-        <v>256</v>
+        <v>96</v>
       </c>
       <c r="E28">
         <v>25</v>
@@ -3064,10 +2958,10 @@
         <v>0</v>
       </c>
       <c r="K28" t="s">
-        <v>185</v>
+        <v>94</v>
       </c>
       <c r="M28" t="s">
-        <v>214</v>
+        <v>72</v>
       </c>
       <c r="N28" t="b">
         <v>1</v>
@@ -3078,10 +2972,10 @@
     </row>
     <row r="29" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
-        <v>251</v>
+        <v>97</v>
       </c>
       <c r="C29" t="s">
-        <v>257</v>
+        <v>98</v>
       </c>
       <c r="E29">
         <v>26</v>
@@ -3102,10 +2996,10 @@
         <v>0</v>
       </c>
       <c r="K29" t="s">
-        <v>185</v>
+        <v>94</v>
       </c>
       <c r="M29" t="s">
-        <v>212</v>
+        <v>64</v>
       </c>
       <c r="N29" t="b">
         <v>1</v>
@@ -3116,10 +3010,10 @@
     </row>
     <row r="30" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
-        <v>252</v>
+        <v>99</v>
       </c>
       <c r="C30" t="s">
-        <v>258</v>
+        <v>100</v>
       </c>
       <c r="E30">
         <v>27</v>
@@ -3140,10 +3034,10 @@
         <v>0</v>
       </c>
       <c r="K30" t="s">
-        <v>185</v>
+        <v>94</v>
       </c>
       <c r="M30" t="s">
-        <v>213</v>
+        <v>68</v>
       </c>
       <c r="N30" t="b">
         <v>1</v>
@@ -3154,10 +3048,10 @@
     </row>
     <row r="31" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
-        <v>73</v>
+        <v>101</v>
       </c>
       <c r="C31" t="s">
-        <v>259</v>
+        <v>102</v>
       </c>
       <c r="E31">
         <v>28</v>
@@ -3178,10 +3072,10 @@
         <v>0</v>
       </c>
       <c r="K31" t="s">
-        <v>185</v>
+        <v>94</v>
       </c>
       <c r="M31" t="s">
-        <v>215</v>
+        <v>76</v>
       </c>
       <c r="N31" t="b">
         <v>1</v>
@@ -3192,10 +3086,10 @@
     </row>
     <row r="32" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
-        <v>74</v>
+        <v>103</v>
       </c>
       <c r="C32" t="s">
-        <v>260</v>
+        <v>104</v>
       </c>
       <c r="E32">
         <v>29</v>
@@ -3216,10 +3110,10 @@
         <v>0</v>
       </c>
       <c r="K32" t="s">
-        <v>184</v>
+        <v>105</v>
       </c>
       <c r="L32" t="s">
-        <v>232</v>
+        <v>106</v>
       </c>
       <c r="N32" t="b">
         <v>1</v>
@@ -3230,10 +3124,10 @@
     </row>
     <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
-        <v>75</v>
+        <v>107</v>
       </c>
       <c r="C33" t="s">
-        <v>285</v>
+        <v>108</v>
       </c>
       <c r="E33">
         <v>30</v>
@@ -3254,10 +3148,10 @@
         <v>0</v>
       </c>
       <c r="K33" t="s">
-        <v>184</v>
+        <v>105</v>
       </c>
       <c r="L33" t="s">
-        <v>233</v>
+        <v>109</v>
       </c>
       <c r="N33" t="b">
         <v>1</v>
@@ -3268,10 +3162,10 @@
     </row>
     <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
-        <v>76</v>
+        <v>110</v>
       </c>
       <c r="C34" t="s">
-        <v>288</v>
+        <v>111</v>
       </c>
       <c r="E34">
         <v>31</v>
@@ -3292,10 +3186,10 @@
         <v>0</v>
       </c>
       <c r="K34" t="s">
-        <v>184</v>
+        <v>105</v>
       </c>
       <c r="L34" t="s">
-        <v>234</v>
+        <v>112</v>
       </c>
       <c r="N34" t="b">
         <v>1</v>
@@ -3306,10 +3200,10 @@
     </row>
     <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
-        <v>77</v>
+        <v>113</v>
       </c>
       <c r="C35" t="s">
-        <v>77</v>
+        <v>114</v>
       </c>
       <c r="E35">
         <v>32</v>
@@ -3330,10 +3224,10 @@
         <v>0</v>
       </c>
       <c r="K35" t="s">
-        <v>184</v>
+        <v>105</v>
       </c>
       <c r="L35" t="s">
-        <v>235</v>
+        <v>115</v>
       </c>
       <c r="N35" t="b">
         <v>1</v>
@@ -3344,10 +3238,10 @@
     </row>
     <row r="36" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
-        <v>78</v>
+        <v>116</v>
       </c>
       <c r="C36" t="s">
-        <v>78</v>
+        <v>117</v>
       </c>
       <c r="E36">
         <v>33</v>
@@ -3368,10 +3262,10 @@
         <v>0</v>
       </c>
       <c r="K36" t="s">
-        <v>184</v>
+        <v>105</v>
       </c>
       <c r="L36" t="s">
-        <v>236</v>
+        <v>118</v>
       </c>
       <c r="N36" t="b">
         <v>1</v>
@@ -3382,10 +3276,10 @@
     </row>
     <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
-        <v>79</v>
+        <v>119</v>
       </c>
       <c r="C37" t="s">
-        <v>79</v>
+        <v>120</v>
       </c>
       <c r="E37">
         <v>34</v>
@@ -3406,10 +3300,10 @@
         <v>0</v>
       </c>
       <c r="K37" t="s">
-        <v>184</v>
+        <v>105</v>
       </c>
       <c r="L37" t="s">
-        <v>237</v>
+        <v>121</v>
       </c>
       <c r="N37" t="b">
         <v>1</v>
@@ -3420,10 +3314,10 @@
     </row>
     <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
-        <v>82</v>
+        <v>122</v>
       </c>
       <c r="C38" t="s">
-        <v>298</v>
+        <v>123</v>
       </c>
       <c r="E38">
         <v>35</v>
@@ -3444,10 +3338,10 @@
         <v>0</v>
       </c>
       <c r="K38" t="s">
-        <v>184</v>
-      </c>
-      <c r="M38" s="1" t="s">
-        <v>216</v>
+        <v>105</v>
+      </c>
+      <c r="M38" s="4" t="s">
+        <v>124</v>
       </c>
       <c r="N38" t="b">
         <v>1</v>
@@ -3458,10 +3352,10 @@
     </row>
     <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B39" t="s">
-        <v>83</v>
+        <v>125</v>
       </c>
       <c r="C39" t="s">
-        <v>299</v>
+        <v>126</v>
       </c>
       <c r="E39">
         <v>36</v>
@@ -3482,10 +3376,10 @@
         <v>0</v>
       </c>
       <c r="K39" t="s">
-        <v>184</v>
-      </c>
-      <c r="M39" s="1" t="s">
-        <v>217</v>
+        <v>105</v>
+      </c>
+      <c r="M39" s="4" t="s">
+        <v>127</v>
       </c>
       <c r="N39" t="b">
         <v>1</v>
@@ -3496,10 +3390,10 @@
     </row>
     <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B40" t="s">
-        <v>84</v>
+        <v>128</v>
       </c>
       <c r="C40" t="s">
-        <v>300</v>
+        <v>129</v>
       </c>
       <c r="E40">
         <v>37</v>
@@ -3520,10 +3414,10 @@
         <v>0</v>
       </c>
       <c r="K40" t="s">
-        <v>182</v>
-      </c>
-      <c r="M40" s="1" t="s">
-        <v>218</v>
+        <v>130</v>
+      </c>
+      <c r="M40" s="4" t="s">
+        <v>131</v>
       </c>
       <c r="N40" t="b">
         <v>1</v>
@@ -3534,10 +3428,10 @@
     </row>
     <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B41" t="s">
-        <v>85</v>
+        <v>132</v>
       </c>
       <c r="C41" t="s">
-        <v>301</v>
+        <v>133</v>
       </c>
       <c r="E41">
         <v>38</v>
@@ -3558,10 +3452,10 @@
         <v>0</v>
       </c>
       <c r="K41" t="s">
-        <v>182</v>
-      </c>
-      <c r="M41" s="1" t="s">
-        <v>219</v>
+        <v>130</v>
+      </c>
+      <c r="M41" s="4" t="s">
+        <v>134</v>
       </c>
       <c r="N41" t="b">
         <v>1</v>
@@ -3572,10 +3466,10 @@
     </row>
     <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B42" t="s">
-        <v>86</v>
+        <v>135</v>
       </c>
       <c r="C42" t="s">
-        <v>306</v>
+        <v>136</v>
       </c>
       <c r="E42">
         <v>39</v>
@@ -3596,10 +3490,10 @@
         <v>0</v>
       </c>
       <c r="K42" t="s">
-        <v>182</v>
-      </c>
-      <c r="M42" s="1" t="s">
-        <v>220</v>
+        <v>130</v>
+      </c>
+      <c r="M42" s="4" t="s">
+        <v>137</v>
       </c>
       <c r="N42" t="b">
         <v>1</v>
@@ -3610,10 +3504,10 @@
     </row>
     <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B43" t="s">
-        <v>376</v>
+        <v>138</v>
       </c>
       <c r="C43" t="s">
-        <v>302</v>
+        <v>139</v>
       </c>
       <c r="E43">
         <v>40</v>
@@ -3634,10 +3528,10 @@
         <v>0</v>
       </c>
       <c r="K43" t="s">
-        <v>183</v>
-      </c>
-      <c r="M43" s="1" t="s">
-        <v>218</v>
+        <v>79</v>
+      </c>
+      <c r="M43" s="4" t="s">
+        <v>131</v>
       </c>
       <c r="N43" t="b">
         <v>1</v>
@@ -3648,10 +3542,10 @@
     </row>
     <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B44" t="s">
-        <v>377</v>
+        <v>140</v>
       </c>
       <c r="C44" t="s">
-        <v>303</v>
+        <v>141</v>
       </c>
       <c r="E44">
         <v>41</v>
@@ -3672,10 +3566,10 @@
         <v>0</v>
       </c>
       <c r="K44" t="s">
-        <v>183</v>
-      </c>
-      <c r="M44" s="1" t="s">
-        <v>219</v>
+        <v>79</v>
+      </c>
+      <c r="M44" s="4" t="s">
+        <v>134</v>
       </c>
       <c r="N44" t="b">
         <v>1</v>
@@ -3686,10 +3580,10 @@
     </row>
     <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B45" t="s">
-        <v>378</v>
+        <v>142</v>
       </c>
       <c r="C45" t="s">
-        <v>307</v>
+        <v>143</v>
       </c>
       <c r="E45">
         <v>42</v>
@@ -3710,10 +3604,10 @@
         <v>0</v>
       </c>
       <c r="K45" t="s">
-        <v>183</v>
-      </c>
-      <c r="M45" s="1" t="s">
-        <v>220</v>
+        <v>79</v>
+      </c>
+      <c r="M45" s="4" t="s">
+        <v>137</v>
       </c>
       <c r="N45" t="b">
         <v>1</v>
@@ -3724,10 +3618,10 @@
     </row>
     <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B46" t="s">
-        <v>379</v>
+        <v>144</v>
       </c>
       <c r="C46" t="s">
-        <v>304</v>
+        <v>145</v>
       </c>
       <c r="E46">
         <v>43</v>
@@ -3748,10 +3642,10 @@
         <v>0</v>
       </c>
       <c r="K46" t="s">
-        <v>206</v>
-      </c>
-      <c r="M46" s="1" t="s">
-        <v>218</v>
+        <v>146</v>
+      </c>
+      <c r="M46" s="4" t="s">
+        <v>131</v>
       </c>
       <c r="N46" t="b">
         <v>1</v>
@@ -3762,10 +3656,10 @@
     </row>
     <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B47" t="s">
-        <v>380</v>
+        <v>147</v>
       </c>
       <c r="C47" t="s">
-        <v>305</v>
+        <v>148</v>
       </c>
       <c r="E47">
         <v>44</v>
@@ -3786,10 +3680,10 @@
         <v>0</v>
       </c>
       <c r="K47" t="s">
-        <v>206</v>
-      </c>
-      <c r="M47" s="1" t="s">
-        <v>219</v>
+        <v>146</v>
+      </c>
+      <c r="M47" s="4" t="s">
+        <v>134</v>
       </c>
       <c r="N47" t="b">
         <v>1</v>
@@ -3800,10 +3694,10 @@
     </row>
     <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B48" t="s">
-        <v>381</v>
+        <v>149</v>
       </c>
       <c r="C48" t="s">
-        <v>308</v>
+        <v>150</v>
       </c>
       <c r="E48">
         <v>45</v>
@@ -3824,10 +3718,10 @@
         <v>0</v>
       </c>
       <c r="K48" t="s">
-        <v>206</v>
-      </c>
-      <c r="M48" s="1" t="s">
-        <v>220</v>
+        <v>146</v>
+      </c>
+      <c r="M48" s="4" t="s">
+        <v>137</v>
       </c>
       <c r="N48" t="b">
         <v>1</v>
@@ -3838,10 +3732,10 @@
     </row>
     <row r="49" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B49" t="s">
-        <v>382</v>
+        <v>151</v>
       </c>
       <c r="C49" t="s">
-        <v>382</v>
+        <v>152</v>
       </c>
       <c r="E49">
         <v>46</v>
@@ -3862,9 +3756,9 @@
         <v>0</v>
       </c>
       <c r="K49" t="s">
-        <v>207</v>
-      </c>
-      <c r="M49" s="1"/>
+        <v>153</v>
+      </c>
+      <c r="M49" s="4"/>
       <c r="N49" t="b">
         <v>0</v>
       </c>
@@ -3874,10 +3768,10 @@
     </row>
     <row r="50" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B50" t="s">
-        <v>383</v>
+        <v>154</v>
       </c>
       <c r="C50" t="s">
-        <v>383</v>
+        <v>155</v>
       </c>
       <c r="E50">
         <v>47</v>
@@ -3898,9 +3792,9 @@
         <v>0</v>
       </c>
       <c r="K50" t="s">
-        <v>207</v>
-      </c>
-      <c r="M50" s="1"/>
+        <v>153</v>
+      </c>
+      <c r="M50" s="4"/>
       <c r="N50" t="b">
         <v>0</v>
       </c>
@@ -3910,10 +3804,10 @@
     </row>
     <row r="51" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B51" t="s">
-        <v>384</v>
+        <v>156</v>
       </c>
       <c r="C51" t="s">
-        <v>384</v>
+        <v>157</v>
       </c>
       <c r="E51">
         <v>48</v>
@@ -3934,9 +3828,9 @@
         <v>0</v>
       </c>
       <c r="K51" t="s">
-        <v>207</v>
-      </c>
-      <c r="M51" s="1"/>
+        <v>153</v>
+      </c>
+      <c r="M51" s="4"/>
       <c r="N51" t="b">
         <v>0</v>
       </c>
@@ -3946,10 +3840,10 @@
     </row>
     <row r="52" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B52" t="s">
-        <v>385</v>
+        <v>158</v>
       </c>
       <c r="C52" t="s">
-        <v>385</v>
+        <v>158</v>
       </c>
       <c r="E52">
         <v>49</v>
@@ -3970,9 +3864,9 @@
         <v>0</v>
       </c>
       <c r="K52" t="s">
-        <v>208</v>
-      </c>
-      <c r="M52" s="1"/>
+        <v>159</v>
+      </c>
+      <c r="M52" s="4"/>
       <c r="N52" t="b">
         <v>0</v>
       </c>
@@ -3982,10 +3876,10 @@
     </row>
     <row r="53" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B53" t="s">
-        <v>386</v>
+        <v>160</v>
       </c>
       <c r="C53" t="s">
-        <v>386</v>
+        <v>160</v>
       </c>
       <c r="E53">
         <v>50</v>
@@ -4006,9 +3900,9 @@
         <v>0</v>
       </c>
       <c r="K53" t="s">
-        <v>208</v>
-      </c>
-      <c r="M53" s="1"/>
+        <v>159</v>
+      </c>
+      <c r="M53" s="4"/>
       <c r="N53" t="b">
         <v>0</v>
       </c>
@@ -4018,10 +3912,10 @@
     </row>
     <row r="54" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B54" t="s">
-        <v>387</v>
+        <v>161</v>
       </c>
       <c r="C54" t="s">
-        <v>387</v>
+        <v>161</v>
       </c>
       <c r="E54">
         <v>51</v>
@@ -4042,9 +3936,9 @@
         <v>0</v>
       </c>
       <c r="K54" t="s">
-        <v>208</v>
-      </c>
-      <c r="M54" s="1"/>
+        <v>159</v>
+      </c>
+      <c r="M54" s="4"/>
       <c r="N54" t="b">
         <v>0</v>
       </c>
@@ -4054,10 +3948,10 @@
     </row>
     <row r="55" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B55" t="s">
-        <v>388</v>
+        <v>162</v>
       </c>
       <c r="C55" t="s">
-        <v>388</v>
+        <v>162</v>
       </c>
       <c r="E55">
         <v>52</v>
@@ -4078,9 +3972,9 @@
         <v>0</v>
       </c>
       <c r="K55" t="s">
-        <v>209</v>
-      </c>
-      <c r="M55" s="1"/>
+        <v>163</v>
+      </c>
+      <c r="M55" s="4"/>
       <c r="N55" t="b">
         <v>0</v>
       </c>
@@ -4090,10 +3984,10 @@
     </row>
     <row r="56" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B56" t="s">
-        <v>389</v>
+        <v>164</v>
       </c>
       <c r="C56" t="s">
-        <v>389</v>
+        <v>164</v>
       </c>
       <c r="E56">
         <v>53</v>
@@ -4114,9 +4008,9 @@
         <v>0</v>
       </c>
       <c r="K56" t="s">
-        <v>209</v>
-      </c>
-      <c r="M56" s="1"/>
+        <v>163</v>
+      </c>
+      <c r="M56" s="4"/>
       <c r="N56" t="b">
         <v>0</v>
       </c>
@@ -4126,10 +4020,10 @@
     </row>
     <row r="57" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B57" t="s">
-        <v>390</v>
+        <v>165</v>
       </c>
       <c r="C57" t="s">
-        <v>390</v>
+        <v>165</v>
       </c>
       <c r="E57">
         <v>54</v>
@@ -4150,9 +4044,9 @@
         <v>0</v>
       </c>
       <c r="K57" t="s">
-        <v>209</v>
-      </c>
-      <c r="M57" s="1"/>
+        <v>163</v>
+      </c>
+      <c r="M57" s="4"/>
       <c r="N57" t="b">
         <v>0</v>
       </c>
@@ -4162,10 +4056,10 @@
     </row>
     <row r="58" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B58" t="s">
-        <v>87</v>
+        <v>166</v>
       </c>
       <c r="C58" t="s">
-        <v>87</v>
+        <v>167</v>
       </c>
       <c r="E58">
         <v>55</v>
@@ -4186,10 +4080,10 @@
         <v>0</v>
       </c>
       <c r="K58" t="s">
-        <v>184</v>
+        <v>105</v>
       </c>
       <c r="L58" t="s">
-        <v>240</v>
+        <v>168</v>
       </c>
       <c r="N58" t="b">
         <v>1</v>
@@ -4200,10 +4094,10 @@
     </row>
     <row r="59" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B59" t="s">
-        <v>88</v>
+        <v>169</v>
       </c>
       <c r="C59" t="s">
-        <v>88</v>
+        <v>170</v>
       </c>
       <c r="E59">
         <v>56</v>
@@ -4224,10 +4118,10 @@
         <v>0</v>
       </c>
       <c r="K59" t="s">
-        <v>184</v>
+        <v>105</v>
       </c>
       <c r="L59" t="s">
-        <v>238</v>
+        <v>171</v>
       </c>
       <c r="N59" t="b">
         <v>1</v>
@@ -4238,10 +4132,10 @@
     </row>
     <row r="60" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B60" t="s">
-        <v>89</v>
+        <v>172</v>
       </c>
       <c r="C60" t="s">
-        <v>89</v>
+        <v>173</v>
       </c>
       <c r="E60">
         <v>57</v>
@@ -4262,10 +4156,10 @@
         <v>0</v>
       </c>
       <c r="K60" t="s">
-        <v>184</v>
+        <v>105</v>
       </c>
       <c r="L60" t="s">
-        <v>239</v>
+        <v>174</v>
       </c>
       <c r="N60" t="b">
         <v>1</v>
@@ -4276,10 +4170,10 @@
     </row>
     <row r="61" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B61" t="s">
-        <v>90</v>
+        <v>175</v>
       </c>
       <c r="C61" t="s">
-        <v>90</v>
+        <v>176</v>
       </c>
       <c r="E61">
         <v>58</v>
@@ -4300,10 +4194,10 @@
         <v>0</v>
       </c>
       <c r="K61" t="s">
-        <v>184</v>
+        <v>105</v>
       </c>
       <c r="L61" t="s">
-        <v>313</v>
+        <v>177</v>
       </c>
       <c r="N61" t="b">
         <v>1</v>
@@ -4314,10 +4208,10 @@
     </row>
     <row r="62" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B62" t="s">
-        <v>91</v>
+        <v>178</v>
       </c>
       <c r="C62" t="s">
-        <v>91</v>
+        <v>179</v>
       </c>
       <c r="E62">
         <v>59</v>
@@ -4338,10 +4232,10 @@
         <v>0</v>
       </c>
       <c r="K62" t="s">
-        <v>184</v>
+        <v>105</v>
       </c>
       <c r="L62" t="s">
-        <v>314</v>
+        <v>180</v>
       </c>
       <c r="N62" t="b">
         <v>1</v>
@@ -4352,10 +4246,10 @@
     </row>
     <row r="63" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B63" t="s">
-        <v>92</v>
+        <v>181</v>
       </c>
       <c r="C63" t="s">
-        <v>92</v>
+        <v>182</v>
       </c>
       <c r="E63">
         <v>60</v>
@@ -4376,10 +4270,10 @@
         <v>0</v>
       </c>
       <c r="K63" t="s">
-        <v>184</v>
+        <v>105</v>
       </c>
       <c r="L63" t="s">
-        <v>315</v>
+        <v>183</v>
       </c>
       <c r="N63" t="b">
         <v>1</v>
@@ -4390,10 +4284,10 @@
     </row>
     <row r="64" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B64" t="s">
-        <v>93</v>
+        <v>184</v>
       </c>
       <c r="C64" t="s">
-        <v>323</v>
+        <v>185</v>
       </c>
       <c r="E64">
         <v>61</v>
@@ -4414,10 +4308,10 @@
         <v>0</v>
       </c>
       <c r="K64" t="s">
-        <v>184</v>
-      </c>
-      <c r="M64" s="1" t="s">
-        <v>221</v>
+        <v>105</v>
+      </c>
+      <c r="M64" s="4" t="s">
+        <v>186</v>
       </c>
       <c r="N64" t="b">
         <v>1</v>
@@ -4428,10 +4322,10 @@
     </row>
     <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B65" t="s">
-        <v>94</v>
+        <v>187</v>
       </c>
       <c r="C65" t="s">
-        <v>324</v>
+        <v>188</v>
       </c>
       <c r="E65">
         <v>62</v>
@@ -4452,10 +4346,10 @@
         <v>0</v>
       </c>
       <c r="K65" t="s">
-        <v>184</v>
-      </c>
-      <c r="M65" s="1" t="s">
-        <v>221</v>
+        <v>105</v>
+      </c>
+      <c r="M65" s="4" t="s">
+        <v>186</v>
       </c>
       <c r="N65" t="b">
         <v>1</v>
@@ -4466,10 +4360,10 @@
     </row>
     <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B66" t="s">
-        <v>95</v>
+        <v>189</v>
       </c>
       <c r="C66" t="s">
-        <v>325</v>
+        <v>190</v>
       </c>
       <c r="E66">
         <v>63</v>
@@ -4490,10 +4384,10 @@
         <v>0</v>
       </c>
       <c r="K66" t="s">
-        <v>185</v>
-      </c>
-      <c r="M66" s="1" t="s">
-        <v>224</v>
+        <v>94</v>
+      </c>
+      <c r="M66" s="4" t="s">
+        <v>191</v>
       </c>
       <c r="N66" t="b">
         <v>1</v>
@@ -4504,10 +4398,10 @@
     </row>
     <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B67" t="s">
-        <v>96</v>
+        <v>192</v>
       </c>
       <c r="C67" t="s">
-        <v>326</v>
+        <v>193</v>
       </c>
       <c r="E67">
         <v>64</v>
@@ -4528,10 +4422,10 @@
         <v>0</v>
       </c>
       <c r="K67" t="s">
-        <v>185</v>
-      </c>
-      <c r="M67" s="1" t="s">
-        <v>225</v>
+        <v>94</v>
+      </c>
+      <c r="M67" s="4" t="s">
+        <v>194</v>
       </c>
       <c r="N67" t="b">
         <v>1</v>
@@ -4542,10 +4436,10 @@
     </row>
     <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B68" t="s">
-        <v>97</v>
+        <v>195</v>
       </c>
       <c r="C68" t="s">
-        <v>327</v>
+        <v>196</v>
       </c>
       <c r="E68">
         <v>65</v>
@@ -4566,10 +4460,10 @@
         <v>0</v>
       </c>
       <c r="K68" t="s">
-        <v>185</v>
-      </c>
-      <c r="M68" s="1" t="s">
-        <v>226</v>
+        <v>94</v>
+      </c>
+      <c r="M68" s="4" t="s">
+        <v>197</v>
       </c>
       <c r="N68" t="b">
         <v>1</v>
@@ -4580,10 +4474,10 @@
     </row>
     <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B69" t="s">
-        <v>98</v>
+        <v>198</v>
       </c>
       <c r="C69" t="s">
-        <v>328</v>
+        <v>199</v>
       </c>
       <c r="E69">
         <v>66</v>
@@ -4604,10 +4498,10 @@
         <v>0</v>
       </c>
       <c r="K69" t="s">
-        <v>185</v>
-      </c>
-      <c r="M69" s="1" t="s">
-        <v>222</v>
+        <v>94</v>
+      </c>
+      <c r="M69" s="4" t="s">
+        <v>200</v>
       </c>
       <c r="N69" t="b">
         <v>1</v>
@@ -4618,10 +4512,10 @@
     </row>
     <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B70" t="s">
-        <v>99</v>
+        <v>201</v>
       </c>
       <c r="C70" t="s">
-        <v>329</v>
+        <v>202</v>
       </c>
       <c r="E70">
         <v>67</v>
@@ -4642,10 +4536,10 @@
         <v>0</v>
       </c>
       <c r="K70" t="s">
-        <v>185</v>
-      </c>
-      <c r="M70" s="1" t="s">
-        <v>223</v>
+        <v>94</v>
+      </c>
+      <c r="M70" s="4" t="s">
+        <v>203</v>
       </c>
       <c r="N70" t="b">
         <v>1</v>
@@ -4656,10 +4550,10 @@
     </row>
     <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B71" t="s">
-        <v>100</v>
+        <v>204</v>
       </c>
       <c r="C71" t="s">
-        <v>330</v>
+        <v>205</v>
       </c>
       <c r="E71">
         <v>68</v>
@@ -4680,10 +4574,10 @@
         <v>0</v>
       </c>
       <c r="K71" t="s">
-        <v>185</v>
-      </c>
-      <c r="M71" s="1" t="s">
-        <v>227</v>
+        <v>94</v>
+      </c>
+      <c r="M71" s="4" t="s">
+        <v>206</v>
       </c>
       <c r="N71" t="b">
         <v>1</v>
@@ -4694,10 +4588,10 @@
     </row>
     <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B72" t="s">
-        <v>101</v>
+        <v>207</v>
       </c>
       <c r="C72" t="s">
-        <v>331</v>
+        <v>208</v>
       </c>
       <c r="E72">
         <v>69</v>
@@ -4718,7 +4612,7 @@
         <v>0</v>
       </c>
       <c r="K72" t="s">
-        <v>182</v>
+        <v>130</v>
       </c>
       <c r="N72" t="b">
         <v>1</v>
@@ -4729,10 +4623,10 @@
     </row>
     <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B73" t="s">
-        <v>102</v>
+        <v>209</v>
       </c>
       <c r="C73" t="s">
-        <v>332</v>
+        <v>210</v>
       </c>
       <c r="E73">
         <v>70</v>
@@ -4753,7 +4647,7 @@
         <v>0</v>
       </c>
       <c r="K73" t="s">
-        <v>182</v>
+        <v>130</v>
       </c>
       <c r="N73" t="b">
         <v>1</v>
@@ -4764,10 +4658,10 @@
     </row>
     <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B74" t="s">
-        <v>103</v>
+        <v>211</v>
       </c>
       <c r="C74" t="s">
-        <v>333</v>
+        <v>212</v>
       </c>
       <c r="E74">
         <v>71</v>
@@ -4788,7 +4682,7 @@
         <v>0</v>
       </c>
       <c r="K74" t="s">
-        <v>182</v>
+        <v>130</v>
       </c>
       <c r="N74" t="b">
         <v>1</v>
@@ -4799,10 +4693,10 @@
     </row>
     <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B75" t="s">
-        <v>104</v>
+        <v>213</v>
       </c>
       <c r="C75" t="s">
-        <v>334</v>
+        <v>214</v>
       </c>
       <c r="E75">
         <v>72</v>
@@ -4823,7 +4717,7 @@
         <v>0</v>
       </c>
       <c r="K75" t="s">
-        <v>182</v>
+        <v>130</v>
       </c>
       <c r="N75" t="b">
         <v>1</v>
@@ -4834,10 +4728,10 @@
     </row>
     <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B76" t="s">
-        <v>105</v>
+        <v>215</v>
       </c>
       <c r="C76" t="s">
-        <v>335</v>
+        <v>216</v>
       </c>
       <c r="E76">
         <v>73</v>
@@ -4858,7 +4752,7 @@
         <v>0</v>
       </c>
       <c r="K76" t="s">
-        <v>182</v>
+        <v>130</v>
       </c>
       <c r="N76" t="b">
         <v>1</v>
@@ -4869,10 +4763,10 @@
     </row>
     <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B77" t="s">
-        <v>106</v>
+        <v>217</v>
       </c>
       <c r="C77" t="s">
-        <v>336</v>
+        <v>218</v>
       </c>
       <c r="E77">
         <v>74</v>
@@ -4893,7 +4787,7 @@
         <v>0</v>
       </c>
       <c r="K77" t="s">
-        <v>182</v>
+        <v>130</v>
       </c>
       <c r="N77" t="b">
         <v>1</v>
@@ -4904,10 +4798,10 @@
     </row>
     <row r="78" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B78" t="s">
-        <v>107</v>
+        <v>219</v>
       </c>
       <c r="C78" t="s">
-        <v>337</v>
+        <v>220</v>
       </c>
       <c r="E78">
         <v>75</v>
@@ -4928,7 +4822,7 @@
         <v>0</v>
       </c>
       <c r="K78" t="s">
-        <v>182</v>
+        <v>130</v>
       </c>
       <c r="N78" t="b">
         <v>1</v>
@@ -4939,10 +4833,10 @@
     </row>
     <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" t="s">
-        <v>108</v>
+        <v>221</v>
       </c>
       <c r="C79" t="s">
-        <v>338</v>
+        <v>222</v>
       </c>
       <c r="E79">
         <v>76</v>
@@ -4963,7 +4857,7 @@
         <v>0</v>
       </c>
       <c r="K79" t="s">
-        <v>182</v>
+        <v>130</v>
       </c>
       <c r="N79" t="b">
         <v>1</v>
@@ -4974,10 +4868,10 @@
     </row>
     <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B80" t="s">
-        <v>109</v>
+        <v>223</v>
       </c>
       <c r="C80" t="s">
-        <v>339</v>
+        <v>224</v>
       </c>
       <c r="E80">
         <v>77</v>
@@ -4998,7 +4892,7 @@
         <v>0</v>
       </c>
       <c r="K80" t="s">
-        <v>182</v>
+        <v>130</v>
       </c>
       <c r="N80" t="b">
         <v>1</v>
@@ -5009,10 +4903,10 @@
     </row>
     <row r="81" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B81" t="s">
-        <v>110</v>
+        <v>225</v>
       </c>
       <c r="C81" t="s">
-        <v>340</v>
+        <v>226</v>
       </c>
       <c r="E81">
         <v>78</v>
@@ -5033,7 +4927,7 @@
         <v>0</v>
       </c>
       <c r="K81" t="s">
-        <v>182</v>
+        <v>130</v>
       </c>
       <c r="N81" t="b">
         <v>1</v>
@@ -5044,10 +4938,10 @@
     </row>
     <row r="82" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B82" t="s">
-        <v>111</v>
+        <v>227</v>
       </c>
       <c r="C82" t="s">
-        <v>341</v>
+        <v>228</v>
       </c>
       <c r="E82">
         <v>79</v>
@@ -5068,7 +4962,7 @@
         <v>0</v>
       </c>
       <c r="K82" t="s">
-        <v>183</v>
+        <v>79</v>
       </c>
       <c r="N82" t="b">
         <v>1</v>
@@ -5079,10 +4973,10 @@
     </row>
     <row r="83" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B83" t="s">
-        <v>112</v>
+        <v>229</v>
       </c>
       <c r="C83" t="s">
-        <v>342</v>
+        <v>230</v>
       </c>
       <c r="E83">
         <v>80</v>
@@ -5103,7 +4997,7 @@
         <v>0</v>
       </c>
       <c r="K83" t="s">
-        <v>183</v>
+        <v>79</v>
       </c>
       <c r="N83" t="b">
         <v>1</v>
@@ -5114,10 +5008,10 @@
     </row>
     <row r="84" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B84" t="s">
-        <v>113</v>
+        <v>231</v>
       </c>
       <c r="C84" t="s">
-        <v>343</v>
+        <v>232</v>
       </c>
       <c r="E84">
         <v>81</v>
@@ -5138,7 +5032,7 @@
         <v>0</v>
       </c>
       <c r="K84" t="s">
-        <v>183</v>
+        <v>79</v>
       </c>
       <c r="N84" t="b">
         <v>1</v>
@@ -5149,10 +5043,10 @@
     </row>
     <row r="85" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B85" t="s">
-        <v>114</v>
+        <v>233</v>
       </c>
       <c r="C85" t="s">
-        <v>344</v>
+        <v>234</v>
       </c>
       <c r="E85">
         <v>82</v>
@@ -5173,7 +5067,7 @@
         <v>0</v>
       </c>
       <c r="K85" t="s">
-        <v>183</v>
+        <v>79</v>
       </c>
       <c r="N85" t="b">
         <v>1</v>
@@ -5184,10 +5078,10 @@
     </row>
     <row r="86" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B86" t="s">
-        <v>115</v>
+        <v>235</v>
       </c>
       <c r="C86" t="s">
-        <v>345</v>
+        <v>236</v>
       </c>
       <c r="E86">
         <v>83</v>
@@ -5208,7 +5102,7 @@
         <v>0</v>
       </c>
       <c r="K86" t="s">
-        <v>183</v>
+        <v>79</v>
       </c>
       <c r="N86" t="b">
         <v>1</v>
@@ -5219,10 +5113,10 @@
     </row>
     <row r="87" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B87" t="s">
-        <v>116</v>
+        <v>237</v>
       </c>
       <c r="C87" t="s">
-        <v>346</v>
+        <v>238</v>
       </c>
       <c r="E87">
         <v>84</v>
@@ -5243,7 +5137,7 @@
         <v>0</v>
       </c>
       <c r="K87" t="s">
-        <v>189</v>
+        <v>239</v>
       </c>
       <c r="N87" t="b">
         <v>1</v>
@@ -5254,10 +5148,10 @@
     </row>
     <row r="88" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B88" t="s">
-        <v>117</v>
+        <v>240</v>
       </c>
       <c r="C88" t="s">
-        <v>347</v>
+        <v>241</v>
       </c>
       <c r="E88">
         <v>85</v>
@@ -5278,7 +5172,7 @@
         <v>0</v>
       </c>
       <c r="K88" t="s">
-        <v>189</v>
+        <v>239</v>
       </c>
       <c r="N88" t="b">
         <v>1</v>
@@ -5289,10 +5183,10 @@
     </row>
     <row r="89" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B89" t="s">
-        <v>118</v>
+        <v>242</v>
       </c>
       <c r="C89" t="s">
-        <v>348</v>
+        <v>243</v>
       </c>
       <c r="E89">
         <v>86</v>
@@ -5313,7 +5207,7 @@
         <v>0</v>
       </c>
       <c r="K89" t="s">
-        <v>189</v>
+        <v>239</v>
       </c>
       <c r="N89" t="b">
         <v>1</v>
@@ -5324,10 +5218,10 @@
     </row>
     <row r="90" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B90" t="s">
-        <v>119</v>
+        <v>244</v>
       </c>
       <c r="C90" t="s">
-        <v>349</v>
+        <v>245</v>
       </c>
       <c r="E90">
         <v>87</v>
@@ -5348,7 +5242,7 @@
         <v>0</v>
       </c>
       <c r="K90" t="s">
-        <v>189</v>
+        <v>239</v>
       </c>
       <c r="N90" t="b">
         <v>1</v>
@@ -5359,10 +5253,10 @@
     </row>
     <row r="91" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B91" t="s">
-        <v>120</v>
+        <v>246</v>
       </c>
       <c r="C91" t="s">
-        <v>350</v>
+        <v>247</v>
       </c>
       <c r="E91">
         <v>88</v>
@@ -5383,7 +5277,7 @@
         <v>0</v>
       </c>
       <c r="K91" t="s">
-        <v>189</v>
+        <v>239</v>
       </c>
       <c r="N91" t="b">
         <v>1</v>
@@ -5394,10 +5288,10 @@
     </row>
     <row r="92" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B92" t="s">
-        <v>121</v>
+        <v>248</v>
       </c>
       <c r="C92" t="s">
-        <v>351</v>
+        <v>249</v>
       </c>
       <c r="E92">
         <v>89</v>
@@ -5418,7 +5312,7 @@
         <v>0</v>
       </c>
       <c r="K92" t="s">
-        <v>190</v>
+        <v>250</v>
       </c>
       <c r="N92" t="b">
         <v>1</v>
@@ -5429,10 +5323,10 @@
     </row>
     <row r="93" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B93" t="s">
-        <v>122</v>
+        <v>251</v>
       </c>
       <c r="C93" t="s">
-        <v>352</v>
+        <v>252</v>
       </c>
       <c r="E93">
         <v>90</v>
@@ -5453,7 +5347,7 @@
         <v>0</v>
       </c>
       <c r="K93" t="s">
-        <v>194</v>
+        <v>253</v>
       </c>
       <c r="N93" t="b">
         <v>1</v>
@@ -5464,10 +5358,10 @@
     </row>
     <row r="94" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B94" t="s">
-        <v>123</v>
+        <v>254</v>
       </c>
       <c r="C94" t="s">
-        <v>353</v>
+        <v>255</v>
       </c>
       <c r="E94">
         <v>91</v>
@@ -5488,7 +5382,7 @@
         <v>0</v>
       </c>
       <c r="K94" t="s">
-        <v>198</v>
+        <v>256</v>
       </c>
       <c r="N94" t="b">
         <v>1</v>
@@ -5499,10 +5393,10 @@
     </row>
     <row r="95" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B95" t="s">
-        <v>124</v>
+        <v>257</v>
       </c>
       <c r="C95" t="s">
-        <v>354</v>
+        <v>258</v>
       </c>
       <c r="E95">
         <v>92</v>
@@ -5523,7 +5417,7 @@
         <v>0</v>
       </c>
       <c r="K95" t="s">
-        <v>199</v>
+        <v>259</v>
       </c>
       <c r="N95" t="b">
         <v>1</v>
@@ -5534,10 +5428,10 @@
     </row>
     <row r="96" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B96" t="s">
-        <v>125</v>
+        <v>260</v>
       </c>
       <c r="C96" t="s">
-        <v>355</v>
+        <v>261</v>
       </c>
       <c r="E96">
         <v>93</v>
@@ -5558,7 +5452,7 @@
         <v>0</v>
       </c>
       <c r="K96" t="s">
-        <v>192</v>
+        <v>262</v>
       </c>
       <c r="N96" t="b">
         <v>1</v>
@@ -5569,10 +5463,10 @@
     </row>
     <row r="97" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B97" t="s">
-        <v>126</v>
+        <v>263</v>
       </c>
       <c r="C97" t="s">
-        <v>356</v>
+        <v>264</v>
       </c>
       <c r="E97">
         <v>94</v>
@@ -5593,7 +5487,7 @@
         <v>0</v>
       </c>
       <c r="K97" t="s">
-        <v>196</v>
+        <v>265</v>
       </c>
       <c r="N97" t="b">
         <v>1</v>
@@ -5604,10 +5498,10 @@
     </row>
     <row r="98" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B98" t="s">
-        <v>127</v>
+        <v>266</v>
       </c>
       <c r="C98" t="s">
-        <v>357</v>
+        <v>267</v>
       </c>
       <c r="E98">
         <v>95</v>
@@ -5628,7 +5522,7 @@
         <v>0</v>
       </c>
       <c r="K98" t="s">
-        <v>200</v>
+        <v>268</v>
       </c>
       <c r="N98" t="b">
         <v>1</v>
@@ -5639,10 +5533,10 @@
     </row>
     <row r="99" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B99" t="s">
-        <v>128</v>
+        <v>269</v>
       </c>
       <c r="C99" t="s">
-        <v>358</v>
+        <v>270</v>
       </c>
       <c r="E99">
         <v>96</v>
@@ -5663,7 +5557,7 @@
         <v>0</v>
       </c>
       <c r="K99" t="s">
-        <v>201</v>
+        <v>271</v>
       </c>
       <c r="N99" t="b">
         <v>1</v>
@@ -5674,10 +5568,10 @@
     </row>
     <row r="100" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B100" t="s">
-        <v>121</v>
+        <v>248</v>
       </c>
       <c r="C100" t="s">
-        <v>351</v>
+        <v>249</v>
       </c>
       <c r="E100">
         <v>97</v>
@@ -5698,7 +5592,7 @@
         <v>0</v>
       </c>
       <c r="K100" t="s">
-        <v>191</v>
+        <v>272</v>
       </c>
       <c r="N100" t="b">
         <v>1</v>
@@ -5709,10 +5603,10 @@
     </row>
     <row r="101" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B101" t="s">
-        <v>122</v>
+        <v>251</v>
       </c>
       <c r="C101" t="s">
-        <v>352</v>
+        <v>252</v>
       </c>
       <c r="E101">
         <v>98</v>
@@ -5733,7 +5627,7 @@
         <v>0</v>
       </c>
       <c r="K101" t="s">
-        <v>195</v>
+        <v>273</v>
       </c>
       <c r="N101" t="b">
         <v>1</v>
@@ -5744,10 +5638,10 @@
     </row>
     <row r="102" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B102" t="s">
-        <v>123</v>
+        <v>254</v>
       </c>
       <c r="C102" t="s">
-        <v>353</v>
+        <v>255</v>
       </c>
       <c r="E102">
         <v>99</v>
@@ -5768,7 +5662,7 @@
         <v>0</v>
       </c>
       <c r="K102" t="s">
-        <v>202</v>
+        <v>274</v>
       </c>
       <c r="N102" t="b">
         <v>1</v>
@@ -5779,10 +5673,10 @@
     </row>
     <row r="103" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B103" t="s">
-        <v>124</v>
+        <v>257</v>
       </c>
       <c r="C103" t="s">
-        <v>354</v>
+        <v>258</v>
       </c>
       <c r="E103">
         <v>100</v>
@@ -5803,7 +5697,7 @@
         <v>0</v>
       </c>
       <c r="K103" t="s">
-        <v>203</v>
+        <v>275</v>
       </c>
       <c r="N103" t="b">
         <v>1</v>
@@ -5814,10 +5708,10 @@
     </row>
     <row r="104" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B104" t="s">
-        <v>125</v>
+        <v>260</v>
       </c>
       <c r="C104" t="s">
-        <v>355</v>
+        <v>261</v>
       </c>
       <c r="E104">
         <v>101</v>
@@ -5838,7 +5732,7 @@
         <v>0</v>
       </c>
       <c r="K104" t="s">
-        <v>193</v>
+        <v>276</v>
       </c>
       <c r="N104" t="b">
         <v>1</v>
@@ -5849,10 +5743,10 @@
     </row>
     <row r="105" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B105" t="s">
-        <v>126</v>
+        <v>263</v>
       </c>
       <c r="C105" t="s">
-        <v>356</v>
+        <v>264</v>
       </c>
       <c r="E105">
         <v>102</v>
@@ -5873,7 +5767,7 @@
         <v>0</v>
       </c>
       <c r="K105" t="s">
-        <v>197</v>
+        <v>277</v>
       </c>
       <c r="N105" t="b">
         <v>1</v>
@@ -5884,10 +5778,10 @@
     </row>
     <row r="106" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B106" t="s">
-        <v>127</v>
+        <v>266</v>
       </c>
       <c r="C106" t="s">
-        <v>357</v>
+        <v>267</v>
       </c>
       <c r="E106">
         <v>103</v>
@@ -5908,7 +5802,7 @@
         <v>0</v>
       </c>
       <c r="K106" t="s">
-        <v>204</v>
+        <v>278</v>
       </c>
       <c r="N106" t="b">
         <v>1</v>
@@ -5919,10 +5813,10 @@
     </row>
     <row r="107" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B107" t="s">
-        <v>128</v>
+        <v>269</v>
       </c>
       <c r="C107" t="s">
-        <v>358</v>
+        <v>270</v>
       </c>
       <c r="E107">
         <v>104</v>
@@ -5943,7 +5837,7 @@
         <v>0</v>
       </c>
       <c r="K107" t="s">
-        <v>205</v>
+        <v>279</v>
       </c>
       <c r="N107" t="b">
         <v>1</v>
@@ -5954,10 +5848,10 @@
     </row>
     <row r="108" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B108" t="s">
-        <v>133</v>
+        <v>280</v>
       </c>
       <c r="C108" t="s">
-        <v>133</v>
+        <v>280</v>
       </c>
       <c r="E108">
         <v>105</v>
@@ -5978,7 +5872,7 @@
         <v>0</v>
       </c>
       <c r="K108" t="s">
-        <v>183</v>
+        <v>79</v>
       </c>
       <c r="N108" t="b">
         <v>1</v>
@@ -5987,12 +5881,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="109" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="109" spans="2:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="B109" t="s">
-        <v>134</v>
-      </c>
-      <c r="C109" t="s">
-        <v>134</v>
+        <v>281</v>
+      </c>
+      <c r="C109" s="6" t="s">
+        <v>282</v>
       </c>
       <c r="E109">
         <v>106</v>
@@ -6013,7 +5907,7 @@
         <v>0</v>
       </c>
       <c r="K109" t="s">
-        <v>184</v>
+        <v>105</v>
       </c>
       <c r="N109" t="b">
         <v>1</v>
@@ -6022,12 +5916,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="110" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="110" spans="2:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="B110" t="s">
-        <v>135</v>
-      </c>
-      <c r="C110" t="s">
-        <v>135</v>
+        <v>283</v>
+      </c>
+      <c r="C110" s="6" t="s">
+        <v>284</v>
       </c>
       <c r="E110">
         <v>107</v>
@@ -6048,7 +5942,7 @@
         <v>0</v>
       </c>
       <c r="K110" t="s">
-        <v>184</v>
+        <v>105</v>
       </c>
       <c r="N110" t="b">
         <v>1</v>
@@ -6057,12 +5951,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="111" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="111" spans="2:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="B111" t="s">
-        <v>136</v>
-      </c>
-      <c r="C111" t="s">
-        <v>136</v>
+        <v>285</v>
+      </c>
+      <c r="C111" s="6" t="s">
+        <v>286</v>
       </c>
       <c r="E111">
         <v>108</v>
@@ -6083,7 +5977,7 @@
         <v>0</v>
       </c>
       <c r="K111" t="s">
-        <v>184</v>
+        <v>105</v>
       </c>
       <c r="N111" t="b">
         <v>1</v>
@@ -6092,12 +5986,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="112" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="112" spans="2:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="B112" t="s">
-        <v>137</v>
-      </c>
-      <c r="C112" t="s">
-        <v>137</v>
+        <v>287</v>
+      </c>
+      <c r="C112" s="7" t="s">
+        <v>288</v>
       </c>
       <c r="E112">
         <v>109</v>
@@ -6118,10 +6012,10 @@
         <v>0</v>
       </c>
       <c r="K112" t="s">
-        <v>182</v>
-      </c>
-      <c r="M112" s="1" t="s">
-        <v>222</v>
+        <v>130</v>
+      </c>
+      <c r="M112" s="4" t="s">
+        <v>200</v>
       </c>
       <c r="N112" t="b">
         <v>1</v>
@@ -6130,12 +6024,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="113" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="113" spans="2:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="B113" t="s">
-        <v>138</v>
-      </c>
-      <c r="C113" t="s">
-        <v>138</v>
+        <v>289</v>
+      </c>
+      <c r="C113" s="6" t="s">
+        <v>290</v>
       </c>
       <c r="E113">
         <v>110</v>
@@ -6156,10 +6050,10 @@
         <v>0</v>
       </c>
       <c r="K113" t="s">
-        <v>182</v>
-      </c>
-      <c r="M113" s="1" t="s">
-        <v>223</v>
+        <v>130</v>
+      </c>
+      <c r="M113" s="4" t="s">
+        <v>203</v>
       </c>
       <c r="N113" t="b">
         <v>1</v>
@@ -6168,12 +6062,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="114" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="114" spans="2:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="B114" t="s">
-        <v>139</v>
-      </c>
-      <c r="C114" t="s">
-        <v>139</v>
+        <v>291</v>
+      </c>
+      <c r="C114" s="6" t="s">
+        <v>292</v>
       </c>
       <c r="E114">
         <v>111</v>
@@ -6194,10 +6088,10 @@
         <v>0</v>
       </c>
       <c r="K114" t="s">
-        <v>182</v>
-      </c>
-      <c r="M114" s="1" t="s">
-        <v>227</v>
+        <v>130</v>
+      </c>
+      <c r="M114" s="4" t="s">
+        <v>206</v>
       </c>
       <c r="N114" t="b">
         <v>1</v>
@@ -6206,12 +6100,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="115" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="115" spans="2:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="B115" t="s">
-        <v>140</v>
-      </c>
-      <c r="C115" t="s">
-        <v>140</v>
+        <v>293</v>
+      </c>
+      <c r="C115" s="6" t="s">
+        <v>294</v>
       </c>
       <c r="E115">
         <v>112</v>
@@ -6232,10 +6126,10 @@
         <v>0</v>
       </c>
       <c r="K115" t="s">
-        <v>183</v>
-      </c>
-      <c r="M115" s="1" t="s">
-        <v>222</v>
+        <v>79</v>
+      </c>
+      <c r="M115" s="4" t="s">
+        <v>200</v>
       </c>
       <c r="N115" t="b">
         <v>1</v>
@@ -6244,12 +6138,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="116" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="116" spans="2:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="B116" t="s">
-        <v>141</v>
-      </c>
-      <c r="C116" t="s">
-        <v>141</v>
+        <v>295</v>
+      </c>
+      <c r="C116" s="6" t="s">
+        <v>296</v>
       </c>
       <c r="E116">
         <v>113</v>
@@ -6270,10 +6164,10 @@
         <v>0</v>
       </c>
       <c r="K116" t="s">
-        <v>183</v>
-      </c>
-      <c r="M116" s="1" t="s">
-        <v>223</v>
+        <v>79</v>
+      </c>
+      <c r="M116" s="4" t="s">
+        <v>203</v>
       </c>
       <c r="N116" t="b">
         <v>1</v>
@@ -6282,12 +6176,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="117" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="117" spans="2:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="B117" t="s">
-        <v>142</v>
-      </c>
-      <c r="C117" t="s">
-        <v>142</v>
+        <v>297</v>
+      </c>
+      <c r="C117" s="8" t="s">
+        <v>298</v>
       </c>
       <c r="E117">
         <v>114</v>
@@ -6308,10 +6202,10 @@
         <v>0</v>
       </c>
       <c r="K117" t="s">
-        <v>183</v>
-      </c>
-      <c r="M117" s="1" t="s">
-        <v>227</v>
+        <v>79</v>
+      </c>
+      <c r="M117" s="4" t="s">
+        <v>206</v>
       </c>
       <c r="N117" t="b">
         <v>1</v>
@@ -6320,12 +6214,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="118" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="118" spans="2:15" ht="66" x14ac:dyDescent="0.2">
       <c r="B118" t="s">
-        <v>129</v>
-      </c>
-      <c r="C118" t="s">
-        <v>129</v>
+        <v>299</v>
+      </c>
+      <c r="C118" s="7" t="s">
+        <v>300</v>
       </c>
       <c r="E118">
         <v>115</v>
@@ -6346,21 +6240,21 @@
         <v>99</v>
       </c>
       <c r="K118" t="s">
-        <v>206</v>
-      </c>
-      <c r="M118" s="1" t="s">
-        <v>228</v>
+        <v>146</v>
+      </c>
+      <c r="M118" s="4" t="s">
+        <v>301</v>
       </c>
       <c r="N118" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="119" spans="2:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="B119" t="s">
-        <v>130</v>
-      </c>
-      <c r="C119" t="s">
-        <v>130</v>
+        <v>302</v>
+      </c>
+      <c r="C119" s="7" t="s">
+        <v>303</v>
       </c>
       <c r="E119">
         <v>116</v>
@@ -6381,21 +6275,21 @@
         <v>99</v>
       </c>
       <c r="K119" t="s">
-        <v>207</v>
-      </c>
-      <c r="M119" s="1" t="s">
-        <v>229</v>
+        <v>153</v>
+      </c>
+      <c r="M119" s="4" t="s">
+        <v>304</v>
       </c>
       <c r="N119" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="120" spans="2:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="B120" t="s">
-        <v>131</v>
-      </c>
-      <c r="C120" t="s">
-        <v>131</v>
+        <v>305</v>
+      </c>
+      <c r="C120" s="9" t="s">
+        <v>306</v>
       </c>
       <c r="E120">
         <v>117</v>
@@ -6416,21 +6310,21 @@
         <v>99</v>
       </c>
       <c r="K120" t="s">
-        <v>208</v>
-      </c>
-      <c r="M120" s="1" t="s">
-        <v>230</v>
+        <v>159</v>
+      </c>
+      <c r="M120" s="4" t="s">
+        <v>307</v>
       </c>
       <c r="N120" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="121" spans="2:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="B121" t="s">
-        <v>132</v>
-      </c>
-      <c r="C121" t="s">
-        <v>132</v>
+        <v>308</v>
+      </c>
+      <c r="C121" s="7" t="s">
+        <v>309</v>
       </c>
       <c r="E121">
         <v>118</v>
@@ -6451,10 +6345,10 @@
         <v>99</v>
       </c>
       <c r="K121" t="s">
-        <v>209</v>
-      </c>
-      <c r="M121" s="1" t="s">
-        <v>231</v>
+        <v>163</v>
+      </c>
+      <c r="M121" s="4" t="s">
+        <v>310</v>
       </c>
       <c r="N121" t="b">
         <v>1</v>
@@ -6462,10 +6356,10 @@
     </row>
     <row r="122" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B122" t="s">
-        <v>143</v>
+        <v>311</v>
       </c>
       <c r="C122" t="s">
-        <v>143</v>
+        <v>312</v>
       </c>
       <c r="E122">
         <v>119</v>
@@ -6486,7 +6380,7 @@
         <v>0</v>
       </c>
       <c r="M122" t="s">
-        <v>368</v>
+        <v>313</v>
       </c>
       <c r="N122" t="b">
         <v>0</v>
@@ -6494,10 +6388,10 @@
     </row>
     <row r="123" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B123" t="s">
-        <v>144</v>
+        <v>314</v>
       </c>
       <c r="C123" t="s">
-        <v>144</v>
+        <v>315</v>
       </c>
       <c r="E123">
         <v>120</v>
@@ -6518,7 +6412,7 @@
         <v>0</v>
       </c>
       <c r="M123" t="s">
-        <v>369</v>
+        <v>316</v>
       </c>
       <c r="N123" t="b">
         <v>0</v>
@@ -6526,10 +6420,10 @@
     </row>
     <row r="124" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B124" t="s">
-        <v>145</v>
+        <v>317</v>
       </c>
       <c r="C124" t="s">
-        <v>145</v>
+        <v>318</v>
       </c>
       <c r="E124">
         <v>121</v>
@@ -6550,7 +6444,7 @@
         <v>0</v>
       </c>
       <c r="M124" t="s">
-        <v>370</v>
+        <v>319</v>
       </c>
       <c r="N124" t="b">
         <v>0</v>
@@ -6558,10 +6452,10 @@
     </row>
     <row r="125" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B125" t="s">
-        <v>146</v>
+        <v>320</v>
       </c>
       <c r="C125" t="s">
-        <v>146</v>
+        <v>321</v>
       </c>
       <c r="E125">
         <v>122</v>
@@ -6582,7 +6476,7 @@
         <v>0</v>
       </c>
       <c r="M125" t="s">
-        <v>371</v>
+        <v>322</v>
       </c>
       <c r="N125" t="b">
         <v>0</v>
@@ -6590,10 +6484,10 @@
     </row>
     <row r="126" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B126" t="s">
-        <v>147</v>
+        <v>323</v>
       </c>
       <c r="C126" t="s">
-        <v>147</v>
+        <v>324</v>
       </c>
       <c r="E126">
         <v>123</v>
@@ -6614,7 +6508,7 @@
         <v>0</v>
       </c>
       <c r="M126" t="s">
-        <v>372</v>
+        <v>325</v>
       </c>
       <c r="N126" t="b">
         <v>0</v>
@@ -6622,10 +6516,10 @@
     </row>
     <row r="127" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B127" t="s">
-        <v>148</v>
+        <v>326</v>
       </c>
       <c r="C127" t="s">
-        <v>148</v>
+        <v>327</v>
       </c>
       <c r="E127">
         <v>124</v>
@@ -6646,7 +6540,7 @@
         <v>0</v>
       </c>
       <c r="M127" t="s">
-        <v>373</v>
+        <v>328</v>
       </c>
       <c r="N127" t="b">
         <v>0</v>
@@ -6654,10 +6548,10 @@
     </row>
     <row r="128" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B128" t="s">
-        <v>149</v>
+        <v>329</v>
       </c>
       <c r="C128" t="s">
-        <v>149</v>
+        <v>330</v>
       </c>
       <c r="E128">
         <v>125</v>
@@ -6678,7 +6572,7 @@
         <v>0</v>
       </c>
       <c r="M128" t="s">
-        <v>374</v>
+        <v>331</v>
       </c>
       <c r="N128" t="b">
         <v>0</v>
@@ -6686,10 +6580,10 @@
     </row>
     <row r="129" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B129" t="s">
-        <v>150</v>
+        <v>332</v>
       </c>
       <c r="C129" t="s">
-        <v>150</v>
+        <v>333</v>
       </c>
       <c r="E129">
         <v>126</v>
@@ -6710,7 +6604,7 @@
         <v>0</v>
       </c>
       <c r="M129" t="s">
-        <v>375</v>
+        <v>334</v>
       </c>
       <c r="N129" t="b">
         <v>0</v>
@@ -6718,10 +6612,10 @@
     </row>
     <row r="130" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B130" t="s">
-        <v>151</v>
+        <v>335</v>
       </c>
       <c r="C130" t="s">
-        <v>151</v>
+        <v>336</v>
       </c>
       <c r="E130">
         <v>127</v>
@@ -6742,7 +6636,7 @@
         <v>0</v>
       </c>
       <c r="M130" t="s">
-        <v>391</v>
+        <v>337</v>
       </c>
       <c r="N130" t="b">
         <v>0</v>
@@ -6750,10 +6644,10 @@
     </row>
     <row r="131" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B131" t="s">
-        <v>152</v>
+        <v>338</v>
       </c>
       <c r="C131" t="s">
-        <v>152</v>
+        <v>339</v>
       </c>
       <c r="E131">
         <v>128</v>
@@ -6774,7 +6668,7 @@
         <v>0</v>
       </c>
       <c r="M131" t="s">
-        <v>359</v>
+        <v>340</v>
       </c>
       <c r="N131" t="b">
         <v>0</v>
@@ -6782,10 +6676,10 @@
     </row>
     <row r="132" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B132" t="s">
-        <v>153</v>
+        <v>341</v>
       </c>
       <c r="C132" t="s">
-        <v>153</v>
+        <v>342</v>
       </c>
       <c r="E132">
         <v>129</v>
@@ -6806,7 +6700,7 @@
         <v>0</v>
       </c>
       <c r="M132" t="s">
-        <v>365</v>
+        <v>343</v>
       </c>
       <c r="N132" t="b">
         <v>0</v>
@@ -6814,10 +6708,10 @@
     </row>
     <row r="133" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B133" t="s">
-        <v>154</v>
+        <v>344</v>
       </c>
       <c r="C133" t="s">
-        <v>154</v>
+        <v>345</v>
       </c>
       <c r="E133">
         <v>130</v>
@@ -6838,7 +6732,7 @@
         <v>0</v>
       </c>
       <c r="M133" t="s">
-        <v>364</v>
+        <v>346</v>
       </c>
       <c r="N133" t="b">
         <v>0</v>
@@ -6846,10 +6740,10 @@
     </row>
     <row r="134" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B134" t="s">
-        <v>155</v>
+        <v>347</v>
       </c>
       <c r="C134" t="s">
-        <v>155</v>
+        <v>348</v>
       </c>
       <c r="E134">
         <v>131</v>
@@ -6870,7 +6764,7 @@
         <v>0</v>
       </c>
       <c r="M134" t="s">
-        <v>361</v>
+        <v>349</v>
       </c>
       <c r="N134" t="b">
         <v>0</v>
@@ -6878,10 +6772,10 @@
     </row>
     <row r="135" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B135" t="s">
-        <v>156</v>
+        <v>350</v>
       </c>
       <c r="C135" t="s">
-        <v>156</v>
+        <v>351</v>
       </c>
       <c r="E135">
         <v>132</v>
@@ -6902,7 +6796,7 @@
         <v>0</v>
       </c>
       <c r="M135" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
       <c r="N135" t="b">
         <v>0</v>
@@ -6910,10 +6804,10 @@
     </row>
     <row r="136" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B136" t="s">
-        <v>157</v>
+        <v>353</v>
       </c>
       <c r="C136" t="s">
-        <v>157</v>
+        <v>354</v>
       </c>
       <c r="E136">
         <v>133</v>
@@ -6934,7 +6828,7 @@
         <v>0</v>
       </c>
       <c r="M136" t="s">
-        <v>366</v>
+        <v>355</v>
       </c>
       <c r="N136" t="b">
         <v>0</v>
@@ -6942,10 +6836,10 @@
     </row>
     <row r="137" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B137" t="s">
-        <v>158</v>
+        <v>356</v>
       </c>
       <c r="C137" t="s">
-        <v>158</v>
+        <v>357</v>
       </c>
       <c r="E137">
         <v>134</v>
@@ -6966,7 +6860,7 @@
         <v>0</v>
       </c>
       <c r="M137" t="s">
-        <v>367</v>
+        <v>358</v>
       </c>
       <c r="N137" t="b">
         <v>0</v>
@@ -6974,10 +6868,10 @@
     </row>
     <row r="138" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B138" t="s">
-        <v>159</v>
+        <v>359</v>
       </c>
       <c r="C138" t="s">
-        <v>159</v>
+        <v>360</v>
       </c>
       <c r="E138">
         <v>135</v>
@@ -6998,7 +6892,7 @@
         <v>0</v>
       </c>
       <c r="M138" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="N138" t="b">
         <v>0</v>
@@ -7006,10 +6900,10 @@
     </row>
     <row r="139" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B139" t="s">
-        <v>160</v>
+        <v>362</v>
       </c>
       <c r="C139" t="s">
-        <v>160</v>
+        <v>363</v>
       </c>
       <c r="E139">
         <v>136</v>
@@ -7030,7 +6924,7 @@
         <v>0</v>
       </c>
       <c r="M139" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="N139" t="b">
         <v>0</v>
@@ -7038,10 +6932,10 @@
     </row>
     <row r="140" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B140" t="s">
-        <v>161</v>
+        <v>364</v>
       </c>
       <c r="C140" t="s">
-        <v>161</v>
+        <v>365</v>
       </c>
       <c r="E140">
         <v>137</v>
@@ -7062,7 +6956,7 @@
         <v>0</v>
       </c>
       <c r="M140" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="N140" t="b">
         <v>0</v>
@@ -7070,10 +6964,10 @@
     </row>
     <row r="141" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B141" t="s">
-        <v>162</v>
+        <v>367</v>
       </c>
       <c r="C141" t="s">
-        <v>162</v>
+        <v>368</v>
       </c>
       <c r="E141">
         <v>138</v>
@@ -7094,7 +6988,7 @@
         <v>0</v>
       </c>
       <c r="M141" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="N141" t="b">
         <v>0</v>
@@ -7102,10 +6996,10 @@
     </row>
     <row r="142" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B142" t="s">
-        <v>165</v>
+        <v>369</v>
       </c>
       <c r="C142" t="s">
-        <v>165</v>
+        <v>370</v>
       </c>
       <c r="E142">
         <v>139</v>
@@ -7126,7 +7020,7 @@
         <v>0</v>
       </c>
       <c r="M142" t="s">
-        <v>393</v>
+        <v>371</v>
       </c>
       <c r="N142" t="b">
         <v>0</v>
@@ -7134,10 +7028,10 @@
     </row>
     <row r="143" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B143" t="s">
-        <v>166</v>
+        <v>372</v>
       </c>
       <c r="C143" t="s">
-        <v>166</v>
+        <v>373</v>
       </c>
       <c r="E143">
         <v>140</v>
@@ -7158,7 +7052,7 @@
         <v>0</v>
       </c>
       <c r="M143" t="s">
-        <v>393</v>
+        <v>371</v>
       </c>
       <c r="N143" t="b">
         <v>0</v>
@@ -7166,10 +7060,10 @@
     </row>
     <row r="144" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B144" t="s">
-        <v>163</v>
+        <v>374</v>
       </c>
       <c r="C144" t="s">
-        <v>163</v>
+        <v>375</v>
       </c>
       <c r="E144">
         <v>141</v>
@@ -7190,7 +7084,7 @@
         <v>0</v>
       </c>
       <c r="M144" t="s">
-        <v>392</v>
+        <v>376</v>
       </c>
       <c r="N144" t="b">
         <v>0</v>
@@ -7198,10 +7092,10 @@
     </row>
     <row r="145" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B145" t="s">
-        <v>164</v>
+        <v>377</v>
       </c>
       <c r="C145" t="s">
-        <v>164</v>
+        <v>378</v>
       </c>
       <c r="E145">
         <v>142</v>
@@ -7222,28 +7116,28 @@
         <v>0</v>
       </c>
       <c r="M145" t="s">
-        <v>392</v>
+        <v>376</v>
       </c>
       <c r="N145" t="b">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:O145" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <autoFilter ref="A1:O145" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CF7FC9E-1911-4063-8600-A529D48BB6E9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="23.875" customWidth="1"/>
     <col min="3" max="3" width="13.75" customWidth="1"/>
@@ -7257,50 +7151,50 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>40</v>
+        <v>379</v>
       </c>
       <c r="C1" t="s">
-        <v>33</v>
+        <v>380</v>
       </c>
       <c r="D1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
+        <v>381</v>
+      </c>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>59</v>
+        <v>15</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>382</v>
       </c>
       <c r="C2" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
+        <v>17</v>
+      </c>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>39</v>
+        <v>383</v>
       </c>
       <c r="C3" t="s">
-        <v>35</v>
+        <v>384</v>
       </c>
       <c r="D3" t="s">
-        <v>36</v>
+        <v>385</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>56</v>
+        <v>386</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -7311,7 +7205,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>47</v>
+        <v>387</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -7322,7 +7216,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>48</v>
+        <v>388</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -7333,7 +7227,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>49</v>
+        <v>389</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -7344,7 +7238,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>52</v>
+        <v>390</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -7355,7 +7249,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
-        <v>55</v>
+        <v>391</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -7365,8 +7259,8 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B10" s="2" t="s">
-        <v>57</v>
+      <c r="B10" s="5" t="s">
+        <v>392</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -7376,20 +7270,20 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10D8AFCC-95AF-4A6B-815E-C005352AB991}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G42"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="17.625" customWidth="1"/>
     <col min="3" max="3" width="14" customWidth="1"/>
@@ -7404,607 +7298,607 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>51</v>
+      <c r="B1" s="1" t="s">
+        <v>393</v>
       </c>
       <c r="C1" t="s">
-        <v>23</v>
+        <v>394</v>
       </c>
       <c r="D1" t="s">
-        <v>25</v>
+        <v>395</v>
       </c>
       <c r="E1" t="s">
-        <v>27</v>
+        <v>396</v>
       </c>
       <c r="F1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>53</v>
+        <v>397</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>398</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>3</v>
+        <v>15</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="C2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>2</v>
+        <v>16</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>50</v>
+      <c r="B3" s="1" t="s">
+        <v>400</v>
       </c>
       <c r="C3" t="s">
+        <v>401</v>
+      </c>
+      <c r="D3" t="s">
+        <v>402</v>
+      </c>
+      <c r="E3" t="s">
+        <v>403</v>
+      </c>
+      <c r="F3" t="s">
+        <v>404</v>
+      </c>
+      <c r="G3" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B4" s="3">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>406</v>
+      </c>
+      <c r="E4" t="s">
+        <v>407</v>
+      </c>
+      <c r="G4" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B5" s="3">
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>409</v>
+      </c>
+      <c r="E5" t="s">
+        <v>410</v>
+      </c>
+      <c r="G5" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B6" s="3">
+        <v>3</v>
+      </c>
+      <c r="C6" t="s">
+        <v>412</v>
+      </c>
+      <c r="E6" t="s">
+        <v>413</v>
+      </c>
+      <c r="G6" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B7" s="3">
+        <v>4</v>
+      </c>
+      <c r="C7" t="s">
+        <v>406</v>
+      </c>
+      <c r="E7" t="s">
+        <v>415</v>
+      </c>
+      <c r="G7" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B8" s="3">
+        <v>5</v>
+      </c>
+      <c r="C8" t="s">
+        <v>409</v>
+      </c>
+      <c r="E8" t="s">
+        <v>416</v>
+      </c>
+      <c r="G8" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B9" s="3">
+        <v>6</v>
+      </c>
+      <c r="C9" t="s">
+        <v>412</v>
+      </c>
+      <c r="E9" t="s">
+        <v>417</v>
+      </c>
+      <c r="G9" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B10" s="3">
+        <v>7</v>
+      </c>
+      <c r="C10" t="s">
+        <v>418</v>
+      </c>
+      <c r="E10" t="s">
+        <v>146</v>
+      </c>
+      <c r="G10" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B11" s="3">
+        <v>8</v>
+      </c>
+      <c r="C11" t="s">
+        <v>420</v>
+      </c>
+      <c r="E11" t="s">
+        <v>153</v>
+      </c>
+      <c r="G11" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B12" s="3">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>422</v>
+      </c>
+      <c r="F12" t="s">
+        <v>423</v>
+      </c>
+      <c r="G12" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B13" s="3">
+        <v>10</v>
+      </c>
+      <c r="C13" t="s">
+        <v>425</v>
+      </c>
+      <c r="F13" t="s">
+        <v>426</v>
+      </c>
+      <c r="G13" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B14" s="3">
+        <v>11</v>
+      </c>
+      <c r="C14" t="s">
+        <v>428</v>
+      </c>
+      <c r="F14" t="s">
+        <v>423</v>
+      </c>
+      <c r="G14" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B15" s="3">
+        <v>12</v>
+      </c>
+      <c r="C15" t="s">
+        <v>430</v>
+      </c>
+      <c r="F15" t="s">
+        <v>431</v>
+      </c>
+      <c r="G15" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B16" s="3">
+        <v>13</v>
+      </c>
+      <c r="C16" t="s">
+        <v>433</v>
+      </c>
+      <c r="F16" t="s">
+        <v>423</v>
+      </c>
+      <c r="G16" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B17" s="3">
+        <v>14</v>
+      </c>
+      <c r="C17" t="s">
+        <v>435</v>
+      </c>
+      <c r="F17" t="s">
+        <v>436</v>
+      </c>
+      <c r="G17" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B18" s="3">
+        <v>15</v>
+      </c>
+      <c r="C18" t="s">
+        <v>435</v>
+      </c>
+      <c r="F18" t="s">
+        <v>436</v>
+      </c>
+      <c r="G18" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B19" s="3">
+        <v>16</v>
+      </c>
+      <c r="C19" t="s">
+        <v>438</v>
+      </c>
+      <c r="F19" t="s">
+        <v>426</v>
+      </c>
+      <c r="G19" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B20" s="3">
+        <v>17</v>
+      </c>
+      <c r="C20" t="s">
+        <v>435</v>
+      </c>
+      <c r="F20" t="s">
+        <v>436</v>
+      </c>
+      <c r="G20" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B21" s="3">
+        <v>18</v>
+      </c>
+      <c r="C21" t="s">
+        <v>439</v>
+      </c>
+      <c r="F21" t="s">
+        <v>431</v>
+      </c>
+      <c r="G21" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B22" s="3">
+        <v>19</v>
+      </c>
+      <c r="C22" t="s">
+        <v>438</v>
+      </c>
+      <c r="F22" t="s">
+        <v>426</v>
+      </c>
+      <c r="G22" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B23" s="3">
+        <v>20</v>
+      </c>
+      <c r="C23" t="s">
+        <v>439</v>
+      </c>
+      <c r="F23" t="s">
+        <v>431</v>
+      </c>
+      <c r="G23" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B24" s="3">
+        <v>21</v>
+      </c>
+      <c r="C24" t="s">
+        <v>440</v>
+      </c>
+      <c r="F24" t="s">
+        <v>131</v>
+      </c>
+      <c r="G24" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B25" s="3">
+        <v>22</v>
+      </c>
+      <c r="C25" t="s">
+        <v>441</v>
+      </c>
+      <c r="F25" t="s">
+        <v>134</v>
+      </c>
+      <c r="G25" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B26" s="3">
+        <v>23</v>
+      </c>
+      <c r="C26" t="s">
+        <v>440</v>
+      </c>
+      <c r="F26" t="s">
+        <v>131</v>
+      </c>
+      <c r="G26" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B27" s="3">
         <v>24</v>
       </c>
-      <c r="D3" t="s">
+      <c r="C27" t="s">
+        <v>442</v>
+      </c>
+      <c r="F27" t="s">
+        <v>137</v>
+      </c>
+      <c r="G27" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B28" s="3">
+        <v>25</v>
+      </c>
+      <c r="C28" t="s">
+        <v>442</v>
+      </c>
+      <c r="F28" t="s">
+        <v>137</v>
+      </c>
+      <c r="G28" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B29" s="3">
         <v>26</v>
       </c>
-      <c r="E3" t="s">
+      <c r="C29" t="s">
+        <v>441</v>
+      </c>
+      <c r="F29" t="s">
+        <v>134</v>
+      </c>
+      <c r="G29" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B30" s="3">
+        <v>27</v>
+      </c>
+      <c r="C30" t="s">
+        <v>443</v>
+      </c>
+      <c r="F30" t="s">
+        <v>444</v>
+      </c>
+      <c r="G30" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B31" s="3">
         <v>28</v>
       </c>
-      <c r="F3" t="s">
+      <c r="C31" t="s">
+        <v>445</v>
+      </c>
+      <c r="F31" t="s">
+        <v>446</v>
+      </c>
+      <c r="G31" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B32" s="3">
+        <v>29</v>
+      </c>
+      <c r="C32" t="s">
+        <v>447</v>
+      </c>
+      <c r="G32" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B33" s="3">
         <v>30</v>
       </c>
-      <c r="G3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B4" s="5">
-        <v>1</v>
-      </c>
-      <c r="C4" t="s">
-        <v>261</v>
-      </c>
-      <c r="E4" t="s">
-        <v>400</v>
-      </c>
-      <c r="G4" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B5" s="5">
-        <v>2</v>
-      </c>
-      <c r="C5" t="s">
-        <v>270</v>
-      </c>
-      <c r="E5" t="s">
-        <v>401</v>
-      </c>
-      <c r="G5" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B6" s="5">
-        <v>3</v>
-      </c>
-      <c r="C6" t="s">
-        <v>268</v>
-      </c>
-      <c r="E6" t="s">
-        <v>402</v>
-      </c>
-      <c r="G6" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B7" s="5">
-        <v>4</v>
-      </c>
-      <c r="C7" t="s">
-        <v>261</v>
-      </c>
-      <c r="E7" t="s">
-        <v>403</v>
-      </c>
-      <c r="G7" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B8" s="5">
-        <v>5</v>
-      </c>
-      <c r="C8" t="s">
-        <v>270</v>
-      </c>
-      <c r="E8" t="s">
-        <v>404</v>
-      </c>
-      <c r="G8" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B9" s="5">
-        <v>6</v>
-      </c>
-      <c r="C9" t="s">
-        <v>268</v>
-      </c>
-      <c r="E9" t="s">
-        <v>405</v>
-      </c>
-      <c r="G9" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B10" s="5">
-        <v>7</v>
-      </c>
-      <c r="C10" t="s">
-        <v>273</v>
-      </c>
-      <c r="E10" t="s">
-        <v>206</v>
-      </c>
-      <c r="G10" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B11" s="5">
-        <v>8</v>
-      </c>
-      <c r="C11" t="s">
-        <v>274</v>
-      </c>
-      <c r="E11" t="s">
-        <v>207</v>
-      </c>
-      <c r="G11" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B12" s="5">
-        <v>9</v>
-      </c>
-      <c r="C12" t="s">
-        <v>281</v>
-      </c>
-      <c r="F12" t="s">
-        <v>412</v>
-      </c>
-      <c r="G12" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B13" s="5">
-        <v>10</v>
-      </c>
-      <c r="C13" t="s">
-        <v>282</v>
-      </c>
-      <c r="F13" t="s">
-        <v>413</v>
-      </c>
-      <c r="G13" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B14" s="5">
-        <v>11</v>
-      </c>
-      <c r="C14" t="s">
-        <v>289</v>
-      </c>
-      <c r="F14" t="s">
-        <v>412</v>
-      </c>
-      <c r="G14" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B15" s="5">
-        <v>12</v>
-      </c>
-      <c r="C15" t="s">
-        <v>290</v>
-      </c>
-      <c r="F15" t="s">
-        <v>414</v>
-      </c>
-      <c r="G15" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B16" s="5">
-        <v>13</v>
-      </c>
-      <c r="C16" t="s">
-        <v>291</v>
-      </c>
-      <c r="F16" t="s">
-        <v>412</v>
-      </c>
-      <c r="G16" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B17" s="5">
-        <v>14</v>
-      </c>
-      <c r="C17" t="s">
-        <v>292</v>
-      </c>
-      <c r="F17" t="s">
-        <v>415</v>
-      </c>
-      <c r="G17" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B18" s="5">
-        <v>15</v>
-      </c>
-      <c r="C18" t="s">
-        <v>295</v>
-      </c>
-      <c r="F18" t="s">
-        <v>415</v>
-      </c>
-      <c r="G18" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B19" s="5">
-        <v>16</v>
-      </c>
-      <c r="C19" t="s">
-        <v>296</v>
-      </c>
-      <c r="F19" t="s">
-        <v>413</v>
-      </c>
-      <c r="G19" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B20" s="5">
-        <v>17</v>
-      </c>
-      <c r="C20" t="s">
-        <v>295</v>
-      </c>
-      <c r="F20" t="s">
-        <v>415</v>
-      </c>
-      <c r="G20" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B21" s="5">
-        <v>18</v>
-      </c>
-      <c r="C21" t="s">
-        <v>297</v>
-      </c>
-      <c r="F21" t="s">
-        <v>414</v>
-      </c>
-      <c r="G21" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B22" s="5">
-        <v>19</v>
-      </c>
-      <c r="C22" t="s">
-        <v>296</v>
-      </c>
-      <c r="F22" t="s">
-        <v>413</v>
-      </c>
-      <c r="G22" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B23" s="5">
-        <v>20</v>
-      </c>
-      <c r="C23" t="s">
-        <v>297</v>
-      </c>
-      <c r="F23" t="s">
-        <v>414</v>
-      </c>
-      <c r="G23" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B24" s="5">
-        <v>21</v>
-      </c>
-      <c r="C24" t="s">
-        <v>309</v>
-      </c>
-      <c r="F24" t="s">
-        <v>218</v>
-      </c>
-      <c r="G24" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B25" s="5">
-        <v>22</v>
-      </c>
-      <c r="C25" t="s">
-        <v>310</v>
-      </c>
-      <c r="F25" t="s">
-        <v>219</v>
-      </c>
-      <c r="G25" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B26" s="5">
-        <v>23</v>
-      </c>
-      <c r="C26" t="s">
-        <v>309</v>
-      </c>
-      <c r="F26" t="s">
-        <v>218</v>
-      </c>
-      <c r="G26" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B27" s="5">
-        <v>24</v>
-      </c>
-      <c r="C27" t="s">
-        <v>311</v>
-      </c>
-      <c r="F27" t="s">
-        <v>220</v>
-      </c>
-      <c r="G27" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B28" s="5">
-        <v>25</v>
-      </c>
-      <c r="C28" t="s">
-        <v>311</v>
-      </c>
-      <c r="F28" t="s">
-        <v>220</v>
-      </c>
-      <c r="G28" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B29" s="5">
-        <v>26</v>
-      </c>
-      <c r="C29" t="s">
-        <v>310</v>
-      </c>
-      <c r="F29" t="s">
-        <v>219</v>
-      </c>
-      <c r="G29" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B30" s="5">
-        <v>27</v>
-      </c>
-      <c r="C30" t="s">
-        <v>317</v>
-      </c>
-      <c r="F30" t="s">
-        <v>411</v>
-      </c>
-      <c r="G30" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B31" s="5">
-        <v>28</v>
-      </c>
-      <c r="C31" t="s">
-        <v>318</v>
-      </c>
-      <c r="F31" t="s">
-        <v>406</v>
-      </c>
-      <c r="G31" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B32" s="5">
-        <v>29</v>
-      </c>
-      <c r="C32" t="s">
-        <v>316</v>
-      </c>
-      <c r="G32" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B33" s="5">
-        <v>30</v>
-      </c>
       <c r="C33" t="s">
-        <v>319</v>
+        <v>448</v>
       </c>
       <c r="F33" t="s">
-        <v>407</v>
+        <v>449</v>
       </c>
       <c r="G33" t="s">
-        <v>319</v>
+        <v>448</v>
       </c>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B34" s="5">
+      <c r="B34" s="3">
         <v>31</v>
       </c>
       <c r="C34" t="s">
-        <v>320</v>
+        <v>450</v>
       </c>
       <c r="F34" t="s">
-        <v>408</v>
+        <v>451</v>
       </c>
       <c r="G34" t="s">
-        <v>320</v>
+        <v>450</v>
       </c>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B35" s="5">
+      <c r="B35" s="3">
         <v>32</v>
       </c>
       <c r="C35" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
       <c r="G35" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B36" s="5">
+      <c r="B36" s="3">
         <v>33</v>
       </c>
       <c r="C36" t="s">
-        <v>321</v>
+        <v>452</v>
       </c>
       <c r="F36" t="s">
-        <v>409</v>
+        <v>453</v>
       </c>
       <c r="G36" t="s">
-        <v>321</v>
+        <v>452</v>
       </c>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B37" s="5">
+      <c r="B37" s="3">
         <v>34</v>
       </c>
       <c r="C37" t="s">
-        <v>322</v>
+        <v>454</v>
       </c>
       <c r="F37" t="s">
-        <v>410</v>
+        <v>455</v>
       </c>
       <c r="G37" t="s">
-        <v>322</v>
+        <v>454</v>
       </c>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B38" s="5">
+      <c r="B38" s="3">
         <v>35</v>
       </c>
       <c r="C38" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
       <c r="G38" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B39" s="5">
+      <c r="B39" s="3">
         <v>71</v>
       </c>
       <c r="C39" t="s">
-        <v>264</v>
+        <v>456</v>
       </c>
       <c r="F39" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="G39" t="s">
-        <v>265</v>
+        <v>457</v>
       </c>
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B40" s="5">
+      <c r="B40" s="3">
         <v>72</v>
       </c>
       <c r="C40" t="s">
-        <v>275</v>
+        <v>458</v>
       </c>
       <c r="E40" t="s">
-        <v>208</v>
+        <v>159</v>
       </c>
       <c r="G40" t="s">
-        <v>279</v>
+        <v>459</v>
       </c>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B41" s="5">
+      <c r="B41" s="3">
         <v>73</v>
       </c>
       <c r="C41" t="s">
-        <v>276</v>
+        <v>460</v>
       </c>
       <c r="E41" t="s">
-        <v>209</v>
+        <v>163</v>
       </c>
       <c r="G41" t="s">
-        <v>280</v>
+        <v>461</v>
       </c>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B42" s="5">
+      <c r="B42" s="3">
         <v>74</v>
       </c>
       <c r="C42" t="s">
-        <v>312</v>
+        <v>462</v>
       </c>
       <c r="G42" t="s">
-        <v>312</v>
+        <v>462</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Luban/Config/Datas/Root/EventConfig.xlsx
+++ b/Luban/Config/Datas/Root/EventConfig.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26026"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Game\RootsPinkShark\Luban\Config\Datas\Root\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5141F1FF-E028-4CC9-8E64-A37088D559E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowHeight="17340" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Event" sheetId="1" r:id="rId1"/>
@@ -25,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="691" uniqueCount="467">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="691" uniqueCount="479">
   <si>
     <t>##</t>
   </si>
@@ -157,6 +151,9 @@
   </si>
   <si>
     <t>生孩子-早期</t>
+  </si>
+  <si>
+    <t>生孩子</t>
   </si>
   <si>
     <t>HAS_PARTENER,1,0</t>
@@ -540,9 +537,7 @@
     <t>属性2选1-修为/神识</t>
   </si>
   <si>
-    <t>夏日炎炎，你在一颗参天灵书下午睡。一泡液体从树上落下，正好进入你的最终。起初你以为是猴子在树上撒尿，没想到液体进入体内，罕见的无属性的灵气充满四肢百骸。这种灵气即可提升修为，亦可提升神识。
-A.将灵气转为修为：你的修为增加了。
-B.将灵气转为神识：你的神识增强了。</t>
+    <t>夏日炎炎，你在一颗参天灵书下午睡。一泡液体从树上落下，正好进入你的最终。起初你以为是猴子在树上撒尿，没想到液体进入体内，罕见的无属性的灵气充满四肢百骸。这种灵气即可提升修为，亦可提升神识。</t>
   </si>
   <si>
     <t>21,22</t>
@@ -551,9 +546,7 @@
     <t>属性2选1-修为/博闻</t>
   </si>
   <si>
-    <t>参加修者擂台赛获得冠军，冠军的奖品是幸福二选一。其一是可以增加修为的修炼灵石，其二是一条关于当今圣上的大秘密，可增强博闻。
-A.选择灵石：你的修为增加了。
-B.选择大秘密：奇怪的知识增加了，博闻也增强了。</t>
+    <t>参加修者擂台赛获得冠军，冠军的奖品是幸福二选一。其一是可以增加修为的修炼灵石，其二是一条关于当今圣上的大秘密，可增强博闻。</t>
   </si>
   <si>
     <t>23,24</t>
@@ -562,9 +555,7 @@
     <t>属性2选1-博闻/神识</t>
   </si>
   <si>
-    <t>官道旁救下差点跌下悬崖的旅人，在拒绝了对方以身相许的酬谢后。对方拿出两颗丹药，让你选一颗作为谢礼。这两枚丹药一颗可增加博闻，一颗可增强神识。
-A.选择博闻丹：服下丹药后你的博闻增加了。
-B.选择神识丹：服下丹药后你的神识增强了。</t>
+    <t>官道旁救下差点跌下悬崖的旅人，在拒绝了对方以身相许的酬谢后。对方拿出两颗丹药，让你选一颗作为谢礼。这两枚丹药一颗可增加博闻，一颗可增强神识。</t>
   </si>
   <si>
     <t>25,26</t>
@@ -573,10 +564,7 @@
     <t>要不要属性转换-博闻神识相互转</t>
   </si>
   <si>
-    <t>与一位有趣的修者成为了朋友，他掌握了将博闻神识互相转换的功法，他愿意祝你进行属性转换。
-A.将博闻转为神识：你的部分博闻转换为了神识。
-B.将神识转为博闻：你的部分神识转化为了博闻。
-C.让这位朋友滚蛋：这位修者幽怨的看了你一眼，然后就离开了。</t>
+    <t>与一位有趣的修者成为了朋友，他掌握了将博闻神识互相转换的功法，他愿意祝你进行属性转换。</t>
   </si>
   <si>
     <t>27,28,74</t>
@@ -585,10 +573,7 @@
     <t>要不要属性转换-博闻修为相互转</t>
   </si>
   <si>
-    <t>在一座古墓中发现了寒玉床，坐其上修炼可将博闻与修为任意转换。
-A.将博闻转为修为：你的部分博闻转换为了修为。
-B.将修为转为博闻：你的部分修为转换为了博闻。
-C.寒玉床太冷不想用：离开古墓时你打了一个喷嚏。</t>
+    <t>在一座古墓中发现了寒玉床，坐其上修炼可将博闻与修为任意转换。</t>
   </si>
   <si>
     <t>30,31,74</t>
@@ -597,10 +582,7 @@
     <t>要不要属性转换-修为神识相互转</t>
   </si>
   <si>
-    <t>集市上一位寒酸的老者，想要用一枚灵丹换你手中的豆沙包，你觉得是比划算卖买，于是同意了交换。服下丹药后你发现这枚丹药竟然能让修者在短时间内将神识与修为互相转换。
-A.将神识转为修为：你的部分甚至转换为了修为。
-B.将修为转为神识：你的部分修为转换为了神识。
-C.这丹药的味道像答辩：你转身吐了出来，白白浪费了换灵药的豆沙包。</t>
+    <t>集市上一位寒酸的老者，想要用一枚灵丹换你手中的豆沙包，你觉得是比划算卖买，于是同意了交换。服下丹药后你发现这枚丹药竟然能让修者在短时间内将神识与修为互相转换。</t>
   </si>
   <si>
     <t>33,34,74</t>
@@ -1377,54 +1359,99 @@
     <t>佛</t>
   </si>
   <si>
-    <t>修为</t>
-  </si>
-  <si>
-    <t>神识</t>
-  </si>
-  <si>
-    <t>博闻</t>
-  </si>
-  <si>
-    <t>博闻转神识</t>
+    <t>A.将灵气转为修为：</t>
+  </si>
+  <si>
+    <t>你的修为增加了。</t>
+  </si>
+  <si>
+    <t>B.将灵气转为神识：</t>
+  </si>
+  <si>
+    <t>你的神识增强了。</t>
+  </si>
+  <si>
+    <t>A.选择灵石：</t>
+  </si>
+  <si>
+    <t>B.选择大秘密：</t>
+  </si>
+  <si>
+    <t>奇怪的知识增加了，博闻也增强了。</t>
+  </si>
+  <si>
+    <t>A.选择博闻丹：</t>
+  </si>
+  <si>
+    <t>服下丹药后你的博闻增加了。</t>
+  </si>
+  <si>
+    <t>B.选择神识丹：</t>
+  </si>
+  <si>
+    <t>服下丹药后你的神识增强了。</t>
+  </si>
+  <si>
+    <t>A.将博闻转为神识：</t>
   </si>
   <si>
     <t>GROWTH,3,-1;GROWTH,2,1</t>
   </si>
   <si>
-    <t>神识转博闻</t>
+    <t>你的部分博闻转换为了神识。</t>
+  </si>
+  <si>
+    <t>B.将神识转为博闻：</t>
   </si>
   <si>
     <t>GROWTH,2,-1;GROWTH,3,1</t>
   </si>
   <si>
+    <t>你的部分神识转化为了博闻。</t>
+  </si>
+  <si>
     <t>空</t>
   </si>
   <si>
-    <t>博闻转修为</t>
+    <t>A.将博闻转为修为：</t>
   </si>
   <si>
     <t>GROWTH,3,-1;GROWTH,1,1</t>
   </si>
   <si>
-    <t>修为转博闻</t>
+    <t>你的部分博闻转换为了修为。</t>
+  </si>
+  <si>
+    <t>B.将修为转为博闻：</t>
   </si>
   <si>
     <t>GROWTH,1,-1;GROWTH,3,1</t>
   </si>
   <si>
-    <t>修为转神识</t>
+    <t>你的部分修为转换为了博闻。</t>
+  </si>
+  <si>
+    <t>A.将神识转为修为：</t>
   </si>
   <si>
     <t>GROWTH,1,-1;GROWTH,2,1</t>
   </si>
   <si>
-    <t>神识转修为</t>
+    <t>你的部分甚至转换为了修为。</t>
+  </si>
+  <si>
+    <t>B.将修为转为神识：</t>
   </si>
   <si>
     <t>GROWTH,2,-1;GROWTH,1,1</t>
   </si>
   <si>
+    <t>你的部分修为转换为了神识。</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
     <t>来啊！我就是要肉身硬抗雷劫！</t>
   </si>
   <si>
@@ -1444,36 +1471,19 @@
   </si>
   <si>
     <t>什么都不做</t>
-  </si>
-  <si>
-    <t>出生了</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>理解了什么是道德，什么是自己的本心</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>佳偶天成，在一次偶然的事件中，你与他结为伴侣</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>孩子出生了</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1488,28 +1498,151 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1522,8 +1655,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -1575,48 +1894,336 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1874,22 +2481,22 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:O145"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="C67" sqref="C67"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="2" max="2" width="28.875" customWidth="1"/>
-    <col min="3" max="3" width="131.875" customWidth="1"/>
+    <col min="2" max="2" width="28.9" customWidth="1"/>
+    <col min="3" max="3" width="131.841666666667" customWidth="1"/>
     <col min="4" max="4" width="16.75" customWidth="1"/>
     <col min="5" max="5" width="8.375" customWidth="1"/>
     <col min="6" max="6" width="13.875" customWidth="1"/>
@@ -1903,7 +2510,7 @@
     <col min="14" max="14" width="18.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1950,7 +2557,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -1997,7 +2604,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -2044,12 +2651,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:14">
       <c r="B4" t="s">
         <v>36</v>
       </c>
-      <c r="C4" s="10" t="s">
-        <v>463</v>
+      <c r="C4" t="s">
+        <v>36</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -2076,12 +2683,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:14">
       <c r="B5" t="s">
         <v>38</v>
       </c>
-      <c r="C5" s="10" t="s">
-        <v>464</v>
+      <c r="C5" t="s">
+        <v>38</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -2108,12 +2715,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:15">
       <c r="B6" t="s">
         <v>40</v>
       </c>
-      <c r="C6" s="10" t="s">
-        <v>465</v>
+      <c r="C6" t="s">
+        <v>40</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -2146,12 +2753,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:15">
       <c r="B7" t="s">
         <v>43</v>
       </c>
-      <c r="C7" s="10" t="s">
-        <v>466</v>
+      <c r="C7" t="s">
+        <v>44</v>
       </c>
       <c r="E7">
         <v>4</v>
@@ -2172,10 +2779,10 @@
         <v>0</v>
       </c>
       <c r="K7" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="M7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="N7" t="b">
         <v>1</v>
@@ -2184,12 +2791,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:15">
       <c r="B8" t="s">
-        <v>46</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>466</v>
+        <v>47</v>
+      </c>
+      <c r="C8" t="s">
+        <v>44</v>
       </c>
       <c r="E8">
         <v>5</v>
@@ -2210,10 +2817,10 @@
         <v>0</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="M8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="N8" t="b">
         <v>1</v>
@@ -2222,12 +2829,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:15">
       <c r="B9" t="s">
-        <v>46</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>466</v>
+        <v>47</v>
+      </c>
+      <c r="C9" t="s">
+        <v>44</v>
       </c>
       <c r="E9">
         <v>6</v>
@@ -2248,10 +2855,10 @@
         <v>0</v>
       </c>
       <c r="K9" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="M9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="N9" t="b">
         <v>1</v>
@@ -2260,12 +2867,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:15">
       <c r="B10" t="s">
-        <v>46</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>466</v>
+        <v>47</v>
+      </c>
+      <c r="C10" t="s">
+        <v>44</v>
       </c>
       <c r="E10">
         <v>7</v>
@@ -2286,10 +2893,10 @@
         <v>0</v>
       </c>
       <c r="K10" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="M10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="N10" t="b">
         <v>1</v>
@@ -2298,12 +2905,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:15">
       <c r="B11" t="s">
-        <v>47</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>466</v>
+        <v>48</v>
+      </c>
+      <c r="C11" t="s">
+        <v>44</v>
       </c>
       <c r="E11">
         <v>8</v>
@@ -2324,10 +2931,10 @@
         <v>0</v>
       </c>
       <c r="K11" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="M11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="N11" t="b">
         <v>1</v>
@@ -2336,12 +2943,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:14">
       <c r="B12" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C12" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E12">
         <v>9</v>
@@ -2362,21 +2969,21 @@
         <v>99</v>
       </c>
       <c r="K12" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L12" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="N12" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:14">
       <c r="B13" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C13" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E13">
         <v>10</v>
@@ -2397,21 +3004,21 @@
         <v>99</v>
       </c>
       <c r="K13" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L13" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="N13" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:14">
       <c r="B14" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C14" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E14">
         <v>11</v>
@@ -2432,21 +3039,21 @@
         <v>99</v>
       </c>
       <c r="K14" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L14" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="N14" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:14">
       <c r="B15" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C15" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E15">
         <v>12</v>
@@ -2467,21 +3074,21 @@
         <v>99</v>
       </c>
       <c r="K15" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M15" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="N15" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:15">
       <c r="B16" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C16" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E16">
         <v>13</v>
@@ -2502,10 +3109,10 @@
         <v>0</v>
       </c>
       <c r="K16" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M16" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="N16" t="b">
         <v>1</v>
@@ -2514,12 +3121,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:15">
       <c r="B17" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C17" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E17">
         <v>14</v>
@@ -2540,10 +3147,10 @@
         <v>0</v>
       </c>
       <c r="K17" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="M17" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="N17" t="b">
         <v>1</v>
@@ -2552,12 +3159,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:15">
       <c r="B18" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C18" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E18">
         <v>15</v>
@@ -2578,10 +3185,10 @@
         <v>0</v>
       </c>
       <c r="K18" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="M18" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="N18" t="b">
         <v>1</v>
@@ -2590,12 +3197,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:15">
       <c r="B19" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C19" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E19">
         <v>16</v>
@@ -2616,10 +3223,10 @@
         <v>0</v>
       </c>
       <c r="K19" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M19" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="N19" t="b">
         <v>1</v>
@@ -2628,12 +3235,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:15">
       <c r="B20" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C20" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E20">
         <v>17</v>
@@ -2654,10 +3261,10 @@
         <v>0</v>
       </c>
       <c r="K20" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M20" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="N20" t="b">
         <v>1</v>
@@ -2666,12 +3273,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:15">
       <c r="B21" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C21" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E21">
         <v>18</v>
@@ -2692,10 +3299,10 @@
         <v>0</v>
       </c>
       <c r="K21" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M21" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="N21" t="b">
         <v>1</v>
@@ -2704,12 +3311,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="22" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:15">
       <c r="B22" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C22" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E22">
         <v>19</v>
@@ -2730,10 +3337,10 @@
         <v>0</v>
       </c>
       <c r="K22" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M22" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="N22" t="b">
         <v>1</v>
@@ -2742,12 +3349,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:15">
       <c r="B23" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C23" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E23">
         <v>20</v>
@@ -2768,10 +3375,10 @@
         <v>0</v>
       </c>
       <c r="K23" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M23" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="N23" t="b">
         <v>1</v>
@@ -2780,12 +3387,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="24" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:15">
       <c r="B24" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C24" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E24">
         <v>21</v>
@@ -2806,10 +3413,10 @@
         <v>0</v>
       </c>
       <c r="K24" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M24" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="N24" t="b">
         <v>1</v>
@@ -2818,12 +3425,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:15">
       <c r="B25" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C25" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E25">
         <v>22</v>
@@ -2844,10 +3451,10 @@
         <v>0</v>
       </c>
       <c r="K25" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M25" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="N25" t="b">
         <v>1</v>
@@ -2856,12 +3463,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="26" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:15">
       <c r="B26" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C26" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E26">
         <v>23</v>
@@ -2882,10 +3489,10 @@
         <v>0</v>
       </c>
       <c r="K26" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M26" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="N26" t="b">
         <v>1</v>
@@ -2894,12 +3501,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="27" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:15">
       <c r="B27" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C27" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E27">
         <v>24</v>
@@ -2920,10 +3527,10 @@
         <v>0</v>
       </c>
       <c r="K27" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M27" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="N27" t="b">
         <v>1</v>
@@ -2932,12 +3539,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="28" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:15">
       <c r="B28" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C28" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E28">
         <v>25</v>
@@ -2958,10 +3565,10 @@
         <v>0</v>
       </c>
       <c r="K28" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M28" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="N28" t="b">
         <v>1</v>
@@ -2970,12 +3577,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="29" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:15">
       <c r="B29" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C29" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E29">
         <v>26</v>
@@ -2996,10 +3603,10 @@
         <v>0</v>
       </c>
       <c r="K29" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M29" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="N29" t="b">
         <v>1</v>
@@ -3008,12 +3615,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="30" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:15">
       <c r="B30" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C30" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E30">
         <v>27</v>
@@ -3034,10 +3641,10 @@
         <v>0</v>
       </c>
       <c r="K30" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M30" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="N30" t="b">
         <v>1</v>
@@ -3046,12 +3653,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="31" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:15">
       <c r="B31" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C31" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E31">
         <v>28</v>
@@ -3072,10 +3679,10 @@
         <v>0</v>
       </c>
       <c r="K31" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M31" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="N31" t="b">
         <v>1</v>
@@ -3084,12 +3691,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="32" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:15">
       <c r="B32" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C32" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E32">
         <v>29</v>
@@ -3110,10 +3717,10 @@
         <v>0</v>
       </c>
       <c r="K32" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L32" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="N32" t="b">
         <v>1</v>
@@ -3122,12 +3729,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:15">
       <c r="B33" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C33" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E33">
         <v>30</v>
@@ -3148,10 +3755,10 @@
         <v>0</v>
       </c>
       <c r="K33" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L33" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="N33" t="b">
         <v>1</v>
@@ -3160,12 +3767,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:15">
       <c r="B34" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C34" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E34">
         <v>31</v>
@@ -3186,10 +3793,10 @@
         <v>0</v>
       </c>
       <c r="K34" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L34" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="N34" t="b">
         <v>1</v>
@@ -3198,12 +3805,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:15">
       <c r="B35" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C35" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E35">
         <v>32</v>
@@ -3224,10 +3831,10 @@
         <v>0</v>
       </c>
       <c r="K35" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L35" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="N35" t="b">
         <v>1</v>
@@ -3236,12 +3843,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="36" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:15">
       <c r="B36" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C36" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E36">
         <v>33</v>
@@ -3262,10 +3869,10 @@
         <v>0</v>
       </c>
       <c r="K36" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L36" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="N36" t="b">
         <v>1</v>
@@ -3274,12 +3881,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:15">
       <c r="B37" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C37" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E37">
         <v>34</v>
@@ -3300,10 +3907,10 @@
         <v>0</v>
       </c>
       <c r="K37" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L37" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="N37" t="b">
         <v>1</v>
@@ -3312,12 +3919,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15">
       <c r="B38" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C38" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E38">
         <v>35</v>
@@ -3338,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="K38" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="M38" s="4" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="N38" t="b">
         <v>1</v>
@@ -3350,12 +3957,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:15">
       <c r="B39" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C39" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E39">
         <v>36</v>
@@ -3376,10 +3983,10 @@
         <v>0</v>
       </c>
       <c r="K39" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="M39" s="4" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="N39" t="b">
         <v>1</v>
@@ -3388,12 +3995,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:15">
       <c r="B40" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C40" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E40">
         <v>37</v>
@@ -3414,10 +4021,10 @@
         <v>0</v>
       </c>
       <c r="K40" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="M40" s="4" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="N40" t="b">
         <v>1</v>
@@ -3426,12 +4033,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:15">
       <c r="B41" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C41" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E41">
         <v>38</v>
@@ -3452,10 +4059,10 @@
         <v>0</v>
       </c>
       <c r="K41" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="M41" s="4" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="N41" t="b">
         <v>1</v>
@@ -3464,12 +4071,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:15">
       <c r="B42" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C42" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E42">
         <v>39</v>
@@ -3490,10 +4097,10 @@
         <v>0</v>
       </c>
       <c r="K42" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="M42" s="4" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="N42" t="b">
         <v>1</v>
@@ -3502,12 +4109,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:15">
       <c r="B43" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C43" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E43">
         <v>40</v>
@@ -3528,10 +4135,10 @@
         <v>0</v>
       </c>
       <c r="K43" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M43" s="4" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="N43" t="b">
         <v>1</v>
@@ -3540,12 +4147,12 @@
         <v>150</v>
       </c>
     </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:15">
       <c r="B44" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C44" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E44">
         <v>41</v>
@@ -3566,10 +4173,10 @@
         <v>0</v>
       </c>
       <c r="K44" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M44" s="4" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="N44" t="b">
         <v>1</v>
@@ -3578,12 +4185,12 @@
         <v>150</v>
       </c>
     </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:15">
       <c r="B45" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C45" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E45">
         <v>42</v>
@@ -3604,10 +4211,10 @@
         <v>0</v>
       </c>
       <c r="K45" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M45" s="4" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="N45" t="b">
         <v>1</v>
@@ -3616,12 +4223,12 @@
         <v>150</v>
       </c>
     </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:15">
       <c r="B46" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C46" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E46">
         <v>43</v>
@@ -3642,10 +4249,10 @@
         <v>0</v>
       </c>
       <c r="K46" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="M46" s="4" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="N46" t="b">
         <v>1</v>
@@ -3654,12 +4261,12 @@
         <v>150</v>
       </c>
     </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:15">
       <c r="B47" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C47" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E47">
         <v>44</v>
@@ -3680,10 +4287,10 @@
         <v>0</v>
       </c>
       <c r="K47" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="M47" s="4" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="N47" t="b">
         <v>1</v>
@@ -3692,12 +4299,12 @@
         <v>150</v>
       </c>
     </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:15">
       <c r="B48" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C48" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E48">
         <v>45</v>
@@ -3718,10 +4325,10 @@
         <v>0</v>
       </c>
       <c r="K48" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="M48" s="4" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="N48" t="b">
         <v>1</v>
@@ -3730,12 +4337,12 @@
         <v>150</v>
       </c>
     </row>
-    <row r="49" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:15">
       <c r="B49" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C49" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E49">
         <v>46</v>
@@ -3756,7 +4363,7 @@
         <v>0</v>
       </c>
       <c r="K49" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="M49" s="4"/>
       <c r="N49" t="b">
@@ -3766,12 +4373,12 @@
         <v>150</v>
       </c>
     </row>
-    <row r="50" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:15">
       <c r="B50" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C50" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E50">
         <v>47</v>
@@ -3792,7 +4399,7 @@
         <v>0</v>
       </c>
       <c r="K50" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="M50" s="4"/>
       <c r="N50" t="b">
@@ -3802,12 +4409,12 @@
         <v>150</v>
       </c>
     </row>
-    <row r="51" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:15">
       <c r="B51" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C51" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E51">
         <v>48</v>
@@ -3828,7 +4435,7 @@
         <v>0</v>
       </c>
       <c r="K51" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="M51" s="4"/>
       <c r="N51" t="b">
@@ -3838,12 +4445,12 @@
         <v>150</v>
       </c>
     </row>
-    <row r="52" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:15">
       <c r="B52" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C52" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E52">
         <v>49</v>
@@ -3864,7 +4471,7 @@
         <v>0</v>
       </c>
       <c r="K52" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="M52" s="4"/>
       <c r="N52" t="b">
@@ -3874,12 +4481,12 @@
         <v>150</v>
       </c>
     </row>
-    <row r="53" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:15">
       <c r="B53" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C53" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E53">
         <v>50</v>
@@ -3900,7 +4507,7 @@
         <v>0</v>
       </c>
       <c r="K53" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="M53" s="4"/>
       <c r="N53" t="b">
@@ -3910,12 +4517,12 @@
         <v>150</v>
       </c>
     </row>
-    <row r="54" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:15">
       <c r="B54" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C54" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E54">
         <v>51</v>
@@ -3936,7 +4543,7 @@
         <v>0</v>
       </c>
       <c r="K54" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="M54" s="4"/>
       <c r="N54" t="b">
@@ -3946,12 +4553,12 @@
         <v>150</v>
       </c>
     </row>
-    <row r="55" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:15">
       <c r="B55" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C55" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E55">
         <v>52</v>
@@ -3972,7 +4579,7 @@
         <v>0</v>
       </c>
       <c r="K55" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="M55" s="4"/>
       <c r="N55" t="b">
@@ -3982,12 +4589,12 @@
         <v>150</v>
       </c>
     </row>
-    <row r="56" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:15">
       <c r="B56" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C56" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E56">
         <v>53</v>
@@ -4008,7 +4615,7 @@
         <v>0</v>
       </c>
       <c r="K56" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="M56" s="4"/>
       <c r="N56" t="b">
@@ -4018,12 +4625,12 @@
         <v>150</v>
       </c>
     </row>
-    <row r="57" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:15">
       <c r="B57" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C57" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E57">
         <v>54</v>
@@ -4044,7 +4651,7 @@
         <v>0</v>
       </c>
       <c r="K57" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="M57" s="4"/>
       <c r="N57" t="b">
@@ -4054,12 +4661,12 @@
         <v>150</v>
       </c>
     </row>
-    <row r="58" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="58" ht="28.5" spans="2:15">
       <c r="B58" t="s">
-        <v>166</v>
-      </c>
-      <c r="C58" t="s">
         <v>167</v>
+      </c>
+      <c r="C58" s="6" t="s">
+        <v>168</v>
       </c>
       <c r="E58">
         <v>55</v>
@@ -4080,10 +4687,10 @@
         <v>0</v>
       </c>
       <c r="K58" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L58" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="N58" t="b">
         <v>1</v>
@@ -4092,12 +4699,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="59" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:15">
       <c r="B59" t="s">
-        <v>169</v>
-      </c>
-      <c r="C59" t="s">
         <v>170</v>
+      </c>
+      <c r="C59" s="6" t="s">
+        <v>171</v>
       </c>
       <c r="E59">
         <v>56</v>
@@ -4118,10 +4725,10 @@
         <v>0</v>
       </c>
       <c r="K59" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L59" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="N59" t="b">
         <v>1</v>
@@ -4130,12 +4737,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="60" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="60" ht="28.5" spans="2:15">
       <c r="B60" t="s">
-        <v>172</v>
-      </c>
-      <c r="C60" t="s">
         <v>173</v>
+      </c>
+      <c r="C60" s="6" t="s">
+        <v>174</v>
       </c>
       <c r="E60">
         <v>57</v>
@@ -4156,10 +4763,10 @@
         <v>0</v>
       </c>
       <c r="K60" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L60" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="N60" t="b">
         <v>1</v>
@@ -4168,12 +4775,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="61" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:15">
       <c r="B61" t="s">
-        <v>175</v>
-      </c>
-      <c r="C61" t="s">
         <v>176</v>
+      </c>
+      <c r="C61" s="6" t="s">
+        <v>177</v>
       </c>
       <c r="E61">
         <v>58</v>
@@ -4194,10 +4801,10 @@
         <v>0</v>
       </c>
       <c r="K61" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L61" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="N61" t="b">
         <v>1</v>
@@ -4206,12 +4813,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="62" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:15">
       <c r="B62" t="s">
-        <v>178</v>
-      </c>
-      <c r="C62" t="s">
         <v>179</v>
+      </c>
+      <c r="C62" s="6" t="s">
+        <v>180</v>
       </c>
       <c r="E62">
         <v>59</v>
@@ -4232,10 +4839,10 @@
         <v>0</v>
       </c>
       <c r="K62" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L62" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="N62" t="b">
         <v>1</v>
@@ -4244,12 +4851,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="63" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="63" ht="28.5" spans="2:15">
       <c r="B63" t="s">
-        <v>181</v>
-      </c>
-      <c r="C63" t="s">
         <v>182</v>
+      </c>
+      <c r="C63" s="6" t="s">
+        <v>183</v>
       </c>
       <c r="E63">
         <v>60</v>
@@ -4270,10 +4877,10 @@
         <v>0</v>
       </c>
       <c r="K63" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L63" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="N63" t="b">
         <v>1</v>
@@ -4282,12 +4889,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="64" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:15">
       <c r="B64" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C64" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E64">
         <v>61</v>
@@ -4308,10 +4915,10 @@
         <v>0</v>
       </c>
       <c r="K64" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="M64" s="4" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="N64" t="b">
         <v>1</v>
@@ -4320,12 +4927,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:15">
       <c r="B65" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C65" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E65">
         <v>62</v>
@@ -4346,10 +4953,10 @@
         <v>0</v>
       </c>
       <c r="K65" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="M65" s="4" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="N65" t="b">
         <v>1</v>
@@ -4358,12 +4965,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:15">
       <c r="B66" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C66" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E66">
         <v>63</v>
@@ -4384,10 +4991,10 @@
         <v>0</v>
       </c>
       <c r="K66" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M66" s="4" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="N66" t="b">
         <v>1</v>
@@ -4396,12 +5003,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:15">
       <c r="B67" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C67" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E67">
         <v>64</v>
@@ -4422,10 +5029,10 @@
         <v>0</v>
       </c>
       <c r="K67" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M67" s="4" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="N67" t="b">
         <v>1</v>
@@ -4434,12 +5041,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:15">
       <c r="B68" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C68" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E68">
         <v>65</v>
@@ -4460,10 +5067,10 @@
         <v>0</v>
       </c>
       <c r="K68" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M68" s="4" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="N68" t="b">
         <v>1</v>
@@ -4472,12 +5079,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:15">
       <c r="B69" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C69" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E69">
         <v>66</v>
@@ -4498,10 +5105,10 @@
         <v>0</v>
       </c>
       <c r="K69" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M69" s="4" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="N69" t="b">
         <v>1</v>
@@ -4510,12 +5117,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:15">
       <c r="B70" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C70" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E70">
         <v>67</v>
@@ -4536,10 +5143,10 @@
         <v>0</v>
       </c>
       <c r="K70" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M70" s="4" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="N70" t="b">
         <v>1</v>
@@ -4548,12 +5155,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:15">
       <c r="B71" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C71" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E71">
         <v>68</v>
@@ -4574,10 +5181,10 @@
         <v>0</v>
       </c>
       <c r="K71" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M71" s="4" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="N71" t="b">
         <v>1</v>
@@ -4586,12 +5193,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:15">
       <c r="B72" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C72" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E72">
         <v>69</v>
@@ -4612,7 +5219,7 @@
         <v>0</v>
       </c>
       <c r="K72" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="N72" t="b">
         <v>1</v>
@@ -4621,12 +5228,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:15">
       <c r="B73" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C73" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E73">
         <v>70</v>
@@ -4647,7 +5254,7 @@
         <v>0</v>
       </c>
       <c r="K73" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="N73" t="b">
         <v>1</v>
@@ -4656,12 +5263,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:15">
       <c r="B74" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C74" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E74">
         <v>71</v>
@@ -4682,7 +5289,7 @@
         <v>0</v>
       </c>
       <c r="K74" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="N74" t="b">
         <v>1</v>
@@ -4691,12 +5298,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:15">
       <c r="B75" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C75" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E75">
         <v>72</v>
@@ -4717,7 +5324,7 @@
         <v>0</v>
       </c>
       <c r="K75" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="N75" t="b">
         <v>1</v>
@@ -4726,12 +5333,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:15">
       <c r="B76" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C76" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="E76">
         <v>73</v>
@@ -4752,7 +5359,7 @@
         <v>0</v>
       </c>
       <c r="K76" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="N76" t="b">
         <v>1</v>
@@ -4761,12 +5368,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:15">
       <c r="B77" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C77" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E77">
         <v>74</v>
@@ -4787,7 +5394,7 @@
         <v>0</v>
       </c>
       <c r="K77" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="N77" t="b">
         <v>1</v>
@@ -4796,12 +5403,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="78" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:15">
       <c r="B78" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C78" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="E78">
         <v>75</v>
@@ -4822,7 +5429,7 @@
         <v>0</v>
       </c>
       <c r="K78" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="N78" t="b">
         <v>1</v>
@@ -4831,12 +5438,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:15">
       <c r="B79" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C79" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E79">
         <v>76</v>
@@ -4857,7 +5464,7 @@
         <v>0</v>
       </c>
       <c r="K79" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="N79" t="b">
         <v>1</v>
@@ -4866,12 +5473,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15">
       <c r="B80" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C80" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="E80">
         <v>77</v>
@@ -4892,7 +5499,7 @@
         <v>0</v>
       </c>
       <c r="K80" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="N80" t="b">
         <v>1</v>
@@ -4901,12 +5508,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="81" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:15">
       <c r="B81" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C81" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E81">
         <v>78</v>
@@ -4927,7 +5534,7 @@
         <v>0</v>
       </c>
       <c r="K81" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="N81" t="b">
         <v>1</v>
@@ -4936,12 +5543,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="82" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:15">
       <c r="B82" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C82" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E82">
         <v>79</v>
@@ -4962,7 +5569,7 @@
         <v>0</v>
       </c>
       <c r="K82" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="N82" t="b">
         <v>1</v>
@@ -4971,12 +5578,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="83" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="83" spans="2:15">
       <c r="B83" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C83" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E83">
         <v>80</v>
@@ -4997,7 +5604,7 @@
         <v>0</v>
       </c>
       <c r="K83" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="N83" t="b">
         <v>1</v>
@@ -5006,12 +5613,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="84" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="84" spans="2:15">
       <c r="B84" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C84" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E84">
         <v>81</v>
@@ -5032,7 +5639,7 @@
         <v>0</v>
       </c>
       <c r="K84" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="N84" t="b">
         <v>1</v>
@@ -5041,12 +5648,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="85" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="85" spans="2:15">
       <c r="B85" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C85" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E85">
         <v>82</v>
@@ -5067,7 +5674,7 @@
         <v>0</v>
       </c>
       <c r="K85" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="N85" t="b">
         <v>1</v>
@@ -5076,12 +5683,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="86" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="86" spans="2:15">
       <c r="B86" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C86" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E86">
         <v>83</v>
@@ -5102,7 +5709,7 @@
         <v>0</v>
       </c>
       <c r="K86" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="N86" t="b">
         <v>1</v>
@@ -5111,12 +5718,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="87" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="87" spans="2:15">
       <c r="B87" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C87" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E87">
         <v>84</v>
@@ -5137,7 +5744,7 @@
         <v>0</v>
       </c>
       <c r="K87" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="N87" t="b">
         <v>1</v>
@@ -5146,12 +5753,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="88" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="88" spans="2:15">
       <c r="B88" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C88" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E88">
         <v>85</v>
@@ -5172,7 +5779,7 @@
         <v>0</v>
       </c>
       <c r="K88" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="N88" t="b">
         <v>1</v>
@@ -5181,12 +5788,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="89" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="89" spans="2:15">
       <c r="B89" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C89" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="E89">
         <v>86</v>
@@ -5207,7 +5814,7 @@
         <v>0</v>
       </c>
       <c r="K89" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="N89" t="b">
         <v>1</v>
@@ -5216,12 +5823,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="90" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="90" spans="2:15">
       <c r="B90" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C90" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="E90">
         <v>87</v>
@@ -5242,7 +5849,7 @@
         <v>0</v>
       </c>
       <c r="K90" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="N90" t="b">
         <v>1</v>
@@ -5251,12 +5858,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="91" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="91" spans="2:15">
       <c r="B91" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C91" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="E91">
         <v>88</v>
@@ -5277,7 +5884,7 @@
         <v>0</v>
       </c>
       <c r="K91" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="N91" t="b">
         <v>1</v>
@@ -5286,12 +5893,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="92" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="92" spans="2:15">
       <c r="B92" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C92" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="E92">
         <v>89</v>
@@ -5312,7 +5919,7 @@
         <v>0</v>
       </c>
       <c r="K92" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="N92" t="b">
         <v>1</v>
@@ -5321,12 +5928,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="93" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="93" spans="2:15">
       <c r="B93" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C93" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="E93">
         <v>90</v>
@@ -5347,7 +5954,7 @@
         <v>0</v>
       </c>
       <c r="K93" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="N93" t="b">
         <v>1</v>
@@ -5356,12 +5963,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="94" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="94" spans="2:15">
       <c r="B94" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C94" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="E94">
         <v>91</v>
@@ -5382,7 +5989,7 @@
         <v>0</v>
       </c>
       <c r="K94" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="N94" t="b">
         <v>1</v>
@@ -5391,12 +5998,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="95" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="95" spans="2:15">
       <c r="B95" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C95" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="E95">
         <v>92</v>
@@ -5417,7 +6024,7 @@
         <v>0</v>
       </c>
       <c r="K95" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="N95" t="b">
         <v>1</v>
@@ -5426,12 +6033,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="96" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="96" spans="2:15">
       <c r="B96" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C96" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="E96">
         <v>93</v>
@@ -5452,7 +6059,7 @@
         <v>0</v>
       </c>
       <c r="K96" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="N96" t="b">
         <v>1</v>
@@ -5461,12 +6068,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="97" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="97" spans="2:15">
       <c r="B97" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C97" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E97">
         <v>94</v>
@@ -5487,7 +6094,7 @@
         <v>0</v>
       </c>
       <c r="K97" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="N97" t="b">
         <v>1</v>
@@ -5496,12 +6103,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="98" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="98" spans="2:15">
       <c r="B98" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C98" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E98">
         <v>95</v>
@@ -5522,7 +6129,7 @@
         <v>0</v>
       </c>
       <c r="K98" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="N98" t="b">
         <v>1</v>
@@ -5531,12 +6138,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="99" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="99" spans="2:15">
       <c r="B99" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C99" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="E99">
         <v>96</v>
@@ -5557,7 +6164,7 @@
         <v>0</v>
       </c>
       <c r="K99" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="N99" t="b">
         <v>1</v>
@@ -5566,12 +6173,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="100" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="100" spans="2:15">
       <c r="B100" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C100" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="E100">
         <v>97</v>
@@ -5592,7 +6199,7 @@
         <v>0</v>
       </c>
       <c r="K100" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="N100" t="b">
         <v>1</v>
@@ -5601,12 +6208,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="101" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="101" spans="2:15">
       <c r="B101" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C101" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="E101">
         <v>98</v>
@@ -5627,7 +6234,7 @@
         <v>0</v>
       </c>
       <c r="K101" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="N101" t="b">
         <v>1</v>
@@ -5636,12 +6243,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="102" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="102" spans="2:15">
       <c r="B102" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C102" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="E102">
         <v>99</v>
@@ -5662,7 +6269,7 @@
         <v>0</v>
       </c>
       <c r="K102" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="N102" t="b">
         <v>1</v>
@@ -5671,12 +6278,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="103" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="103" spans="2:15">
       <c r="B103" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C103" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="E103">
         <v>100</v>
@@ -5697,7 +6304,7 @@
         <v>0</v>
       </c>
       <c r="K103" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="N103" t="b">
         <v>1</v>
@@ -5706,12 +6313,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="104" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="104" spans="2:15">
       <c r="B104" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C104" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="E104">
         <v>101</v>
@@ -5732,7 +6339,7 @@
         <v>0</v>
       </c>
       <c r="K104" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="N104" t="b">
         <v>1</v>
@@ -5741,12 +6348,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="105" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="105" spans="2:15">
       <c r="B105" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C105" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E105">
         <v>102</v>
@@ -5767,7 +6374,7 @@
         <v>0</v>
       </c>
       <c r="K105" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="N105" t="b">
         <v>1</v>
@@ -5776,12 +6383,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="106" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="106" spans="2:15">
       <c r="B106" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C106" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E106">
         <v>103</v>
@@ -5802,7 +6409,7 @@
         <v>0</v>
       </c>
       <c r="K106" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="N106" t="b">
         <v>1</v>
@@ -5811,12 +6418,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="107" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="107" spans="2:15">
       <c r="B107" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C107" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="E107">
         <v>104</v>
@@ -5837,7 +6444,7 @@
         <v>0</v>
       </c>
       <c r="K107" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="N107" t="b">
         <v>1</v>
@@ -5846,12 +6453,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="108" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="108" spans="2:15">
       <c r="B108" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C108" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="E108">
         <v>105</v>
@@ -5872,7 +6479,7 @@
         <v>0</v>
       </c>
       <c r="K108" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="N108" t="b">
         <v>1</v>
@@ -5881,12 +6488,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="109" spans="2:15" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="109" ht="16.5" spans="2:15">
       <c r="B109" t="s">
-        <v>281</v>
-      </c>
-      <c r="C109" s="6" t="s">
         <v>282</v>
+      </c>
+      <c r="C109" s="7" t="s">
+        <v>283</v>
       </c>
       <c r="E109">
         <v>106</v>
@@ -5907,7 +6514,7 @@
         <v>0</v>
       </c>
       <c r="K109" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="N109" t="b">
         <v>1</v>
@@ -5916,12 +6523,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="110" spans="2:15" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="110" ht="16.5" spans="2:15">
       <c r="B110" t="s">
-        <v>283</v>
-      </c>
-      <c r="C110" s="6" t="s">
         <v>284</v>
+      </c>
+      <c r="C110" s="7" t="s">
+        <v>285</v>
       </c>
       <c r="E110">
         <v>107</v>
@@ -5942,7 +6549,7 @@
         <v>0</v>
       </c>
       <c r="K110" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="N110" t="b">
         <v>1</v>
@@ -5951,12 +6558,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="111" spans="2:15" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="111" ht="17.25" spans="2:15">
       <c r="B111" t="s">
-        <v>285</v>
-      </c>
-      <c r="C111" s="6" t="s">
         <v>286</v>
+      </c>
+      <c r="C111" s="7" t="s">
+        <v>287</v>
       </c>
       <c r="E111">
         <v>108</v>
@@ -5977,7 +6584,7 @@
         <v>0</v>
       </c>
       <c r="K111" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="N111" t="b">
         <v>1</v>
@@ -5986,12 +6593,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="112" spans="2:15" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="112" ht="16.5" spans="2:15">
       <c r="B112" t="s">
-        <v>287</v>
-      </c>
-      <c r="C112" s="7" t="s">
         <v>288</v>
+      </c>
+      <c r="C112" s="8" t="s">
+        <v>289</v>
       </c>
       <c r="E112">
         <v>109</v>
@@ -6012,10 +6619,10 @@
         <v>0</v>
       </c>
       <c r="K112" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="M112" s="4" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="N112" t="b">
         <v>1</v>
@@ -6024,12 +6631,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="113" spans="2:15" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="113" ht="16.5" spans="2:15">
       <c r="B113" t="s">
-        <v>289</v>
-      </c>
-      <c r="C113" s="6" t="s">
         <v>290</v>
+      </c>
+      <c r="C113" s="7" t="s">
+        <v>291</v>
       </c>
       <c r="E113">
         <v>110</v>
@@ -6050,10 +6657,10 @@
         <v>0</v>
       </c>
       <c r="K113" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="M113" s="4" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="N113" t="b">
         <v>1</v>
@@ -6062,12 +6669,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="114" spans="2:15" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="114" ht="16.5" spans="2:15">
       <c r="B114" t="s">
-        <v>291</v>
-      </c>
-      <c r="C114" s="6" t="s">
         <v>292</v>
+      </c>
+      <c r="C114" s="7" t="s">
+        <v>293</v>
       </c>
       <c r="E114">
         <v>111</v>
@@ -6088,10 +6695,10 @@
         <v>0</v>
       </c>
       <c r="K114" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="M114" s="4" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="N114" t="b">
         <v>1</v>
@@ -6100,12 +6707,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="115" spans="2:15" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="115" ht="16.5" spans="2:15">
       <c r="B115" t="s">
-        <v>293</v>
-      </c>
-      <c r="C115" s="6" t="s">
         <v>294</v>
+      </c>
+      <c r="C115" s="7" t="s">
+        <v>295</v>
       </c>
       <c r="E115">
         <v>112</v>
@@ -6126,10 +6733,10 @@
         <v>0</v>
       </c>
       <c r="K115" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M115" s="4" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="N115" t="b">
         <v>1</v>
@@ -6138,12 +6745,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="116" spans="2:15" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="116" ht="16.5" spans="2:15">
       <c r="B116" t="s">
-        <v>295</v>
-      </c>
-      <c r="C116" s="6" t="s">
         <v>296</v>
+      </c>
+      <c r="C116" s="7" t="s">
+        <v>297</v>
       </c>
       <c r="E116">
         <v>113</v>
@@ -6164,10 +6771,10 @@
         <v>0</v>
       </c>
       <c r="K116" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M116" s="4" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="N116" t="b">
         <v>1</v>
@@ -6176,12 +6783,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="117" spans="2:15" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="117" ht="17.25" spans="2:15">
       <c r="B117" t="s">
-        <v>297</v>
-      </c>
-      <c r="C117" s="8" t="s">
         <v>298</v>
+      </c>
+      <c r="C117" s="9" t="s">
+        <v>299</v>
       </c>
       <c r="E117">
         <v>114</v>
@@ -6202,10 +6809,10 @@
         <v>0</v>
       </c>
       <c r="K117" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M117" s="4" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="N117" t="b">
         <v>1</v>
@@ -6214,12 +6821,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="118" spans="2:15" ht="66" x14ac:dyDescent="0.2">
+    <row r="118" ht="66.75" spans="2:14">
       <c r="B118" t="s">
-        <v>299</v>
-      </c>
-      <c r="C118" s="7" t="s">
         <v>300</v>
+      </c>
+      <c r="C118" s="8" t="s">
+        <v>301</v>
       </c>
       <c r="E118">
         <v>115</v>
@@ -6240,21 +6847,21 @@
         <v>99</v>
       </c>
       <c r="K118" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="M118" s="4" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="N118" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="2:15" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="119" ht="17.25" spans="2:14">
       <c r="B119" t="s">
-        <v>302</v>
-      </c>
-      <c r="C119" s="7" t="s">
         <v>303</v>
+      </c>
+      <c r="C119" s="8" t="s">
+        <v>304</v>
       </c>
       <c r="E119">
         <v>116</v>
@@ -6275,21 +6882,21 @@
         <v>99</v>
       </c>
       <c r="K119" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="M119" s="4" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="N119" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="2:15" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="120" ht="17.25" spans="2:14">
       <c r="B120" t="s">
-        <v>305</v>
-      </c>
-      <c r="C120" s="9" t="s">
         <v>306</v>
+      </c>
+      <c r="C120" s="10" t="s">
+        <v>307</v>
       </c>
       <c r="E120">
         <v>117</v>
@@ -6310,21 +6917,21 @@
         <v>99</v>
       </c>
       <c r="K120" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="M120" s="4" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="N120" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="2:15" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="121" ht="16.5" spans="2:14">
       <c r="B121" t="s">
-        <v>308</v>
-      </c>
-      <c r="C121" s="7" t="s">
         <v>309</v>
+      </c>
+      <c r="C121" s="8" t="s">
+        <v>310</v>
       </c>
       <c r="E121">
         <v>118</v>
@@ -6345,21 +6952,21 @@
         <v>99</v>
       </c>
       <c r="K121" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="M121" s="4" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="N121" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="122" spans="2:14">
       <c r="B122" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C122" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="E122">
         <v>119</v>
@@ -6380,18 +6987,18 @@
         <v>0</v>
       </c>
       <c r="M122" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="N122" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="123" spans="2:14">
       <c r="B123" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C123" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="E123">
         <v>120</v>
@@ -6412,18 +7019,18 @@
         <v>0</v>
       </c>
       <c r="M123" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="N123" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="124" spans="2:14">
       <c r="B124" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C124" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="E124">
         <v>121</v>
@@ -6444,18 +7051,18 @@
         <v>0</v>
       </c>
       <c r="M124" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="N124" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="125" spans="2:14">
       <c r="B125" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C125" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="E125">
         <v>122</v>
@@ -6476,18 +7083,18 @@
         <v>0</v>
       </c>
       <c r="M125" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="N125" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="126" spans="2:14">
       <c r="B126" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C126" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="E126">
         <v>123</v>
@@ -6508,18 +7115,18 @@
         <v>0</v>
       </c>
       <c r="M126" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="N126" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="127" spans="2:14">
       <c r="B127" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C127" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="E127">
         <v>124</v>
@@ -6540,18 +7147,18 @@
         <v>0</v>
       </c>
       <c r="M127" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="N127" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="128" spans="2:14">
       <c r="B128" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C128" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="E128">
         <v>125</v>
@@ -6572,18 +7179,18 @@
         <v>0</v>
       </c>
       <c r="M128" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="N128" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="129" spans="2:14">
       <c r="B129" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C129" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="E129">
         <v>126</v>
@@ -6604,18 +7211,18 @@
         <v>0</v>
       </c>
       <c r="M129" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="N129" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="130" spans="2:14">
       <c r="B130" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C130" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="E130">
         <v>127</v>
@@ -6636,18 +7243,18 @@
         <v>0</v>
       </c>
       <c r="M130" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="N130" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="131" spans="2:14">
       <c r="B131" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C131" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="E131">
         <v>128</v>
@@ -6668,18 +7275,18 @@
         <v>0</v>
       </c>
       <c r="M131" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="N131" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="132" spans="2:14">
       <c r="B132" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C132" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="E132">
         <v>129</v>
@@ -6700,18 +7307,18 @@
         <v>0</v>
       </c>
       <c r="M132" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="N132" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="133" spans="2:14">
       <c r="B133" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C133" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="E133">
         <v>130</v>
@@ -6732,18 +7339,18 @@
         <v>0</v>
       </c>
       <c r="M133" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="N133" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="134" spans="2:14">
       <c r="B134" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C134" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="E134">
         <v>131</v>
@@ -6764,18 +7371,18 @@
         <v>0</v>
       </c>
       <c r="M134" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="N134" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="135" spans="2:14">
       <c r="B135" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C135" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="E135">
         <v>132</v>
@@ -6796,18 +7403,18 @@
         <v>0</v>
       </c>
       <c r="M135" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="N135" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="136" spans="2:14">
       <c r="B136" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C136" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="E136">
         <v>133</v>
@@ -6828,18 +7435,18 @@
         <v>0</v>
       </c>
       <c r="M136" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="N136" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="137" spans="2:14">
       <c r="B137" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C137" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="E137">
         <v>134</v>
@@ -6860,18 +7467,18 @@
         <v>0</v>
       </c>
       <c r="M137" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="N137" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="138" spans="2:14">
       <c r="B138" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C138" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="E138">
         <v>135</v>
@@ -6892,18 +7499,18 @@
         <v>0</v>
       </c>
       <c r="M138" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="N138" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="139" spans="2:14">
       <c r="B139" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C139" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="E139">
         <v>136</v>
@@ -6924,18 +7531,18 @@
         <v>0</v>
       </c>
       <c r="M139" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="N139" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="140" spans="2:14">
       <c r="B140" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C140" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="E140">
         <v>137</v>
@@ -6956,18 +7563,18 @@
         <v>0</v>
       </c>
       <c r="M140" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="N140" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="141" spans="2:14">
       <c r="B141" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C141" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="E141">
         <v>138</v>
@@ -6988,18 +7595,18 @@
         <v>0</v>
       </c>
       <c r="M141" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="N141" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="142" spans="2:14">
       <c r="B142" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C142" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="E142">
         <v>139</v>
@@ -7020,18 +7627,18 @@
         <v>0</v>
       </c>
       <c r="M142" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="N142" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="143" spans="2:14">
       <c r="B143" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C143" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="E143">
         <v>140</v>
@@ -7052,18 +7659,18 @@
         <v>0</v>
       </c>
       <c r="M143" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="N143" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="144" spans="2:14">
       <c r="B144" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C144" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="E144">
         <v>141</v>
@@ -7084,18 +7691,18 @@
         <v>0</v>
       </c>
       <c r="M144" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="N144" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="145" spans="2:14">
       <c r="B145" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C145" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="E145">
         <v>142</v>
@@ -7116,28 +7723,31 @@
         <v>0</v>
       </c>
       <c r="M145" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="N145" t="b">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:O145" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <autoFilter ref="A1:O145">
+    <extLst/>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
   <cols>
     <col min="2" max="2" width="23.875" customWidth="1"/>
     <col min="3" max="3" width="13.75" customWidth="1"/>
@@ -7146,28 +7756,28 @@
     <col min="6" max="6" width="9.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C1" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="D1" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>15</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C2" t="s">
         <v>17</v>
@@ -7178,23 +7788,23 @@
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C3" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="D3" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4">
       <c r="B4" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -7203,9 +7813,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:4">
       <c r="B5" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -7214,9 +7824,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:4">
       <c r="B6" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -7225,9 +7835,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:4">
       <c r="B7" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -7236,9 +7846,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:4">
       <c r="B8" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -7247,9 +7857,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:4">
       <c r="B9" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -7258,9 +7868,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:4">
       <c r="B10" s="5" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -7270,23 +7880,24 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:G42"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="J26" sqref="J26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
   <cols>
     <col min="2" max="2" width="17.625" customWidth="1"/>
-    <col min="3" max="3" width="14" customWidth="1"/>
+    <col min="3" max="3" width="25.375" customWidth="1"/>
     <col min="4" max="4" width="17.75" customWidth="1"/>
     <col min="5" max="5" width="26.125" customWidth="1"/>
     <col min="6" max="6" width="26.375" customWidth="1"/>
@@ -7294,30 +7905,30 @@
     <col min="8" max="8" width="21.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C1" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="D1" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="E1" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="F1" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -7328,10 +7939,10 @@
         <v>16</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>21</v>
@@ -7340,565 +7951,565 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="C3" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="D3" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="E3" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="F3" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="G3" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7">
       <c r="B4" s="3">
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="E4" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="G4" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7">
       <c r="B5" s="3">
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="E5" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="G5" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7">
       <c r="B6" s="3">
         <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="E6" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="G6" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7">
       <c r="B7" s="3">
         <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="E7" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="G7" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7">
       <c r="B8" s="3">
         <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="E8" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="G8" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7">
       <c r="B9" s="3">
         <v>6</v>
       </c>
       <c r="C9" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="E9" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="G9" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7">
       <c r="B10" s="3">
         <v>7</v>
       </c>
       <c r="C10" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="E10" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="G10" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7">
       <c r="B11" s="3">
         <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="E11" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G11" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7">
       <c r="B12" s="3">
         <v>9</v>
       </c>
       <c r="C12" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="F12" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="G12" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7">
       <c r="B13" s="3">
         <v>10</v>
       </c>
       <c r="C13" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="F13" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="G13" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7">
       <c r="B14" s="3">
         <v>11</v>
       </c>
       <c r="C14" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="F14" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="G14" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7">
       <c r="B15" s="3">
         <v>12</v>
       </c>
       <c r="C15" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="F15" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="G15" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7">
       <c r="B16" s="3">
         <v>13</v>
       </c>
       <c r="C16" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="F16" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="G16" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.2">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7">
       <c r="B17" s="3">
         <v>14</v>
       </c>
       <c r="C17" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="F17" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="G17" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.2">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7">
       <c r="B18" s="3">
         <v>15</v>
       </c>
       <c r="C18" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="F18" t="s">
+        <v>437</v>
+      </c>
+      <c r="G18" t="s">
         <v>436</v>
       </c>
-      <c r="G18" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="2:7">
       <c r="B19" s="3">
         <v>16</v>
       </c>
       <c r="C19" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="F19" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="G19" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.2">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7">
       <c r="B20" s="3">
         <v>17</v>
       </c>
       <c r="C20" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="F20" t="s">
+        <v>437</v>
+      </c>
+      <c r="G20" t="s">
         <v>436</v>
       </c>
-      <c r="G20" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="2:7">
       <c r="B21" s="3">
         <v>18</v>
       </c>
       <c r="C21" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="F21" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="G21" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.2">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7">
       <c r="B22" s="3">
         <v>19</v>
       </c>
       <c r="C22" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="F22" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="G22" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.2">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7">
       <c r="B23" s="3">
         <v>20</v>
       </c>
       <c r="C23" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="F23" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="G23" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.2">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7">
       <c r="B24" s="3">
         <v>21</v>
       </c>
       <c r="C24" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="F24" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G24" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.2">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7">
       <c r="B25" s="3">
         <v>22</v>
       </c>
       <c r="C25" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="F25" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G25" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.2">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7">
       <c r="B26" s="3">
         <v>23</v>
       </c>
       <c r="C26" t="s">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="F26" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G26" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.2">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7">
       <c r="B27" s="3">
         <v>24</v>
       </c>
       <c r="C27" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="F27" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="G27" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.2">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7">
       <c r="B28" s="3">
         <v>25</v>
       </c>
       <c r="C28" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="F28" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="G28" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.2">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7">
       <c r="B29" s="3">
         <v>26</v>
       </c>
       <c r="C29" t="s">
-        <v>441</v>
+        <v>450</v>
       </c>
       <c r="F29" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G29" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.2">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7">
       <c r="B30" s="3">
         <v>27</v>
       </c>
       <c r="C30" t="s">
-        <v>443</v>
+        <v>452</v>
       </c>
       <c r="F30" t="s">
-        <v>444</v>
+        <v>453</v>
       </c>
       <c r="G30" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.2">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7">
       <c r="B31" s="3">
         <v>28</v>
       </c>
       <c r="C31" t="s">
-        <v>445</v>
+        <v>455</v>
       </c>
       <c r="F31" t="s">
-        <v>446</v>
+        <v>456</v>
       </c>
       <c r="G31" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.2">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7">
       <c r="B32" s="3">
         <v>29</v>
       </c>
       <c r="C32" t="s">
-        <v>447</v>
+        <v>458</v>
       </c>
       <c r="G32" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.2">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7">
       <c r="B33" s="3">
         <v>30</v>
       </c>
       <c r="C33" t="s">
-        <v>448</v>
+        <v>459</v>
       </c>
       <c r="F33" t="s">
-        <v>449</v>
+        <v>460</v>
       </c>
       <c r="G33" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.2">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7">
       <c r="B34" s="3">
         <v>31</v>
       </c>
       <c r="C34" t="s">
-        <v>450</v>
+        <v>462</v>
       </c>
       <c r="F34" t="s">
-        <v>451</v>
+        <v>463</v>
       </c>
       <c r="G34" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.2">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7">
       <c r="B35" s="3">
         <v>32</v>
       </c>
       <c r="C35" t="s">
-        <v>447</v>
+        <v>458</v>
       </c>
       <c r="G35" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.2">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7">
       <c r="B36" s="3">
         <v>33</v>
       </c>
       <c r="C36" t="s">
-        <v>452</v>
+        <v>465</v>
       </c>
       <c r="F36" t="s">
-        <v>453</v>
+        <v>466</v>
       </c>
       <c r="G36" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.2">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7">
       <c r="B37" s="3">
         <v>34</v>
       </c>
       <c r="C37" t="s">
-        <v>454</v>
+        <v>468</v>
       </c>
       <c r="F37" t="s">
-        <v>455</v>
+        <v>469</v>
       </c>
       <c r="G37" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.2">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7">
       <c r="B38" s="3">
         <v>35</v>
       </c>
       <c r="C38" t="s">
-        <v>447</v>
+        <v>471</v>
       </c>
       <c r="G38" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.2">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="39" spans="2:7">
       <c r="B39" s="3">
         <v>71</v>
       </c>
       <c r="C39" t="s">
-        <v>456</v>
+        <v>472</v>
       </c>
       <c r="F39" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G39" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.2">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="40" spans="2:7">
       <c r="B40" s="3">
         <v>72</v>
       </c>
       <c r="C40" t="s">
-        <v>458</v>
+        <v>474</v>
       </c>
       <c r="E40" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="G40" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.2">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="41" spans="2:7">
       <c r="B41" s="3">
         <v>73</v>
       </c>
       <c r="C41" t="s">
-        <v>460</v>
+        <v>476</v>
       </c>
       <c r="E41" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G41" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.2">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="42" spans="2:7">
       <c r="B42" s="3">
         <v>74</v>
       </c>
       <c r="C42" t="s">
-        <v>462</v>
+        <v>478</v>
       </c>
       <c r="G42" t="s">
-        <v>462</v>
+        <v>478</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>